--- a/data/CALT.MI.xlsx
+++ b/data/CALT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="844">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80173277854919</t>
+    <t xml:space="preserve">1.80173289775848</t>
   </si>
   <si>
     <t xml:space="preserve">CALT.MI</t>
@@ -47,22 +47,22 @@
     <t xml:space="preserve">1.80949890613556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77843451499939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72407209873199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73494434356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71164619922638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70077359676361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63243210315704</t>
+    <t xml:space="preserve">1.77843487262726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72407162189484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73494446277618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71164608001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7007737159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63243222236633</t>
   </si>
   <si>
     <t xml:space="preserve">1.55244123935699</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">1.53768575191498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49031269550323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49885523319244</t>
+    <t xml:space="preserve">1.49031257629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49885511398315</t>
   </si>
   <si>
     <t xml:space="preserve">1.47555696964264</t>
@@ -89,112 +89,112 @@
     <t xml:space="preserve">1.46779096126556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47245073318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46002495288849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4343968629837</t>
+    <t xml:space="preserve">1.47245049476624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4600248336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43439674377441</t>
   </si>
   <si>
     <t xml:space="preserve">1.43672668933868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45070552825928</t>
+    <t xml:space="preserve">1.45070564746857</t>
   </si>
   <si>
     <t xml:space="preserve">1.4079921245575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38624691963196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39789605140686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39323651790619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43594980239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40566217899323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43284356594086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42119455337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43051373958588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48487627506256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4631313085556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49963176250458</t>
+    <t xml:space="preserve">1.38624680042267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39789617061615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3932363986969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43594992160797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40566229820251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43284368515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42119443416595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43051385879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48487651348114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46313118934631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49963212013245</t>
   </si>
   <si>
     <t xml:space="preserve">1.51749396324158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56875014305115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58272922039032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57962238788605</t>
+    <t xml:space="preserve">1.56875026226044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58272910118103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57962250709534</t>
   </si>
   <si>
     <t xml:space="preserve">1.60292088985443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59981429576874</t>
+    <t xml:space="preserve">1.59981441497803</t>
   </si>
   <si>
     <t xml:space="preserve">1.60758054256439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62155961990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66039001941681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66970944404602</t>
+    <t xml:space="preserve">1.62155950069427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66038990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66970920562744</t>
   </si>
   <si>
     <t xml:space="preserve">1.69300770759583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68524158000946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69145441055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67747533321381</t>
+    <t xml:space="preserve">1.68524134159088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6914541721344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6774754524231</t>
   </si>
   <si>
     <t xml:space="preserve">1.71630573272705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70543313026428</t>
+    <t xml:space="preserve">1.70543348789215</t>
   </si>
   <si>
     <t xml:space="preserve">1.64641106128693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64796423912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69611418247223</t>
+    <t xml:space="preserve">1.64796411991119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69611382484436</t>
   </si>
   <si>
     <t xml:space="preserve">1.72251880168915</t>
@@ -206,10 +206,10 @@
     <t xml:space="preserve">1.75047659873962</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75513637065887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75668978691101</t>
+    <t xml:space="preserve">1.75513625144958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75668966770172</t>
   </si>
   <si>
     <t xml:space="preserve">1.78620076179504</t>
@@ -221,16 +221,16 @@
     <t xml:space="preserve">1.7675621509552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77066850662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76290225982666</t>
+    <t xml:space="preserve">1.77066838741302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76290249824524</t>
   </si>
   <si>
     <t xml:space="preserve">1.73960411548615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74737000465393</t>
+    <t xml:space="preserve">1.74737012386322</t>
   </si>
   <si>
     <t xml:space="preserve">1.73028469085693</t>
@@ -239,19 +239,19 @@
     <t xml:space="preserve">1.74581682682037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70387995243073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70853960514069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73805069923401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76347041130066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74758315086365</t>
+    <t xml:space="preserve">1.70388007164001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7085394859314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7380508184433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7634699344635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74758291244507</t>
   </si>
   <si>
     <t xml:space="preserve">1.75552654266357</t>
@@ -263,28 +263,28 @@
     <t xml:space="preserve">1.76982498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75870406627655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7793573141098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78730070590973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7158088684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73487365245819</t>
+    <t xml:space="preserve">1.75870430469513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77935743331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78730082511902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71580898761749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73487329483032</t>
   </si>
   <si>
     <t xml:space="preserve">1.73169612884521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71422004699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6665586233139</t>
+    <t xml:space="preserve">1.71422028541565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66655874252319</t>
   </si>
   <si>
     <t xml:space="preserve">1.62048614025116</t>
@@ -293,34 +293,34 @@
     <t xml:space="preserve">1.61254262924194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57917952537537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.588711977005</t>
+    <t xml:space="preserve">1.57917964458466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58871185779572</t>
   </si>
   <si>
     <t xml:space="preserve">1.65067172050476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58632874488831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60936498641968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59665548801422</t>
+    <t xml:space="preserve">1.5863288640976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60936522483826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59665560722351</t>
   </si>
   <si>
     <t xml:space="preserve">1.54899418354034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53151822090149</t>
+    <t xml:space="preserve">1.53151845932007</t>
   </si>
   <si>
     <t xml:space="preserve">1.57997393608093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52516329288483</t>
+    <t xml:space="preserve">1.52516341209412</t>
   </si>
   <si>
     <t xml:space="preserve">1.53310680389404</t>
@@ -329,40 +329,40 @@
     <t xml:space="preserve">1.57282483577728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55693769454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66814744472504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65702652931213</t>
+    <t xml:space="preserve">1.55693757534027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66814732551575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65702664852142</t>
   </si>
   <si>
     <t xml:space="preserve">1.62842977046967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68403458595276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73010730743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.723752617836</t>
+    <t xml:space="preserve">1.68403470516205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73010718822479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72375237941742</t>
   </si>
   <si>
     <t xml:space="preserve">1.73963963985443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67609107494354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63637316226959</t>
+    <t xml:space="preserve">1.67609095573425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63637328147888</t>
   </si>
   <si>
     <t xml:space="preserve">1.6443167924881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69992184638977</t>
+    <t xml:space="preserve">1.69992172718048</t>
   </si>
   <si>
     <t xml:space="preserve">1.69515562057495</t>
@@ -371,70 +371,70 @@
     <t xml:space="preserve">1.63478469848633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60459911823273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62684106826782</t>
+    <t xml:space="preserve">1.60459923744202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62684118747711</t>
   </si>
   <si>
     <t xml:space="preserve">1.60301029682159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5807683467865</t>
+    <t xml:space="preserve">1.58076822757721</t>
   </si>
   <si>
     <t xml:space="preserve">1.59983289241791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64113938808441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61730885505676</t>
+    <t xml:space="preserve">1.6411395072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61730873584747</t>
   </si>
   <si>
     <t xml:space="preserve">1.63955068588257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6109539270401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58791768550873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57679677009583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56249809265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56329250335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59188938140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62525224685669</t>
+    <t xml:space="preserve">1.61095404624939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58791744709015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57679653167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56249833106995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56329262256622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5918892621994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62525236606598</t>
   </si>
   <si>
     <t xml:space="preserve">1.6331958770752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64272820949554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65226030349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55852651596069</t>
+    <t xml:space="preserve">1.64272797107697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6522604227066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5585263967514</t>
   </si>
   <si>
     <t xml:space="preserve">1.56488120555878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53072392940521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55296611785889</t>
+    <t xml:space="preserve">1.5307240486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55296587944031</t>
   </si>
   <si>
     <t xml:space="preserve">1.5640869140625</t>
@@ -446,61 +446,61 @@
     <t xml:space="preserve">1.66020405292511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64749419689178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62366354465485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62207496166229</t>
+    <t xml:space="preserve">1.6474940776825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62366342544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.622074842453</t>
   </si>
   <si>
     <t xml:space="preserve">1.63160717487335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65861535072327</t>
+    <t xml:space="preserve">1.65861523151398</t>
   </si>
   <si>
     <t xml:space="preserve">1.65384912490845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66497004032135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70945394039154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70786547660828</t>
+    <t xml:space="preserve">1.66497027873993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70945405960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7078652381897</t>
   </si>
   <si>
     <t xml:space="preserve">1.74599432945251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69197833538055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69833314418793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70627677440643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6935670375824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72534108161926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72851884365082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79842185974121</t>
+    <t xml:space="preserve">1.69197845458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69833302497864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70627665519714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69356679916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72534132003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72851860523224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79842174053192</t>
   </si>
   <si>
     <t xml:space="preserve">1.79524445533752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81113171577454</t>
+    <t xml:space="preserve">1.81113159656525</t>
   </si>
   <si>
     <t xml:space="preserve">1.81589770317078</t>
@@ -509,16 +509,16 @@
     <t xml:space="preserve">1.77141380310059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76823663711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80318808555603</t>
+    <t xml:space="preserve">1.76823627948761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80318820476532</t>
   </si>
   <si>
     <t xml:space="preserve">1.82543015480042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82701873779297</t>
+    <t xml:space="preserve">1.82701885700226</t>
   </si>
   <si>
     <t xml:space="preserve">1.85084939002991</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">1.83496236801147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81907510757446</t>
+    <t xml:space="preserve">1.81907546520233</t>
   </si>
   <si>
     <t xml:space="preserve">1.80001056194305</t>
@@ -536,106 +536,106 @@
     <t xml:space="preserve">1.80159938335419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8587931394577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86991405487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88897860050201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88580107688904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87468016147614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89374482631683</t>
+    <t xml:space="preserve">1.85879290103912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86991429328918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88897848129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88580131530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87467980384827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89374470710754</t>
   </si>
   <si>
     <t xml:space="preserve">1.88262355327606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92869639396667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94776058197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92393016815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92551898956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92075264453888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93663954734802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91916382312775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93346238136292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92234146595001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90645432472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439807415009</t>
+    <t xml:space="preserve">1.9286961555481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94776046276093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92393004894257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92551922798157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92075300216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93663942813873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91916394233704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93346273899078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9223415851593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90645444393158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9143979549408</t>
   </si>
   <si>
     <t xml:space="preserve">1.8921560049057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90963160991669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91757559776306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93822860717773</t>
+    <t xml:space="preserve">1.90963184833527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91757535934448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93822884559631</t>
   </si>
   <si>
     <t xml:space="preserve">2.02243041992188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97953546047211</t>
+    <t xml:space="preserve">1.97953510284424</t>
   </si>
   <si>
     <t xml:space="preserve">1.99383342266083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00177717208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99701070785522</t>
+    <t xml:space="preserve">2.00177693367004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99701106548309</t>
   </si>
   <si>
     <t xml:space="preserve">2.03990626335144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0637366771698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07326865196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08438992500305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08280181884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08756709098816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06532502174377</t>
+    <t xml:space="preserve">2.06373691558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07326912879944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08439040184021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0828013420105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08756756782532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06532549858093</t>
   </si>
   <si>
     <t xml:space="preserve">2.07803511619568</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">2.16901397705078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1934027671814</t>
+    <t xml:space="preserve">2.19340300559998</t>
   </si>
   <si>
     <t xml:space="preserve">2.16251015663147</t>
@@ -662,25 +662,25 @@
     <t xml:space="preserve">2.2519371509552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22754788398743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23079991340637</t>
+    <t xml:space="preserve">2.22754812240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23079967498779</t>
   </si>
   <si>
     <t xml:space="preserve">2.2064106464386</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24380707740784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23242568969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21941828727722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24218153953552</t>
+    <t xml:space="preserve">2.243807554245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23242592811584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2194185256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24218106269836</t>
   </si>
   <si>
     <t xml:space="preserve">2.1234872341156</t>
@@ -692,52 +692,52 @@
     <t xml:space="preserve">2.11373138427734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12511324882507</t>
+    <t xml:space="preserve">2.12511348724365</t>
   </si>
   <si>
     <t xml:space="preserve">2.12186121940613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14299869537354</t>
+    <t xml:space="preserve">2.14299845695496</t>
   </si>
   <si>
     <t xml:space="preserve">2.1381208896637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18689942359924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19665455818176</t>
+    <t xml:space="preserve">2.18689918518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19665479660034</t>
   </si>
   <si>
     <t xml:space="preserve">2.20315885543823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21128821372986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26494479179382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27632641792297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28933382034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28608202934265</t>
+    <t xml:space="preserve">2.21128845214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26494455337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27632617950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2893340587616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28608226776123</t>
   </si>
   <si>
     <t xml:space="preserve">2.27470064163208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29095983505249</t>
+    <t xml:space="preserve">2.29096007347107</t>
   </si>
   <si>
     <t xml:space="preserve">2.24543333053589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24055576324463</t>
+    <t xml:space="preserve">2.24055552482605</t>
   </si>
   <si>
     <t xml:space="preserve">2.21616649627686</t>
@@ -749,31 +749,31 @@
     <t xml:space="preserve">2.14137268066406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10234999656677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04218983650208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07308316230774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15438032150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13161683082581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1836473941803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14462494850159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11210584640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12673926353455</t>
+    <t xml:space="preserve">2.10234975814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04219007492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07308268547058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15438008308411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13161706924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18364715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14462447166443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11210560798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12673902511597</t>
   </si>
   <si>
     <t xml:space="preserve">2.15763211250305</t>
@@ -785,31 +785,31 @@
     <t xml:space="preserve">2.15600609779358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32510471343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30721926689148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29421186447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31697463989258</t>
+    <t xml:space="preserve">2.32510423660278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30721950531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29421162605286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31697511672974</t>
   </si>
   <si>
     <t xml:space="preserve">2.32185292243958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40640234947205</t>
+    <t xml:space="preserve">2.40640211105347</t>
   </si>
   <si>
     <t xml:space="preserve">2.40152430534363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41453194618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4129056930542</t>
+    <t xml:space="preserve">2.41453170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41290593147278</t>
   </si>
   <si>
     <t xml:space="preserve">2.47956967353821</t>
@@ -821,13 +821,13 @@
     <t xml:space="preserve">2.53647780418396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56899690628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57875227928162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58363008499146</t>
+    <t xml:space="preserve">2.56899666786194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5787525177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58363056182861</t>
   </si>
   <si>
     <t xml:space="preserve">2.61614942550659</t>
@@ -836,31 +836,31 @@
     <t xml:space="preserve">2.60151553153992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63403487205505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62590503692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58525657653809</t>
+    <t xml:space="preserve">2.63403511047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62590456008911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58525633811951</t>
   </si>
   <si>
     <t xml:space="preserve">2.59826397895813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59338593482971</t>
+    <t xml:space="preserve">2.59338617324829</t>
   </si>
   <si>
     <t xml:space="preserve">2.61777520179749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62753105163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60639357566833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60314178466797</t>
+    <t xml:space="preserve">2.62753129005432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60639333724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60314154624939</t>
   </si>
   <si>
     <t xml:space="preserve">2.60801959037781</t>
@@ -869,64 +869,64 @@
     <t xml:space="preserve">2.59176015853882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59013390541077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62102699279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64216446876526</t>
+    <t xml:space="preserve">2.59013438224792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62102723121643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64216470718384</t>
   </si>
   <si>
     <t xml:space="preserve">2.6470422744751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63240885734558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65029382705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70395040512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80963683128357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81288933753967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82427072525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7966296672821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80475950241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7738664150238</t>
+    <t xml:space="preserve">2.632408618927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65029430389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70395064353943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80963706970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81288909912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82427048683167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79662990570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80475926399231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77386617660522</t>
   </si>
   <si>
     <t xml:space="preserve">2.76411056518555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69744682312012</t>
+    <t xml:space="preserve">2.71533226966858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69744658470154</t>
   </si>
   <si>
     <t xml:space="preserve">2.68443894386292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69582056999207</t>
+    <t xml:space="preserve">2.69582080841064</t>
   </si>
   <si>
     <t xml:space="preserve">2.68281292915344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66655373573303</t>
+    <t xml:space="preserve">2.66655349731445</t>
   </si>
   <si>
     <t xml:space="preserve">2.65842390060425</t>
@@ -941,22 +941,22 @@
     <t xml:space="preserve">2.6242790222168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61940121650696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55273747444153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56411910057068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57550048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52509641647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48607349395752</t>
+    <t xml:space="preserve">2.61940145492554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55273723602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5641188621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57550072669983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52509617805481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4860737323761</t>
   </si>
   <si>
     <t xml:space="preserve">2.40802812576294</t>
@@ -965,16 +965,16 @@
     <t xml:space="preserve">2.388516664505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34461641311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36250138282776</t>
+    <t xml:space="preserve">2.34461617469788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36250162124634</t>
   </si>
   <si>
     <t xml:space="preserve">2.37388324737549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43729496002197</t>
+    <t xml:space="preserve">2.43729519844055</t>
   </si>
   <si>
     <t xml:space="preserve">2.45355439186096</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">2.43892121315002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44705057144165</t>
+    <t xml:space="preserve">2.44705080986023</t>
   </si>
   <si>
     <t xml:space="preserve">2.50395894050598</t>
@@ -992,82 +992,82 @@
     <t xml:space="preserve">2.52834820747375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72346162796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73159122467041</t>
+    <t xml:space="preserve">2.72346186637878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73159170150757</t>
   </si>
   <si>
     <t xml:space="preserve">2.56086730957031</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45518088340759</t>
+    <t xml:space="preserve">2.45518064498901</t>
   </si>
   <si>
     <t xml:space="preserve">2.47143983840942</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48769927024841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54460787773132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4958291053772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51208877563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52021813392639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33323454856873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39014267921448</t>
+    <t xml:space="preserve">2.48769950866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54460763931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49582958221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51208853721619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52021861076355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33323431015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3901424407959</t>
   </si>
   <si>
     <t xml:space="preserve">2.34136438369751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35762357711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3657534122467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34949374198914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30884528160095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20334362983704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17840003967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16177082061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17008566856384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09525489807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07862567901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14514207839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26985931396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37794780731201</t>
+    <t xml:space="preserve">2.35762405395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36575365066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34949398040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30884504318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20334339141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17839980125427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1617705821991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17008519172668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09525465965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07862591743469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14514183998108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.269859790802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37794756889343</t>
   </si>
   <si>
     <t xml:space="preserve">2.21997261047363</t>
@@ -1079,16 +1079,16 @@
     <t xml:space="preserve">2.22828698158264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2864887714386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21165823936462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25323033332825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27817392349243</t>
+    <t xml:space="preserve">2.28648853302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21165800094604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25323057174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27817416191101</t>
   </si>
   <si>
     <t xml:space="preserve">2.26154518127441</t>
@@ -1097,64 +1097,64 @@
     <t xml:space="preserve">2.18671464920044</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13682723045349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15345644950867</t>
+    <t xml:space="preserve">2.13682746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15345621109009</t>
   </si>
   <si>
     <t xml:space="preserve">2.11188387870789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12851285934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36131906509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35300469398499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3031177520752</t>
+    <t xml:space="preserve">2.12851309776306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36131882667542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35300421714783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30311751365662</t>
   </si>
   <si>
     <t xml:space="preserve">2.29480314254761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3280611038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31974673271179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3114321231842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23660159111023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39457726478577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1035692691803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12019848823547</t>
+    <t xml:space="preserve">2.32806086540222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31974625587463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31143188476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23660135269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39457702636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10356950759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12019824981689</t>
   </si>
   <si>
     <t xml:space="preserve">2.07031106948853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98716628551483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99548089504242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03705310821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04536771774292</t>
+    <t xml:space="preserve">1.98716640472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99548101425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03705334663391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04536819458008</t>
   </si>
   <si>
     <t xml:space="preserve">2.06199669837952</t>
@@ -1163,34 +1163,34 @@
     <t xml:space="preserve">2.08694052696228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87907803058624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88739264011383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91233575344086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86244893074036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84581971168518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89570689201355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83750545978546</t>
+    <t xml:space="preserve">1.87907767295837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88739228248596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91233563423157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86244869232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84581959247589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89570677280426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83750522136688</t>
   </si>
   <si>
     <t xml:space="preserve">1.79593288898468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76267468929291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77930390834808</t>
+    <t xml:space="preserve">1.76267457008362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77930402755737</t>
   </si>
   <si>
     <t xml:space="preserve">1.81256175041199</t>
@@ -1202,97 +1202,100 @@
     <t xml:space="preserve">1.80424726009369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82919096946716</t>
+    <t xml:space="preserve">1.82919073104858</t>
   </si>
   <si>
     <t xml:space="preserve">1.82087647914886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87076330184937</t>
+    <t xml:space="preserve">1.87076306343079</t>
   </si>
   <si>
     <t xml:space="preserve">1.92896485328674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93727934360504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90402150154114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94559371471405</t>
+    <t xml:space="preserve">1.93727958202362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90402126312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94559395313263</t>
   </si>
   <si>
     <t xml:space="preserve">1.97885203361511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05368232727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01210975646973</t>
+    <t xml:space="preserve">2.05368256568909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01210999488831</t>
   </si>
   <si>
     <t xml:space="preserve">2.09671592712402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08815789222717</t>
+    <t xml:space="preserve">2.08815765380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0453679561615</t>
   </si>
   <si>
     <t xml:space="preserve">2.06248378753662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07104206085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03680992126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01113557815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05392575263977</t>
+    <t xml:space="preserve">2.07104182243347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03680968284607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0111358165741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05392599105835</t>
   </si>
   <si>
     <t xml:space="preserve">2.11383199691772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13950610160828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13094806671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1737380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25076079368591</t>
+    <t xml:space="preserve">2.13950634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13094782829285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17373824119568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25076055526733</t>
   </si>
   <si>
     <t xml:space="preserve">2.24220204353333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1908540725708</t>
+    <t xml:space="preserve">2.19085431098938</t>
   </si>
   <si>
     <t xml:space="preserve">2.18229627609253</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2079701423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21652841567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19941258430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22508597373962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1566219329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31066632270813</t>
+    <t xml:space="preserve">2.20797038078308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21652793884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19941234588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22508645057678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15662240982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31066679954529</t>
   </si>
   <si>
     <t xml:space="preserve">2.30210876464844</t>
@@ -1301,13 +1304,13 @@
     <t xml:space="preserve">2.33634090423584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32778239250183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29355025291443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34489846229553</t>
+    <t xml:space="preserve">2.32778263092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29355049133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34489870071411</t>
   </si>
   <si>
     <t xml:space="preserve">2.35345673561096</t>
@@ -1319,7 +1322,7 @@
     <t xml:space="preserve">2.39624667167664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38768887519836</t>
+    <t xml:space="preserve">2.38768863677979</t>
   </si>
   <si>
     <t xml:space="preserve">2.40480494499207</t>
@@ -1331,28 +1334,28 @@
     <t xml:space="preserve">2.46471118927002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41336274147034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36201429367065</t>
+    <t xml:space="preserve">2.41336250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36201453208923</t>
   </si>
   <si>
     <t xml:space="preserve">2.37057280540466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37913060188293</t>
+    <t xml:space="preserve">2.37913084030151</t>
   </si>
   <si>
     <t xml:space="preserve">2.31922483444214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48182702064514</t>
+    <t xml:space="preserve">2.48182725906372</t>
   </si>
   <si>
     <t xml:space="preserve">2.5417332649231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50750136375427</t>
+    <t xml:space="preserve">2.50750088691711</t>
   </si>
   <si>
     <t xml:space="preserve">2.52461719512939</t>
@@ -1370,46 +1373,46 @@
     <t xml:space="preserve">2.59308123588562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56740760803223</t>
+    <t xml:space="preserve">2.56740713119507</t>
   </si>
   <si>
     <t xml:space="preserve">2.61019730567932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68721961975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64442944526672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58452343940735</t>
+    <t xml:space="preserve">2.68721985816956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6444296836853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58452320098877</t>
   </si>
   <si>
     <t xml:space="preserve">2.60163950920105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53317546844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43903684616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49038505554199</t>
+    <t xml:space="preserve">2.53317523002625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43903660774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49038529396057</t>
   </si>
   <si>
     <t xml:space="preserve">2.27643442153931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26787686347961</t>
+    <t xml:space="preserve">2.26787638664246</t>
   </si>
   <si>
     <t xml:space="preserve">2.12239003181458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94267165660858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95122945308685</t>
+    <t xml:space="preserve">1.94267141819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95122933387756</t>
   </si>
   <si>
     <t xml:space="preserve">1.74583697319031</t>
@@ -1421,79 +1424,79 @@
     <t xml:space="preserve">1.62602460384369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78006887435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70732581615448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70304691791534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68593084812164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83997535705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84853315353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81430089473724</t>
+    <t xml:space="preserve">1.78006899356842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70732593536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70304679870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68593072891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83997523784637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84853339195251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81430101394653</t>
   </si>
   <si>
     <t xml:space="preserve">1.87420749664307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93411362171173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07959985733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88276529312134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86564910411835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89132332801819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91699731349945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89988124370575</t>
+    <t xml:space="preserve">1.93411374092102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0796000957489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88276541233063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86564922332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89132356643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91699743270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89988136291504</t>
   </si>
   <si>
     <t xml:space="preserve">1.85709130764008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95978760719299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98546147346497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96834564208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9769035577774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02825140953064</t>
+    <t xml:space="preserve">1.95978772640228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98546171188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96834540367126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97690331935883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0282518863678</t>
   </si>
   <si>
     <t xml:space="preserve">2.10527396202087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16518044471741</t>
+    <t xml:space="preserve">2.16518020629883</t>
   </si>
   <si>
     <t xml:space="preserve">2.25931835174561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14806437492371</t>
+    <t xml:space="preserve">2.14806413650513</t>
   </si>
   <si>
     <t xml:space="preserve">2.15589737892151</t>
@@ -1502,13 +1505,13 @@
     <t xml:space="preserve">2.14709782600403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11189937591553</t>
+    <t xml:space="preserve">2.11189961433411</t>
   </si>
   <si>
     <t xml:space="preserve">2.05910205841064</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05030226707458</t>
+    <t xml:space="preserve">2.05030250549316</t>
   </si>
   <si>
     <t xml:space="preserve">2.02390360832214</t>
@@ -1535,19 +1538,19 @@
     <t xml:space="preserve">2.07670116424561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97110605239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95350682735443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96230673789978</t>
+    <t xml:space="preserve">1.97110629081726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95350706577301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96230661869049</t>
   </si>
   <si>
     <t xml:space="preserve">2.09430050849915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03270316123962</t>
+    <t xml:space="preserve">2.03270292282104</t>
   </si>
   <si>
     <t xml:space="preserve">2.16469717025757</t>
@@ -1556,13 +1559,13 @@
     <t xml:space="preserve">2.20869493484497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19989538192749</t>
+    <t xml:space="preserve">2.19989562034607</t>
   </si>
   <si>
     <t xml:space="preserve">2.24389338493347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28789091110229</t>
+    <t xml:space="preserve">2.28789114952087</t>
   </si>
   <si>
     <t xml:space="preserve">2.31429004669189</t>
@@ -1574,13 +1577,13 @@
     <t xml:space="preserve">2.41988492012024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43748426437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44628357887268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5166802406311</t>
+    <t xml:space="preserve">2.4374840259552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44628381729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51668000221252</t>
   </si>
   <si>
     <t xml:space="preserve">2.53427958488464</t>
@@ -1589,34 +1592,34 @@
     <t xml:space="preserve">2.56947779655457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56067824363708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58707690238953</t>
+    <t xml:space="preserve">2.56067848205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58707714080811</t>
   </si>
   <si>
     <t xml:space="preserve">2.60467624664307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52547979354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50788068771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61347603797913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68387246131897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66627311706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63987445831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67507290840149</t>
+    <t xml:space="preserve">2.52548003196716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50788044929504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61347579956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68387222290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66627287864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63987421989441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67507266998291</t>
   </si>
   <si>
     <t xml:space="preserve">2.65747356414795</t>
@@ -1625,7 +1628,7 @@
     <t xml:space="preserve">2.64867401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63107466697693</t>
+    <t xml:space="preserve">2.63107490539551</t>
   </si>
   <si>
     <t xml:space="preserve">2.62227511405945</t>
@@ -1637,31 +1640,31 @@
     <t xml:space="preserve">2.73666977882385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76306867599487</t>
+    <t xml:space="preserve">2.76306891441345</t>
   </si>
   <si>
     <t xml:space="preserve">2.80706667900085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79826664924622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72786998748779</t>
+    <t xml:space="preserve">2.79826688766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72787022590637</t>
   </si>
   <si>
     <t xml:space="preserve">2.81586599349976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83346509933472</t>
+    <t xml:space="preserve">2.8334653377533</t>
   </si>
   <si>
     <t xml:space="preserve">2.8774631023407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88626265525818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9478600025177</t>
+    <t xml:space="preserve">2.88626289367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94785976409912</t>
   </si>
   <si>
     <t xml:space="preserve">2.97425866127014</t>
@@ -1679,10 +1682,10 @@
     <t xml:space="preserve">2.9126615524292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85986399650574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84226512908936</t>
+    <t xml:space="preserve">2.85986423492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8422646522522</t>
   </si>
   <si>
     <t xml:space="preserve">2.85106444358826</t>
@@ -1694,19 +1697,19 @@
     <t xml:space="preserve">2.89506220817566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9566593170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93905997276306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93026065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0270562171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12385153770447</t>
+    <t xml:space="preserve">2.95665907859802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93906021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93026041984558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02705597877502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12385129928589</t>
   </si>
   <si>
     <t xml:space="preserve">3.15025019645691</t>
@@ -1724,16 +1727,16 @@
     <t xml:space="preserve">3.23824596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29984331130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26464486122131</t>
+    <t xml:space="preserve">3.29984307289124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26464462280273</t>
   </si>
   <si>
     <t xml:space="preserve">3.36144018173218</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34384083747864</t>
+    <t xml:space="preserve">3.34384107589722</t>
   </si>
   <si>
     <t xml:space="preserve">3.3526406288147</t>
@@ -1751,19 +1754,19 @@
     <t xml:space="preserve">3.52863240242004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55503106117249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49343395233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44063663482666</t>
+    <t xml:space="preserve">3.55503082275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49343371391296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4406361579895</t>
   </si>
   <si>
     <t xml:space="preserve">3.41423749923706</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39663815498352</t>
+    <t xml:space="preserve">3.3966383934021</t>
   </si>
   <si>
     <t xml:space="preserve">3.43216013908386</t>
@@ -1772,10 +1775,10 @@
     <t xml:space="preserve">3.44112133979797</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39631509780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.476966381073</t>
+    <t xml:space="preserve">3.39631485939026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47696661949158</t>
   </si>
   <si>
     <t xml:space="preserve">3.46800518035889</t>
@@ -1784,7 +1787,7 @@
     <t xml:space="preserve">3.4948890209198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52177286148071</t>
+    <t xml:space="preserve">3.52177262306213</t>
   </si>
   <si>
     <t xml:space="preserve">3.57554030418396</t>
@@ -1802,10 +1805,10 @@
     <t xml:space="preserve">3.73684287071228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72788119316101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79061055183411</t>
+    <t xml:space="preserve">3.72788143157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79061007499695</t>
   </si>
   <si>
     <t xml:space="preserve">3.74580383300781</t>
@@ -1814,19 +1817,19 @@
     <t xml:space="preserve">3.85333943367004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80853271484375</t>
+    <t xml:space="preserve">3.80853295326233</t>
   </si>
   <si>
     <t xml:space="preserve">3.92502951622009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95191264152527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83541631698608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76372623443604</t>
+    <t xml:space="preserve">3.95191311836243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83541679382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76372647285461</t>
   </si>
   <si>
     <t xml:space="preserve">3.78164887428284</t>
@@ -1838,34 +1841,34 @@
     <t xml:space="preserve">3.89814519882202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69203662872314</t>
+    <t xml:space="preserve">3.69203639030457</t>
   </si>
   <si>
     <t xml:space="preserve">3.81749415397644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70995879173279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71892023086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84437799453735</t>
+    <t xml:space="preserve">3.70995903015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71892046928406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8443775177002</t>
   </si>
   <si>
     <t xml:space="preserve">3.65619158744812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68307518959045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6203465461731</t>
+    <t xml:space="preserve">3.68307542800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62034630775452</t>
   </si>
   <si>
     <t xml:space="preserve">3.53969526290894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64723014831543</t>
+    <t xml:space="preserve">3.64723038673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.82645535469055</t>
@@ -1877,10 +1880,10 @@
     <t xml:space="preserve">3.79957127571106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7547652721405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01464128494263</t>
+    <t xml:space="preserve">3.75476551055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01464176177979</t>
   </si>
   <si>
     <t xml:space="preserve">3.96983528137207</t>
@@ -1898,7 +1901,7 @@
     <t xml:space="preserve">4.10425424575806</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1400990486145</t>
+    <t xml:space="preserve">4.14009857177734</t>
   </si>
   <si>
     <t xml:space="preserve">3.98775792121887</t>
@@ -1907,10 +1910,10 @@
     <t xml:space="preserve">3.91606783866882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90710639953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07737064361572</t>
+    <t xml:space="preserve">3.90710687637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07737016677856</t>
   </si>
   <si>
     <t xml:space="preserve">4.03256416320801</t>
@@ -1934,25 +1937,22 @@
     <t xml:space="preserve">4.08633136749268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77268767356873</t>
+    <t xml:space="preserve">3.7726879119873</t>
   </si>
   <si>
     <t xml:space="preserve">3.62930798530579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55761790275574</t>
+    <t xml:space="preserve">3.55761766433716</t>
   </si>
   <si>
     <t xml:space="preserve">3.54865670204163</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40527629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37839293479919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41423773765564</t>
+    <t xml:space="preserve">3.40527653694153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37839269638062</t>
   </si>
   <si>
     <t xml:space="preserve">3.36943125724792</t>
@@ -1976,10 +1976,10 @@
     <t xml:space="preserve">3.53073406219482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48592805862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3335862159729</t>
+    <t xml:space="preserve">3.48592782020569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33358645439148</t>
   </si>
   <si>
     <t xml:space="preserve">3.3515088558197</t>
@@ -1988,19 +1988,19 @@
     <t xml:space="preserve">3.27085757255554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23501253128052</t>
+    <t xml:space="preserve">3.2350127696991</t>
   </si>
   <si>
     <t xml:space="preserve">3.31566405296326</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26189637184143</t>
+    <t xml:space="preserve">3.26189661026001</t>
   </si>
   <si>
     <t xml:space="preserve">3.091632604599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18124508857727</t>
+    <t xml:space="preserve">3.18124485015869</t>
   </si>
   <si>
     <t xml:space="preserve">3.66515278816223</t>
@@ -2541,6 +2541,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.40000009536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38000011444092</t>
   </si>
 </sst>
 </file>
@@ -25286,7 +25289,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G862" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25312,7 +25315,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G863" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25338,7 +25341,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G864" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25390,7 +25393,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G866" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25416,7 +25419,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G867" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25442,7 +25445,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G868" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25468,7 +25471,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G869" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25494,7 +25497,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G870" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25520,7 +25523,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G871" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25546,7 +25549,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G872" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25572,7 +25575,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G873" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25598,7 +25601,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G874" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25624,7 +25627,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G875" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25650,7 +25653,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G876" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25676,7 +25679,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G877" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25702,7 +25705,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G878" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25728,7 +25731,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G879" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25806,7 +25809,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G882" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25832,7 +25835,7 @@
         <v>2.5</v>
       </c>
       <c r="G883" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25858,7 +25861,7 @@
         <v>2.5</v>
       </c>
       <c r="G884" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25884,7 +25887,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G885" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25910,7 +25913,7 @@
         <v>2.5</v>
       </c>
       <c r="G886" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25936,7 +25939,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G887" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25962,7 +25965,7 @@
         <v>2.5</v>
       </c>
       <c r="G888" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25988,7 +25991,7 @@
         <v>2.5</v>
       </c>
       <c r="G889" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26014,7 +26017,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G890" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26040,7 +26043,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G891" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26066,7 +26069,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G892" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26092,7 +26095,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G893" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26118,7 +26121,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G894" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26144,7 +26147,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G895" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26170,7 +26173,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G896" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26196,7 +26199,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G897" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26222,7 +26225,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G898" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26248,7 +26251,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G899" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26274,7 +26277,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G900" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26300,7 +26303,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G901" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26326,7 +26329,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G902" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26352,7 +26355,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G903" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26378,7 +26381,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26404,7 +26407,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G905" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26430,7 +26433,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G906" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26456,7 +26459,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G907" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26482,7 +26485,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G908" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26508,7 +26511,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G909" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26534,7 +26537,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G910" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26560,7 +26563,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G911" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26586,7 +26589,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G912" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26612,7 +26615,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G913" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26638,7 +26641,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G914" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26664,7 +26667,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G915" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26690,7 +26693,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G916" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26716,7 +26719,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G917" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26742,7 +26745,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G918" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26768,7 +26771,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G919" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26794,7 +26797,7 @@
         <v>2.75</v>
       </c>
       <c r="G920" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26820,7 +26823,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G921" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26846,7 +26849,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G922" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26872,7 +26875,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G923" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26898,7 +26901,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G924" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26924,7 +26927,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G925" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26950,7 +26953,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G926" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26976,7 +26979,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G927" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27002,7 +27005,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G928" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27028,7 +27031,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G929" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27054,7 +27057,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G930" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27080,7 +27083,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G931" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27106,7 +27109,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G932" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27132,7 +27135,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G933" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27158,7 +27161,7 @@
         <v>2.75</v>
       </c>
       <c r="G934" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27184,7 +27187,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G935" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27210,7 +27213,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G936" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27236,7 +27239,7 @@
         <v>2.75</v>
       </c>
       <c r="G937" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27262,7 +27265,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G938" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27288,7 +27291,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G939" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27314,7 +27317,7 @@
         <v>2.75</v>
       </c>
       <c r="G940" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27340,7 +27343,7 @@
         <v>2.75</v>
       </c>
       <c r="G941" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27366,7 +27369,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G942" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27392,7 +27395,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G943" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27418,7 +27421,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G944" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27444,7 +27447,7 @@
         <v>2.75</v>
       </c>
       <c r="G945" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27470,7 +27473,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G946" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27496,7 +27499,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G947" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27522,7 +27525,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G948" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27548,7 +27551,7 @@
         <v>2.75</v>
       </c>
       <c r="G949" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27574,7 +27577,7 @@
         <v>2.75</v>
       </c>
       <c r="G950" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27600,7 +27603,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G951" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27626,7 +27629,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G952" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27652,7 +27655,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G953" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27678,7 +27681,7 @@
         <v>2.75</v>
       </c>
       <c r="G954" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27704,7 +27707,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G955" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27730,7 +27733,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G956" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27756,7 +27759,7 @@
         <v>2.75</v>
       </c>
       <c r="G957" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -27782,7 +27785,7 @@
         <v>2.75</v>
       </c>
       <c r="G958" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -27808,7 +27811,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G959" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27834,7 +27837,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G960" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -27860,7 +27863,7 @@
         <v>2.75</v>
       </c>
       <c r="G961" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27886,7 +27889,7 @@
         <v>2.75</v>
       </c>
       <c r="G962" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27912,7 +27915,7 @@
         <v>2.75</v>
       </c>
       <c r="G963" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -27938,7 +27941,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G964" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27964,7 +27967,7 @@
         <v>2.75</v>
       </c>
       <c r="G965" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27990,7 +27993,7 @@
         <v>2.75</v>
       </c>
       <c r="G966" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28016,7 +28019,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G967" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28042,7 +28045,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G968" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28068,7 +28071,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G969" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28094,7 +28097,7 @@
         <v>2.75</v>
       </c>
       <c r="G970" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28120,7 +28123,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G971" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28146,7 +28149,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G972" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28172,7 +28175,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G973" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28198,7 +28201,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G974" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28224,7 +28227,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G975" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28250,7 +28253,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G976" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28276,7 +28279,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G977" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28302,7 +28305,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G978" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28328,7 +28331,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G979" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28354,7 +28357,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G980" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28380,7 +28383,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G981" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28406,7 +28409,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G982" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28432,7 +28435,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G983" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28458,7 +28461,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G984" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28484,7 +28487,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G985" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28510,7 +28513,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G986" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28536,7 +28539,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G987" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28562,7 +28565,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G988" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28588,7 +28591,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G989" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28614,7 +28617,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G990" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28640,7 +28643,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G991" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28666,7 +28669,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G992" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28692,7 +28695,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G993" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28718,7 +28721,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G994" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28744,7 +28747,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G995" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28770,7 +28773,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G996" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28796,7 +28799,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G997" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28822,7 +28825,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G998" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28848,7 +28851,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G999" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28874,7 +28877,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1000" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -28900,7 +28903,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1001" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -28926,7 +28929,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1002" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -28952,7 +28955,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1003" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -28978,7 +28981,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1004" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29004,7 +29007,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1005" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29030,7 +29033,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1006" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29056,7 +29059,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29082,7 +29085,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1008" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29108,7 +29111,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1009" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29134,7 +29137,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1010" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29160,7 +29163,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1011" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29186,7 +29189,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1012" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29212,7 +29215,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1013" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29238,7 +29241,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1014" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29264,7 +29267,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1015" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29290,7 +29293,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1016" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29316,7 +29319,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1017" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29342,7 +29345,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1018" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29368,7 +29371,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1019" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29394,7 +29397,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1020" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29420,7 +29423,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1021" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29446,7 +29449,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1022" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29472,7 +29475,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1023" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29498,7 +29501,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1024" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29524,7 +29527,7 @@
         <v>3</v>
       </c>
       <c r="G1025" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29550,7 +29553,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1026" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29576,7 +29579,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1027" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29602,7 +29605,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1028" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29628,7 +29631,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1029" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29654,7 +29657,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1030" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29680,7 +29683,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1031" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29706,7 +29709,7 @@
         <v>3</v>
       </c>
       <c r="G1032" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -29732,7 +29735,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1033" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29758,7 +29761,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1034" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29784,7 +29787,7 @@
         <v>3</v>
       </c>
       <c r="G1035" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29810,7 +29813,7 @@
         <v>3</v>
       </c>
       <c r="G1036" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -29836,7 +29839,7 @@
         <v>3</v>
       </c>
       <c r="G1037" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -29862,7 +29865,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1038" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -29888,7 +29891,7 @@
         <v>3</v>
       </c>
       <c r="G1039" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29914,7 +29917,7 @@
         <v>3</v>
       </c>
       <c r="G1040" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -29940,7 +29943,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -29966,7 +29969,7 @@
         <v>3</v>
       </c>
       <c r="G1042" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -29992,7 +29995,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1043" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30018,7 +30021,7 @@
         <v>3</v>
       </c>
       <c r="G1044" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30044,7 +30047,7 @@
         <v>3</v>
       </c>
       <c r="G1045" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30070,7 +30073,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1046" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30096,7 +30099,7 @@
         <v>3</v>
       </c>
       <c r="G1047" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30122,7 +30125,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1048" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30148,7 +30151,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1049" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30174,7 +30177,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1050" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30200,7 +30203,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1051" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30226,7 +30229,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1052" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30252,7 +30255,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1053" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30278,7 +30281,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1054" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30304,7 +30307,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1055" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30330,7 +30333,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1056" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30356,7 +30359,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1057" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30382,7 +30385,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1058" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30408,7 +30411,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G1059" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30434,7 +30437,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1060" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30460,7 +30463,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1061" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30486,7 +30489,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1062" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30512,7 +30515,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1063" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30538,7 +30541,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1064" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30564,7 +30567,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1065" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30590,7 +30593,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1066" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30616,7 +30619,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1067" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30642,7 +30645,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1068" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30668,7 +30671,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1069" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30694,7 +30697,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1070" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30720,7 +30723,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1071" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30746,7 +30749,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1072" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -30772,7 +30775,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1073" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30798,7 +30801,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1074" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -30824,7 +30827,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1075" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -30850,7 +30853,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1076" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30876,7 +30879,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1077" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30902,7 +30905,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1078" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -30928,7 +30931,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1079" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -30954,7 +30957,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1080" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30980,7 +30983,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1081" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31006,7 +31009,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1082" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31032,7 +31035,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1083" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31058,7 +31061,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1084" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31110,7 +31113,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1086" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31136,7 +31139,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1087" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31162,7 +31165,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1088" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31188,7 +31191,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1089" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31214,7 +31217,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1090" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31240,7 +31243,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1091" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31266,7 +31269,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1092" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31292,7 +31295,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1093" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31318,7 +31321,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1094" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31344,7 +31347,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1095" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31370,7 +31373,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1096" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31396,7 +31399,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1097" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31422,7 +31425,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1098" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31448,7 +31451,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1099" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31474,7 +31477,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1100" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31500,7 +31503,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1101" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31526,7 +31529,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1102" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31552,7 +31555,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1103" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31578,7 +31581,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1104" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31604,7 +31607,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1105" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31630,7 +31633,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1106" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31656,7 +31659,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1107" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31682,7 +31685,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1108" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31708,7 +31711,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1109" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31734,7 +31737,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1110" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31760,7 +31763,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1111" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31786,7 +31789,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1112" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31812,7 +31815,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1113" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31838,7 +31841,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1114" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -31864,7 +31867,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1115" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -31890,7 +31893,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1116" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -31916,7 +31919,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1117" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31942,7 +31945,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1118" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31968,7 +31971,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1119" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31994,7 +31997,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1120" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32020,7 +32023,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1121" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32046,7 +32049,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1122" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32124,7 +32127,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1125" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32150,7 +32153,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1126" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32202,7 +32205,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1128" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32228,7 +32231,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1129" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32254,7 +32257,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1130" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32306,7 +32309,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1132" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32332,7 +32335,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32358,7 +32361,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1134" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32384,7 +32387,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1135" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32410,7 +32413,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1136" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32436,7 +32439,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1137" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32462,7 +32465,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1138" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32488,7 +32491,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1139" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32514,7 +32517,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1140" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32540,7 +32543,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1141" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32566,7 +32569,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1142" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32592,7 +32595,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1143" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32618,7 +32621,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1144" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32644,7 +32647,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1145" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32670,7 +32673,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1146" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32696,7 +32699,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1147" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32722,7 +32725,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1148" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32748,7 +32751,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1149" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32774,7 +32777,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1150" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -32826,7 +32829,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1152" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -32904,7 +32907,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1155" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32956,7 +32959,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1157" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32982,7 +32985,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1158" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33008,7 +33011,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1159" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33034,7 +33037,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1160" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33060,7 +33063,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1161" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33086,7 +33089,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1162" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33112,7 +33115,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1163" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33138,7 +33141,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1164" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33164,7 +33167,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1165" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33190,7 +33193,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1166" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33216,7 +33219,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1167" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33242,7 +33245,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1168" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33268,7 +33271,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1169" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33294,7 +33297,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1170" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33320,7 +33323,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1171" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33346,7 +33349,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1172" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33372,7 +33375,7 @@
         <v>2.5</v>
       </c>
       <c r="G1173" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33398,7 +33401,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1174" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33424,7 +33427,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1175" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33450,7 +33453,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1176" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33476,7 +33479,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1177" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33502,7 +33505,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1178" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33528,7 +33531,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1179" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33554,7 +33557,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1180" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33580,7 +33583,7 @@
         <v>2.5</v>
       </c>
       <c r="G1181" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33606,7 +33609,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1182" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33632,7 +33635,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1183" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33658,7 +33661,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1184" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33684,7 +33687,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33736,7 +33739,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1187" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33762,7 +33765,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1188" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -33814,7 +33817,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1190" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -33840,7 +33843,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1191" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -33866,7 +33869,7 @@
         <v>2.5</v>
       </c>
       <c r="G1192" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -33892,7 +33895,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1193" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33918,7 +33921,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1194" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33944,7 +33947,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1195" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33970,7 +33973,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1196" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33996,7 +33999,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34022,7 +34025,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1198" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34048,7 +34051,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1199" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34074,7 +34077,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1200" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34100,7 +34103,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1201" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34126,7 +34129,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1202" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34152,7 +34155,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1203" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34178,7 +34181,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1204" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34204,7 +34207,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1205" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34230,7 +34233,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1206" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34256,7 +34259,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1207" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34282,7 +34285,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1208" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34308,7 +34311,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1209" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34334,7 +34337,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1210" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34360,7 +34363,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1211" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34386,7 +34389,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1212" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34412,7 +34415,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1213" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34438,7 +34441,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1214" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34464,7 +34467,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1215" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34490,7 +34493,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1216" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34516,7 +34519,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1217" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34542,7 +34545,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1218" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34568,7 +34571,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1219" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34594,7 +34597,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1220" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34620,7 +34623,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1221" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34646,7 +34649,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1222" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34672,7 +34675,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1223" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34698,7 +34701,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1224" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34724,7 +34727,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1225" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34750,7 +34753,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1226" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34776,7 +34779,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1227" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -34802,7 +34805,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1228" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -34828,7 +34831,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1229" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -34854,7 +34857,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1230" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -34880,7 +34883,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1231" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -34906,7 +34909,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1232" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34932,7 +34935,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1233" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34958,7 +34961,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1234" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34984,7 +34987,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1235" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35010,7 +35013,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1236" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35036,7 +35039,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1237" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35062,7 +35065,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1238" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35088,7 +35091,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1239" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35114,7 +35117,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1240" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35140,7 +35143,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1241" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35166,7 +35169,7 @@
         <v>2.5</v>
       </c>
       <c r="G1242" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35192,7 +35195,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1243" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35218,7 +35221,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1244" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35244,7 +35247,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1245" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35270,7 +35273,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1246" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35296,7 +35299,7 @@
         <v>2.75</v>
       </c>
       <c r="G1247" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35322,7 +35325,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G1248" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35348,7 +35351,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1249" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35374,7 +35377,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1250" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35400,7 +35403,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1251" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35426,7 +35429,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1252" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35452,7 +35455,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1253" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35478,7 +35481,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1254" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35504,7 +35507,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1255" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35530,7 +35533,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1256" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35556,7 +35559,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1257" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35582,7 +35585,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1258" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35608,7 +35611,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1259" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35634,7 +35637,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1260" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35660,7 +35663,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1261" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35686,7 +35689,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1262" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35712,7 +35715,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1263" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35738,7 +35741,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1264" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35764,7 +35767,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1265" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35790,7 +35793,7 @@
         <v>3</v>
       </c>
       <c r="G1266" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -35816,7 +35819,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1267" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -35842,7 +35845,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1268" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -35868,7 +35871,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1269" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -35894,7 +35897,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1270" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -35920,7 +35923,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1271" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35946,7 +35949,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1272" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35972,7 +35975,7 @@
         <v>3</v>
       </c>
       <c r="G1273" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35998,7 +36001,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1274" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36024,7 +36027,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1275" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36050,7 +36053,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1276" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36076,7 +36079,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1277" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36102,7 +36105,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1278" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36128,7 +36131,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1279" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36154,7 +36157,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1280" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36180,7 +36183,7 @@
         <v>3</v>
       </c>
       <c r="G1281" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36206,7 +36209,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1282" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36232,7 +36235,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1283" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36258,7 +36261,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1284" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36284,7 +36287,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1285" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36310,7 +36313,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1286" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36336,7 +36339,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1287" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36362,7 +36365,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1288" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36388,7 +36391,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1289" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36414,7 +36417,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1290" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36440,7 +36443,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1291" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36466,7 +36469,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1292" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36492,7 +36495,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1293" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36518,7 +36521,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1294" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36544,7 +36547,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1295" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36570,7 +36573,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1296" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36596,7 +36599,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1297" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36622,7 +36625,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1298" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -36648,7 +36651,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1299" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36674,7 +36677,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1300" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -36700,7 +36703,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1301" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36726,7 +36729,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1302" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36752,7 +36755,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1303" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36778,7 +36781,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1304" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36804,7 +36807,7 @@
         <v>3.25</v>
       </c>
       <c r="G1305" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36830,7 +36833,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1306" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36856,7 +36859,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1307" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36882,7 +36885,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1308" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36908,7 +36911,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1309" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36934,7 +36937,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1310" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36960,7 +36963,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1311" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36986,7 +36989,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1312" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37012,7 +37015,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1313" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37038,7 +37041,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1314" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37064,7 +37067,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1315" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37090,7 +37093,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1316" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37116,7 +37119,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1317" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37142,7 +37145,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1318" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37168,7 +37171,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1319" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37194,7 +37197,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1320" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37220,7 +37223,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1321" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37246,7 +37249,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1322" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37272,7 +37275,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1323" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37298,7 +37301,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1324" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37324,7 +37327,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1325" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37350,7 +37353,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1326" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37376,7 +37379,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1327" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37402,7 +37405,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1328" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37428,7 +37431,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1329" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37454,7 +37457,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1330" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37480,7 +37483,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1331" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37506,7 +37509,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1332" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37532,7 +37535,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1333" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37558,7 +37561,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1334" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37584,7 +37587,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1335" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37610,7 +37613,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1336" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37636,7 +37639,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1337" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -37662,7 +37665,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1338" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -37688,7 +37691,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1339" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -37714,7 +37717,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1340" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -37740,7 +37743,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1341" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37766,7 +37769,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1342" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37792,7 +37795,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1343" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37818,7 +37821,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1344" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37844,7 +37847,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1345" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37870,7 +37873,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1346" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37896,7 +37899,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1347" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37922,7 +37925,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1348" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -37948,7 +37951,7 @@
         <v>3.75</v>
       </c>
       <c r="G1349" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37974,7 +37977,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1350" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38000,7 +38003,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1351" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38026,7 +38029,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1352" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38052,7 +38055,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1353" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38078,7 +38081,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1354" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38104,7 +38107,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1355" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38130,7 +38133,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1356" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38156,7 +38159,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1357" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38182,7 +38185,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1358" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38208,7 +38211,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1359" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38234,7 +38237,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1360" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38260,7 +38263,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1361" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38286,7 +38289,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1362" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38312,7 +38315,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1363" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38338,7 +38341,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1364" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38364,7 +38367,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1365" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38390,7 +38393,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1366" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38416,7 +38419,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1367" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38442,7 +38445,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1368" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38468,7 +38471,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1369" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38494,7 +38497,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1370" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38520,7 +38523,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1371" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38546,7 +38549,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1372" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38572,7 +38575,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1373" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -38598,7 +38601,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1374" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -38624,7 +38627,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1375" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -38650,7 +38653,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1376" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -38676,7 +38679,7 @@
         <v>4</v>
       </c>
       <c r="G1377" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -38702,7 +38705,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1378" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -38728,7 +38731,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1379" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -38754,7 +38757,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1380" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38780,7 +38783,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1381" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38806,7 +38809,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1382" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38832,7 +38835,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1383" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38858,7 +38861,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1384" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38884,7 +38887,7 @@
         <v>4.25</v>
       </c>
       <c r="G1385" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38910,7 +38913,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G1386" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38936,7 +38939,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1387" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38962,7 +38965,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G1388" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38988,7 +38991,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1389" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39014,7 +39017,7 @@
         <v>4.25</v>
       </c>
       <c r="G1390" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39040,7 +39043,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1391" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39066,7 +39069,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1392" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39092,7 +39095,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1393" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39118,7 +39121,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1394" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39144,7 +39147,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1395" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39170,7 +39173,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1396" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39196,7 +39199,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1397" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39222,7 +39225,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1398" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39248,7 +39251,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1399" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39274,7 +39277,7 @@
         <v>4.25</v>
       </c>
       <c r="G1400" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39300,7 +39303,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1401" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39326,7 +39329,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1402" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39352,7 +39355,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1403" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39378,7 +39381,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1404" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39404,7 +39407,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1405" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39430,7 +39433,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1406" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39456,7 +39459,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1407" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39482,7 +39485,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1408" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39508,7 +39511,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1409" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39534,7 +39537,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1410" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39560,7 +39563,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1411" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39586,7 +39589,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1412" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39612,7 +39615,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1413" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39638,7 +39641,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1414" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39664,7 +39667,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1415" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39690,7 +39693,7 @@
         <v>4.25</v>
       </c>
       <c r="G1416" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39716,7 +39719,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1417" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39742,7 +39745,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1418" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39768,7 +39771,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G1419" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39794,7 +39797,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1420" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39820,7 +39823,7 @@
         <v>4.25</v>
       </c>
       <c r="G1421" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39846,7 +39849,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1422" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39872,7 +39875,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1423" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39898,7 +39901,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1424" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39924,7 +39927,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1425" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39950,7 +39953,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1426" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39976,7 +39979,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G1427" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40002,7 +40005,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1428" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40028,7 +40031,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1429" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40054,7 +40057,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1430" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40080,7 +40083,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1431" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40106,7 +40109,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1432" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40132,7 +40135,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1433" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40158,7 +40161,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1434" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40184,7 +40187,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1435" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40210,7 +40213,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1436" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40236,7 +40239,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1437" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40262,7 +40265,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1438" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40288,7 +40291,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1439" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40314,7 +40317,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1440" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40340,7 +40343,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1441" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40366,7 +40369,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1442" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40392,7 +40395,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G1443" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40418,7 +40421,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1444" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40444,7 +40447,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1445" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40470,7 +40473,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1446" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40496,7 +40499,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1447" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40522,7 +40525,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1448" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40548,7 +40551,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1449" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40574,7 +40577,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1450" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40600,7 +40603,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1451" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40626,7 +40629,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1452" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40652,7 +40655,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G1453" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40678,7 +40681,7 @@
         <v>4.25</v>
       </c>
       <c r="G1454" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -40704,7 +40707,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1455" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40730,7 +40733,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1456" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40756,7 +40759,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1457" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40782,7 +40785,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1458" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40808,7 +40811,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1459" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40834,7 +40837,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1460" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40860,7 +40863,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1461" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40886,7 +40889,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1462" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40912,7 +40915,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1463" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40938,7 +40941,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1464" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40964,7 +40967,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1465" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40990,7 +40993,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1466" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41016,7 +41019,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1467" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41042,7 +41045,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1468" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41068,7 +41071,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1469" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41094,7 +41097,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1470" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41120,7 +41123,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1471" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41146,7 +41149,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1472" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41172,7 +41175,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1473" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41198,7 +41201,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1474" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41224,7 +41227,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G1475" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41250,7 +41253,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1476" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41276,7 +41279,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1477" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41302,7 +41305,7 @@
         <v>4.5</v>
       </c>
       <c r="G1478" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41328,7 +41331,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1479" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41354,7 +41357,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1480" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41380,7 +41383,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1481" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41406,7 +41409,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1482" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41432,7 +41435,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1483" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41458,7 +41461,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1484" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41484,7 +41487,7 @@
         <v>4.5</v>
       </c>
       <c r="G1485" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41510,7 +41513,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1486" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41536,7 +41539,7 @@
         <v>4.5</v>
       </c>
       <c r="G1487" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41562,7 +41565,7 @@
         <v>4.5</v>
       </c>
       <c r="G1488" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41588,7 +41591,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G1489" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41614,7 +41617,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1490" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -41640,7 +41643,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G1491" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41666,7 +41669,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1492" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41692,7 +41695,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1493" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41718,7 +41721,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1494" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41744,7 +41747,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1495" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41770,7 +41773,7 @@
         <v>4.5</v>
       </c>
       <c r="G1496" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41796,7 +41799,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1497" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41822,7 +41825,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1498" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41848,7 +41851,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1499" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41874,7 +41877,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1500" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41900,7 +41903,7 @@
         <v>4.25</v>
       </c>
       <c r="G1501" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41926,7 +41929,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1502" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41952,7 +41955,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1503" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41978,7 +41981,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1504" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42004,7 +42007,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1505" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42030,7 +42033,7 @@
         <v>4.25</v>
       </c>
       <c r="G1506" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42056,7 +42059,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1507" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42082,7 +42085,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1508" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42108,7 +42111,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1509" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42134,7 +42137,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1510" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42160,7 +42163,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1511" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42186,7 +42189,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1512" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42212,7 +42215,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1513" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42238,7 +42241,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1514" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42264,7 +42267,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1515" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42290,7 +42293,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1516" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42316,7 +42319,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1517" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42342,7 +42345,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1518" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42368,7 +42371,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1519" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42394,7 +42397,7 @@
         <v>4</v>
       </c>
       <c r="G1520" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42420,7 +42423,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1521" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42446,7 +42449,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1522" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42472,7 +42475,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1523" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42498,7 +42501,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1524" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42524,7 +42527,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1525" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42550,7 +42553,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1526" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42576,7 +42579,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1527" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42602,7 +42605,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1528" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42628,7 +42631,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1529" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42654,7 +42657,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1530" t="s">
-        <v>646</v>
+        <v>583</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42680,7 +42683,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1531" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42758,7 +42761,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1534" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42784,7 +42787,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1535" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42810,7 +42813,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1536" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42836,7 +42839,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1537" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42914,7 +42917,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1540" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42940,7 +42943,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1541" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42966,7 +42969,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1542" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43018,7 +43021,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1544" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43044,7 +43047,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1545" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43096,7 +43099,7 @@
         <v>4</v>
       </c>
       <c r="G1547" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43148,7 +43151,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1549" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43226,7 +43229,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1552" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43252,7 +43255,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1553" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43278,7 +43281,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1554" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43304,7 +43307,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1555" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43330,7 +43333,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1556" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43356,7 +43359,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1557" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43382,7 +43385,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1558" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43460,7 +43463,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1561" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43486,7 +43489,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1562" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43798,7 +43801,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1574" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43850,7 +43853,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1576" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43876,7 +43879,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1577" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43902,7 +43905,7 @@
         <v>4</v>
       </c>
       <c r="G1578" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43928,7 +43931,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1579" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43954,7 +43957,7 @@
         <v>4</v>
       </c>
       <c r="G1580" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43980,7 +43983,7 @@
         <v>4</v>
       </c>
       <c r="G1581" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44006,7 +44009,7 @@
         <v>4</v>
       </c>
       <c r="G1582" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -44032,7 +44035,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1583" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44058,7 +44061,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1584" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44136,7 +44139,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1587" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44214,7 +44217,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1590" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44240,7 +44243,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1591" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44266,7 +44269,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1592" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44292,7 +44295,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1593" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44370,7 +44373,7 @@
         <v>4</v>
       </c>
       <c r="G1596" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44396,7 +44399,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1597" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44422,7 +44425,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1598" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44500,7 +44503,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1601" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44526,7 +44529,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1602" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44578,7 +44581,7 @@
         <v>4</v>
       </c>
       <c r="G1604" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44630,7 +44633,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1606" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44656,7 +44659,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1607" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44708,7 +44711,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1609" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44734,7 +44737,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1610" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44760,7 +44763,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1611" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44786,7 +44789,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1612" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44812,7 +44815,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1613" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44864,7 +44867,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1615" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44890,7 +44893,7 @@
         <v>4</v>
       </c>
       <c r="G1616" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44942,7 +44945,7 @@
         <v>4</v>
       </c>
       <c r="G1618" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44968,7 +44971,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1619" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44994,7 +44997,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1620" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45020,7 +45023,7 @@
         <v>4</v>
       </c>
       <c r="G1621" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45046,7 +45049,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1622" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45072,7 +45075,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1623" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45098,7 +45101,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1624" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46476,7 +46479,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1677" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46736,7 +46739,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1687" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46996,7 +46999,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1697" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -51208,7 +51211,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1859" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51390,7 +51393,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1866" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51546,7 +51549,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1872" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -58574,7 +58577,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6494907407</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>61883</v>
@@ -58595,6 +58598,32 @@
         <v>842</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.649537037</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>25778</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>5.40000009536743</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>5.34000015258789</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>5.40000009536743</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>5.38000011444092</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>843</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CALT.MI.xlsx
+++ b/data/CALT.MI.xlsx
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80173289775848</t>
+    <t xml:space="preserve">1.8017326593399</t>
   </si>
   <si>
     <t xml:space="preserve">CALT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80949890613556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77843487262726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72407162189484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73494446277618</t>
+    <t xml:space="preserve">1.80949902534485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77843475341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72407186031342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73494434356689</t>
   </si>
   <si>
     <t xml:space="preserve">1.71164608001709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7007737159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63243222236633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55244123935699</t>
+    <t xml:space="preserve">1.70077359676361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63243198394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55244112014771</t>
   </si>
   <si>
     <t xml:space="preserve">1.53613269329071</t>
@@ -74,13 +74,13 @@
     <t xml:space="preserve">1.53768575191498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49031257629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49885511398315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47555696964264</t>
+    <t xml:space="preserve">1.49031281471252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49885523319244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47555708885193</t>
   </si>
   <si>
     <t xml:space="preserve">1.47322714328766</t>
@@ -89,25 +89,25 @@
     <t xml:space="preserve">1.46779096126556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47245049476624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4600248336792</t>
+    <t xml:space="preserve">1.47245073318481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46002495288849</t>
   </si>
   <si>
     <t xml:space="preserve">1.43439674377441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43672668933868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45070564746857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4079921245575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38624680042267</t>
+    <t xml:space="preserve">1.4367264509201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45070552825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40799200534821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38624691963196</t>
   </si>
   <si>
     <t xml:space="preserve">1.39789617061615</t>
@@ -122,28 +122,28 @@
     <t xml:space="preserve">1.40566229820251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43284368515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42119443416595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43051385879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48487651348114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46313118934631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49963212013245</t>
+    <t xml:space="preserve">1.43284356594086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42119431495667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43051362037659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48487615585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4631313085556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49963188171387</t>
   </si>
   <si>
     <t xml:space="preserve">1.51749396324158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56875026226044</t>
+    <t xml:space="preserve">1.56875002384186</t>
   </si>
   <si>
     <t xml:space="preserve">1.58272910118103</t>
@@ -152,34 +152,34 @@
     <t xml:space="preserve">1.57962250709534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60292088985443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59981441497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60758054256439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62155950069427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66038990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66970920562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69300770759583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68524134159088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6914541721344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6774754524231</t>
+    <t xml:space="preserve">1.60292077064514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59981429576874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60758030414581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62155938148499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66039001941681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66970932483673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69300758838654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68524146080017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69145429134369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67747533321381</t>
   </si>
   <si>
     <t xml:space="preserve">1.71630573272705</t>
@@ -188,160 +188,160 @@
     <t xml:space="preserve">1.70543348789215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64641106128693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64796411991119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69611382484436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72251880168915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73183798789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75047659873962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75513625144958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75668966770172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78620076179504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80017971992493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7675621509552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77066838741302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76290249824524</t>
+    <t xml:space="preserve">1.64641094207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6479640007019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69611394405365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72251844406128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73183786869049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75047671794891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75513660907745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75668942928314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78620064258575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80017960071564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76756203174591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77066850662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76290237903595</t>
   </si>
   <si>
     <t xml:space="preserve">1.73960411548615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74737012386322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73028469085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74581682682037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70388007164001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7085394859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7380508184433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7634699344635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74758291244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75552654266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78571212291718</t>
+    <t xml:space="preserve">1.74737024307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73028445243835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74581694602966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70387983322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70853972434998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73805069923401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76347029209137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74758338928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75552678108215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78571200370789</t>
   </si>
   <si>
     <t xml:space="preserve">1.76982498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75870430469513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77935743331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78730082511902</t>
+    <t xml:space="preserve">1.75870406627655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77935755252838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78730118274689</t>
   </si>
   <si>
     <t xml:space="preserve">1.71580898761749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73487329483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73169612884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71422028541565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66655874252319</t>
+    <t xml:space="preserve">1.73487341403961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73169600963593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71422004699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66655886173248</t>
   </si>
   <si>
     <t xml:space="preserve">1.62048614025116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61254262924194</t>
+    <t xml:space="preserve">1.61254274845123</t>
   </si>
   <si>
     <t xml:space="preserve">1.57917964458466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58871185779572</t>
+    <t xml:space="preserve">1.588711977005</t>
   </si>
   <si>
     <t xml:space="preserve">1.65067172050476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5863288640976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60936522483826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59665560722351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54899418354034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53151845932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57997393608093</t>
+    <t xml:space="preserve">1.58632898330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60936510562897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59665548801422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54899442195892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53151822090149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57997405529022</t>
   </si>
   <si>
     <t xml:space="preserve">1.52516341209412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53310680389404</t>
+    <t xml:space="preserve">1.53310704231262</t>
   </si>
   <si>
     <t xml:space="preserve">1.57282483577728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55693757534027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66814732551575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65702664852142</t>
+    <t xml:space="preserve">1.55693769454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66814756393433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65702652931213</t>
   </si>
   <si>
     <t xml:space="preserve">1.62842977046967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68403470516205</t>
+    <t xml:space="preserve">1.68403446674347</t>
   </si>
   <si>
     <t xml:space="preserve">1.73010718822479</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">1.73963963985443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67609095573425</t>
+    <t xml:space="preserve">1.67609107494354</t>
   </si>
   <si>
     <t xml:space="preserve">1.63637328147888</t>
@@ -362,16 +362,16 @@
     <t xml:space="preserve">1.6443167924881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69992172718048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69515562057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63478469848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60459923744202</t>
+    <t xml:space="preserve">1.69992196559906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69515550136566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63478457927704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60459911823273</t>
   </si>
   <si>
     <t xml:space="preserve">1.62684118747711</t>
@@ -380,31 +380,31 @@
     <t xml:space="preserve">1.60301029682159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58076822757721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59983289241791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6411395072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61730873584747</t>
+    <t xml:space="preserve">1.5807683467865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59983277320862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64113938808441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61730885505676</t>
   </si>
   <si>
     <t xml:space="preserve">1.63955068588257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61095404624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58791744709015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57679653167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56249833106995</t>
+    <t xml:space="preserve">1.61095380783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58791756629944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57679665088654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56249821186066</t>
   </si>
   <si>
     <t xml:space="preserve">1.56329262256622</t>
@@ -416,10 +416,10 @@
     <t xml:space="preserve">1.62525236606598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6331958770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64272797107697</t>
+    <t xml:space="preserve">1.63319575786591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64272809028625</t>
   </si>
   <si>
     <t xml:space="preserve">1.6522604227066</t>
@@ -431,10 +431,10 @@
     <t xml:space="preserve">1.56488120555878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5307240486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55296587944031</t>
+    <t xml:space="preserve">1.53072381019592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55296611785889</t>
   </si>
   <si>
     <t xml:space="preserve">1.5640869140625</t>
@@ -449,31 +449,31 @@
     <t xml:space="preserve">1.6474940776825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62366342544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.622074842453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63160717487335</t>
+    <t xml:space="preserve">1.62366354465485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62207496166229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63160705566406</t>
   </si>
   <si>
     <t xml:space="preserve">1.65861523151398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65384912490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66497027873993</t>
+    <t xml:space="preserve">1.65384924411774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66497004032135</t>
   </si>
   <si>
     <t xml:space="preserve">1.70945405960083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7078652381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74599432945251</t>
+    <t xml:space="preserve">1.70786547660828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74599456787109</t>
   </si>
   <si>
     <t xml:space="preserve">1.69197845458984</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">1.70627665519714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69356679916382</t>
+    <t xml:space="preserve">1.69356691837311</t>
   </si>
   <si>
     <t xml:space="preserve">1.72534132003784</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">1.79842174053192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79524445533752</t>
+    <t xml:space="preserve">1.79524457454681</t>
   </si>
   <si>
     <t xml:space="preserve">1.81113159656525</t>
@@ -509,49 +509,49 @@
     <t xml:space="preserve">1.77141380310059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76823627948761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80318820476532</t>
+    <t xml:space="preserve">1.76823651790619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80318808555603</t>
   </si>
   <si>
     <t xml:space="preserve">1.82543015480042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82701885700226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85084939002991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83496236801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81907546520233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80001056194305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80159938335419</t>
+    <t xml:space="preserve">1.82701849937439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8508495092392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8349621295929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81907510757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80001080036163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8015992641449</t>
   </si>
   <si>
     <t xml:space="preserve">1.85879290103912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86991429328918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88897848129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88580131530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87467980384827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89374470710754</t>
+    <t xml:space="preserve">1.86991393566132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88897812366486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88580119609833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87467992305756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89374458789825</t>
   </si>
   <si>
     <t xml:space="preserve">1.88262355327606</t>
@@ -560,34 +560,34 @@
     <t xml:space="preserve">1.9286961555481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94776046276093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92393004894257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92551922798157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92075300216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93663942813873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91916394233704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93346273899078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9223415851593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90645444393158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9143979549408</t>
+    <t xml:space="preserve">1.94776082038879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92392992973328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92551898956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92075288295746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9366397857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91916418075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93346238136292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92234170436859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90645432472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439807415009</t>
   </si>
   <si>
     <t xml:space="preserve">1.8921560049057</t>
@@ -596,61 +596,61 @@
     <t xml:space="preserve">1.90963184833527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91757535934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93822884559631</t>
+    <t xml:space="preserve">1.9175751209259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93822860717773</t>
   </si>
   <si>
     <t xml:space="preserve">2.02243041992188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97953510284424</t>
+    <t xml:space="preserve">1.97953522205353</t>
   </si>
   <si>
     <t xml:space="preserve">1.99383342266083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00177693367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99701106548309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03990626335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06373691558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07326912879944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08439040184021</t>
+    <t xml:space="preserve">2.00177717208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9970109462738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03990602493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0637366771698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07326889038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08439016342163</t>
   </si>
   <si>
     <t xml:space="preserve">2.0828013420105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08756756782532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06532549858093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07803511619568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08121275901794</t>
+    <t xml:space="preserve">2.08756732940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06532526016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07803535461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08121228218079</t>
   </si>
   <si>
     <t xml:space="preserve">2.17063999176025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16901397705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19340300559998</t>
+    <t xml:space="preserve">2.1690137386322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1934027671814</t>
   </si>
   <si>
     <t xml:space="preserve">2.16251015663147</t>
@@ -662,25 +662,25 @@
     <t xml:space="preserve">2.2519371509552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22754812240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23079967498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2064106464386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.243807554245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23242592811584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2194185256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24218106269836</t>
+    <t xml:space="preserve">2.22754788398743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23079991340637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20641088485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24380707740784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23242568969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21941828727722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24218153953552</t>
   </si>
   <si>
     <t xml:space="preserve">2.1234872341156</t>
@@ -689,25 +689,25 @@
     <t xml:space="preserve">2.12999081611633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11373138427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12511348724365</t>
+    <t xml:space="preserve">2.11373114585876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12511324882507</t>
   </si>
   <si>
     <t xml:space="preserve">2.12186121940613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14299845695496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1381208896637</t>
+    <t xml:space="preserve">2.14299869537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13812065124512</t>
   </si>
   <si>
     <t xml:space="preserve">2.18689918518066</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19665479660034</t>
+    <t xml:space="preserve">2.19665455818176</t>
   </si>
   <si>
     <t xml:space="preserve">2.20315885543823</t>
@@ -716,10 +716,10 @@
     <t xml:space="preserve">2.21128845214844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26494455337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27632617950439</t>
+    <t xml:space="preserve">2.26494479179382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27632641792297</t>
   </si>
   <si>
     <t xml:space="preserve">2.2893340587616</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">2.27470064163208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29096007347107</t>
+    <t xml:space="preserve">2.29095983505249</t>
   </si>
   <si>
     <t xml:space="preserve">2.24543333053589</t>
@@ -740,13 +740,13 @@
     <t xml:space="preserve">2.24055552482605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21616649627686</t>
+    <t xml:space="preserve">2.21616625785828</t>
   </si>
   <si>
     <t xml:space="preserve">2.17551755905151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14137268066406</t>
+    <t xml:space="preserve">2.14137244224548</t>
   </si>
   <si>
     <t xml:space="preserve">2.10234975814819</t>
@@ -755,19 +755,19 @@
     <t xml:space="preserve">2.04219007492065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07308268547058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15438008308411</t>
+    <t xml:space="preserve">2.07308292388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15438032150269</t>
   </si>
   <si>
     <t xml:space="preserve">2.13161706924438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18364715576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14462447166443</t>
+    <t xml:space="preserve">2.1836473941803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14462494850159</t>
   </si>
   <si>
     <t xml:space="preserve">2.11210560798645</t>
@@ -779,85 +779,85 @@
     <t xml:space="preserve">2.15763211250305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1462504863739</t>
+    <t xml:space="preserve">2.14625072479248</t>
   </si>
   <si>
     <t xml:space="preserve">2.15600609779358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32510423660278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30721950531006</t>
+    <t xml:space="preserve">2.32510471343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30721926689148</t>
   </si>
   <si>
     <t xml:space="preserve">2.29421162605286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31697511672974</t>
+    <t xml:space="preserve">2.31697487831116</t>
   </si>
   <si>
     <t xml:space="preserve">2.32185292243958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40640211105347</t>
+    <t xml:space="preserve">2.40640234947205</t>
   </si>
   <si>
     <t xml:space="preserve">2.40152430534363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41453170776367</t>
+    <t xml:space="preserve">2.41453146934509</t>
   </si>
   <si>
     <t xml:space="preserve">2.41290593147278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47956967353821</t>
+    <t xml:space="preserve">2.47956943511963</t>
   </si>
   <si>
     <t xml:space="preserve">2.47631788253784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53647780418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56899666786194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5787525177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58363056182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61614942550659</t>
+    <t xml:space="preserve">2.53647756576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56899690628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57875227928162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58363032341003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61614918708801</t>
   </si>
   <si>
     <t xml:space="preserve">2.60151553153992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63403511047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62590456008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58525633811951</t>
+    <t xml:space="preserve">2.63403487205505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62590479850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58525657653809</t>
   </si>
   <si>
     <t xml:space="preserve">2.59826397895813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59338617324829</t>
+    <t xml:space="preserve">2.59338593482971</t>
   </si>
   <si>
     <t xml:space="preserve">2.61777520179749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62753129005432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60639333724976</t>
+    <t xml:space="preserve">2.62753081321716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60639381408691</t>
   </si>
   <si>
     <t xml:space="preserve">2.60314154624939</t>
@@ -869,34 +869,34 @@
     <t xml:space="preserve">2.59176015853882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59013438224792</t>
+    <t xml:space="preserve">2.59013414382935</t>
   </si>
   <si>
     <t xml:space="preserve">2.62102723121643</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64216470718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6470422744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.632408618927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65029430389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70395064353943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80963706970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81288909912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82427048683167</t>
+    <t xml:space="preserve">2.64216446876526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64704275131226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63240909576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65029406547546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70395040512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80963683128357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81288933753967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82427072525024</t>
   </si>
   <si>
     <t xml:space="preserve">2.79662990570068</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">2.80475926399231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77386617660522</t>
+    <t xml:space="preserve">2.77386665344238</t>
   </si>
   <si>
     <t xml:space="preserve">2.76411056518555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71533226966858</t>
+    <t xml:space="preserve">2.71533203125</t>
   </si>
   <si>
     <t xml:space="preserve">2.69744658470154</t>
@@ -920,19 +920,19 @@
     <t xml:space="preserve">2.68443894386292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69582080841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68281292915344</t>
+    <t xml:space="preserve">2.69582056999207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68281316757202</t>
   </si>
   <si>
     <t xml:space="preserve">2.66655349731445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65842390060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63728666305542</t>
+    <t xml:space="preserve">2.65842413902283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63728642463684</t>
   </si>
   <si>
     <t xml:space="preserve">2.61452341079712</t>
@@ -941,13 +941,13 @@
     <t xml:space="preserve">2.6242790222168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61940145492554</t>
+    <t xml:space="preserve">2.61940121650696</t>
   </si>
   <si>
     <t xml:space="preserve">2.55273723602295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5641188621521</t>
+    <t xml:space="preserve">2.56411910057068</t>
   </si>
   <si>
     <t xml:space="preserve">2.57550072669983</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">2.388516664505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34461617469788</t>
+    <t xml:space="preserve">2.34461641311646</t>
   </si>
   <si>
     <t xml:space="preserve">2.36250162124634</t>
@@ -974,13 +974,13 @@
     <t xml:space="preserve">2.37388324737549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43729519844055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45355439186096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43892121315002</t>
+    <t xml:space="preserve">2.43729472160339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45355463027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43892097473145</t>
   </si>
   <si>
     <t xml:space="preserve">2.44705080986023</t>
@@ -989,19 +989,19 @@
     <t xml:space="preserve">2.50395894050598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52834820747375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72346186637878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73159170150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56086730957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45518064498901</t>
+    <t xml:space="preserve">2.52834844589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72346138954163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73159122467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56086754798889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45518040657043</t>
   </si>
   <si>
     <t xml:space="preserve">2.47143983840942</t>
@@ -1010,64 +1010,64 @@
     <t xml:space="preserve">2.48769950866699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54460763931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49582958221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51208853721619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52021861076355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33323431015015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3901424407959</t>
+    <t xml:space="preserve">2.54460787773132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49582886695862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51208877563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52021837234497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3332347869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39014291763306</t>
   </si>
   <si>
     <t xml:space="preserve">2.34136438369751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35762405395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36575365066528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34949398040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30884504318237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20334339141846</t>
+    <t xml:space="preserve">2.35762357711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36575317382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34949421882629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30884528160095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20334386825562</t>
   </si>
   <si>
     <t xml:space="preserve">2.17839980125427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1617705821991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17008519172668</t>
+    <t xml:space="preserve">2.16177082061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17008566856384</t>
   </si>
   <si>
     <t xml:space="preserve">2.09525465965271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07862591743469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14514183998108</t>
+    <t xml:space="preserve">2.07862567901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14514207839966</t>
   </si>
   <si>
     <t xml:space="preserve">2.269859790802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37794756889343</t>
+    <t xml:space="preserve">2.37794780731201</t>
   </si>
   <si>
     <t xml:space="preserve">2.21997261047363</t>
@@ -1076,19 +1076,19 @@
     <t xml:space="preserve">2.24491596221924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22828698158264</t>
+    <t xml:space="preserve">2.22828674316406</t>
   </si>
   <si>
     <t xml:space="preserve">2.28648853302002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21165800094604</t>
+    <t xml:space="preserve">2.21165823936462</t>
   </si>
   <si>
     <t xml:space="preserve">2.25323057174683</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27817416191101</t>
+    <t xml:space="preserve">2.27817392349243</t>
   </si>
   <si>
     <t xml:space="preserve">2.26154518127441</t>
@@ -1097,124 +1097,124 @@
     <t xml:space="preserve">2.18671464920044</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13682746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15345621109009</t>
+    <t xml:space="preserve">2.13682723045349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15345644950867</t>
   </si>
   <si>
     <t xml:space="preserve">2.11188387870789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12851309776306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36131882667542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35300421714783</t>
+    <t xml:space="preserve">2.12851285934448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36131906509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35300445556641</t>
   </si>
   <si>
     <t xml:space="preserve">2.30311751365662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29480314254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32806086540222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31974625587463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31143188476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23660135269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39457702636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10356950759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12019824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07031106948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98716640472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99548101425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03705334663391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04536819458008</t>
+    <t xml:space="preserve">2.29480290412903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3280611038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31974673271179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3114321231842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23660182952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39457726478577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1035692691803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12019848823547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0703113079071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98716628551483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99548065662384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03705310821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04536771774292</t>
   </si>
   <si>
     <t xml:space="preserve">2.06199669837952</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08694052696228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87907767295837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88739228248596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91233563423157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86244869232178</t>
+    <t xml:space="preserve">2.0869402885437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87907803058624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88739240169525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91233575344086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86244881153107</t>
   </si>
   <si>
     <t xml:space="preserve">1.84581959247589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89570677280426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83750522136688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79593288898468</t>
+    <t xml:space="preserve">1.89570689201355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83750534057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79593276977539</t>
   </si>
   <si>
     <t xml:space="preserve">1.76267457008362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77930402755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81256175041199</t>
+    <t xml:space="preserve">1.77930378913879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8125616312027</t>
   </si>
   <si>
     <t xml:space="preserve">1.78761827945709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80424726009369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82919073104858</t>
+    <t xml:space="preserve">1.80424737930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82919085025787</t>
   </si>
   <si>
     <t xml:space="preserve">1.82087647914886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87076306343079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92896485328674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93727958202362</t>
+    <t xml:space="preserve">1.87076318264008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92896461486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93727910518646</t>
   </si>
   <si>
     <t xml:space="preserve">1.90402126312256</t>
@@ -1223,79 +1223,76 @@
     <t xml:space="preserve">1.94559395313263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97885203361511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05368256568909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01210999488831</t>
+    <t xml:space="preserve">1.97885179519653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05368232727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01210975646973</t>
   </si>
   <si>
     <t xml:space="preserve">2.09671592712402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08815765380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0453679561615</t>
+    <t xml:space="preserve">2.08815789222717</t>
   </si>
   <si>
     <t xml:space="preserve">2.06248378753662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07104182243347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03680968284607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0111358165741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05392599105835</t>
+    <t xml:space="preserve">2.07104206085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03680992126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01113557815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05392575263977</t>
   </si>
   <si>
     <t xml:space="preserve">2.11383199691772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13950634002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13094782829285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17373824119568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25076055526733</t>
+    <t xml:space="preserve">2.13950610160828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13094806671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1737380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25076079368591</t>
   </si>
   <si>
     <t xml:space="preserve">2.24220204353333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19085431098938</t>
+    <t xml:space="preserve">2.1908540725708</t>
   </si>
   <si>
     <t xml:space="preserve">2.18229627609253</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20797038078308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21652793884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19941234588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22508645057678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15662240982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31066679954529</t>
+    <t xml:space="preserve">2.2079701423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21652841567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19941258430481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22508597373962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1566219329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31066632270813</t>
   </si>
   <si>
     <t xml:space="preserve">2.30210876464844</t>
@@ -1304,13 +1301,13 @@
     <t xml:space="preserve">2.33634090423584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32778263092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29355049133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34489870071411</t>
+    <t xml:space="preserve">2.32778239250183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29355025291443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34489846229553</t>
   </si>
   <si>
     <t xml:space="preserve">2.35345673561096</t>
@@ -1322,7 +1319,7 @@
     <t xml:space="preserve">2.39624667167664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38768863677979</t>
+    <t xml:space="preserve">2.38768887519836</t>
   </si>
   <si>
     <t xml:space="preserve">2.40480494499207</t>
@@ -1334,28 +1331,28 @@
     <t xml:space="preserve">2.46471118927002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41336250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36201453208923</t>
+    <t xml:space="preserve">2.41336274147034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36201429367065</t>
   </si>
   <si>
     <t xml:space="preserve">2.37057280540466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37913084030151</t>
+    <t xml:space="preserve">2.37913060188293</t>
   </si>
   <si>
     <t xml:space="preserve">2.31922483444214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48182725906372</t>
+    <t xml:space="preserve">2.48182702064514</t>
   </si>
   <si>
     <t xml:space="preserve">2.5417332649231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50750088691711</t>
+    <t xml:space="preserve">2.50750136375427</t>
   </si>
   <si>
     <t xml:space="preserve">2.52461719512939</t>
@@ -1373,46 +1370,46 @@
     <t xml:space="preserve">2.59308123588562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56740713119507</t>
+    <t xml:space="preserve">2.56740760803223</t>
   </si>
   <si>
     <t xml:space="preserve">2.61019730567932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68721985816956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6444296836853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58452320098877</t>
+    <t xml:space="preserve">2.68721961975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64442944526672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58452343940735</t>
   </si>
   <si>
     <t xml:space="preserve">2.60163950920105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53317523002625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43903660774231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49038529396057</t>
+    <t xml:space="preserve">2.53317546844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43903684616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49038505554199</t>
   </si>
   <si>
     <t xml:space="preserve">2.27643442153931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26787638664246</t>
+    <t xml:space="preserve">2.26787686347961</t>
   </si>
   <si>
     <t xml:space="preserve">2.12239003181458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94267141819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95122933387756</t>
+    <t xml:space="preserve">1.94267165660858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95122945308685</t>
   </si>
   <si>
     <t xml:space="preserve">1.74583697319031</t>
@@ -1424,79 +1421,79 @@
     <t xml:space="preserve">1.62602460384369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78006899356842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70732593536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70304679870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68593072891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83997523784637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84853339195251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81430101394653</t>
+    <t xml:space="preserve">1.78006887435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70732581615448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70304691791534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68593084812164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83997535705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84853315353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81430089473724</t>
   </si>
   <si>
     <t xml:space="preserve">1.87420749664307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93411374092102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0796000957489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88276541233063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86564922332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89132356643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91699743270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89988136291504</t>
+    <t xml:space="preserve">1.93411362171173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07959985733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88276529312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86564910411835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89132332801819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91699731349945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89988124370575</t>
   </si>
   <si>
     <t xml:space="preserve">1.85709130764008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95978772640228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98546171188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96834540367126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97690331935883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0282518863678</t>
+    <t xml:space="preserve">1.95978760719299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98546147346497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96834564208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9769035577774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02825140953064</t>
   </si>
   <si>
     <t xml:space="preserve">2.10527396202087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16518020629883</t>
+    <t xml:space="preserve">2.16518044471741</t>
   </si>
   <si>
     <t xml:space="preserve">2.25931835174561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14806413650513</t>
+    <t xml:space="preserve">2.14806437492371</t>
   </si>
   <si>
     <t xml:space="preserve">2.15589737892151</t>
@@ -1505,13 +1502,13 @@
     <t xml:space="preserve">2.14709782600403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11189961433411</t>
+    <t xml:space="preserve">2.11189937591553</t>
   </si>
   <si>
     <t xml:space="preserve">2.05910205841064</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05030250549316</t>
+    <t xml:space="preserve">2.05030226707458</t>
   </si>
   <si>
     <t xml:space="preserve">2.02390360832214</t>
@@ -1538,19 +1535,19 @@
     <t xml:space="preserve">2.07670116424561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97110629081726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95350706577301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96230661869049</t>
+    <t xml:space="preserve">1.97110605239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95350682735443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96230673789978</t>
   </si>
   <si>
     <t xml:space="preserve">2.09430050849915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03270292282104</t>
+    <t xml:space="preserve">2.03270316123962</t>
   </si>
   <si>
     <t xml:space="preserve">2.16469717025757</t>
@@ -1559,13 +1556,13 @@
     <t xml:space="preserve">2.20869493484497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19989562034607</t>
+    <t xml:space="preserve">2.19989538192749</t>
   </si>
   <si>
     <t xml:space="preserve">2.24389338493347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28789114952087</t>
+    <t xml:space="preserve">2.28789091110229</t>
   </si>
   <si>
     <t xml:space="preserve">2.31429004669189</t>
@@ -1577,13 +1574,13 @@
     <t xml:space="preserve">2.41988492012024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4374840259552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44628381729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51668000221252</t>
+    <t xml:space="preserve">2.43748426437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44628357887268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5166802406311</t>
   </si>
   <si>
     <t xml:space="preserve">2.53427958488464</t>
@@ -1592,34 +1589,34 @@
     <t xml:space="preserve">2.56947779655457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56067848205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58707714080811</t>
+    <t xml:space="preserve">2.56067824363708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58707690238953</t>
   </si>
   <si>
     <t xml:space="preserve">2.60467624664307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52548003196716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50788044929504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61347579956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68387222290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66627287864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63987421989441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67507266998291</t>
+    <t xml:space="preserve">2.52547979354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50788068771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61347603797913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68387246131897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66627311706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63987445831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67507290840149</t>
   </si>
   <si>
     <t xml:space="preserve">2.65747356414795</t>
@@ -1628,7 +1625,7 @@
     <t xml:space="preserve">2.64867401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63107490539551</t>
+    <t xml:space="preserve">2.63107466697693</t>
   </si>
   <si>
     <t xml:space="preserve">2.62227511405945</t>
@@ -1640,31 +1637,31 @@
     <t xml:space="preserve">2.73666977882385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76306891441345</t>
+    <t xml:space="preserve">2.76306867599487</t>
   </si>
   <si>
     <t xml:space="preserve">2.80706667900085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79826688766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72787022590637</t>
+    <t xml:space="preserve">2.79826664924622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72786998748779</t>
   </si>
   <si>
     <t xml:space="preserve">2.81586599349976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8334653377533</t>
+    <t xml:space="preserve">2.83346509933472</t>
   </si>
   <si>
     <t xml:space="preserve">2.8774631023407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88626289367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94785976409912</t>
+    <t xml:space="preserve">2.88626265525818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9478600025177</t>
   </si>
   <si>
     <t xml:space="preserve">2.97425866127014</t>
@@ -1682,10 +1679,10 @@
     <t xml:space="preserve">2.9126615524292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85986423492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8422646522522</t>
+    <t xml:space="preserve">2.85986399650574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84226512908936</t>
   </si>
   <si>
     <t xml:space="preserve">2.85106444358826</t>
@@ -1697,19 +1694,19 @@
     <t xml:space="preserve">2.89506220817566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95665907859802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93906021118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93026041984558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02705597877502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12385129928589</t>
+    <t xml:space="preserve">2.9566593170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93905997276306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93026065826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0270562171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12385153770447</t>
   </si>
   <si>
     <t xml:space="preserve">3.15025019645691</t>
@@ -1727,16 +1724,16 @@
     <t xml:space="preserve">3.23824596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29984307289124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26464462280273</t>
+    <t xml:space="preserve">3.29984331130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26464486122131</t>
   </si>
   <si>
     <t xml:space="preserve">3.36144018173218</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34384107589722</t>
+    <t xml:space="preserve">3.34384083747864</t>
   </si>
   <si>
     <t xml:space="preserve">3.3526406288147</t>
@@ -1754,19 +1751,19 @@
     <t xml:space="preserve">3.52863240242004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55503082275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49343371391296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4406361579895</t>
+    <t xml:space="preserve">3.55503106117249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49343395233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44063663482666</t>
   </si>
   <si>
     <t xml:space="preserve">3.41423749923706</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3966383934021</t>
+    <t xml:space="preserve">3.39663815498352</t>
   </si>
   <si>
     <t xml:space="preserve">3.43216013908386</t>
@@ -1775,10 +1772,10 @@
     <t xml:space="preserve">3.44112133979797</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39631485939026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47696661949158</t>
+    <t xml:space="preserve">3.39631509780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.476966381073</t>
   </si>
   <si>
     <t xml:space="preserve">3.46800518035889</t>
@@ -1787,7 +1784,7 @@
     <t xml:space="preserve">3.4948890209198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52177262306213</t>
+    <t xml:space="preserve">3.52177286148071</t>
   </si>
   <si>
     <t xml:space="preserve">3.57554030418396</t>
@@ -1805,10 +1802,10 @@
     <t xml:space="preserve">3.73684287071228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72788143157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79061007499695</t>
+    <t xml:space="preserve">3.72788119316101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79061055183411</t>
   </si>
   <si>
     <t xml:space="preserve">3.74580383300781</t>
@@ -1817,19 +1814,19 @@
     <t xml:space="preserve">3.85333943367004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80853295326233</t>
+    <t xml:space="preserve">3.80853271484375</t>
   </si>
   <si>
     <t xml:space="preserve">3.92502951622009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95191311836243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83541679382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76372647285461</t>
+    <t xml:space="preserve">3.95191264152527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83541631698608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76372623443604</t>
   </si>
   <si>
     <t xml:space="preserve">3.78164887428284</t>
@@ -1841,34 +1838,34 @@
     <t xml:space="preserve">3.89814519882202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69203639030457</t>
+    <t xml:space="preserve">3.69203662872314</t>
   </si>
   <si>
     <t xml:space="preserve">3.81749415397644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70995903015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71892046928406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8443775177002</t>
+    <t xml:space="preserve">3.70995879173279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71892023086548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84437799453735</t>
   </si>
   <si>
     <t xml:space="preserve">3.65619158744812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68307542800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62034630775452</t>
+    <t xml:space="preserve">3.68307518959045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6203465461731</t>
   </si>
   <si>
     <t xml:space="preserve">3.53969526290894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64723038673401</t>
+    <t xml:space="preserve">3.64723014831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.82645535469055</t>
@@ -1880,10 +1877,10 @@
     <t xml:space="preserve">3.79957127571106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75476551055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01464176177979</t>
+    <t xml:space="preserve">3.7547652721405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01464128494263</t>
   </si>
   <si>
     <t xml:space="preserve">3.96983528137207</t>
@@ -1901,7 +1898,7 @@
     <t xml:space="preserve">4.10425424575806</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14009857177734</t>
+    <t xml:space="preserve">4.1400990486145</t>
   </si>
   <si>
     <t xml:space="preserve">3.98775792121887</t>
@@ -1910,10 +1907,10 @@
     <t xml:space="preserve">3.91606783866882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90710687637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07737016677856</t>
+    <t xml:space="preserve">3.90710639953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07737064361572</t>
   </si>
   <si>
     <t xml:space="preserve">4.03256416320801</t>
@@ -1937,22 +1934,25 @@
     <t xml:space="preserve">4.08633136749268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7726879119873</t>
+    <t xml:space="preserve">3.77268767356873</t>
   </si>
   <si>
     <t xml:space="preserve">3.62930798530579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55761766433716</t>
+    <t xml:space="preserve">3.55761790275574</t>
   </si>
   <si>
     <t xml:space="preserve">3.54865670204163</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40527653694153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37839269638062</t>
+    <t xml:space="preserve">3.40527629852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37839293479919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41423773765564</t>
   </si>
   <si>
     <t xml:space="preserve">3.36943125724792</t>
@@ -1976,10 +1976,10 @@
     <t xml:space="preserve">3.53073406219482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48592782020569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33358645439148</t>
+    <t xml:space="preserve">3.48592805862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3335862159729</t>
   </si>
   <si>
     <t xml:space="preserve">3.3515088558197</t>
@@ -1988,19 +1988,19 @@
     <t xml:space="preserve">3.27085757255554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2350127696991</t>
+    <t xml:space="preserve">3.23501253128052</t>
   </si>
   <si>
     <t xml:space="preserve">3.31566405296326</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26189661026001</t>
+    <t xml:space="preserve">3.26189637184143</t>
   </si>
   <si>
     <t xml:space="preserve">3.091632604599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18124485015869</t>
+    <t xml:space="preserve">3.18124508857727</t>
   </si>
   <si>
     <t xml:space="preserve">3.66515278816223</t>
@@ -25289,7 +25289,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G862" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25315,7 +25315,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G863" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25341,7 +25341,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G864" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25393,7 +25393,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G866" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25419,7 +25419,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G867" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25445,7 +25445,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G868" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25471,7 +25471,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G869" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25497,7 +25497,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G870" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25523,7 +25523,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G871" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25549,7 +25549,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G872" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25575,7 +25575,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G873" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25601,7 +25601,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G874" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25627,7 +25627,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G875" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25653,7 +25653,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G876" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25679,7 +25679,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G877" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25705,7 +25705,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G878" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25731,7 +25731,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G879" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25809,7 +25809,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G882" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25835,7 +25835,7 @@
         <v>2.5</v>
       </c>
       <c r="G883" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25861,7 +25861,7 @@
         <v>2.5</v>
       </c>
       <c r="G884" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25887,7 +25887,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G885" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25913,7 +25913,7 @@
         <v>2.5</v>
       </c>
       <c r="G886" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25939,7 +25939,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G887" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25965,7 +25965,7 @@
         <v>2.5</v>
       </c>
       <c r="G888" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25991,7 +25991,7 @@
         <v>2.5</v>
       </c>
       <c r="G889" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26017,7 +26017,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G890" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26043,7 +26043,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G891" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26069,7 +26069,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G892" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26095,7 +26095,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G893" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26121,7 +26121,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G894" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26147,7 +26147,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G895" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26173,7 +26173,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G896" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26199,7 +26199,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G897" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26225,7 +26225,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G898" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26251,7 +26251,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G899" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26277,7 +26277,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G900" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26303,7 +26303,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G901" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26329,7 +26329,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G902" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26355,7 +26355,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G903" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26381,7 +26381,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26407,7 +26407,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G905" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26433,7 +26433,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G906" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26459,7 +26459,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G907" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26485,7 +26485,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G908" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26511,7 +26511,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G909" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26537,7 +26537,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G910" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26563,7 +26563,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G911" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26589,7 +26589,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G912" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26615,7 +26615,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G913" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26641,7 +26641,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G914" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26667,7 +26667,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G915" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26693,7 +26693,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G916" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26719,7 +26719,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G917" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26745,7 +26745,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G918" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26771,7 +26771,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G919" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26797,7 +26797,7 @@
         <v>2.75</v>
       </c>
       <c r="G920" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26823,7 +26823,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G921" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26849,7 +26849,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G922" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26875,7 +26875,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G923" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26901,7 +26901,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G924" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26927,7 +26927,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G925" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26953,7 +26953,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G926" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26979,7 +26979,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G927" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27005,7 +27005,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G928" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27031,7 +27031,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G929" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27057,7 +27057,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G930" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27083,7 +27083,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G931" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27109,7 +27109,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G932" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27135,7 +27135,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G933" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27161,7 +27161,7 @@
         <v>2.75</v>
       </c>
       <c r="G934" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27187,7 +27187,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G935" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27213,7 +27213,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G936" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27239,7 +27239,7 @@
         <v>2.75</v>
       </c>
       <c r="G937" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27265,7 +27265,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G938" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27291,7 +27291,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G939" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27317,7 +27317,7 @@
         <v>2.75</v>
       </c>
       <c r="G940" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27343,7 +27343,7 @@
         <v>2.75</v>
       </c>
       <c r="G941" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27369,7 +27369,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G942" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27395,7 +27395,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G943" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27421,7 +27421,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G944" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27447,7 +27447,7 @@
         <v>2.75</v>
       </c>
       <c r="G945" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27473,7 +27473,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G946" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27499,7 +27499,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G947" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27525,7 +27525,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G948" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27551,7 +27551,7 @@
         <v>2.75</v>
       </c>
       <c r="G949" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27577,7 +27577,7 @@
         <v>2.75</v>
       </c>
       <c r="G950" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27603,7 +27603,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G951" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27629,7 +27629,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G952" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27655,7 +27655,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G953" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27681,7 +27681,7 @@
         <v>2.75</v>
       </c>
       <c r="G954" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27707,7 +27707,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G955" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27733,7 +27733,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G956" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27759,7 +27759,7 @@
         <v>2.75</v>
       </c>
       <c r="G957" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -27785,7 +27785,7 @@
         <v>2.75</v>
       </c>
       <c r="G958" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -27811,7 +27811,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G959" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27837,7 +27837,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G960" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -27863,7 +27863,7 @@
         <v>2.75</v>
       </c>
       <c r="G961" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27889,7 +27889,7 @@
         <v>2.75</v>
       </c>
       <c r="G962" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27915,7 +27915,7 @@
         <v>2.75</v>
       </c>
       <c r="G963" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -27941,7 +27941,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G964" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27967,7 +27967,7 @@
         <v>2.75</v>
       </c>
       <c r="G965" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27993,7 +27993,7 @@
         <v>2.75</v>
       </c>
       <c r="G966" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28019,7 +28019,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G967" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28045,7 +28045,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G968" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28071,7 +28071,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G969" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28097,7 +28097,7 @@
         <v>2.75</v>
       </c>
       <c r="G970" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28123,7 +28123,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G971" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28149,7 +28149,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G972" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28175,7 +28175,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G973" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28201,7 +28201,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G974" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28227,7 +28227,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G975" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28253,7 +28253,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G976" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28279,7 +28279,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G977" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28305,7 +28305,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G978" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28331,7 +28331,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G979" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28357,7 +28357,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G980" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28383,7 +28383,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G981" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28409,7 +28409,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G982" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28435,7 +28435,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G983" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28461,7 +28461,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G984" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28487,7 +28487,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G985" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28513,7 +28513,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G986" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28539,7 +28539,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G987" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28565,7 +28565,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G988" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28591,7 +28591,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G989" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28617,7 +28617,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G990" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28643,7 +28643,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G991" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28669,7 +28669,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G992" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28695,7 +28695,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G993" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28721,7 +28721,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G994" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28747,7 +28747,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G995" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28773,7 +28773,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G996" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28799,7 +28799,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G997" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28825,7 +28825,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G998" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28851,7 +28851,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G999" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28877,7 +28877,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1000" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -28903,7 +28903,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1001" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -28929,7 +28929,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1002" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -28955,7 +28955,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1003" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -28981,7 +28981,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1004" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29007,7 +29007,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1005" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29033,7 +29033,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1006" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29059,7 +29059,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29085,7 +29085,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1008" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29111,7 +29111,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1009" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29137,7 +29137,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1010" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29163,7 +29163,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1011" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29189,7 +29189,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1012" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29215,7 +29215,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1013" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29241,7 +29241,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1014" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29267,7 +29267,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1015" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29293,7 +29293,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1016" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29319,7 +29319,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1017" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29345,7 +29345,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1018" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29371,7 +29371,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1019" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29397,7 +29397,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1020" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29423,7 +29423,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1021" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29449,7 +29449,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1022" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29475,7 +29475,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1023" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29501,7 +29501,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1024" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29527,7 +29527,7 @@
         <v>3</v>
       </c>
       <c r="G1025" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29553,7 +29553,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1026" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29579,7 +29579,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1027" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29605,7 +29605,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1028" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29631,7 +29631,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1029" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29657,7 +29657,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1030" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29683,7 +29683,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1031" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29709,7 +29709,7 @@
         <v>3</v>
       </c>
       <c r="G1032" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -29735,7 +29735,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1033" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29761,7 +29761,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1034" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29787,7 +29787,7 @@
         <v>3</v>
       </c>
       <c r="G1035" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29813,7 +29813,7 @@
         <v>3</v>
       </c>
       <c r="G1036" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -29839,7 +29839,7 @@
         <v>3</v>
       </c>
       <c r="G1037" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -29865,7 +29865,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1038" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -29891,7 +29891,7 @@
         <v>3</v>
       </c>
       <c r="G1039" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29917,7 +29917,7 @@
         <v>3</v>
       </c>
       <c r="G1040" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -29943,7 +29943,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -29969,7 +29969,7 @@
         <v>3</v>
       </c>
       <c r="G1042" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -29995,7 +29995,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1043" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30021,7 +30021,7 @@
         <v>3</v>
       </c>
       <c r="G1044" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30047,7 +30047,7 @@
         <v>3</v>
       </c>
       <c r="G1045" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30073,7 +30073,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1046" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30099,7 +30099,7 @@
         <v>3</v>
       </c>
       <c r="G1047" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30125,7 +30125,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1048" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30151,7 +30151,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1049" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30177,7 +30177,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1050" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30203,7 +30203,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1051" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30229,7 +30229,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1052" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30255,7 +30255,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1053" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30281,7 +30281,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1054" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30307,7 +30307,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1055" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30333,7 +30333,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1056" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30359,7 +30359,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1057" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30385,7 +30385,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1058" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30411,7 +30411,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G1059" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30437,7 +30437,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1060" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30463,7 +30463,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1061" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30489,7 +30489,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1062" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30515,7 +30515,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1063" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30541,7 +30541,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1064" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30567,7 +30567,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1065" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30593,7 +30593,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1066" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30619,7 +30619,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1067" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30645,7 +30645,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1068" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30671,7 +30671,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1069" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30697,7 +30697,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1070" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30723,7 +30723,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1071" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30749,7 +30749,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1072" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -30775,7 +30775,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1073" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30801,7 +30801,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1074" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -30827,7 +30827,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1075" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -30853,7 +30853,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1076" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30879,7 +30879,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1077" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30905,7 +30905,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1078" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -30931,7 +30931,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1079" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -30957,7 +30957,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1080" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30983,7 +30983,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1081" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31009,7 +31009,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1082" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31035,7 +31035,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1083" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31061,7 +31061,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1084" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31113,7 +31113,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1086" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31139,7 +31139,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1087" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31165,7 +31165,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1088" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31191,7 +31191,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1089" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31217,7 +31217,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1090" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31243,7 +31243,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1091" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31269,7 +31269,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1092" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31295,7 +31295,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1093" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31321,7 +31321,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1094" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31347,7 +31347,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1095" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31373,7 +31373,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1096" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31399,7 +31399,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1097" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31425,7 +31425,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1098" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31451,7 +31451,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1099" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31477,7 +31477,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1100" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31503,7 +31503,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1101" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31529,7 +31529,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31555,7 +31555,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1103" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31581,7 +31581,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1104" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31607,7 +31607,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1105" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31633,7 +31633,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1106" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31659,7 +31659,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31685,7 +31685,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1108" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31711,7 +31711,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1109" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31737,7 +31737,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1110" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31763,7 +31763,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1111" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31789,7 +31789,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1112" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31815,7 +31815,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1113" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31841,7 +31841,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1114" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -31867,7 +31867,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1115" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -31893,7 +31893,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1116" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -31919,7 +31919,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1117" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31945,7 +31945,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1118" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31971,7 +31971,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1119" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31997,7 +31997,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1120" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32023,7 +32023,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1121" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32049,7 +32049,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1122" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32127,7 +32127,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1125" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32153,7 +32153,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1126" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32205,7 +32205,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1128" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32231,7 +32231,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1129" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32257,7 +32257,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1130" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32309,7 +32309,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1132" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32335,7 +32335,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32361,7 +32361,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1134" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32387,7 +32387,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1135" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32413,7 +32413,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1136" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32439,7 +32439,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1137" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32465,7 +32465,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1138" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32491,7 +32491,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1139" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32517,7 +32517,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1140" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32543,7 +32543,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1141" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32569,7 +32569,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1142" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32595,7 +32595,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1143" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32621,7 +32621,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1144" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32647,7 +32647,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1145" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32673,7 +32673,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1146" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32699,7 +32699,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1147" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32725,7 +32725,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1148" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32751,7 +32751,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1149" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32777,7 +32777,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1150" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -32829,7 +32829,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1152" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -32907,7 +32907,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32959,7 +32959,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1157" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32985,7 +32985,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1158" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33011,7 +33011,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1159" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33037,7 +33037,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1160" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33063,7 +33063,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1161" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33089,7 +33089,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1162" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33115,7 +33115,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1163" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33141,7 +33141,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1164" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33167,7 +33167,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1165" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33193,7 +33193,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1166" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33219,7 +33219,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1167" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33245,7 +33245,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1168" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33271,7 +33271,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1169" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33297,7 +33297,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1170" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33323,7 +33323,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1171" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33349,7 +33349,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1172" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33375,7 +33375,7 @@
         <v>2.5</v>
       </c>
       <c r="G1173" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33401,7 +33401,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1174" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33427,7 +33427,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1175" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33453,7 +33453,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1176" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33479,7 +33479,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1177" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33505,7 +33505,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1178" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33531,7 +33531,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1179" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33557,7 +33557,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1180" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33583,7 +33583,7 @@
         <v>2.5</v>
       </c>
       <c r="G1181" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33609,7 +33609,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1182" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33635,7 +33635,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1183" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33661,7 +33661,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1184" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33687,7 +33687,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33739,7 +33739,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1187" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33765,7 +33765,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1188" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -33817,7 +33817,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1190" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -33843,7 +33843,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1191" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -33869,7 +33869,7 @@
         <v>2.5</v>
       </c>
       <c r="G1192" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -33895,7 +33895,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1193" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33921,7 +33921,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1194" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33947,7 +33947,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1195" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33973,7 +33973,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1196" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33999,7 +33999,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34025,7 +34025,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1198" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34051,7 +34051,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1199" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34077,7 +34077,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1200" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34103,7 +34103,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1201" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34129,7 +34129,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1202" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34155,7 +34155,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1203" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34181,7 +34181,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1204" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34207,7 +34207,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1205" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34233,7 +34233,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1206" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34259,7 +34259,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1207" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34285,7 +34285,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1208" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34311,7 +34311,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1209" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34337,7 +34337,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1210" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34363,7 +34363,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1211" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34389,7 +34389,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1212" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34415,7 +34415,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1213" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34441,7 +34441,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1214" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34467,7 +34467,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1215" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34493,7 +34493,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1216" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34519,7 +34519,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1217" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34545,7 +34545,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1218" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34571,7 +34571,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1219" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34597,7 +34597,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1220" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34623,7 +34623,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1221" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34649,7 +34649,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1222" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34675,7 +34675,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1223" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34701,7 +34701,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1224" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34727,7 +34727,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1225" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34753,7 +34753,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1226" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34779,7 +34779,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1227" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -34805,7 +34805,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1228" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -34831,7 +34831,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1229" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -34857,7 +34857,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1230" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -34883,7 +34883,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1231" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -34909,7 +34909,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1232" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34935,7 +34935,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1233" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34961,7 +34961,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1234" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34987,7 +34987,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1235" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35013,7 +35013,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1236" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35039,7 +35039,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1237" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35065,7 +35065,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1238" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35091,7 +35091,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1239" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35117,7 +35117,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1240" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35143,7 +35143,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1241" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35169,7 +35169,7 @@
         <v>2.5</v>
       </c>
       <c r="G1242" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35195,7 +35195,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1243" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35221,7 +35221,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1244" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35247,7 +35247,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1245" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35273,7 +35273,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1246" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35299,7 +35299,7 @@
         <v>2.75</v>
       </c>
       <c r="G1247" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35325,7 +35325,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G1248" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35351,7 +35351,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1249" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35377,7 +35377,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1250" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35403,7 +35403,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1251" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35429,7 +35429,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1252" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35455,7 +35455,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1253" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35481,7 +35481,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1254" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35507,7 +35507,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1255" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35533,7 +35533,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1256" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35559,7 +35559,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1257" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35585,7 +35585,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1258" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35611,7 +35611,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1259" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35637,7 +35637,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1260" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35663,7 +35663,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1261" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35689,7 +35689,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1262" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35715,7 +35715,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1263" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35741,7 +35741,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1264" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35767,7 +35767,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1265" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35793,7 +35793,7 @@
         <v>3</v>
       </c>
       <c r="G1266" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -35819,7 +35819,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1267" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -35845,7 +35845,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1268" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -35871,7 +35871,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1269" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -35897,7 +35897,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1270" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -35923,7 +35923,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1271" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35949,7 +35949,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1272" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35975,7 +35975,7 @@
         <v>3</v>
       </c>
       <c r="G1273" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36001,7 +36001,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1274" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36027,7 +36027,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1275" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36053,7 +36053,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1276" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36079,7 +36079,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1277" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36105,7 +36105,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1278" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36131,7 +36131,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1279" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36157,7 +36157,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1280" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36183,7 +36183,7 @@
         <v>3</v>
       </c>
       <c r="G1281" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36209,7 +36209,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1282" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36235,7 +36235,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1283" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36261,7 +36261,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1284" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36287,7 +36287,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1285" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36313,7 +36313,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1286" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36339,7 +36339,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1287" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36365,7 +36365,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1288" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36391,7 +36391,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1289" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36417,7 +36417,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1290" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36443,7 +36443,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1291" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36469,7 +36469,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1292" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36495,7 +36495,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1293" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36521,7 +36521,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1294" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36547,7 +36547,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1295" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36573,7 +36573,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1296" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36599,7 +36599,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1297" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36625,7 +36625,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1298" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -36651,7 +36651,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1299" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36677,7 +36677,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1300" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -36703,7 +36703,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1301" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36729,7 +36729,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1302" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36755,7 +36755,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1303" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36781,7 +36781,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1304" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36807,7 +36807,7 @@
         <v>3.25</v>
       </c>
       <c r="G1305" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36833,7 +36833,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1306" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36859,7 +36859,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1307" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36885,7 +36885,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1308" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36911,7 +36911,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1309" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36937,7 +36937,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1310" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36963,7 +36963,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1311" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36989,7 +36989,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1312" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37015,7 +37015,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1313" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37041,7 +37041,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1314" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37067,7 +37067,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1315" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37093,7 +37093,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1316" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37119,7 +37119,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1317" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37145,7 +37145,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1318" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37171,7 +37171,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1319" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37197,7 +37197,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1320" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37223,7 +37223,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1321" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37249,7 +37249,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1322" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37275,7 +37275,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1323" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37301,7 +37301,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1324" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37327,7 +37327,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1325" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37353,7 +37353,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1326" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37379,7 +37379,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1327" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37405,7 +37405,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1328" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37431,7 +37431,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1329" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37457,7 +37457,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1330" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37483,7 +37483,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1331" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37509,7 +37509,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1332" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37535,7 +37535,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1333" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37561,7 +37561,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1334" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37587,7 +37587,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1335" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37613,7 +37613,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1336" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37639,7 +37639,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1337" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -37665,7 +37665,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1338" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -37691,7 +37691,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1339" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -37717,7 +37717,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1340" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -37743,7 +37743,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1341" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37769,7 +37769,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1342" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37795,7 +37795,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1343" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37821,7 +37821,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1344" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37847,7 +37847,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1345" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37873,7 +37873,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1346" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37899,7 +37899,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1347" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37925,7 +37925,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1348" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -37951,7 +37951,7 @@
         <v>3.75</v>
       </c>
       <c r="G1349" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37977,7 +37977,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1350" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38003,7 +38003,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1351" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38029,7 +38029,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1352" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38055,7 +38055,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1353" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38081,7 +38081,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1354" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38107,7 +38107,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1355" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38133,7 +38133,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1356" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38159,7 +38159,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1357" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38185,7 +38185,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1358" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38211,7 +38211,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1359" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38237,7 +38237,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1360" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38263,7 +38263,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1361" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38289,7 +38289,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1362" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38315,7 +38315,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1363" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38341,7 +38341,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1364" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38367,7 +38367,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1365" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38393,7 +38393,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1366" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38419,7 +38419,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1367" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38445,7 +38445,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1368" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38471,7 +38471,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1369" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38497,7 +38497,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1370" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38523,7 +38523,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1371" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38549,7 +38549,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1372" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38575,7 +38575,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1373" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -38601,7 +38601,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1374" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -38627,7 +38627,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1375" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -38653,7 +38653,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1376" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -38679,7 +38679,7 @@
         <v>4</v>
       </c>
       <c r="G1377" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -38705,7 +38705,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1378" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -38731,7 +38731,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1379" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -38757,7 +38757,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1380" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38783,7 +38783,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1381" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38809,7 +38809,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1382" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38835,7 +38835,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1383" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38861,7 +38861,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1384" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38887,7 +38887,7 @@
         <v>4.25</v>
       </c>
       <c r="G1385" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38913,7 +38913,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G1386" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38939,7 +38939,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1387" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38965,7 +38965,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G1388" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38991,7 +38991,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1389" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39017,7 +39017,7 @@
         <v>4.25</v>
       </c>
       <c r="G1390" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39043,7 +39043,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1391" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39069,7 +39069,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1392" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39095,7 +39095,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1393" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39121,7 +39121,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1394" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39147,7 +39147,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1395" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39173,7 +39173,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1396" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39199,7 +39199,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1397" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39225,7 +39225,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1398" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39251,7 +39251,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1399" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39277,7 +39277,7 @@
         <v>4.25</v>
       </c>
       <c r="G1400" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39303,7 +39303,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1401" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39329,7 +39329,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1402" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39355,7 +39355,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1403" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39381,7 +39381,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1404" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39407,7 +39407,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1405" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39433,7 +39433,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1406" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39459,7 +39459,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1407" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39485,7 +39485,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1408" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39511,7 +39511,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1409" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39537,7 +39537,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1410" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39563,7 +39563,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1411" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39589,7 +39589,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1412" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39615,7 +39615,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1413" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39641,7 +39641,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1414" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39667,7 +39667,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1415" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39693,7 +39693,7 @@
         <v>4.25</v>
       </c>
       <c r="G1416" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39719,7 +39719,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1417" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39745,7 +39745,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1418" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39771,7 +39771,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G1419" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39797,7 +39797,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1420" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39823,7 +39823,7 @@
         <v>4.25</v>
       </c>
       <c r="G1421" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39849,7 +39849,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1422" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39875,7 +39875,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1423" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39901,7 +39901,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1424" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39927,7 +39927,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1425" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39953,7 +39953,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1426" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39979,7 +39979,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G1427" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40005,7 +40005,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1428" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40031,7 +40031,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1429" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40057,7 +40057,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1430" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40083,7 +40083,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1431" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40109,7 +40109,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1432" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40135,7 +40135,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1433" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40161,7 +40161,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1434" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40187,7 +40187,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1435" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40213,7 +40213,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1436" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40239,7 +40239,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1437" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40265,7 +40265,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1438" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40291,7 +40291,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1439" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40317,7 +40317,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1440" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40343,7 +40343,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1441" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40369,7 +40369,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1442" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40395,7 +40395,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G1443" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40421,7 +40421,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1444" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40447,7 +40447,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1445" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40473,7 +40473,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1446" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40499,7 +40499,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1447" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40525,7 +40525,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1448" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40551,7 +40551,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1449" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40577,7 +40577,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1450" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40603,7 +40603,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1451" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40629,7 +40629,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1452" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40655,7 +40655,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G1453" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40681,7 +40681,7 @@
         <v>4.25</v>
       </c>
       <c r="G1454" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -40707,7 +40707,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1455" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40733,7 +40733,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1456" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40759,7 +40759,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1457" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40785,7 +40785,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1458" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40811,7 +40811,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1459" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40837,7 +40837,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1460" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40863,7 +40863,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1461" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40889,7 +40889,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1462" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40915,7 +40915,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1463" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40941,7 +40941,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1464" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40967,7 +40967,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1465" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40993,7 +40993,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1466" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41019,7 +41019,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1467" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41045,7 +41045,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1468" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41071,7 +41071,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1469" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41097,7 +41097,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1470" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41123,7 +41123,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1471" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41149,7 +41149,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1472" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41175,7 +41175,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1473" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41201,7 +41201,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1474" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41227,7 +41227,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G1475" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41253,7 +41253,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1476" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41279,7 +41279,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1477" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41305,7 +41305,7 @@
         <v>4.5</v>
       </c>
       <c r="G1478" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41331,7 +41331,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1479" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41357,7 +41357,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1480" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41383,7 +41383,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1481" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41409,7 +41409,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1482" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41435,7 +41435,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1483" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41461,7 +41461,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1484" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41487,7 +41487,7 @@
         <v>4.5</v>
       </c>
       <c r="G1485" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41513,7 +41513,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1486" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41539,7 +41539,7 @@
         <v>4.5</v>
       </c>
       <c r="G1487" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41565,7 +41565,7 @@
         <v>4.5</v>
       </c>
       <c r="G1488" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41591,7 +41591,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G1489" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41617,7 +41617,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1490" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -41643,7 +41643,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G1491" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41669,7 +41669,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1492" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41695,7 +41695,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1493" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41721,7 +41721,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1494" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41747,7 +41747,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1495" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41773,7 +41773,7 @@
         <v>4.5</v>
       </c>
       <c r="G1496" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41799,7 +41799,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1497" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41825,7 +41825,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1498" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41851,7 +41851,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1499" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41877,7 +41877,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1500" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41903,7 +41903,7 @@
         <v>4.25</v>
       </c>
       <c r="G1501" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41929,7 +41929,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1502" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41955,7 +41955,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1503" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41981,7 +41981,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1504" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42007,7 +42007,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1505" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42033,7 +42033,7 @@
         <v>4.25</v>
       </c>
       <c r="G1506" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42059,7 +42059,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1507" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42085,7 +42085,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1508" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42111,7 +42111,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1509" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42137,7 +42137,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1510" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42163,7 +42163,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1511" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42189,7 +42189,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1512" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42215,7 +42215,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1513" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42241,7 +42241,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1514" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42267,7 +42267,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1515" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42293,7 +42293,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1516" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42319,7 +42319,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1517" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42345,7 +42345,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1518" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42371,7 +42371,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1519" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42397,7 +42397,7 @@
         <v>4</v>
       </c>
       <c r="G1520" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42423,7 +42423,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1521" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42449,7 +42449,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1522" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42475,7 +42475,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1523" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42501,7 +42501,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1524" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42527,7 +42527,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1525" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42553,7 +42553,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1526" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42579,7 +42579,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1527" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42605,7 +42605,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1528" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42631,7 +42631,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1529" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42657,7 +42657,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1530" t="s">
-        <v>583</v>
+        <v>646</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42683,7 +42683,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1531" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42761,7 +42761,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1534" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42787,7 +42787,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1535" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42813,7 +42813,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1536" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42839,7 +42839,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1537" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42917,7 +42917,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1540" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42943,7 +42943,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1541" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42969,7 +42969,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1542" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43021,7 +43021,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1544" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43047,7 +43047,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1545" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43099,7 +43099,7 @@
         <v>4</v>
       </c>
       <c r="G1547" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43151,7 +43151,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1549" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43229,7 +43229,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1552" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43255,7 +43255,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1553" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43281,7 +43281,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1554" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43307,7 +43307,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1555" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43333,7 +43333,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1556" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43359,7 +43359,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1557" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43385,7 +43385,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1558" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43463,7 +43463,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1561" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43489,7 +43489,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1562" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43801,7 +43801,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1574" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43853,7 +43853,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1576" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43879,7 +43879,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1577" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43905,7 +43905,7 @@
         <v>4</v>
       </c>
       <c r="G1578" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43931,7 +43931,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1579" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43957,7 +43957,7 @@
         <v>4</v>
       </c>
       <c r="G1580" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43983,7 +43983,7 @@
         <v>4</v>
       </c>
       <c r="G1581" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44009,7 +44009,7 @@
         <v>4</v>
       </c>
       <c r="G1582" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -44035,7 +44035,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1583" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44061,7 +44061,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1584" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44139,7 +44139,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1587" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44217,7 +44217,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1590" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44243,7 +44243,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1591" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44269,7 +44269,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1592" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44295,7 +44295,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1593" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44373,7 +44373,7 @@
         <v>4</v>
       </c>
       <c r="G1596" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44399,7 +44399,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1597" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44425,7 +44425,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1598" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44503,7 +44503,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1601" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44529,7 +44529,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1602" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44581,7 +44581,7 @@
         <v>4</v>
       </c>
       <c r="G1604" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44633,7 +44633,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1606" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44659,7 +44659,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1607" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44711,7 +44711,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1609" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44737,7 +44737,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1610" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44763,7 +44763,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1611" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44789,7 +44789,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1612" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44815,7 +44815,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1613" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44867,7 +44867,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1615" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44893,7 +44893,7 @@
         <v>4</v>
       </c>
       <c r="G1616" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44945,7 +44945,7 @@
         <v>4</v>
       </c>
       <c r="G1618" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44971,7 +44971,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1619" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44997,7 +44997,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1620" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45023,7 +45023,7 @@
         <v>4</v>
       </c>
       <c r="G1621" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45049,7 +45049,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1622" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45075,7 +45075,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1623" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45101,7 +45101,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1624" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46479,7 +46479,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1677" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46739,7 +46739,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1687" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46999,7 +46999,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1697" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -51211,7 +51211,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1859" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51393,7 +51393,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1866" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51549,7 +51549,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1872" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -58603,7 +58603,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.649537037</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>25778</v>
@@ -58624,6 +58624,32 @@
         <v>843</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6493171296</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>10046</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>5.40000009536743</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>5.19999980926514</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>5.40000009536743</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>5.40000009536743</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>842</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CALT.MI.xlsx
+++ b/data/CALT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="845">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8017326593399</t>
+    <t xml:space="preserve">1.80173289775848</t>
   </si>
   <si>
     <t xml:space="preserve">CALT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80949902534485</t>
+    <t xml:space="preserve">1.80949890613556</t>
   </si>
   <si>
     <t xml:space="preserve">1.77843475341797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72407186031342</t>
+    <t xml:space="preserve">1.72407209873199</t>
   </si>
   <si>
     <t xml:space="preserve">1.73494434356689</t>
@@ -62,22 +62,22 @@
     <t xml:space="preserve">1.70077359676361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63243198394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55244112014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53613269329071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53768575191498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49031281471252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49885523319244</t>
+    <t xml:space="preserve">1.63243210315704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55244123935699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53613245487213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53768587112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49031269550323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49885535240173</t>
   </si>
   <si>
     <t xml:space="preserve">1.47555708885193</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">1.46779096126556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47245073318481</t>
+    <t xml:space="preserve">1.47245049476624</t>
   </si>
   <si>
     <t xml:space="preserve">1.46002495288849</t>
@@ -98,46 +98,46 @@
     <t xml:space="preserve">1.43439674377441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4367264509201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45070552825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40799200534821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38624691963196</t>
+    <t xml:space="preserve">1.43672668933868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45070540904999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4079921245575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38624715805054</t>
   </si>
   <si>
     <t xml:space="preserve">1.39789617061615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3932363986969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43594992160797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40566229820251</t>
+    <t xml:space="preserve">1.39323663711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43595004081726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40566217899323</t>
   </si>
   <si>
     <t xml:space="preserve">1.43284356594086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42119431495667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43051362037659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48487615585327</t>
+    <t xml:space="preserve">1.42119443416595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43051373958588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48487627506256</t>
   </si>
   <si>
     <t xml:space="preserve">1.4631313085556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49963188171387</t>
+    <t xml:space="preserve">1.49963164329529</t>
   </si>
   <si>
     <t xml:space="preserve">1.51749396324158</t>
@@ -149,16 +149,16 @@
     <t xml:space="preserve">1.58272910118103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57962250709534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60292077064514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59981429576874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60758030414581</t>
+    <t xml:space="preserve">1.57962262630463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60292088985443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59981453418732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60758066177368</t>
   </si>
   <si>
     <t xml:space="preserve">1.62155938148499</t>
@@ -167,46 +167,46 @@
     <t xml:space="preserve">1.66039001941681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66970932483673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69300758838654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68524146080017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69145429134369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67747533321381</t>
+    <t xml:space="preserve">1.66970944404602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69300746917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68524158000946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69145452976227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6774754524231</t>
   </si>
   <si>
     <t xml:space="preserve">1.71630573272705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70543348789215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64641094207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6479640007019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69611394405365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72251844406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73183786869049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75047671794891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75513660907745</t>
+    <t xml:space="preserve">1.70543324947357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64641082286835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64796411991119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69611418247223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72251868247986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73183798789978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75047647953033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75513625144958</t>
   </si>
   <si>
     <t xml:space="preserve">1.75668942928314</t>
@@ -221,76 +221,76 @@
     <t xml:space="preserve">1.76756203174591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77066850662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76290237903595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73960411548615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74737024307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73028445243835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74581694602966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70387983322144</t>
+    <t xml:space="preserve">1.7706686258316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76290249824524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73960399627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74737012386322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73028481006622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74581682682037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70387995243073</t>
   </si>
   <si>
     <t xml:space="preserve">1.70853972434998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73805069923401</t>
+    <t xml:space="preserve">1.7380508184433</t>
   </si>
   <si>
     <t xml:space="preserve">1.76347029209137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74758338928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75552678108215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78571200370789</t>
+    <t xml:space="preserve">1.74758327007294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75552654266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78571212291718</t>
   </si>
   <si>
     <t xml:space="preserve">1.76982498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75870406627655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77935755252838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78730118274689</t>
+    <t xml:space="preserve">1.75870418548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77935719490051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78730070590973</t>
   </si>
   <si>
     <t xml:space="preserve">1.71580898761749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73487341403961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73169600963593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71422004699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66655886173248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62048614025116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61254274845123</t>
+    <t xml:space="preserve">1.7348735332489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7316962480545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71422028541565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66655898094177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62048602104187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61254262924194</t>
   </si>
   <si>
     <t xml:space="preserve">1.57917964458466</t>
@@ -299,10 +299,10 @@
     <t xml:space="preserve">1.588711977005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65067172050476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58632898330688</t>
+    <t xml:space="preserve">1.65067183971405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5863288640976</t>
   </si>
   <si>
     <t xml:space="preserve">1.60936510562897</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">1.59665548801422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54899442195892</t>
+    <t xml:space="preserve">1.54899394512177</t>
   </si>
   <si>
     <t xml:space="preserve">1.53151822090149</t>
@@ -332,10 +332,10 @@
     <t xml:space="preserve">1.55693769454956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66814756393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65702652931213</t>
+    <t xml:space="preserve">1.66814732551575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65702641010284</t>
   </si>
   <si>
     <t xml:space="preserve">1.62842977046967</t>
@@ -344,10 +344,10 @@
     <t xml:space="preserve">1.68403446674347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73010718822479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72375237941742</t>
+    <t xml:space="preserve">1.73010730743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72375249862671</t>
   </si>
   <si>
     <t xml:space="preserve">1.73963963985443</t>
@@ -359,13 +359,13 @@
     <t xml:space="preserve">1.63637328147888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6443167924881</t>
+    <t xml:space="preserve">1.64431691169739</t>
   </si>
   <si>
     <t xml:space="preserve">1.69992196559906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69515550136566</t>
+    <t xml:space="preserve">1.69515573978424</t>
   </si>
   <si>
     <t xml:space="preserve">1.63478457927704</t>
@@ -374,13 +374,13 @@
     <t xml:space="preserve">1.60459911823273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62684118747711</t>
+    <t xml:space="preserve">1.62684106826782</t>
   </si>
   <si>
     <t xml:space="preserve">1.60301029682159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5807683467865</t>
+    <t xml:space="preserve">1.58076822757721</t>
   </si>
   <si>
     <t xml:space="preserve">1.59983277320862</t>
@@ -389,58 +389,58 @@
     <t xml:space="preserve">1.64113938808441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61730885505676</t>
+    <t xml:space="preserve">1.61730861663818</t>
   </si>
   <si>
     <t xml:space="preserve">1.63955068588257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61095380783081</t>
+    <t xml:space="preserve">1.61095404624939</t>
   </si>
   <si>
     <t xml:space="preserve">1.58791756629944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57679665088654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56249821186066</t>
+    <t xml:space="preserve">1.57679653167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56249809265137</t>
   </si>
   <si>
     <t xml:space="preserve">1.56329262256622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5918892621994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62525236606598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63319575786591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64272809028625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6522604227066</t>
+    <t xml:space="preserve">1.59188938140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6252521276474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63319599628448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64272820949554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65226030349731</t>
   </si>
   <si>
     <t xml:space="preserve">1.5585263967514</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56488120555878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53072381019592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55296611785889</t>
+    <t xml:space="preserve">1.56488132476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5307240486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55296587944031</t>
   </si>
   <si>
     <t xml:space="preserve">1.5640869140625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58712327480316</t>
+    <t xml:space="preserve">1.58712315559387</t>
   </si>
   <si>
     <t xml:space="preserve">1.66020405292511</t>
@@ -449,64 +449,64 @@
     <t xml:space="preserve">1.6474940776825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62366354465485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62207496166229</t>
+    <t xml:space="preserve">1.62366342544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62207508087158</t>
   </si>
   <si>
     <t xml:space="preserve">1.63160705566406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65861523151398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65384924411774</t>
+    <t xml:space="preserve">1.65861511230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65384912490845</t>
   </si>
   <si>
     <t xml:space="preserve">1.66497004032135</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70945405960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70786547660828</t>
+    <t xml:space="preserve">1.70945394039154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7078652381897</t>
   </si>
   <si>
     <t xml:space="preserve">1.74599456787109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69197845458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69833302497864</t>
+    <t xml:space="preserve">1.69197821617126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69833326339722</t>
   </si>
   <si>
     <t xml:space="preserve">1.70627665519714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69356691837311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72534132003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72851860523224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79842174053192</t>
+    <t xml:space="preserve">1.69356679916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72534108161926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72851836681366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7984219789505</t>
   </si>
   <si>
     <t xml:space="preserve">1.79524457454681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81113159656525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81589770317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77141380310059</t>
+    <t xml:space="preserve">1.81113147735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81589782238007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7714136838913</t>
   </si>
   <si>
     <t xml:space="preserve">1.76823651790619</t>
@@ -518,16 +518,16 @@
     <t xml:space="preserve">1.82543015480042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82701849937439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8508495092392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8349621295929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81907510757446</t>
+    <t xml:space="preserve">1.82701873779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85084939002991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83496236801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81907498836517</t>
   </si>
   <si>
     <t xml:space="preserve">1.80001080036163</t>
@@ -536,34 +536,34 @@
     <t xml:space="preserve">1.8015992641449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85879290103912</t>
+    <t xml:space="preserve">1.85879266262054</t>
   </si>
   <si>
     <t xml:space="preserve">1.86991393566132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88897812366486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88580119609833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87467992305756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89374458789825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88262355327606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9286961555481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94776082038879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92392992973328</t>
+    <t xml:space="preserve">1.88897883892059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88580083847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87468004226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89374470710754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88262367248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92869627475739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94776105880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92393016815186</t>
   </si>
   <si>
     <t xml:space="preserve">1.92551898956299</t>
@@ -572,46 +572,46 @@
     <t xml:space="preserve">1.92075288295746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9366397857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91916418075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93346238136292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92234170436859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90645432472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439807415009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8921560049057</t>
+    <t xml:space="preserve">1.93664002418518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91916382312775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93346226215363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92234134674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90645456314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439771652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89215564727783</t>
   </si>
   <si>
     <t xml:space="preserve">1.90963184833527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9175751209259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93822860717773</t>
+    <t xml:space="preserve">1.91757524013519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93822884559631</t>
   </si>
   <si>
     <t xml:space="preserve">2.02243041992188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97953522205353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99383342266083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00177717208862</t>
+    <t xml:space="preserve">1.97953534126282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99383354187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00177669525146</t>
   </si>
   <si>
     <t xml:space="preserve">1.9970109462738</t>
@@ -626,112 +626,112 @@
     <t xml:space="preserve">2.07326889038086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08439016342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0828013420105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08756732940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06532526016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07803535461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08121228218079</t>
+    <t xml:space="preserve">2.08438992500305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08280110359192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08756756782532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06532549858093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07803463935852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08121275901794</t>
   </si>
   <si>
     <t xml:space="preserve">2.17063999176025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1690137386322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1934027671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16251015663147</t>
+    <t xml:space="preserve">2.16901350021362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19340300559998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16251039505005</t>
   </si>
   <si>
     <t xml:space="preserve">2.19502902030945</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2519371509552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22754788398743</t>
+    <t xml:space="preserve">2.25193691253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22754764556885</t>
   </si>
   <si>
     <t xml:space="preserve">2.23079991340637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20641088485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24380707740784</t>
+    <t xml:space="preserve">2.2064106464386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24380731582642</t>
   </si>
   <si>
     <t xml:space="preserve">2.23242568969727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21941828727722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24218153953552</t>
+    <t xml:space="preserve">2.21941804885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24218130111694</t>
   </si>
   <si>
     <t xml:space="preserve">2.1234872341156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12999081611633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11373114585876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12511324882507</t>
+    <t xml:space="preserve">2.12999105453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11373162269592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12511348724365</t>
   </si>
   <si>
     <t xml:space="preserve">2.12186121940613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14299869537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13812065124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18689918518066</t>
+    <t xml:space="preserve">2.14299845695496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1381208896637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18689942359924</t>
   </si>
   <si>
     <t xml:space="preserve">2.19665455818176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20315885543823</t>
+    <t xml:space="preserve">2.20315837860107</t>
   </si>
   <si>
     <t xml:space="preserve">2.21128845214844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26494479179382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27632641792297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2893340587616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28608226776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27470064163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29095983505249</t>
+    <t xml:space="preserve">2.26494455337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27632617950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28933382034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28608250617981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2747004032135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29096007347107</t>
   </si>
   <si>
     <t xml:space="preserve">2.24543333053589</t>
@@ -740,100 +740,100 @@
     <t xml:space="preserve">2.24055552482605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21616625785828</t>
+    <t xml:space="preserve">2.21616649627686</t>
   </si>
   <si>
     <t xml:space="preserve">2.17551755905151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14137244224548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10234975814819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04219007492065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07308292388916</t>
+    <t xml:space="preserve">2.14137268066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10234999656677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04218983650208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07308316230774</t>
   </si>
   <si>
     <t xml:space="preserve">2.15438032150269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13161706924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1836473941803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14462494850159</t>
+    <t xml:space="preserve">2.13161683082581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18364715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14462471008301</t>
   </si>
   <si>
     <t xml:space="preserve">2.11210560798645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12673902511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15763211250305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14625072479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15600609779358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32510471343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30721926689148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29421162605286</t>
+    <t xml:space="preserve">2.12673854827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15763235092163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14625096321106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15600633621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32510447502136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30721950531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29421186447144</t>
   </si>
   <si>
     <t xml:space="preserve">2.31697487831116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32185292243958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40640234947205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40152430534363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41453146934509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41290593147278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47956943511963</t>
+    <t xml:space="preserve">2.321852684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40640187263489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40152406692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41453170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41290545463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47956967353821</t>
   </si>
   <si>
     <t xml:space="preserve">2.47631788253784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53647756576538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56899690628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57875227928162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58363032341003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61614918708801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60151553153992</t>
+    <t xml:space="preserve">2.53647780418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5689971446991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5787525177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58363056182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61614942550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6015157699585</t>
   </si>
   <si>
     <t xml:space="preserve">2.63403487205505</t>
@@ -845,22 +845,22 @@
     <t xml:space="preserve">2.58525657653809</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59826397895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59338593482971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61777520179749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62753081321716</t>
+    <t xml:space="preserve">2.59826374053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59338617324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61777496337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62753105163574</t>
   </si>
   <si>
     <t xml:space="preserve">2.60639381408691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60314154624939</t>
+    <t xml:space="preserve">2.60314130783081</t>
   </si>
   <si>
     <t xml:space="preserve">2.60801959037781</t>
@@ -872,67 +872,67 @@
     <t xml:space="preserve">2.59013414382935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62102723121643</t>
+    <t xml:space="preserve">2.62102699279785</t>
   </si>
   <si>
     <t xml:space="preserve">2.64216446876526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64704275131226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63240909576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65029406547546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70395040512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80963683128357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81288933753967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82427072525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79662990570068</t>
+    <t xml:space="preserve">2.64704251289368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63240885734558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65029430389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70395064353943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80963706970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81288909912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82427048683167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7966296672821</t>
   </si>
   <si>
     <t xml:space="preserve">2.80475926399231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77386665344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76411056518555</t>
+    <t xml:space="preserve">2.7738664150238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76411032676697</t>
   </si>
   <si>
     <t xml:space="preserve">2.71533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69744658470154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68443894386292</t>
+    <t xml:space="preserve">2.6974470615387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68443918228149</t>
   </si>
   <si>
     <t xml:space="preserve">2.69582056999207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68281316757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66655349731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65842413902283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63728642463684</t>
+    <t xml:space="preserve">2.68281292915344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66655373573303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65842390060425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63728666305542</t>
   </si>
   <si>
     <t xml:space="preserve">2.61452341079712</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">2.6242790222168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61940121650696</t>
+    <t xml:space="preserve">2.61940097808838</t>
   </si>
   <si>
     <t xml:space="preserve">2.55273723602295</t>
@@ -950,31 +950,31 @@
     <t xml:space="preserve">2.56411910057068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57550072669983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52509617805481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4860737323761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40802812576294</t>
+    <t xml:space="preserve">2.57550048828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52509593963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48607349395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40802764892578</t>
   </si>
   <si>
     <t xml:space="preserve">2.388516664505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34461641311646</t>
+    <t xml:space="preserve">2.34461617469788</t>
   </si>
   <si>
     <t xml:space="preserve">2.36250162124634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37388324737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43729472160339</t>
+    <t xml:space="preserve">2.37388300895691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43729519844055</t>
   </si>
   <si>
     <t xml:space="preserve">2.45355463027954</t>
@@ -989,16 +989,16 @@
     <t xml:space="preserve">2.50395894050598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52834844589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72346138954163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73159122467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56086754798889</t>
+    <t xml:space="preserve">2.52834820747375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72346186637878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73159146308899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56086730957031</t>
   </si>
   <si>
     <t xml:space="preserve">2.45518040657043</t>
@@ -1010,25 +1010,25 @@
     <t xml:space="preserve">2.48769950866699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54460787773132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49582886695862</t>
+    <t xml:space="preserve">2.54460763931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49582958221436</t>
   </si>
   <si>
     <t xml:space="preserve">2.51208877563477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52021837234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3332347869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39014291763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34136438369751</t>
+    <t xml:space="preserve">2.52021813392639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33323431015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39014267921448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34136414527893</t>
   </si>
   <si>
     <t xml:space="preserve">2.35762357711792</t>
@@ -1040,64 +1040,64 @@
     <t xml:space="preserve">2.34949421882629</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30884528160095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20334386825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17839980125427</t>
+    <t xml:space="preserve">2.30884504318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20334339141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17840003967285</t>
   </si>
   <si>
     <t xml:space="preserve">2.16177082061768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17008566856384</t>
+    <t xml:space="preserve">2.17008543014526</t>
   </si>
   <si>
     <t xml:space="preserve">2.09525465965271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07862567901611</t>
+    <t xml:space="preserve">2.07862591743469</t>
   </si>
   <si>
     <t xml:space="preserve">2.14514207839966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.269859790802</t>
+    <t xml:space="preserve">2.26985931396484</t>
   </si>
   <si>
     <t xml:space="preserve">2.37794780731201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21997261047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24491596221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22828674316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28648853302002</t>
+    <t xml:space="preserve">2.21997237205505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24491572380066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22828722000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2864887714386</t>
   </si>
   <si>
     <t xml:space="preserve">2.21165823936462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25323057174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27817392349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26154518127441</t>
+    <t xml:space="preserve">2.25323033332825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27817368507385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26154494285583</t>
   </si>
   <si>
     <t xml:space="preserve">2.18671464920044</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13682723045349</t>
+    <t xml:space="preserve">2.13682746887207</t>
   </si>
   <si>
     <t xml:space="preserve">2.15345644950867</t>
@@ -1109,34 +1109,34 @@
     <t xml:space="preserve">2.12851285934448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36131906509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35300445556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30311751365662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29480290412903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3280611038208</t>
+    <t xml:space="preserve">2.36131882667542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35300421714783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30311727523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29480314254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32806086540222</t>
   </si>
   <si>
     <t xml:space="preserve">2.31974673271179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3114321231842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23660182952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39457726478577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1035692691803</t>
+    <t xml:space="preserve">2.31143188476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23660159111023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39457702636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10356950759888</t>
   </si>
   <si>
     <t xml:space="preserve">2.12019848823547</t>
@@ -1145,85 +1145,85 @@
     <t xml:space="preserve">2.0703113079071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98716628551483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99548065662384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03705310821533</t>
+    <t xml:space="preserve">1.98716640472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99548101425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03705334663391</t>
   </si>
   <si>
     <t xml:space="preserve">2.04536771774292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06199669837952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0869402885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87907803058624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88739240169525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91233575344086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86244881153107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84581959247589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89570689201355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83750534057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79593276977539</t>
+    <t xml:space="preserve">2.0619969367981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08694052696228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87907779216766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88739228248596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91233587265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86244869232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84581971168518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89570653438568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83750522136688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79593300819397</t>
   </si>
   <si>
     <t xml:space="preserve">1.76267457008362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77930378913879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8125616312027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78761827945709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80424737930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82919085025787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82087647914886</t>
+    <t xml:space="preserve">1.77930390834808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81256198883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7876181602478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80424726009369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82919096946716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82087635993958</t>
   </si>
   <si>
     <t xml:space="preserve">1.87076318264008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92896461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93727910518646</t>
+    <t xml:space="preserve">1.92896473407745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93727946281433</t>
   </si>
   <si>
     <t xml:space="preserve">1.90402126312256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94559395313263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97885179519653</t>
+    <t xml:space="preserve">1.94559359550476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97885191440582</t>
   </si>
   <si>
     <t xml:space="preserve">2.05368232727051</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">2.01210975646973</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09671592712402</t>
+    <t xml:space="preserve">2.0967161655426</t>
   </si>
   <si>
     <t xml:space="preserve">2.08815789222717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06248378753662</t>
+    <t xml:space="preserve">2.0624840259552</t>
   </si>
   <si>
     <t xml:space="preserve">2.07104206085205</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">2.01113557815552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05392575263977</t>
+    <t xml:space="preserve">2.05392599105835</t>
   </si>
   <si>
     <t xml:space="preserve">2.11383199691772</t>
@@ -1262,19 +1262,19 @@
     <t xml:space="preserve">2.13094806671143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1737380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25076079368591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24220204353333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1908540725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18229627609253</t>
+    <t xml:space="preserve">2.17373824119568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25076031684875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24220252037048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19085431098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18229603767395</t>
   </si>
   <si>
     <t xml:space="preserve">2.2079701423645</t>
@@ -1283,49 +1283,49 @@
     <t xml:space="preserve">2.21652841567993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19941258430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22508597373962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1566219329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31066632270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30210876464844</t>
+    <t xml:space="preserve">2.19941234588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22508645057678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15662217140198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31066679954529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30210852622986</t>
   </si>
   <si>
     <t xml:space="preserve">2.33634090423584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32778239250183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29355025291443</t>
+    <t xml:space="preserve">2.32778263092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29355049133301</t>
   </si>
   <si>
     <t xml:space="preserve">2.34489846229553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35345673561096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42192077636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39624667167664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38768887519836</t>
+    <t xml:space="preserve">2.35345649719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42192101478577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39624691009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38768863677979</t>
   </si>
   <si>
     <t xml:space="preserve">2.40480494499207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47326922416687</t>
+    <t xml:space="preserve">2.47326898574829</t>
   </si>
   <si>
     <t xml:space="preserve">2.46471118927002</t>
@@ -1334,19 +1334,19 @@
     <t xml:space="preserve">2.41336274147034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36201429367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37057280540466</t>
+    <t xml:space="preserve">2.36201453208923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37057256698608</t>
   </si>
   <si>
     <t xml:space="preserve">2.37913060188293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31922483444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48182702064514</t>
+    <t xml:space="preserve">2.31922459602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48182725906372</t>
   </si>
   <si>
     <t xml:space="preserve">2.5417332649231</t>
@@ -1361,58 +1361,58 @@
     <t xml:space="preserve">2.49894332885742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51605939865112</t>
+    <t xml:space="preserve">2.51605916023254</t>
   </si>
   <si>
     <t xml:space="preserve">2.55029129981995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59308123588562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56740760803223</t>
+    <t xml:space="preserve">2.5930814743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56740736961365</t>
   </si>
   <si>
     <t xml:space="preserve">2.61019730567932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68721961975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64442944526672</t>
+    <t xml:space="preserve">2.6872193813324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6444296836853</t>
   </si>
   <si>
     <t xml:space="preserve">2.58452343940735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60163950920105</t>
+    <t xml:space="preserve">2.60163927078247</t>
   </si>
   <si>
     <t xml:space="preserve">2.53317546844482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43903684616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49038505554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27643442153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26787686347961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12239003181458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94267165660858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95122945308685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74583697319031</t>
+    <t xml:space="preserve">2.43903660774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49038529396057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27643418312073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26787638664246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12239027023315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94267129898071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95122933387756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74583685398102</t>
   </si>
   <si>
     <t xml:space="preserve">1.75439488887787</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">1.78006887435913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70732581615448</t>
+    <t xml:space="preserve">1.70732593536377</t>
   </si>
   <si>
     <t xml:space="preserve">1.70304691791534</t>
@@ -1436,58 +1436,58 @@
     <t xml:space="preserve">1.83997535705566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84853315353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81430089473724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87420749664307</t>
+    <t xml:space="preserve">1.84853327274323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81430101394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87420725822449</t>
   </si>
   <si>
     <t xml:space="preserve">1.93411362171173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07959985733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88276529312134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86564910411835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89132332801819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91699731349945</t>
+    <t xml:space="preserve">2.0796000957489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88276517391205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86564934253693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89132356643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91699755191803</t>
   </si>
   <si>
     <t xml:space="preserve">1.89988124370575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85709130764008</t>
+    <t xml:space="preserve">1.85709118843079</t>
   </si>
   <si>
     <t xml:space="preserve">1.95978760719299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98546147346497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96834564208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9769035577774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02825140953064</t>
+    <t xml:space="preserve">1.98546159267426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96834540367126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97690343856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0282518863678</t>
   </si>
   <si>
     <t xml:space="preserve">2.10527396202087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16518044471741</t>
+    <t xml:space="preserve">2.16518020629883</t>
   </si>
   <si>
     <t xml:space="preserve">2.25931835174561</t>
@@ -1496,13 +1496,13 @@
     <t xml:space="preserve">2.14806437492371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15589737892151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14709782600403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11189937591553</t>
+    <t xml:space="preserve">2.15589761734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14709806442261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11189961433411</t>
   </si>
   <si>
     <t xml:space="preserve">2.05910205841064</t>
@@ -1523,25 +1523,25 @@
     <t xml:space="preserve">2.10310006141663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12949872016907</t>
+    <t xml:space="preserve">2.12949895858765</t>
   </si>
   <si>
     <t xml:space="preserve">2.12069916725159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08550071716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07670116424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97110605239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95350682735443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96230673789978</t>
+    <t xml:space="preserve">2.08550095558167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07670092582703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97110629081726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95350706577301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96230661869049</t>
   </si>
   <si>
     <t xml:space="preserve">2.09430050849915</t>
@@ -1553,28 +1553,28 @@
     <t xml:space="preserve">2.16469717025757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20869493484497</t>
+    <t xml:space="preserve">2.20869517326355</t>
   </si>
   <si>
     <t xml:space="preserve">2.19989538192749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24389338493347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28789091110229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31429004669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39348602294922</t>
+    <t xml:space="preserve">2.24389314651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28789114952087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31428980827332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3934862613678</t>
   </si>
   <si>
     <t xml:space="preserve">2.41988492012024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43748426437378</t>
+    <t xml:space="preserve">2.4374840259552</t>
   </si>
   <si>
     <t xml:space="preserve">2.44628357887268</t>
@@ -1589,34 +1589,34 @@
     <t xml:space="preserve">2.56947779655457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56067824363708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58707690238953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60467624664307</t>
+    <t xml:space="preserve">2.56067848205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58707714080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60467648506165</t>
   </si>
   <si>
     <t xml:space="preserve">2.52547979354858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50788068771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61347603797913</t>
+    <t xml:space="preserve">2.50788044929504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61347579956055</t>
   </si>
   <si>
     <t xml:space="preserve">2.68387246131897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66627311706543</t>
+    <t xml:space="preserve">2.66627335548401</t>
   </si>
   <si>
     <t xml:space="preserve">2.63987445831299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67507290840149</t>
+    <t xml:space="preserve">2.67507266998291</t>
   </si>
   <si>
     <t xml:space="preserve">2.65747356414795</t>
@@ -1625,43 +1625,43 @@
     <t xml:space="preserve">2.64867401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63107466697693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62227511405945</t>
+    <t xml:space="preserve">2.63107490539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62227535247803</t>
   </si>
   <si>
     <t xml:space="preserve">2.74546933174133</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73666977882385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76306867599487</t>
+    <t xml:space="preserve">2.73666954040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76306843757629</t>
   </si>
   <si>
     <t xml:space="preserve">2.80706667900085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79826664924622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72786998748779</t>
+    <t xml:space="preserve">2.79826688766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72787046432495</t>
   </si>
   <si>
     <t xml:space="preserve">2.81586599349976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83346509933472</t>
+    <t xml:space="preserve">2.8334653377533</t>
   </si>
   <si>
     <t xml:space="preserve">2.8774631023407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88626265525818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9478600025177</t>
+    <t xml:space="preserve">2.8862624168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94785976409912</t>
   </si>
   <si>
     <t xml:space="preserve">2.97425866127014</t>
@@ -1676,13 +1676,13 @@
     <t xml:space="preserve">2.96545886993408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9126615524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85986399650574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84226512908936</t>
+    <t xml:space="preserve">2.91266131401062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85986375808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84226489067078</t>
   </si>
   <si>
     <t xml:space="preserve">2.85106444358826</t>
@@ -1691,19 +1691,19 @@
     <t xml:space="preserve">2.90386176109314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89506220817566</t>
+    <t xml:space="preserve">2.89506244659424</t>
   </si>
   <si>
     <t xml:space="preserve">2.9566593170166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93905997276306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93026065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0270562171936</t>
+    <t xml:space="preserve">2.93906021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93026041984558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02705597877502</t>
   </si>
   <si>
     <t xml:space="preserve">3.12385153770447</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">3.07105398178101</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19424843788147</t>
+    <t xml:space="preserve">3.19424796104431</t>
   </si>
   <si>
     <t xml:space="preserve">3.20304775238037</t>
@@ -1724,13 +1724,13 @@
     <t xml:space="preserve">3.23824596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29984331130981</t>
+    <t xml:space="preserve">3.29984307289124</t>
   </si>
   <si>
     <t xml:space="preserve">3.26464486122131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36144018173218</t>
+    <t xml:space="preserve">3.3614399433136</t>
   </si>
   <si>
     <t xml:space="preserve">3.34384083747864</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">3.33504128456116</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40543794631958</t>
+    <t xml:space="preserve">3.405437707901</t>
   </si>
   <si>
     <t xml:space="preserve">3.52863240242004</t>
@@ -1760,10 +1760,10 @@
     <t xml:space="preserve">3.44063663482666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41423749923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39663815498352</t>
+    <t xml:space="preserve">3.41423797607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3966383934021</t>
   </si>
   <si>
     <t xml:space="preserve">3.43216013908386</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">3.39631509780884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.476966381073</t>
+    <t xml:space="preserve">3.47696685791016</t>
   </si>
   <si>
     <t xml:space="preserve">3.46800518035889</t>
@@ -1784,7 +1784,7 @@
     <t xml:space="preserve">3.4948890209198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52177286148071</t>
+    <t xml:space="preserve">3.52177262306213</t>
   </si>
   <si>
     <t xml:space="preserve">3.57554030418396</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">3.58450150489807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60242390632629</t>
+    <t xml:space="preserve">3.60242414474487</t>
   </si>
   <si>
     <t xml:space="preserve">3.67411398887634</t>
@@ -1802,10 +1802,10 @@
     <t xml:space="preserve">3.73684287071228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72788119316101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79061055183411</t>
+    <t xml:space="preserve">3.72788143157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79061031341553</t>
   </si>
   <si>
     <t xml:space="preserve">3.74580383300781</t>
@@ -1814,58 +1814,58 @@
     <t xml:space="preserve">3.85333943367004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80853271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92502951622009</t>
+    <t xml:space="preserve">3.80853295326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92502903938293</t>
   </si>
   <si>
     <t xml:space="preserve">3.95191264152527</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83541631698608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76372623443604</t>
+    <t xml:space="preserve">3.83541679382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76372647285461</t>
   </si>
   <si>
     <t xml:space="preserve">3.78164887428284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88022255897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89814519882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69203662872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81749415397644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70995879173279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71892023086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84437799453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65619158744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68307518959045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6203465461731</t>
+    <t xml:space="preserve">3.8802227973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89814496040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69203639030457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81749439239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70995903015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71892046928406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8443775177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65619134902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68307542800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62034630775452</t>
   </si>
   <si>
     <t xml:space="preserve">3.53969526290894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64723014831543</t>
+    <t xml:space="preserve">3.64723038673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.82645535469055</t>
@@ -1877,13 +1877,13 @@
     <t xml:space="preserve">3.79957127571106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7547652721405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01464128494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96983528137207</t>
+    <t xml:space="preserve">3.75476551055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01464176177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96983551979065</t>
   </si>
   <si>
     <t xml:space="preserve">4.00568056106567</t>
@@ -1901,16 +1901,16 @@
     <t xml:space="preserve">4.1400990486145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98775792121887</t>
+    <t xml:space="preserve">3.98775768280029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91606783866882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90710639953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07737064361572</t>
+    <t xml:space="preserve">3.90710687637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07737016677856</t>
   </si>
   <si>
     <t xml:space="preserve">4.03256416320801</t>
@@ -1922,19 +1922,19 @@
     <t xml:space="preserve">4.02360248565674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96087408065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11321544647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04152584075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08633136749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77268767356873</t>
+    <t xml:space="preserve">3.96087455749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11321592330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04152536392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08633184432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7726879119873</t>
   </si>
   <si>
     <t xml:space="preserve">3.62930798530579</t>
@@ -1946,10 +1946,10 @@
     <t xml:space="preserve">3.54865670204163</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40527629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37839293479919</t>
+    <t xml:space="preserve">3.40527653694153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37839245796204</t>
   </si>
   <si>
     <t xml:space="preserve">3.41423773765564</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">3.4590437412262</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56657910346985</t>
+    <t xml:space="preserve">3.56657886505127</t>
   </si>
   <si>
     <t xml:space="preserve">3.50385046005249</t>
@@ -1976,10 +1976,10 @@
     <t xml:space="preserve">3.53073406219482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48592805862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3335862159729</t>
+    <t xml:space="preserve">3.48592782020569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33358645439148</t>
   </si>
   <si>
     <t xml:space="preserve">3.3515088558197</t>
@@ -1991,25 +1991,25 @@
     <t xml:space="preserve">3.23501253128052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31566405296326</t>
+    <t xml:space="preserve">3.31566381454468</t>
   </si>
   <si>
     <t xml:space="preserve">3.26189637184143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.091632604599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18124508857727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66515278816223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70099782943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59346294403076</t>
+    <t xml:space="preserve">3.09163284301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18124485015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66515302658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70099759101868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59346270561218</t>
   </si>
   <si>
     <t xml:space="preserve">3.51281142234802</t>
@@ -2021,10 +2021,10 @@
     <t xml:space="preserve">3.71200084686279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70281267166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65687203407288</t>
+    <t xml:space="preserve">3.70281291007996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65687227249146</t>
   </si>
   <si>
     <t xml:space="preserve">3.74875330924988</t>
@@ -2033,13 +2033,13 @@
     <t xml:space="preserve">3.72118902206421</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41798090934753</t>
+    <t xml:space="preserve">3.41798114776611</t>
   </si>
   <si>
     <t xml:space="preserve">3.43635725975037</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48229789733887</t>
+    <t xml:space="preserve">3.48229765892029</t>
   </si>
   <si>
     <t xml:space="preserve">3.46392154693604</t>
@@ -2063,16 +2063,16 @@
     <t xml:space="preserve">3.45473337173462</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44554543495178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4087929725647</t>
+    <t xml:space="preserve">3.4455451965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40879273414612</t>
   </si>
   <si>
     <t xml:space="preserve">3.55580282211304</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64768409729004</t>
+    <t xml:space="preserve">3.64768385887146</t>
   </si>
   <si>
     <t xml:space="preserve">3.68443655967712</t>
@@ -2093,7 +2093,10 @@
     <t xml:space="preserve">3.69362449645996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5925555229187</t>
+    <t xml:space="preserve">3.62930774688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59255528450012</t>
   </si>
   <si>
     <t xml:space="preserve">3.4914858341217</t>
@@ -2123,16 +2126,16 @@
     <t xml:space="preserve">3.19746613502502</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26178288459778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23421835899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20665431022644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99532723426819</t>
+    <t xml:space="preserve">3.2617826461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23421859741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20665407180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99532747268677</t>
   </si>
   <si>
     <t xml:space="preserve">3.05964422225952</t>
@@ -2147,7 +2150,7 @@
     <t xml:space="preserve">2.84831738471985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75643610954285</t>
+    <t xml:space="preserve">2.75643634796143</t>
   </si>
   <si>
     <t xml:space="preserve">2.66455507278442</t>
@@ -2162,10 +2165,10 @@
     <t xml:space="preserve">2.82994103431702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78400063514709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93101072311401</t>
+    <t xml:space="preserve">2.78400039672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93101048469543</t>
   </si>
   <si>
     <t xml:space="preserve">2.91263437271118</t>
@@ -2174,7 +2177,7 @@
     <t xml:space="preserve">2.90344619750977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94019865989685</t>
+    <t xml:space="preserve">2.94019889831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.08720850944519</t>
@@ -2183,7 +2186,7 @@
     <t xml:space="preserve">3.10558485984802</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17908978462219</t>
+    <t xml:space="preserve">3.17909002304077</t>
   </si>
   <si>
     <t xml:space="preserve">3.18827795982361</t>
@@ -2201,7 +2204,7 @@
     <t xml:space="preserve">3.05045604705811</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12396121025085</t>
+    <t xml:space="preserve">3.12396097183228</t>
   </si>
   <si>
     <t xml:space="preserve">3.16071367263794</t>
@@ -2210,7 +2213,7 @@
     <t xml:space="preserve">3.09639668464661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07802033424377</t>
+    <t xml:space="preserve">3.07802057266235</t>
   </si>
   <si>
     <t xml:space="preserve">3.01370358467102</t>
@@ -2222,7 +2225,7 @@
     <t xml:space="preserve">3.04126811027527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88507008552551</t>
+    <t xml:space="preserve">2.88506984710693</t>
   </si>
   <si>
     <t xml:space="preserve">2.81156492233276</t>
@@ -2240,7 +2243,7 @@
     <t xml:space="preserve">3.14233732223511</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16990184783936</t>
+    <t xml:space="preserve">3.16990160942078</t>
   </si>
   <si>
     <t xml:space="preserve">3.28934717178345</t>
@@ -2249,7 +2252,7 @@
     <t xml:space="preserve">3.3169116973877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3628523349762</t>
+    <t xml:space="preserve">3.36285209655762</t>
   </si>
   <si>
     <t xml:space="preserve">3.38122844696045</t>
@@ -2258,13 +2261,13 @@
     <t xml:space="preserve">3.28015923500061</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50067400932312</t>
+    <t xml:space="preserve">3.50067377090454</t>
   </si>
   <si>
     <t xml:space="preserve">3.52823829650879</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60174345970154</t>
+    <t xml:space="preserve">3.60174322128296</t>
   </si>
   <si>
     <t xml:space="preserve">3.63849592208862</t>
@@ -2276,10 +2279,10 @@
     <t xml:space="preserve">3.76712942123413</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75794148445129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77631759643555</t>
+    <t xml:space="preserve">3.75794172286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77631783485413</t>
   </si>
   <si>
     <t xml:space="preserve">3.8148148059845</t>
@@ -46479,7 +46482,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1677" t="s">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46505,7 +46508,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1678" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46557,7 +46560,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1680" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46583,7 +46586,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1681" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46713,7 +46716,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46739,7 +46742,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1687" t="s">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46765,7 +46768,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1688" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46791,7 +46794,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1689" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46869,7 +46872,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1692" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46895,7 +46898,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1693" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46921,7 +46924,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1694" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46999,7 +47002,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1697" t="s">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47025,7 +47028,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1698" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47051,7 +47054,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1699" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47077,7 +47080,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1700" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47129,7 +47132,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1702" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47155,7 +47158,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1703" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47181,7 +47184,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1704" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47207,7 +47210,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1705" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47337,7 +47340,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1710" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47389,7 +47392,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1712" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47415,7 +47418,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1713" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47441,7 +47444,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1714" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47467,7 +47470,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1715" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47493,7 +47496,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1716" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47519,7 +47522,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1717" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47545,7 +47548,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1718" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47571,7 +47574,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47597,7 +47600,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1720" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47623,7 +47626,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1721" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47649,7 +47652,7 @@
         <v>3</v>
       </c>
       <c r="G1722" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47675,7 +47678,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1723" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47701,7 +47704,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1724" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47727,7 +47730,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1725" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47753,7 +47756,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1726" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47779,7 +47782,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1727" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47805,7 +47808,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1728" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47831,7 +47834,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1729" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47857,7 +47860,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1730" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47883,7 +47886,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1731" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47909,7 +47912,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1732" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47935,7 +47938,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1733" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47961,7 +47964,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1734" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47987,7 +47990,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1735" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48013,7 +48016,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1736" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48039,7 +48042,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1737" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48065,7 +48068,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1738" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48091,7 +48094,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1739" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48117,7 +48120,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1740" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48143,7 +48146,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1741" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48169,7 +48172,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1742" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48195,7 +48198,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1743" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48221,7 +48224,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1744" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48247,7 +48250,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1745" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48273,7 +48276,7 @@
         <v>3.5</v>
       </c>
       <c r="G1746" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48299,7 +48302,7 @@
         <v>3.5</v>
       </c>
       <c r="G1747" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48325,7 +48328,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1748" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48351,7 +48354,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1749" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48377,7 +48380,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1750" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48403,7 +48406,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1751" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48429,7 +48432,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1752" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48455,7 +48458,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1753" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48481,7 +48484,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1754" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48507,7 +48510,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1755" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48533,7 +48536,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1756" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48559,7 +48562,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1757" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48585,7 +48588,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1758" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48611,7 +48614,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1759" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48637,7 +48640,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1760" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48663,7 +48666,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1761" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48689,7 +48692,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1762" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48715,7 +48718,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48741,7 +48744,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1764" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48767,7 +48770,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1765" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48793,7 +48796,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1766" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48819,7 +48822,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1767" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48845,7 +48848,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1768" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48871,7 +48874,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1769" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48897,7 +48900,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1770" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48923,7 +48926,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48949,7 +48952,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1772" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48975,7 +48978,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1773" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49001,7 +49004,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1774" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49027,7 +49030,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1775" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49053,7 +49056,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1776" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49079,7 +49082,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1777" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49105,7 +49108,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1778" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49131,7 +49134,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1779" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49157,7 +49160,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1780" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49183,7 +49186,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1781" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49209,7 +49212,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49235,7 +49238,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1783" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49261,7 +49264,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1784" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49287,7 +49290,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1785" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49313,7 +49316,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1786" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49339,7 +49342,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1787" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49365,7 +49368,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49391,7 +49394,7 @@
         <v>3.25</v>
       </c>
       <c r="G1789" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49417,7 +49420,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1790" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49443,7 +49446,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1791" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49469,7 +49472,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1792" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49495,7 +49498,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1793" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49521,7 +49524,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49547,7 +49550,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49573,7 +49576,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1796" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49599,7 +49602,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1797" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49625,7 +49628,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1798" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49651,7 +49654,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1799" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49677,7 +49680,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1800" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49703,7 +49706,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1801" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49729,7 +49732,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49781,7 +49784,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1804" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49807,7 +49810,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1805" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49833,7 +49836,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1806" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49859,7 +49862,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1807" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49885,7 +49888,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1808" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49963,7 +49966,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1811" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50171,7 +50174,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1819" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50353,7 +50356,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1826" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50379,7 +50382,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1827" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50405,7 +50408,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1828" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50457,7 +50460,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1830" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50483,7 +50486,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1831" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50509,7 +50512,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1832" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50535,7 +50538,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1833" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50561,7 +50564,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50587,7 +50590,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1835" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50665,7 +50668,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1838" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50821,7 +50824,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1844" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50899,7 +50902,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1847" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51081,7 +51084,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1854" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51107,7 +51110,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1855" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51133,7 +51136,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1856" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51185,7 +51188,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1858" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51211,7 +51214,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1859" t="s">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51237,7 +51240,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1860" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51289,7 +51292,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1862" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51393,7 +51396,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1866" t="s">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51419,7 +51422,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1867" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51549,7 +51552,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1872" t="s">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51679,7 +51682,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1877" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51731,7 +51734,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1879" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51757,7 +51760,7 @@
         <v>4</v>
       </c>
       <c r="G1880" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51783,7 +51786,7 @@
         <v>4</v>
       </c>
       <c r="G1881" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51809,7 +51812,7 @@
         <v>4</v>
       </c>
       <c r="G1882" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51835,7 +51838,7 @@
         <v>4</v>
       </c>
       <c r="G1883" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51861,7 +51864,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51887,7 +51890,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1885" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51913,7 +51916,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1886" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51939,7 +51942,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51965,7 +51968,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1888" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51991,7 +51994,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1889" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52017,7 +52020,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1890" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52043,7 +52046,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1891" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52069,7 +52072,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1892" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52095,7 +52098,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1893" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52121,7 +52124,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1894" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52147,7 +52150,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1895" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52173,7 +52176,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52199,7 +52202,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1897" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52225,7 +52228,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52251,7 +52254,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1899" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52277,7 +52280,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1900" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52303,7 +52306,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1901" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52329,7 +52332,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1902" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52355,7 +52358,7 @@
         <v>4</v>
       </c>
       <c r="G1903" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52381,7 +52384,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1904" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52407,7 +52410,7 @@
         <v>4</v>
       </c>
       <c r="G1905" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52433,7 +52436,7 @@
         <v>4</v>
       </c>
       <c r="G1906" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52459,7 +52462,7 @@
         <v>4</v>
       </c>
       <c r="G1907" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52485,7 +52488,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1908" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52511,7 +52514,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1909" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52537,7 +52540,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1910" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52563,7 +52566,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1911" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52589,7 +52592,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1912" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52615,7 +52618,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1913" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52641,7 +52644,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1914" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52667,7 +52670,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1915" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52693,7 +52696,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1916" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52719,7 +52722,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1917" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52745,7 +52748,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1918" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52771,7 +52774,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1919" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52797,7 +52800,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1920" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52823,7 +52826,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1921" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52849,7 +52852,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1922" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52875,7 +52878,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52901,7 +52904,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1924" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52927,7 +52930,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1925" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52953,7 +52956,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1926" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52979,7 +52982,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1927" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53005,7 +53008,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53031,7 +53034,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1929" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53057,7 +53060,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1930" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53083,7 +53086,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53109,7 +53112,7 @@
         <v>4.25</v>
       </c>
       <c r="G1932" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53135,7 +53138,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53161,7 +53164,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1934" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53187,7 +53190,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1935" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53213,7 +53216,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1936" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53239,7 +53242,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1937" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53265,7 +53268,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1938" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53291,7 +53294,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1939" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53317,7 +53320,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1940" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53343,7 +53346,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1941" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53369,7 +53372,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1942" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53395,7 +53398,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1943" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53421,7 +53424,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1944" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53447,7 +53450,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1945" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53473,7 +53476,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1946" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53499,7 +53502,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1947" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53525,7 +53528,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53551,7 +53554,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1949" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53577,7 +53580,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1950" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53603,7 +53606,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53629,7 +53632,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1952" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53655,7 +53658,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1953" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53681,7 +53684,7 @@
         <v>4</v>
       </c>
       <c r="G1954" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53707,7 +53710,7 @@
         <v>4</v>
       </c>
       <c r="G1955" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53733,7 +53736,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53759,7 +53762,7 @@
         <v>4</v>
       </c>
       <c r="G1957" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53785,7 +53788,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1958" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53811,7 +53814,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1959" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53837,7 +53840,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1960" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53863,7 +53866,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1961" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53889,7 +53892,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1962" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53915,7 +53918,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1963" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53941,7 +53944,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1964" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53967,7 +53970,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1965" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53993,7 +53996,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1966" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54019,7 +54022,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1967" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54045,7 +54048,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1968" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54071,7 +54074,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54097,7 +54100,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1970" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54123,7 +54126,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54149,7 +54152,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1972" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54175,7 +54178,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1973" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54201,7 +54204,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1974" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54227,7 +54230,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1975" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54253,7 +54256,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54279,7 +54282,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1977" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54305,7 +54308,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1978" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54331,7 +54334,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1979" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54357,7 +54360,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54383,7 +54386,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1981" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54409,7 +54412,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1982" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54435,7 +54438,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1983" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54461,7 +54464,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1984" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54487,7 +54490,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1985" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54513,7 +54516,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1986" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54539,7 +54542,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1987" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54565,7 +54568,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54591,7 +54594,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1989" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54617,7 +54620,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1990" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54643,7 +54646,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1991" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54669,7 +54672,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1992" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54695,7 +54698,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1993" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54721,7 +54724,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54747,7 +54750,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54773,7 +54776,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1996" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54799,7 +54802,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1997" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54825,7 +54828,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54851,7 +54854,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1999" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54877,7 +54880,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2000" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54903,7 +54906,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54929,7 +54932,7 @@
         <v>4</v>
       </c>
       <c r="G2002" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54955,7 +54958,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2003" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54981,7 +54984,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2004" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55007,7 +55010,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2005" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55033,7 +55036,7 @@
         <v>4</v>
       </c>
       <c r="G2006" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55059,7 +55062,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2007" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55085,7 +55088,7 @@
         <v>4</v>
       </c>
       <c r="G2008" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55111,7 +55114,7 @@
         <v>4</v>
       </c>
       <c r="G2009" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55137,7 +55140,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G2010" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55163,7 +55166,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G2011" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55189,7 +55192,7 @@
         <v>4</v>
       </c>
       <c r="G2012" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55215,7 +55218,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G2013" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55241,7 +55244,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2014" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55267,7 +55270,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55293,7 +55296,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2016" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55319,7 +55322,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55345,7 +55348,7 @@
         <v>4</v>
       </c>
       <c r="G2018" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55371,7 +55374,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2019" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55397,7 +55400,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2020" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55423,7 +55426,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2021" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55449,7 +55452,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2022" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55475,7 +55478,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2023" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55501,7 +55504,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2024" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55527,7 +55530,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55553,7 +55556,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55579,7 +55582,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55605,7 +55608,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2028" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55631,7 +55634,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2029" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55657,7 +55660,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2030" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55683,7 +55686,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2031" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55709,7 +55712,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2032" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55735,7 +55738,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2033" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55761,7 +55764,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55787,7 +55790,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2035" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55813,7 +55816,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2036" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55839,7 +55842,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2037" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55865,7 +55868,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2038" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55891,7 +55894,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G2039" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55917,7 +55920,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2040" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55943,7 +55946,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2041" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55969,7 +55972,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2042" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55995,7 +55998,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2043" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56021,7 +56024,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2044" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56047,7 +56050,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2045" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56073,7 +56076,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2046" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56099,7 +56102,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2047" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56125,7 +56128,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2048" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56151,7 +56154,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2049" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56177,7 +56180,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2050" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56203,7 +56206,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2051" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56229,7 +56232,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2052" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56255,7 +56258,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2053" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56281,7 +56284,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2054" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56307,7 +56310,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G2055" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56333,7 +56336,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2056" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56359,7 +56362,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G2057" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56385,7 +56388,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2058" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56411,7 +56414,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2059" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56437,7 +56440,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G2060" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56463,7 +56466,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G2061" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56489,7 +56492,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2062" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56515,7 +56518,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2063" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56541,7 +56544,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2064" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56567,7 +56570,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2065" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56593,7 +56596,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G2066" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56619,7 +56622,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2067" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56645,7 +56648,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2068" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56671,7 +56674,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2069" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56697,7 +56700,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2070" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56723,7 +56726,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2071" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56749,7 +56752,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2072" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56775,7 +56778,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G2073" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56801,7 +56804,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2074" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56827,7 +56830,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G2075" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56853,7 +56856,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2076" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56879,7 +56882,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2077" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56905,7 +56908,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G2078" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56931,7 +56934,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56957,7 +56960,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2080" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56983,7 +56986,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2081" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57009,7 +57012,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2082" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57035,7 +57038,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2083" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57061,7 +57064,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2084" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57087,7 +57090,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2085" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57113,7 +57116,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2086" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57139,7 +57142,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57165,7 +57168,7 @@
         <v>4.5</v>
       </c>
       <c r="G2088" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57191,7 +57194,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G2089" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57217,7 +57220,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G2090" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57243,7 +57246,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2091" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57269,7 +57272,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G2092" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57295,7 +57298,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G2093" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57321,7 +57324,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G2094" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57347,7 +57350,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2095" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57373,7 +57376,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2096" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57399,7 +57402,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57425,7 +57428,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2098" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57451,7 +57454,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2099" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57477,7 +57480,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2100" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57503,7 +57506,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57529,7 +57532,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2102" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57555,7 +57558,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2103" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57581,7 +57584,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2104" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57607,7 +57610,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2105" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57633,7 +57636,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57659,7 +57662,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2107" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57685,7 +57688,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2108" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57711,7 +57714,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2109" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57737,7 +57740,7 @@
         <v>4.98999977111816</v>
       </c>
       <c r="G2110" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57763,7 +57766,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2111" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57789,7 +57792,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G2112" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57815,7 +57818,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2113" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57841,7 +57844,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G2114" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57867,7 +57870,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2115" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57893,7 +57896,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2116" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57919,7 +57922,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2117" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57945,7 +57948,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2118" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57971,7 +57974,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2119" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57997,7 +58000,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2120" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58023,7 +58026,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2121" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58049,7 +58052,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2122" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58075,7 +58078,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2123" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58101,7 +58104,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2124" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58127,7 +58130,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2125" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58153,7 +58156,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2126" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58179,7 +58182,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2127" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58205,7 +58208,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2128" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58231,7 +58234,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2129" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58257,7 +58260,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G2130" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58283,7 +58286,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2131" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58309,7 +58312,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58335,7 +58338,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G2133" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58361,7 +58364,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2134" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58387,7 +58390,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2135" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58413,7 +58416,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2136" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58439,7 +58442,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2137" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58465,7 +58468,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2138" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58491,7 +58494,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2139" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58517,7 +58520,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2140" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58543,7 +58546,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2141" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58569,7 +58572,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2142" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58595,7 +58598,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2143" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58621,7 +58624,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2144" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58647,7 +58650,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>

--- a/data/CALT.MI.xlsx
+++ b/data/CALT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="846">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80173289775848</t>
+    <t xml:space="preserve">1.8017326593399</t>
   </si>
   <si>
     <t xml:space="preserve">CALT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80949890613556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77843475341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72407209873199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73494434356689</t>
+    <t xml:space="preserve">1.80949866771698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77843427658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72407174110413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73494410514832</t>
   </si>
   <si>
     <t xml:space="preserve">1.71164608001709</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">1.70077359676361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63243210315704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55244123935699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53613245487213</t>
+    <t xml:space="preserve">1.63243222236633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55244112014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53613257408142</t>
   </si>
   <si>
     <t xml:space="preserve">1.53768587112427</t>
@@ -77,19 +77,19 @@
     <t xml:space="preserve">1.49031269550323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49885535240173</t>
+    <t xml:space="preserve">1.49885523319244</t>
   </si>
   <si>
     <t xml:space="preserve">1.47555708885193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47322714328766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46779096126556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47245049476624</t>
+    <t xml:space="preserve">1.47322726249695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46779108047485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47245073318481</t>
   </si>
   <si>
     <t xml:space="preserve">1.46002495288849</t>
@@ -101,67 +101,67 @@
     <t xml:space="preserve">1.43672668933868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45070540904999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4079921245575</t>
+    <t xml:space="preserve">1.45070564746857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40799188613892</t>
   </si>
   <si>
     <t xml:space="preserve">1.38624715805054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39789617061615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39323663711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43595004081726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40566217899323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43284356594086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42119443416595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43051373958588</t>
+    <t xml:space="preserve">1.39789605140686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39323651790619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43594980239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40566229820251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43284380435944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42119431495667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43051385879517</t>
   </si>
   <si>
     <t xml:space="preserve">1.48487627506256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4631313085556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49963164329529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51749396324158</t>
+    <t xml:space="preserve">1.46313118934631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49963200092316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51749408245087</t>
   </si>
   <si>
     <t xml:space="preserve">1.56875002384186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58272910118103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57962262630463</t>
+    <t xml:space="preserve">1.58272922039032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57962238788605</t>
   </si>
   <si>
     <t xml:space="preserve">1.60292088985443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59981453418732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60758066177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62155938148499</t>
+    <t xml:space="preserve">1.59981441497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6075804233551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62155950069427</t>
   </si>
   <si>
     <t xml:space="preserve">1.66039001941681</t>
@@ -173,46 +173,46 @@
     <t xml:space="preserve">1.69300746917725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68524158000946</t>
+    <t xml:space="preserve">1.68524146080017</t>
   </si>
   <si>
     <t xml:space="preserve">1.69145452976227</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6774754524231</t>
+    <t xml:space="preserve">1.67747533321381</t>
   </si>
   <si>
     <t xml:space="preserve">1.71630573272705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70543324947357</t>
+    <t xml:space="preserve">1.70543348789215</t>
   </si>
   <si>
     <t xml:space="preserve">1.64641082286835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64796411991119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69611418247223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72251868247986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73183798789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75047647953033</t>
+    <t xml:space="preserve">1.64796423912048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69611394405365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72251844406128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73183786869049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75047659873962</t>
   </si>
   <si>
     <t xml:space="preserve">1.75513625144958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75668942928314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78620064258575</t>
+    <t xml:space="preserve">1.75668931007385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78620040416718</t>
   </si>
   <si>
     <t xml:space="preserve">1.80017960071564</t>
@@ -221,28 +221,28 @@
     <t xml:space="preserve">1.76756203174591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7706686258316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76290249824524</t>
+    <t xml:space="preserve">1.77066826820374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76290202140808</t>
   </si>
   <si>
     <t xml:space="preserve">1.73960399627686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74737012386322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73028481006622</t>
+    <t xml:space="preserve">1.74737024307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7302850484848</t>
   </si>
   <si>
     <t xml:space="preserve">1.74581682682037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70387995243073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70853972434998</t>
+    <t xml:space="preserve">1.7038801908493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70853960514069</t>
   </si>
   <si>
     <t xml:space="preserve">1.7380508184433</t>
@@ -251,10 +251,10 @@
     <t xml:space="preserve">1.76347029209137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74758327007294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75552654266357</t>
+    <t xml:space="preserve">1.74758315086365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75552678108215</t>
   </si>
   <si>
     <t xml:space="preserve">1.78571212291718</t>
@@ -266,13 +266,13 @@
     <t xml:space="preserve">1.75870418548584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77935719490051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78730070590973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71580898761749</t>
+    <t xml:space="preserve">1.7793573141098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78730094432831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71580910682678</t>
   </si>
   <si>
     <t xml:space="preserve">1.7348735332489</t>
@@ -284,10 +284,10 @@
     <t xml:space="preserve">1.71422028541565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66655898094177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62048602104187</t>
+    <t xml:space="preserve">1.66655886173248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62048614025116</t>
   </si>
   <si>
     <t xml:space="preserve">1.61254262924194</t>
@@ -296,46 +296,46 @@
     <t xml:space="preserve">1.57917964458466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.588711977005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65067183971405</t>
+    <t xml:space="preserve">1.58871209621429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65067160129547</t>
   </si>
   <si>
     <t xml:space="preserve">1.5863288640976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60936510562897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59665548801422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54899394512177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53151822090149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57997405529022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52516341209412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53310704231262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57282483577728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55693769454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66814732551575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65702641010284</t>
+    <t xml:space="preserve">1.60936522483826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59665536880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54899406433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53151834011078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57997393608093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52516353130341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53310692310333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57282495498657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55693781375885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66814756393433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65702676773071</t>
   </si>
   <si>
     <t xml:space="preserve">1.62842977046967</t>
@@ -347,61 +347,61 @@
     <t xml:space="preserve">1.73010730743408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72375249862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73963963985443</t>
+    <t xml:space="preserve">1.72375237941742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73963940143585</t>
   </si>
   <si>
     <t xml:space="preserve">1.67609107494354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63637328147888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64431691169739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69992196559906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69515573978424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63478457927704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60459911823273</t>
+    <t xml:space="preserve">1.63637316226959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6443167924881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69992172718048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69515585899353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63478446006775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60459887981415</t>
   </si>
   <si>
     <t xml:space="preserve">1.62684106826782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60301029682159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58076822757721</t>
+    <t xml:space="preserve">1.6030101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5807683467865</t>
   </si>
   <si>
     <t xml:space="preserve">1.59983277320862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64113938808441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61730861663818</t>
+    <t xml:space="preserve">1.6411395072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61730849742889</t>
   </si>
   <si>
     <t xml:space="preserve">1.63955068588257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61095404624939</t>
+    <t xml:space="preserve">1.6109539270401</t>
   </si>
   <si>
     <t xml:space="preserve">1.58791756629944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57679653167725</t>
+    <t xml:space="preserve">1.57679677009583</t>
   </si>
   <si>
     <t xml:space="preserve">1.56249809265137</t>
@@ -410,31 +410,31 @@
     <t xml:space="preserve">1.56329262256622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59188938140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6252521276474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63319599628448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64272820949554</t>
+    <t xml:space="preserve">1.59188950061798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62525236606598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63319575786591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64272832870483</t>
   </si>
   <si>
     <t xml:space="preserve">1.65226030349731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5585263967514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56488132476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5307240486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55296587944031</t>
+    <t xml:space="preserve">1.55852651596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56488144397736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53072392940521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5529659986496</t>
   </si>
   <si>
     <t xml:space="preserve">1.5640869140625</t>
@@ -443,70 +443,70 @@
     <t xml:space="preserve">1.58712315559387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66020405292511</t>
+    <t xml:space="preserve">1.66020393371582</t>
   </si>
   <si>
     <t xml:space="preserve">1.6474940776825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62366342544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62207508087158</t>
+    <t xml:space="preserve">1.62366354465485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62207496166229</t>
   </si>
   <si>
     <t xml:space="preserve">1.63160705566406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65861511230469</t>
+    <t xml:space="preserve">1.65861535072327</t>
   </si>
   <si>
     <t xml:space="preserve">1.65384912490845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66497004032135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70945394039154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7078652381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74599456787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69197821617126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69833326339722</t>
+    <t xml:space="preserve">1.66497015953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70945382118225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70786571502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7459944486618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69197833538055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69833302497864</t>
   </si>
   <si>
     <t xml:space="preserve">1.70627665519714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69356679916382</t>
+    <t xml:space="preserve">1.69356715679169</t>
   </si>
   <si>
     <t xml:space="preserve">1.72534108161926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72851836681366</t>
+    <t xml:space="preserve">1.72851872444153</t>
   </si>
   <si>
     <t xml:space="preserve">1.7984219789505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79524457454681</t>
+    <t xml:space="preserve">1.79524481296539</t>
   </si>
   <si>
     <t xml:space="preserve">1.81113147735596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81589782238007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7714136838913</t>
+    <t xml:space="preserve">1.81589770317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77141392230988</t>
   </si>
   <si>
     <t xml:space="preserve">1.76823651790619</t>
@@ -515,82 +515,82 @@
     <t xml:space="preserve">1.80318808555603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82543015480042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82701873779297</t>
+    <t xml:space="preserve">1.8254302740097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82701885700226</t>
   </si>
   <si>
     <t xml:space="preserve">1.85084939002991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83496236801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81907498836517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80001080036163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8015992641449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85879266262054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86991393566132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88897883892059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88580083847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87468004226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89374470710754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88262367248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92869627475739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94776105880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92393016815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92551898956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92075288295746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93664002418518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91916382312775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93346226215363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92234134674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90645456314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439771652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89215564727783</t>
+    <t xml:space="preserve">1.83496224880219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81907510757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80001068115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80159938335419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85879302024841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8699141740799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88897860050201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88580107688904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87467992305756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89374458789825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88262355327606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92869591712952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94776093959808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92392981052399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92551875114441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92075276374817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93663954734802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91916418075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93346238136292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92234170436859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90645444393158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9143979549408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89215624332428</t>
   </si>
   <si>
     <t xml:space="preserve">1.90963184833527</t>
@@ -599,25 +599,25 @@
     <t xml:space="preserve">1.91757524013519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93822884559631</t>
+    <t xml:space="preserve">1.93822860717773</t>
   </si>
   <si>
     <t xml:space="preserve">2.02243041992188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97953534126282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99383354187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00177669525146</t>
+    <t xml:space="preserve">1.97953498363495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99383330345154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00177717208862</t>
   </si>
   <si>
     <t xml:space="preserve">1.9970109462738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03990602493286</t>
+    <t xml:space="preserve">2.03990626335144</t>
   </si>
   <si>
     <t xml:space="preserve">2.0637366771698</t>
@@ -626,19 +626,19 @@
     <t xml:space="preserve">2.07326889038086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08438992500305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08280110359192</t>
+    <t xml:space="preserve">2.08439016342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08280158042908</t>
   </si>
   <si>
     <t xml:space="preserve">2.08756756782532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06532549858093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07803463935852</t>
+    <t xml:space="preserve">2.06532526016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07803511619568</t>
   </si>
   <si>
     <t xml:space="preserve">2.08121275901794</t>
@@ -647,58 +647,58 @@
     <t xml:space="preserve">2.17063999176025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16901350021362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19340300559998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16251039505005</t>
+    <t xml:space="preserve">2.1690137386322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1934027671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16251015663147</t>
   </si>
   <si>
     <t xml:space="preserve">2.19502902030945</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25193691253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22754764556885</t>
+    <t xml:space="preserve">2.25193667411804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22754788398743</t>
   </si>
   <si>
     <t xml:space="preserve">2.23079991340637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2064106464386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24380731582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23242568969727</t>
+    <t xml:space="preserve">2.20641040802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24380707740784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23242592811584</t>
   </si>
   <si>
     <t xml:space="preserve">2.21941804885864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24218130111694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1234872341156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12999105453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11373162269592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12511348724365</t>
+    <t xml:space="preserve">2.24218106269836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12348699569702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12999081611633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11373138427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12511301040649</t>
   </si>
   <si>
     <t xml:space="preserve">2.12186121940613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14299845695496</t>
+    <t xml:space="preserve">2.14299869537354</t>
   </si>
   <si>
     <t xml:space="preserve">2.1381208896637</t>
@@ -707,73 +707,73 @@
     <t xml:space="preserve">2.18689942359924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19665455818176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20315837860107</t>
+    <t xml:space="preserve">2.19665479660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20315861701965</t>
   </si>
   <si>
     <t xml:space="preserve">2.21128845214844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26494455337524</t>
+    <t xml:space="preserve">2.26494431495667</t>
   </si>
   <si>
     <t xml:space="preserve">2.27632617950439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28933382034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28608250617981</t>
+    <t xml:space="preserve">2.2893340587616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28608226776123</t>
   </si>
   <si>
     <t xml:space="preserve">2.2747004032135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29096007347107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24543333053589</t>
+    <t xml:space="preserve">2.29095983505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24543356895447</t>
   </si>
   <si>
     <t xml:space="preserve">2.24055552482605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21616649627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17551755905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14137268066406</t>
+    <t xml:space="preserve">2.21616625785828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17551732063293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14137291908264</t>
   </si>
   <si>
     <t xml:space="preserve">2.10234999656677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04218983650208</t>
+    <t xml:space="preserve">2.04219007492065</t>
   </si>
   <si>
     <t xml:space="preserve">2.07308316230774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15438032150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13161683082581</t>
+    <t xml:space="preserve">2.15438055992126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13161706924438</t>
   </si>
   <si>
     <t xml:space="preserve">2.18364715576172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14462471008301</t>
+    <t xml:space="preserve">2.14462447166443</t>
   </si>
   <si>
     <t xml:space="preserve">2.11210560798645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12673854827881</t>
+    <t xml:space="preserve">2.12673926353455</t>
   </si>
   <si>
     <t xml:space="preserve">2.15763235092163</t>
@@ -791,25 +791,25 @@
     <t xml:space="preserve">2.30721950531006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29421186447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31697487831116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.321852684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40640187263489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40152406692505</t>
+    <t xml:space="preserve">2.29421162605286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31697463989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32185292243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40640211105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40152430534363</t>
   </si>
   <si>
     <t xml:space="preserve">2.41453170776367</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41290545463562</t>
+    <t xml:space="preserve">2.41290593147278</t>
   </si>
   <si>
     <t xml:space="preserve">2.47956967353821</t>
@@ -818,49 +818,49 @@
     <t xml:space="preserve">2.47631788253784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53647780418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5689971446991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5787525177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58363056182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61614942550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6015157699585</t>
+    <t xml:space="preserve">2.53647756576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56899690628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57875227928162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58363032341003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61614918708801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60151553153992</t>
   </si>
   <si>
     <t xml:space="preserve">2.63403487205505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62590479850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58525657653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59826374053955</t>
+    <t xml:space="preserve">2.62590503692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58525633811951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59826421737671</t>
   </si>
   <si>
     <t xml:space="preserve">2.59338617324829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61777496337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62753105163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60639381408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60314130783081</t>
+    <t xml:space="preserve">2.61777520179749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62753081321716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60639405250549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60314154624939</t>
   </si>
   <si>
     <t xml:space="preserve">2.60801959037781</t>
@@ -869,16 +869,16 @@
     <t xml:space="preserve">2.59176015853882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59013414382935</t>
+    <t xml:space="preserve">2.59013438224792</t>
   </si>
   <si>
     <t xml:space="preserve">2.62102699279785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64216446876526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64704251289368</t>
+    <t xml:space="preserve">2.64216470718384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64704275131226</t>
   </si>
   <si>
     <t xml:space="preserve">2.63240885734558</t>
@@ -887,10 +887,10 @@
     <t xml:space="preserve">2.65029430389404</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70395064353943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80963706970215</t>
+    <t xml:space="preserve">2.70395040512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80963683128357</t>
   </si>
   <si>
     <t xml:space="preserve">2.81288909912109</t>
@@ -899,31 +899,31 @@
     <t xml:space="preserve">2.82427048683167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7966296672821</t>
+    <t xml:space="preserve">2.79662942886353</t>
   </si>
   <si>
     <t xml:space="preserve">2.80475926399231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7738664150238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76411032676697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6974470615387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68443918228149</t>
+    <t xml:space="preserve">2.77386617660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76411056518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71533226966858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69744682312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68443894386292</t>
   </si>
   <si>
     <t xml:space="preserve">2.69582056999207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68281292915344</t>
+    <t xml:space="preserve">2.68281316757202</t>
   </si>
   <si>
     <t xml:space="preserve">2.66655373573303</t>
@@ -941,19 +941,19 @@
     <t xml:space="preserve">2.6242790222168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61940097808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55273723602295</t>
+    <t xml:space="preserve">2.6194007396698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55273747444153</t>
   </si>
   <si>
     <t xml:space="preserve">2.56411910057068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57550048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52509593963623</t>
+    <t xml:space="preserve">2.57550072669983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52509617805481</t>
   </si>
   <si>
     <t xml:space="preserve">2.48607349395752</t>
@@ -965,19 +965,19 @@
     <t xml:space="preserve">2.388516664505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34461617469788</t>
+    <t xml:space="preserve">2.3446159362793</t>
   </si>
   <si>
     <t xml:space="preserve">2.36250162124634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37388300895691</t>
+    <t xml:space="preserve">2.37388324737549</t>
   </si>
   <si>
     <t xml:space="preserve">2.43729519844055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45355463027954</t>
+    <t xml:space="preserve">2.45355439186096</t>
   </si>
   <si>
     <t xml:space="preserve">2.43892097473145</t>
@@ -986,10 +986,10 @@
     <t xml:space="preserve">2.44705080986023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50395894050598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52834820747375</t>
+    <t xml:space="preserve">2.5039587020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52834796905518</t>
   </si>
   <si>
     <t xml:space="preserve">2.72346186637878</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">2.56086730957031</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45518040657043</t>
+    <t xml:space="preserve">2.45518064498901</t>
   </si>
   <si>
     <t xml:space="preserve">2.47143983840942</t>
@@ -1013,10 +1013,10 @@
     <t xml:space="preserve">2.54460763931274</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49582958221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51208877563477</t>
+    <t xml:space="preserve">2.49582934379578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51208853721619</t>
   </si>
   <si>
     <t xml:space="preserve">2.52021813392639</t>
@@ -1031,19 +1031,19 @@
     <t xml:space="preserve">2.34136414527893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35762357711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36575317382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34949421882629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30884504318237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20334339141846</t>
+    <t xml:space="preserve">2.3576238155365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36575365066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34949398040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30884480476379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20334362983704</t>
   </si>
   <si>
     <t xml:space="preserve">2.17840003967285</t>
@@ -1061,16 +1061,16 @@
     <t xml:space="preserve">2.07862591743469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14514207839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26985931396484</t>
+    <t xml:space="preserve">2.14514183998108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26985955238342</t>
   </si>
   <si>
     <t xml:space="preserve">2.37794780731201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21997237205505</t>
+    <t xml:space="preserve">2.21997261047363</t>
   </si>
   <si>
     <t xml:space="preserve">2.24491572380066</t>
@@ -1085,13 +1085,13 @@
     <t xml:space="preserve">2.21165823936462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25323033332825</t>
+    <t xml:space="preserve">2.25323057174683</t>
   </si>
   <si>
     <t xml:space="preserve">2.27817368507385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26154494285583</t>
+    <t xml:space="preserve">2.26154518127441</t>
   </si>
   <si>
     <t xml:space="preserve">2.18671464920044</t>
@@ -1115,22 +1115,22 @@
     <t xml:space="preserve">2.35300421714783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30311727523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29480314254761</t>
+    <t xml:space="preserve">2.30311703681946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29480290412903</t>
   </si>
   <si>
     <t xml:space="preserve">2.32806086540222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31974673271179</t>
+    <t xml:space="preserve">2.31974649429321</t>
   </si>
   <si>
     <t xml:space="preserve">2.31143188476562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23660159111023</t>
+    <t xml:space="preserve">2.23660182952881</t>
   </si>
   <si>
     <t xml:space="preserve">2.39457702636719</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">2.10356950759888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12019848823547</t>
+    <t xml:space="preserve">2.12019824981689</t>
   </si>
   <si>
     <t xml:space="preserve">2.0703113079071</t>
@@ -1148,7 +1148,7 @@
     <t xml:space="preserve">1.98716640472412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99548101425171</t>
+    <t xml:space="preserve">1.99548125267029</t>
   </si>
   <si>
     <t xml:space="preserve">2.03705334663391</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">2.0619969367981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08694052696228</t>
+    <t xml:space="preserve">2.0869402885437</t>
   </si>
   <si>
     <t xml:space="preserve">1.87907779216766</t>
@@ -1187,22 +1187,22 @@
     <t xml:space="preserve">1.79593300819397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76267457008362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77930390834808</t>
+    <t xml:space="preserve">1.76267433166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7793036699295</t>
   </si>
   <si>
     <t xml:space="preserve">1.81256198883057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7876181602478</t>
+    <t xml:space="preserve">1.78761839866638</t>
   </si>
   <si>
     <t xml:space="preserve">1.80424726009369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82919096946716</t>
+    <t xml:space="preserve">1.82919085025787</t>
   </si>
   <si>
     <t xml:space="preserve">1.82087635993958</t>
@@ -1214,13 +1214,13 @@
     <t xml:space="preserve">1.92896473407745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93727946281433</t>
+    <t xml:space="preserve">1.93727922439575</t>
   </si>
   <si>
     <t xml:space="preserve">1.90402126312256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94559359550476</t>
+    <t xml:space="preserve">1.94559371471405</t>
   </si>
   <si>
     <t xml:space="preserve">1.97885191440582</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">2.05368232727051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01210975646973</t>
+    <t xml:space="preserve">2.01210999488831</t>
   </si>
   <si>
     <t xml:space="preserve">2.0967161655426</t>
@@ -2547,6 +2547,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.38000011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42000007629395</t>
   </si>
 </sst>
 </file>
@@ -58632,7 +58635,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6493171296</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>10046</v>
@@ -58653,6 +58656,32 @@
         <v>843</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6493518519</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>9439</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>5.44000005722046</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>5.38000011444092</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>5.40000009536743</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>5.42000007629395</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>845</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CALT.MI.xlsx
+++ b/data/CALT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="848">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,94 +38,94 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80173277854919</t>
+    <t xml:space="preserve">1.8017326593399</t>
   </si>
   <si>
     <t xml:space="preserve">CALT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80949890613556</t>
+    <t xml:space="preserve">1.80949914455414</t>
   </si>
   <si>
     <t xml:space="preserve">1.77843463420868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72407209873199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73494446277618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71164619922638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70077383518219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63243222236633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55244135856628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53613269329071</t>
+    <t xml:space="preserve">1.72407197952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73494434356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71164608001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70077335834503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63243198394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55244123935699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53613245487213</t>
   </si>
   <si>
     <t xml:space="preserve">1.53768575191498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49031269550323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49885535240173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47555696964264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47322726249695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46779108047485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47245061397552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46002471446991</t>
+    <t xml:space="preserve">1.49031281471252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49885523319244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47555708885193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47322714328766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46779084205627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47245073318481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4600248336792</t>
   </si>
   <si>
     <t xml:space="preserve">1.4343968629837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43672657012939</t>
+    <t xml:space="preserve">1.43672668933868</t>
   </si>
   <si>
     <t xml:space="preserve">1.45070564746857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40799200534821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38624691963196</t>
+    <t xml:space="preserve">1.4079921245575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38624715805054</t>
   </si>
   <si>
     <t xml:space="preserve">1.39789617061615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3932363986969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43594992160797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40566229820251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43284368515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42119443416595</t>
+    <t xml:space="preserve">1.39323663711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43595004081726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40566217899323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43284344673157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42119431495667</t>
   </si>
   <si>
     <t xml:space="preserve">1.43051373958588</t>
@@ -137,25 +137,25 @@
     <t xml:space="preserve">1.46313118934631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49963188171387</t>
+    <t xml:space="preserve">1.49963200092316</t>
   </si>
   <si>
     <t xml:space="preserve">1.51749384403229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56875002384186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5827294588089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57962250709534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60292077064514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59981429576874</t>
+    <t xml:space="preserve">1.56875026226044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58272922039032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57962262630463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60292100906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59981441497803</t>
   </si>
   <si>
     <t xml:space="preserve">1.60758066177368</t>
@@ -164,118 +164,118 @@
     <t xml:space="preserve">1.62155950069427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66038978099823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66970920562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69300770759583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68524158000946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6914541721344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67747557163239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71630585193634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70543336868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64641082286835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64796423912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69611382484436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72251856327057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73183810710907</t>
+    <t xml:space="preserve">1.66039001941681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66970932483673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69300758838654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68524146080017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69145452976227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6774754524231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71630573272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70543324947357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64641106128693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6479640007019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69611418247223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72251868247986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73183798789978</t>
   </si>
   <si>
     <t xml:space="preserve">1.75047659873962</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75513625144958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75668966770172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78620040416718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80017971992493</t>
+    <t xml:space="preserve">1.75513637065887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75668931007385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78620076179504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80017960071564</t>
   </si>
   <si>
     <t xml:space="preserve">1.76756179332733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77066826820374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76290214061737</t>
+    <t xml:space="preserve">1.7706686258316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76290237903595</t>
   </si>
   <si>
     <t xml:space="preserve">1.73960399627686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74737012386322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73028492927551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74581694602966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70387983322144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70853960514069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7380508184433</t>
+    <t xml:space="preserve">1.74737024307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73028469085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74581670761108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70387995243073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70853972434998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73805069923401</t>
   </si>
   <si>
     <t xml:space="preserve">1.76347041130066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74758303165436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75552678108215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78571224212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76982522010803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75870406627655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7793573141098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78730082511902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71580910682678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73487329483032</t>
+    <t xml:space="preserve">1.74758327007294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75552654266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78571200370789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76982498168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75870418548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77935743331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78730070590973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7158088684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73487341403961</t>
   </si>
   <si>
     <t xml:space="preserve">1.73169612884521</t>
@@ -284,43 +284,43 @@
     <t xml:space="preserve">1.71422028541565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6665586233139</t>
+    <t xml:space="preserve">1.66655886173248</t>
   </si>
   <si>
     <t xml:space="preserve">1.62048614025116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61254251003265</t>
+    <t xml:space="preserve">1.61254262924194</t>
   </si>
   <si>
     <t xml:space="preserve">1.57917964458466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.588711977005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65067160129547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5863288640976</t>
+    <t xml:space="preserve">1.58871185779572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65067183971405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58632874488831</t>
   </si>
   <si>
     <t xml:space="preserve">1.60936522483826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59665548801422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54899406433105</t>
+    <t xml:space="preserve">1.59665536880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54899418354034</t>
   </si>
   <si>
     <t xml:space="preserve">1.53151822090149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57997417449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52516341209412</t>
+    <t xml:space="preserve">1.57997393608093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52516353130341</t>
   </si>
   <si>
     <t xml:space="preserve">1.53310704231262</t>
@@ -329,46 +329,46 @@
     <t xml:space="preserve">1.57282483577728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55693781375885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66814732551575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65702664852142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62842988967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68403446674347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73010718822479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.723752617836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73963975906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67609095573425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63637316226959</t>
+    <t xml:space="preserve">1.55693769454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66814744472504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65702652931213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62842977046967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68403458595276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73010742664337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72375249862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73963940143585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67609107494354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63637328147888</t>
   </si>
   <si>
     <t xml:space="preserve">1.64431691169739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69992184638977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69515562057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63478469848633</t>
+    <t xml:space="preserve">1.69992172718048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69515585899353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63478457927704</t>
   </si>
   <si>
     <t xml:space="preserve">1.60459899902344</t>
@@ -377,22 +377,22 @@
     <t xml:space="preserve">1.62684106826782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60301029682159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5807683467865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59983277320862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64113938808441</t>
+    <t xml:space="preserve">1.6030101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58076822757721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59983289241791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6411395072937</t>
   </si>
   <si>
     <t xml:space="preserve">1.61730873584747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63955056667328</t>
+    <t xml:space="preserve">1.63955068588257</t>
   </si>
   <si>
     <t xml:space="preserve">1.61095404624939</t>
@@ -401,25 +401,25 @@
     <t xml:space="preserve">1.58791756629944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57679653167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56249821186066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56329262256622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5918892621994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6252521276474</t>
+    <t xml:space="preserve">1.57679665088654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56249809265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56329238414764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59188938140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62525248527527</t>
   </si>
   <si>
     <t xml:space="preserve">1.63319599628448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64272832870483</t>
+    <t xml:space="preserve">1.64272820949554</t>
   </si>
   <si>
     <t xml:space="preserve">1.65226030349731</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">1.55852651596069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56488120555878</t>
+    <t xml:space="preserve">1.56488132476807</t>
   </si>
   <si>
     <t xml:space="preserve">1.53072392940521</t>
@@ -440,181 +440,181 @@
     <t xml:space="preserve">1.5640869140625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58712339401245</t>
+    <t xml:space="preserve">1.58712327480316</t>
   </si>
   <si>
     <t xml:space="preserve">1.66020405292511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6474940776825</t>
+    <t xml:space="preserve">1.64749419689178</t>
   </si>
   <si>
     <t xml:space="preserve">1.62366342544556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.622074842453</t>
+    <t xml:space="preserve">1.62207496166229</t>
   </si>
   <si>
     <t xml:space="preserve">1.63160705566406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65861523151398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65384924411774</t>
+    <t xml:space="preserve">1.65861535072327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65384900569916</t>
   </si>
   <si>
     <t xml:space="preserve">1.66497004032135</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70945382118225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7078652381897</t>
+    <t xml:space="preserve">1.70945417881012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70786535739899</t>
   </si>
   <si>
     <t xml:space="preserve">1.74599432945251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69197833538055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69833290576935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70627653598785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69356679916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72534108161926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72851884365082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79842174053192</t>
+    <t xml:space="preserve">1.69197821617126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69833314418793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70627665519714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69356691837311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72534132003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72851848602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79842209815979</t>
   </si>
   <si>
     <t xml:space="preserve">1.79524445533752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81113147735596</t>
+    <t xml:space="preserve">1.81113171577454</t>
   </si>
   <si>
     <t xml:space="preserve">1.81589794158936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77141392230988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76823663711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80318784713745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82543003559113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82701849937439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85084939002991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83496201038361</t>
+    <t xml:space="preserve">1.77141356468201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7682363986969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80318796634674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82543015480042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82701873779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85084974765778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83496224880219</t>
   </si>
   <si>
     <t xml:space="preserve">1.81907522678375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80001091957092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80159914493561</t>
+    <t xml:space="preserve">1.80001068115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80159902572632</t>
   </si>
   <si>
     <t xml:space="preserve">1.85879290103912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86991405487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88897836208344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88580095767975</t>
+    <t xml:space="preserve">1.86991393566132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88897860050201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88580131530762</t>
   </si>
   <si>
     <t xml:space="preserve">1.87467980384827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89374458789825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88262355327606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92869663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9477607011795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92393028736115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9255188703537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92075276374817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93663966655731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91916382312775</t>
+    <t xml:space="preserve">1.89374470710754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88262379169464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9286961555481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94776093959808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92393016815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92551910877228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92075288295746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9366397857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91916406154633</t>
   </si>
   <si>
     <t xml:space="preserve">1.93346238136292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92234134674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90645444393158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439807415009</t>
+    <t xml:space="preserve">1.92234170436859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90645408630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439771652222</t>
   </si>
   <si>
     <t xml:space="preserve">1.89215588569641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90963172912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91757535934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93822836875916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0224301815033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97953546047211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99383342266083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00177693367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9970109462738</t>
+    <t xml:space="preserve">1.90963184833527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91757547855377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93822860717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02243041992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97953522205353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9938337802887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00177717208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99701070785522</t>
   </si>
   <si>
     <t xml:space="preserve">2.03990626335144</t>
@@ -623,10 +623,10 @@
     <t xml:space="preserve">2.06373691558838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07326889038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08438992500305</t>
+    <t xml:space="preserve">2.07326912879944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08439040184021</t>
   </si>
   <si>
     <t xml:space="preserve">2.0828013420105</t>
@@ -635,10 +635,10 @@
     <t xml:space="preserve">2.08756756782532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06532549858093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07803511619568</t>
+    <t xml:space="preserve">2.06532526016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0780348777771</t>
   </si>
   <si>
     <t xml:space="preserve">2.08121252059937</t>
@@ -647,25 +647,25 @@
     <t xml:space="preserve">2.17063975334167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16901421546936</t>
+    <t xml:space="preserve">2.16901397705078</t>
   </si>
   <si>
     <t xml:space="preserve">2.1934027671814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16251015663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19502854347229</t>
+    <t xml:space="preserve">2.16250967979431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19502878189087</t>
   </si>
   <si>
     <t xml:space="preserve">2.2519371509552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22754764556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23079991340637</t>
+    <t xml:space="preserve">2.22754788398743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23079967498779</t>
   </si>
   <si>
     <t xml:space="preserve">2.2064106464386</t>
@@ -677,13 +677,13 @@
     <t xml:space="preserve">2.23242568969727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2194185256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24218130111694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1234872341156</t>
+    <t xml:space="preserve">2.21941804885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24218153953552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12348699569702</t>
   </si>
   <si>
     <t xml:space="preserve">2.12999081611633</t>
@@ -692,34 +692,34 @@
     <t xml:space="preserve">2.11373138427734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12511324882507</t>
+    <t xml:space="preserve">2.12511301040649</t>
   </si>
   <si>
     <t xml:space="preserve">2.12186121940613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14299845695496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13812065124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18689942359924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19665503501892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20315885543823</t>
+    <t xml:space="preserve">2.14299869537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1381208896637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18689918518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19665455818176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20315861701965</t>
   </si>
   <si>
     <t xml:space="preserve">2.21128869056702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26494479179382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27632617950439</t>
+    <t xml:space="preserve">2.26494431495667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27632641792297</t>
   </si>
   <si>
     <t xml:space="preserve">2.28933382034302</t>
@@ -728,37 +728,37 @@
     <t xml:space="preserve">2.28608202934265</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2747004032135</t>
+    <t xml:space="preserve">2.27470064163208</t>
   </si>
   <si>
     <t xml:space="preserve">2.29095983505249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24543309211731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24055528640747</t>
+    <t xml:space="preserve">2.24543356895447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24055552482605</t>
   </si>
   <si>
     <t xml:space="preserve">2.21616649627686</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17551755905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14137244224548</t>
+    <t xml:space="preserve">2.17551779747009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14137291908264</t>
   </si>
   <si>
     <t xml:space="preserve">2.10234999656677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04218983650208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07308292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15438055992126</t>
+    <t xml:space="preserve">2.04219007492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07308316230774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15438008308411</t>
   </si>
   <si>
     <t xml:space="preserve">2.13161683082581</t>
@@ -767,49 +767,49 @@
     <t xml:space="preserve">2.1836473941803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14462447166443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11210560798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12673902511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15763235092163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1462504863739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15600633621216</t>
+    <t xml:space="preserve">2.14462471008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11210584640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12673878669739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15763211250305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14625072479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15600609779358</t>
   </si>
   <si>
     <t xml:space="preserve">2.32510447502136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30721926689148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29421138763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31697487831116</t>
+    <t xml:space="preserve">2.30721974372864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29421162605286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31697511672974</t>
   </si>
   <si>
     <t xml:space="preserve">2.321852684021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40640211105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40152430534363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41453194618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41290616989136</t>
+    <t xml:space="preserve">2.40640234947205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40152406692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41453170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4129056930542</t>
   </si>
   <si>
     <t xml:space="preserve">2.47956991195679</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">2.47631788253784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53647780418396</t>
+    <t xml:space="preserve">2.53647756576538</t>
   </si>
   <si>
     <t xml:space="preserve">2.56899690628052</t>
@@ -827,31 +827,31 @@
     <t xml:space="preserve">2.5787525177002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58363008499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61614918708801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60151600837708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63403463363647</t>
+    <t xml:space="preserve">2.58363056182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61614942550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60151553153992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63403487205505</t>
   </si>
   <si>
     <t xml:space="preserve">2.62590479850769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58525609970093</t>
+    <t xml:space="preserve">2.58525633811951</t>
   </si>
   <si>
     <t xml:space="preserve">2.59826397895813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59338617324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61777496337891</t>
+    <t xml:space="preserve">2.59338593482971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61777520179749</t>
   </si>
   <si>
     <t xml:space="preserve">2.62753105163574</t>
@@ -863,46 +863,46 @@
     <t xml:space="preserve">2.60314154624939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60801959037781</t>
+    <t xml:space="preserve">2.60801935195923</t>
   </si>
   <si>
     <t xml:space="preserve">2.59176015853882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59013414382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62102699279785</t>
+    <t xml:space="preserve">2.59013438224792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62102746963501</t>
   </si>
   <si>
     <t xml:space="preserve">2.64216446876526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64704251289368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.632408618927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65029406547546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70395016670227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80963730812073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81288909912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82427072525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79662942886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80475950241089</t>
+    <t xml:space="preserve">2.6470422744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63240885734558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65029454231262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70395040512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80963706970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81288886070251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82427048683167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7966296672821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80475902557373</t>
   </si>
   <si>
     <t xml:space="preserve">2.77386617660522</t>
@@ -911,34 +911,34 @@
     <t xml:space="preserve">2.76411056518555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6974470615387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68443894386292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69582080841064</t>
+    <t xml:space="preserve">2.71533226966858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69744682312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68443918228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69582056999207</t>
   </si>
   <si>
     <t xml:space="preserve">2.68281316757202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66655373573303</t>
+    <t xml:space="preserve">2.66655349731445</t>
   </si>
   <si>
     <t xml:space="preserve">2.65842413902283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63728618621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61452317237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6242790222168</t>
+    <t xml:space="preserve">2.63728666305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61452341079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62427878379822</t>
   </si>
   <si>
     <t xml:space="preserve">2.61940097808838</t>
@@ -950,49 +950,49 @@
     <t xml:space="preserve">2.56411910057068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57550048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52509641647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48607349395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40802812576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38851642608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3446159362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36250138282776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37388300895691</t>
+    <t xml:space="preserve">2.57550072669983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52509617805481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4860737323761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40802788734436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.388516664505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34461617469788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36250162124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37388324737549</t>
   </si>
   <si>
     <t xml:space="preserve">2.43729496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45355439186096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43892097473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44705128669739</t>
+    <t xml:space="preserve">2.45355463027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43892121315002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44705104827881</t>
   </si>
   <si>
     <t xml:space="preserve">2.50395894050598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52834796905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72346186637878</t>
+    <t xml:space="preserve">2.52834820747375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72346210479736</t>
   </si>
   <si>
     <t xml:space="preserve">2.73159146308899</t>
@@ -1001,25 +1001,25 @@
     <t xml:space="preserve">2.56086707115173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45518064498901</t>
+    <t xml:space="preserve">2.45518040657043</t>
   </si>
   <si>
     <t xml:space="preserve">2.47143983840942</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48769927024841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5446081161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4958291053772</t>
+    <t xml:space="preserve">2.48769950866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54460763931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49582934379578</t>
   </si>
   <si>
     <t xml:space="preserve">2.51208901405334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52021813392639</t>
+    <t xml:space="preserve">2.52021837234497</t>
   </si>
   <si>
     <t xml:space="preserve">2.33323431015015</t>
@@ -1028,13 +1028,13 @@
     <t xml:space="preserve">2.3901424407959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34136390686035</t>
+    <t xml:space="preserve">2.34136438369751</t>
   </si>
   <si>
     <t xml:space="preserve">2.3576238155365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36575365066528</t>
+    <t xml:space="preserve">2.36575317382812</t>
   </si>
   <si>
     <t xml:space="preserve">2.34949398040771</t>
@@ -1046,52 +1046,52 @@
     <t xml:space="preserve">2.19502902030945</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20334386825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17839980125427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16177082061768</t>
+    <t xml:space="preserve">2.20334339141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17840003967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16177105903625</t>
   </si>
   <si>
     <t xml:space="preserve">2.17008543014526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09525465965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07862567901611</t>
+    <t xml:space="preserve">2.09525489807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07862591743469</t>
   </si>
   <si>
     <t xml:space="preserve">2.14514183998108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.269859790802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37794780731201</t>
+    <t xml:space="preserve">2.26985931396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37794756889343</t>
   </si>
   <si>
     <t xml:space="preserve">2.21997237205505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24491548538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22828698158264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28648853302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21165800094604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25323057174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27817368507385</t>
+    <t xml:space="preserve">2.24491596221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22828674316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2864887714386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21165776252747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25323033332825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27817392349243</t>
   </si>
   <si>
     <t xml:space="preserve">2.26154518127441</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">2.13682746887207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15345621109009</t>
+    <t xml:space="preserve">2.15345644950867</t>
   </si>
   <si>
     <t xml:space="preserve">2.11188387870789</t>
@@ -1112,10 +1112,10 @@
     <t xml:space="preserve">2.12851285934448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36131906509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35300469398499</t>
+    <t xml:space="preserve">2.36131882667542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35300421714783</t>
   </si>
   <si>
     <t xml:space="preserve">2.30311751365662</t>
@@ -1124,19 +1124,19 @@
     <t xml:space="preserve">2.29480290412903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32806086540222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31974649429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31143164634705</t>
+    <t xml:space="preserve">2.3280611038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31974673271179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31143188476562</t>
   </si>
   <si>
     <t xml:space="preserve">2.23660159111023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39457678794861</t>
+    <t xml:space="preserve">2.39457726478577</t>
   </si>
   <si>
     <t xml:space="preserve">2.10356950759888</t>
@@ -1145,16 +1145,16 @@
     <t xml:space="preserve">2.12019848823547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07031154632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98716640472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99548101425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03705358505249</t>
+    <t xml:space="preserve">2.07031106948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98716616630554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99548077583313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03705334663391</t>
   </si>
   <si>
     <t xml:space="preserve">2.0453679561615</t>
@@ -1163,34 +1163,34 @@
     <t xml:space="preserve">2.0619969367981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0869402885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87907767295837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88739216327667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91233563423157</t>
+    <t xml:space="preserve">2.08694052696228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87907779216766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88739228248596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91233575344086</t>
   </si>
   <si>
     <t xml:space="preserve">1.86244881153107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84581983089447</t>
+    <t xml:space="preserve">1.84581995010376</t>
   </si>
   <si>
     <t xml:space="preserve">1.89570689201355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83750522136688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79593288898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76267457008362</t>
+    <t xml:space="preserve">1.83750534057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79593276977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7626748085022</t>
   </si>
   <si>
     <t xml:space="preserve">1.77930378913879</t>
@@ -1199,25 +1199,25 @@
     <t xml:space="preserve">1.81256175041199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78761827945709</t>
+    <t xml:space="preserve">1.7876181602478</t>
   </si>
   <si>
     <t xml:space="preserve">1.80424737930298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82919061183929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82087647914886</t>
+    <t xml:space="preserve">1.82919073104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.820876121521</t>
   </si>
   <si>
     <t xml:space="preserve">1.87076318264008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92896473407745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93727910518646</t>
+    <t xml:space="preserve">1.92896497249603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93727946281433</t>
   </si>
   <si>
     <t xml:space="preserve">1.90402138233185</t>
@@ -1226,13 +1226,13 @@
     <t xml:space="preserve">1.94559371471405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97885179519653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05368256568909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01210975646973</t>
+    <t xml:space="preserve">1.9788521528244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05368232727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01210999488831</t>
   </si>
   <si>
     <t xml:space="preserve">2.0967161655426</t>
@@ -1244,13 +1244,13 @@
     <t xml:space="preserve">2.0624840259552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07104182243347</t>
+    <t xml:space="preserve">2.07104206085205</t>
   </si>
   <si>
     <t xml:space="preserve">2.03680992126465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01113557815552</t>
+    <t xml:space="preserve">2.01113533973694</t>
   </si>
   <si>
     <t xml:space="preserve">2.05392575263977</t>
@@ -1265,16 +1265,16 @@
     <t xml:space="preserve">2.13094806671143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17373824119568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25076055526733</t>
+    <t xml:space="preserve">2.1737380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25076079368591</t>
   </si>
   <si>
     <t xml:space="preserve">2.2422022819519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19085431098938</t>
+    <t xml:space="preserve">2.19085383415222</t>
   </si>
   <si>
     <t xml:space="preserve">2.18229603767395</t>
@@ -1301,16 +1301,16 @@
     <t xml:space="preserve">2.30210852622986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33634066581726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32778239250183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29355025291443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34489846229553</t>
+    <t xml:space="preserve">2.33634090423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32778263092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29355049133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34489870071411</t>
   </si>
   <si>
     <t xml:space="preserve">2.35345673561096</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">2.42192101478577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39624643325806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38768887519836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40480470657349</t>
+    <t xml:space="preserve">2.39624667167664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38768911361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40480494499207</t>
   </si>
   <si>
     <t xml:space="preserve">2.47326922416687</t>
@@ -1334,13 +1334,13 @@
     <t xml:space="preserve">2.46471095085144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41336274147034</t>
+    <t xml:space="preserve">2.41336297988892</t>
   </si>
   <si>
     <t xml:space="preserve">2.36201453208923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37057280540466</t>
+    <t xml:space="preserve">2.37057256698608</t>
   </si>
   <si>
     <t xml:space="preserve">2.37913060188293</t>
@@ -1355,13 +1355,13 @@
     <t xml:space="preserve">2.5417332649231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50750112533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52461719512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49894309043884</t>
+    <t xml:space="preserve">2.50750136375427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52461743354797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49894332885742</t>
   </si>
   <si>
     <t xml:space="preserve">2.51605916023254</t>
@@ -1370,31 +1370,31 @@
     <t xml:space="preserve">2.55029129981995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5930814743042</t>
+    <t xml:space="preserve">2.59308171272278</t>
   </si>
   <si>
     <t xml:space="preserve">2.56740736961365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6101975440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68721961975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6444296836853</t>
+    <t xml:space="preserve">2.61019730567932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6872193813324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64442944526672</t>
   </si>
   <si>
     <t xml:space="preserve">2.58452343940735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60163950920105</t>
+    <t xml:space="preserve">2.60163927078247</t>
   </si>
   <si>
     <t xml:space="preserve">2.53317523002625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43903684616089</t>
+    <t xml:space="preserve">2.43903660774231</t>
   </si>
   <si>
     <t xml:space="preserve">2.49038529396057</t>
@@ -1406,13 +1406,13 @@
     <t xml:space="preserve">2.26787662506104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12239003181458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94267141819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95122933387756</t>
+    <t xml:space="preserve">2.122389793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94267129898071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95122957229614</t>
   </si>
   <si>
     <t xml:space="preserve">1.74583697319031</t>
@@ -1421,67 +1421,67 @@
     <t xml:space="preserve">1.75439500808716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62602460384369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78006887435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70732605457306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70304679870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68593084812164</t>
+    <t xml:space="preserve">1.62602472305298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78006899356842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70732581615448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70304691791534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68593072891235</t>
   </si>
   <si>
     <t xml:space="preserve">1.83997535705566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84853339195251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81430101394653</t>
+    <t xml:space="preserve">1.84853327274323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81430113315582</t>
   </si>
   <si>
     <t xml:space="preserve">1.87420737743378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93411326408386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07959985733032</t>
+    <t xml:space="preserve">1.93411338329315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0796000957489</t>
   </si>
   <si>
     <t xml:space="preserve">1.88276529312134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86564922332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89132344722748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91699743270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89988124370575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85709142684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9597874879837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98546147346497</t>
+    <t xml:space="preserve">1.86564934253693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89132356643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91699731349945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89988136291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85709130764008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95978784561157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98546135425568</t>
   </si>
   <si>
     <t xml:space="preserve">1.96834540367126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9769035577774</t>
+    <t xml:space="preserve">1.97690367698669</t>
   </si>
   <si>
     <t xml:space="preserve">2.0282518863678</t>
@@ -1493,22 +1493,22 @@
     <t xml:space="preserve">2.16518020629883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25931859016418</t>
+    <t xml:space="preserve">2.25931835174561</t>
   </si>
   <si>
     <t xml:space="preserve">2.14806413650513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15589761734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14709782600403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11189937591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05910181999207</t>
+    <t xml:space="preserve">2.15589737892151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14709806442261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11189961433411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05910205841064</t>
   </si>
   <si>
     <t xml:space="preserve">2.05030226707458</t>
@@ -1520,19 +1520,19 @@
     <t xml:space="preserve">2.06790161132812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13829827308655</t>
+    <t xml:space="preserve">2.13829851150513</t>
   </si>
   <si>
     <t xml:space="preserve">2.10310006141663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12949872016907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12069940567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08550047874451</t>
+    <t xml:space="preserve">2.12949895858765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12069916725159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08550095558167</t>
   </si>
   <si>
     <t xml:space="preserve">2.07670092582703</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">1.97110605239868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95350706577301</t>
+    <t xml:space="preserve">1.95350730419159</t>
   </si>
   <si>
     <t xml:space="preserve">1.96230661869049</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">2.19989538192749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24389338493347</t>
+    <t xml:space="preserve">2.24389314651489</t>
   </si>
   <si>
     <t xml:space="preserve">2.28789091110229</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">2.31429004669189</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39348602294922</t>
+    <t xml:space="preserve">2.3934862613678</t>
   </si>
   <si>
     <t xml:space="preserve">2.41988492012024</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">2.44628357887268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51668000221252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53427958488464</t>
+    <t xml:space="preserve">2.5166802406311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53427934646606</t>
   </si>
   <si>
     <t xml:space="preserve">2.56947779655457</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">2.56067824363708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58707690238953</t>
+    <t xml:space="preserve">2.58707714080811</t>
   </si>
   <si>
     <t xml:space="preserve">2.60467624664307</t>
@@ -1604,43 +1604,43 @@
     <t xml:space="preserve">2.52547979354858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50788068771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61347579956055</t>
+    <t xml:space="preserve">2.50788044929504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61347556114197</t>
   </si>
   <si>
     <t xml:space="preserve">2.68387246131897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66627335548401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63987445831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67507266998291</t>
+    <t xml:space="preserve">2.66627311706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63987421989441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67507290840149</t>
   </si>
   <si>
     <t xml:space="preserve">2.65747356414795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64867401123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63107514381409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62227511405945</t>
+    <t xml:space="preserve">2.64867424964905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63107490539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62227535247803</t>
   </si>
   <si>
     <t xml:space="preserve">2.74546933174133</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73667001724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76306867599487</t>
+    <t xml:space="preserve">2.73666977882385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76306843757629</t>
   </si>
   <si>
     <t xml:space="preserve">2.80706667900085</t>
@@ -1649,34 +1649,34 @@
     <t xml:space="preserve">2.79826688766479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72787022590637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81586599349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8334653377533</t>
+    <t xml:space="preserve">2.72787046432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81586623191833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83346509933472</t>
   </si>
   <si>
     <t xml:space="preserve">2.8774631023407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88626265525818</t>
+    <t xml:space="preserve">2.8862624168396</t>
   </si>
   <si>
     <t xml:space="preserve">2.94785976409912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97425866127014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9918577671051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01825666427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96545886993408</t>
+    <t xml:space="preserve">2.97425889968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99185752868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01825642585754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9654586315155</t>
   </si>
   <si>
     <t xml:space="preserve">2.9126615524292</t>
@@ -1688,19 +1688,19 @@
     <t xml:space="preserve">2.84226489067078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85106420516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90386176109314</t>
+    <t xml:space="preserve">2.85106444358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90386199951172</t>
   </si>
   <si>
     <t xml:space="preserve">2.89506220817566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95665907859802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93906021118164</t>
+    <t xml:space="preserve">2.9566593170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93905997276306</t>
   </si>
   <si>
     <t xml:space="preserve">2.93026041984558</t>
@@ -1709,37 +1709,37 @@
     <t xml:space="preserve">3.02705597877502</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12385153770447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15025019645691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07105422019958</t>
+    <t xml:space="preserve">3.12385129928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15024995803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07105374336243</t>
   </si>
   <si>
     <t xml:space="preserve">3.19424819946289</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20304751396179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23824572563171</t>
+    <t xml:space="preserve">3.20304775238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23824620246887</t>
   </si>
   <si>
     <t xml:space="preserve">3.29984307289124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26464462280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3614399433136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34384107589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3526406288147</t>
+    <t xml:space="preserve">3.26464486122131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36144018173218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34384083747864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35264039039612</t>
   </si>
   <si>
     <t xml:space="preserve">3.37023973464966</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">3.40543794631958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52863240242004</t>
+    <t xml:space="preserve">3.52863216400146</t>
   </si>
   <si>
     <t xml:space="preserve">3.55503106117249</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">3.41423773765564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3966383934021</t>
+    <t xml:space="preserve">3.39663815498352</t>
   </si>
   <si>
     <t xml:space="preserve">3.43216013908386</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">3.39631509780884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.476966381073</t>
+    <t xml:space="preserve">3.47696685791016</t>
   </si>
   <si>
     <t xml:space="preserve">3.46800518035889</t>
@@ -1814,19 +1814,19 @@
     <t xml:space="preserve">3.74580383300781</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85333943367004</t>
+    <t xml:space="preserve">3.85333919525146</t>
   </si>
   <si>
     <t xml:space="preserve">3.80853271484375</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92502951622009</t>
+    <t xml:space="preserve">3.92502903938293</t>
   </si>
   <si>
     <t xml:space="preserve">3.95191264152527</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83541631698608</t>
+    <t xml:space="preserve">3.83541679382324</t>
   </si>
   <si>
     <t xml:space="preserve">3.76372623443604</t>
@@ -1835,31 +1835,31 @@
     <t xml:space="preserve">3.78164887428284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88022255897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89814519882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69203662872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81749415397644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70995879173279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71892023086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84437799453735</t>
+    <t xml:space="preserve">3.8802227973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8981454372406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69203639030457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81749439239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70995903015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71892046928406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84437775611877</t>
   </si>
   <si>
     <t xml:space="preserve">3.65619158744812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68307518959045</t>
+    <t xml:space="preserve">3.68307542800903</t>
   </si>
   <si>
     <t xml:space="preserve">3.6203465461731</t>
@@ -1868,49 +1868,49 @@
     <t xml:space="preserve">3.53969526290894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64723014831543</t>
+    <t xml:space="preserve">3.64723038673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.82645535469055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88918423652649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79957127571106</t>
+    <t xml:space="preserve">3.88918447494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79957151412964</t>
   </si>
   <si>
     <t xml:space="preserve">3.7547652721405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01464128494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96983528137207</t>
+    <t xml:space="preserve">4.01464176177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96983551979065</t>
   </si>
   <si>
     <t xml:space="preserve">4.00568056106567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0594482421875</t>
+    <t xml:space="preserve">4.05944871902466</t>
   </si>
   <si>
     <t xml:space="preserve">4.14906072616577</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10425424575806</t>
+    <t xml:space="preserve">4.1042537689209</t>
   </si>
   <si>
     <t xml:space="preserve">4.1400990486145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98775792121887</t>
+    <t xml:space="preserve">3.98775768280029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91606783866882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90710639953613</t>
+    <t xml:space="preserve">3.90710687637329</t>
   </si>
   <si>
     <t xml:space="preserve">4.07737064361572</t>
@@ -1925,34 +1925,37 @@
     <t xml:space="preserve">4.02360248565674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96087408065796</t>
+    <t xml:space="preserve">3.96087455749512</t>
   </si>
   <si>
     <t xml:space="preserve">4.11321544647217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04152584075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08633136749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77268767356873</t>
+    <t xml:space="preserve">4.04152536392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08633184432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77268815040588</t>
   </si>
   <si>
     <t xml:space="preserve">3.62930798530579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55761790275574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54865670204163</t>
+    <t xml:space="preserve">3.55761766433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54865646362305</t>
   </si>
   <si>
     <t xml:space="preserve">3.40527629852295</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37839293479919</t>
+    <t xml:space="preserve">3.37839269638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41423749923706</t>
   </si>
   <si>
     <t xml:space="preserve">3.36943125724792</t>
@@ -1970,16 +1973,16 @@
     <t xml:space="preserve">3.56657910346985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50385046005249</t>
+    <t xml:space="preserve">3.50385022163391</t>
   </si>
   <si>
     <t xml:space="preserve">3.53073406219482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48592805862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3335862159729</t>
+    <t xml:space="preserve">3.48592782020569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33358645439148</t>
   </si>
   <si>
     <t xml:space="preserve">3.3515088558197</t>
@@ -1991,7 +1994,7 @@
     <t xml:space="preserve">3.23501253128052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31566405296326</t>
+    <t xml:space="preserve">3.31566381454468</t>
   </si>
   <si>
     <t xml:space="preserve">3.26189637184143</t>
@@ -2000,13 +2003,13 @@
     <t xml:space="preserve">3.091632604599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18124508857727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66515278816223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70099782943726</t>
+    <t xml:space="preserve">3.18124485015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66515302658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70099759101868</t>
   </si>
   <si>
     <t xml:space="preserve">3.59346294403076</t>
@@ -2021,10 +2024,10 @@
     <t xml:space="preserve">3.71200084686279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70281267166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65687203407288</t>
+    <t xml:space="preserve">3.70281291007996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65687227249146</t>
   </si>
   <si>
     <t xml:space="preserve">3.74875330924988</t>
@@ -2033,13 +2036,13 @@
     <t xml:space="preserve">3.72118902206421</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41798090934753</t>
+    <t xml:space="preserve">3.41798114776611</t>
   </si>
   <si>
     <t xml:space="preserve">3.43635725975037</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48229789733887</t>
+    <t xml:space="preserve">3.48229765892029</t>
   </si>
   <si>
     <t xml:space="preserve">3.46392154693604</t>
@@ -2063,16 +2066,16 @@
     <t xml:space="preserve">3.45473337173462</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44554543495178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4087929725647</t>
+    <t xml:space="preserve">3.4455451965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40879273414612</t>
   </si>
   <si>
     <t xml:space="preserve">3.55580282211304</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64768409729004</t>
+    <t xml:space="preserve">3.64768385887146</t>
   </si>
   <si>
     <t xml:space="preserve">3.68443655967712</t>
@@ -2093,7 +2096,10 @@
     <t xml:space="preserve">3.69362449645996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5925555229187</t>
+    <t xml:space="preserve">3.62930774688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59255528450012</t>
   </si>
   <si>
     <t xml:space="preserve">3.4914858341217</t>
@@ -2123,16 +2129,16 @@
     <t xml:space="preserve">3.19746613502502</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26178288459778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23421835899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20665431022644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99532723426819</t>
+    <t xml:space="preserve">3.2617826461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23421859741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20665407180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99532747268677</t>
   </si>
   <si>
     <t xml:space="preserve">3.05964422225952</t>
@@ -2147,7 +2153,7 @@
     <t xml:space="preserve">2.84831738471985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75643610954285</t>
+    <t xml:space="preserve">2.75643634796143</t>
   </si>
   <si>
     <t xml:space="preserve">2.66455507278442</t>
@@ -2162,10 +2168,10 @@
     <t xml:space="preserve">2.82994103431702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78400063514709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93101072311401</t>
+    <t xml:space="preserve">2.78400039672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93101048469543</t>
   </si>
   <si>
     <t xml:space="preserve">2.91263437271118</t>
@@ -2174,7 +2180,7 @@
     <t xml:space="preserve">2.90344619750977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94019865989685</t>
+    <t xml:space="preserve">2.94019889831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.08720850944519</t>
@@ -2183,7 +2189,7 @@
     <t xml:space="preserve">3.10558485984802</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17908978462219</t>
+    <t xml:space="preserve">3.17909002304077</t>
   </si>
   <si>
     <t xml:space="preserve">3.18827795982361</t>
@@ -2201,7 +2207,7 @@
     <t xml:space="preserve">3.05045604705811</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12396121025085</t>
+    <t xml:space="preserve">3.12396097183228</t>
   </si>
   <si>
     <t xml:space="preserve">3.16071367263794</t>
@@ -2210,7 +2216,7 @@
     <t xml:space="preserve">3.09639668464661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07802033424377</t>
+    <t xml:space="preserve">3.07802057266235</t>
   </si>
   <si>
     <t xml:space="preserve">3.01370358467102</t>
@@ -2222,7 +2228,7 @@
     <t xml:space="preserve">3.04126811027527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88507008552551</t>
+    <t xml:space="preserve">2.88506984710693</t>
   </si>
   <si>
     <t xml:space="preserve">2.81156492233276</t>
@@ -2240,7 +2246,7 @@
     <t xml:space="preserve">3.14233732223511</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16990184783936</t>
+    <t xml:space="preserve">3.16990160942078</t>
   </si>
   <si>
     <t xml:space="preserve">3.28934717178345</t>
@@ -2249,7 +2255,7 @@
     <t xml:space="preserve">3.3169116973877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3628523349762</t>
+    <t xml:space="preserve">3.36285209655762</t>
   </si>
   <si>
     <t xml:space="preserve">3.38122844696045</t>
@@ -2258,13 +2264,13 @@
     <t xml:space="preserve">3.28015923500061</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50067400932312</t>
+    <t xml:space="preserve">3.50067377090454</t>
   </si>
   <si>
     <t xml:space="preserve">3.52823829650879</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60174345970154</t>
+    <t xml:space="preserve">3.60174322128296</t>
   </si>
   <si>
     <t xml:space="preserve">3.63849592208862</t>
@@ -2276,10 +2282,10 @@
     <t xml:space="preserve">3.76712942123413</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75794148445129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77631759643555</t>
+    <t xml:space="preserve">3.75794172286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77631783485413</t>
   </si>
   <si>
     <t xml:space="preserve">3.8148148059845</t>
@@ -42663,7 +42669,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1530" t="s">
-        <v>583</v>
+        <v>647</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42715,7 +42721,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1532" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42741,7 +42747,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1533" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42871,7 +42877,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1538" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42897,7 +42903,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1539" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43001,7 +43007,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1543" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43079,7 +43085,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1546" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43131,7 +43137,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1548" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43183,7 +43189,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1550" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43209,7 +43215,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1551" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43417,7 +43423,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1559" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43443,7 +43449,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1560" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43521,7 +43527,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1563" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43547,7 +43553,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1564" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43573,7 +43579,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1565" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43599,7 +43605,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1566" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43625,7 +43631,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1567" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43651,7 +43657,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1568" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43677,7 +43683,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1569" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43703,7 +43709,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1570" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43729,7 +43735,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1571" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43755,7 +43761,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1572" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43781,7 +43787,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1573" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43833,7 +43839,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1575" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44093,7 +44099,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1585" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44119,7 +44125,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1586" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44171,7 +44177,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1588" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44197,7 +44203,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1589" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44327,7 +44333,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1594" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44353,7 +44359,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1595" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44457,7 +44463,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1599" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44483,7 +44489,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1600" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44561,7 +44567,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1603" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44613,7 +44619,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1605" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44691,7 +44697,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1608" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44847,7 +44853,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1614" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44925,7 +44931,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1617" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45133,7 +45139,7 @@
         <v>4</v>
       </c>
       <c r="G1625" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45159,7 +45165,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45185,7 +45191,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1627" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45211,7 +45217,7 @@
         <v>4</v>
       </c>
       <c r="G1628" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45237,7 +45243,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1629" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45263,7 +45269,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1630" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45289,7 +45295,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1631" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45315,7 +45321,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1632" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45341,7 +45347,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1633" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45367,7 +45373,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1634" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45393,7 +45399,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45419,7 +45425,7 @@
         <v>4</v>
       </c>
       <c r="G1636" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45445,7 +45451,7 @@
         <v>4</v>
       </c>
       <c r="G1637" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45471,7 +45477,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1638" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45497,7 +45503,7 @@
         <v>4</v>
       </c>
       <c r="G1639" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45523,7 +45529,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1640" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45549,7 +45555,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1641" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45575,7 +45581,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1642" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45601,7 +45607,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1643" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45627,7 +45633,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1644" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45653,7 +45659,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1645" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45679,7 +45685,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45705,7 +45711,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1647" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45731,7 +45737,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1648" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45757,7 +45763,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1649" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45783,7 +45789,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1650" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45809,7 +45815,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1651" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45835,7 +45841,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1652" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45861,7 +45867,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1653" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45887,7 +45893,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1654" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45913,7 +45919,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1655" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45939,7 +45945,7 @@
         <v>3.75</v>
       </c>
       <c r="G1656" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45965,7 +45971,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1657" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45991,7 +45997,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1658" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46017,7 +46023,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1659" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46043,7 +46049,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1660" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46069,7 +46075,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1661" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46095,7 +46101,7 @@
         <v>3.75</v>
       </c>
       <c r="G1662" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46121,7 +46127,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1663" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46147,7 +46153,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1664" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46173,7 +46179,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1665" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46199,7 +46205,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46225,7 +46231,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1667" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46251,7 +46257,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1668" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46277,7 +46283,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1669" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46303,7 +46309,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1670" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46329,7 +46335,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1671" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46355,7 +46361,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1672" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46381,7 +46387,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1673" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46407,7 +46413,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1674" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46433,7 +46439,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1675" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46459,7 +46465,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1676" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46485,7 +46491,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1677" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46511,7 +46517,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1678" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46537,7 +46543,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1679" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46563,7 +46569,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1680" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46589,7 +46595,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1681" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46615,7 +46621,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1682" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46641,7 +46647,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1683" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46667,7 +46673,7 @@
         <v>3.75</v>
       </c>
       <c r="G1684" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46693,7 +46699,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1685" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46719,7 +46725,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46745,7 +46751,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1687" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46771,7 +46777,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1688" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46797,7 +46803,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1689" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46823,7 +46829,7 @@
         <v>3.75</v>
       </c>
       <c r="G1690" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46849,7 +46855,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1691" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46875,7 +46881,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1692" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46901,7 +46907,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1693" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46927,7 +46933,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1694" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46953,7 +46959,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1695" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46979,7 +46985,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1696" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47005,7 +47011,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1697" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47031,7 +47037,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1698" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47057,7 +47063,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1699" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47083,7 +47089,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1700" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47109,7 +47115,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1701" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47135,7 +47141,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1702" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47161,7 +47167,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1703" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47187,7 +47193,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1704" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47213,7 +47219,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1705" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47239,7 +47245,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1706" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47265,7 +47271,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1707" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47291,7 +47297,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1708" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47317,7 +47323,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1709" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47343,7 +47349,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1710" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47369,7 +47375,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1711" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47395,7 +47401,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1712" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47421,7 +47427,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1713" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47447,7 +47453,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1714" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47473,7 +47479,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1715" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47499,7 +47505,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1716" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47525,7 +47531,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1717" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47551,7 +47557,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1718" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47577,7 +47583,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47603,7 +47609,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1720" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47629,7 +47635,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1721" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47655,7 +47661,7 @@
         <v>3</v>
       </c>
       <c r="G1722" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47681,7 +47687,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1723" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47707,7 +47713,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1724" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47733,7 +47739,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1725" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47759,7 +47765,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1726" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47785,7 +47791,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1727" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47811,7 +47817,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1728" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47837,7 +47843,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1729" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47863,7 +47869,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1730" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47889,7 +47895,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1731" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47915,7 +47921,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1732" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47941,7 +47947,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1733" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47967,7 +47973,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1734" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47993,7 +47999,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1735" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48019,7 +48025,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1736" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48045,7 +48051,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1737" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48071,7 +48077,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1738" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48097,7 +48103,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1739" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48123,7 +48129,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1740" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48149,7 +48155,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1741" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48175,7 +48181,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1742" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48201,7 +48207,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1743" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48227,7 +48233,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1744" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48253,7 +48259,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1745" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48279,7 +48285,7 @@
         <v>3.5</v>
       </c>
       <c r="G1746" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48305,7 +48311,7 @@
         <v>3.5</v>
       </c>
       <c r="G1747" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48331,7 +48337,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1748" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48357,7 +48363,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1749" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48383,7 +48389,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1750" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48409,7 +48415,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1751" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48435,7 +48441,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1752" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48461,7 +48467,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1753" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48487,7 +48493,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1754" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48513,7 +48519,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1755" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48539,7 +48545,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1756" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48565,7 +48571,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1757" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48591,7 +48597,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1758" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48617,7 +48623,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1759" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48643,7 +48649,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1760" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48669,7 +48675,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1761" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48695,7 +48701,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1762" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48721,7 +48727,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48747,7 +48753,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1764" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48773,7 +48779,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1765" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48799,7 +48805,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1766" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48825,7 +48831,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1767" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48851,7 +48857,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1768" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48877,7 +48883,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1769" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48903,7 +48909,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1770" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48929,7 +48935,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48955,7 +48961,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1772" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48981,7 +48987,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1773" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49007,7 +49013,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1774" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49033,7 +49039,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1775" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49059,7 +49065,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1776" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49085,7 +49091,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1777" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49111,7 +49117,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1778" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49137,7 +49143,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1779" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49163,7 +49169,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1780" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49189,7 +49195,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1781" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49215,7 +49221,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49241,7 +49247,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1783" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49267,7 +49273,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1784" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49293,7 +49299,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1785" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49319,7 +49325,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1786" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49345,7 +49351,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1787" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49371,7 +49377,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49397,7 +49403,7 @@
         <v>3.25</v>
       </c>
       <c r="G1789" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49423,7 +49429,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1790" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49449,7 +49455,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1791" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49475,7 +49481,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1792" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49501,7 +49507,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1793" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49527,7 +49533,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49553,7 +49559,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49579,7 +49585,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1796" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49605,7 +49611,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1797" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49631,7 +49637,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1798" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49657,7 +49663,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1799" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49683,7 +49689,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1800" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49709,7 +49715,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1801" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49735,7 +49741,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49761,7 +49767,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1803" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49787,7 +49793,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1804" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49813,7 +49819,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1805" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49839,7 +49845,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1806" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49865,7 +49871,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1807" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49891,7 +49897,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1808" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49917,7 +49923,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1809" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49943,7 +49949,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1810" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49969,7 +49975,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1811" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49995,7 +50001,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1812" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50021,7 +50027,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1813" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50047,7 +50053,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1814" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50073,7 +50079,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1815" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50099,7 +50105,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1816" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50125,7 +50131,7 @@
         <v>3.75</v>
       </c>
       <c r="G1817" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50151,7 +50157,7 @@
         <v>3.75</v>
       </c>
       <c r="G1818" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50177,7 +50183,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1819" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50203,7 +50209,7 @@
         <v>3.75</v>
       </c>
       <c r="G1820" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50229,7 +50235,7 @@
         <v>3.75</v>
       </c>
       <c r="G1821" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50255,7 +50261,7 @@
         <v>3.75</v>
       </c>
       <c r="G1822" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50281,7 +50287,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1823" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50307,7 +50313,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1824" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50333,7 +50339,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1825" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50359,7 +50365,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1826" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50385,7 +50391,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1827" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50411,7 +50417,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1828" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50437,7 +50443,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1829" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50463,7 +50469,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1830" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50489,7 +50495,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1831" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50515,7 +50521,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1832" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50541,7 +50547,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1833" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50567,7 +50573,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50593,7 +50599,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1835" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50619,7 +50625,7 @@
         <v>4</v>
       </c>
       <c r="G1836" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50645,7 +50651,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1837" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50671,7 +50677,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1838" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50697,7 +50703,7 @@
         <v>4</v>
       </c>
       <c r="G1839" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50723,7 +50729,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1840" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50749,7 +50755,7 @@
         <v>4</v>
       </c>
       <c r="G1841" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50775,7 +50781,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1842" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50801,7 +50807,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1843" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50827,7 +50833,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1844" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50853,7 +50859,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1845" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50879,7 +50885,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1846" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50905,7 +50911,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1847" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50931,7 +50937,7 @@
         <v>4</v>
       </c>
       <c r="G1848" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50957,7 +50963,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1849" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50983,7 +50989,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1850" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51009,7 +51015,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1851" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51035,7 +51041,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1852" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51061,7 +51067,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1853" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51087,7 +51093,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1854" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51113,7 +51119,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1855" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51139,7 +51145,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1856" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51165,7 +51171,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1857" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51191,7 +51197,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1858" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51217,7 +51223,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1859" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51243,7 +51249,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1860" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51269,7 +51275,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1861" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51295,7 +51301,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1862" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51321,7 +51327,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1863" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51347,7 +51353,7 @@
         <v>4</v>
       </c>
       <c r="G1864" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51373,7 +51379,7 @@
         <v>4</v>
       </c>
       <c r="G1865" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51399,7 +51405,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1866" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51425,7 +51431,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1867" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51451,7 +51457,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1868" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51477,7 +51483,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1869" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51503,7 +51509,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1870" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51529,7 +51535,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1871" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51555,7 +51561,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1872" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51581,7 +51587,7 @@
         <v>4</v>
       </c>
       <c r="G1873" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51607,7 +51613,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1874" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51633,7 +51639,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1875" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51659,7 +51665,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1876" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51685,7 +51691,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1877" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51711,7 +51717,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1878" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51737,7 +51743,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1879" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51763,7 +51769,7 @@
         <v>4</v>
       </c>
       <c r="G1880" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51789,7 +51795,7 @@
         <v>4</v>
       </c>
       <c r="G1881" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51815,7 +51821,7 @@
         <v>4</v>
       </c>
       <c r="G1882" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51841,7 +51847,7 @@
         <v>4</v>
       </c>
       <c r="G1883" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51867,7 +51873,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51893,7 +51899,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1885" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51919,7 +51925,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1886" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51945,7 +51951,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51971,7 +51977,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1888" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51997,7 +52003,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1889" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52023,7 +52029,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1890" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52049,7 +52055,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1891" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52075,7 +52081,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1892" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52101,7 +52107,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1893" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52127,7 +52133,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1894" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52153,7 +52159,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1895" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52179,7 +52185,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52205,7 +52211,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1897" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52231,7 +52237,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52257,7 +52263,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1899" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52283,7 +52289,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1900" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52309,7 +52315,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1901" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52335,7 +52341,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1902" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52361,7 +52367,7 @@
         <v>4</v>
       </c>
       <c r="G1903" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52387,7 +52393,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1904" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52413,7 +52419,7 @@
         <v>4</v>
       </c>
       <c r="G1905" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52439,7 +52445,7 @@
         <v>4</v>
       </c>
       <c r="G1906" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52465,7 +52471,7 @@
         <v>4</v>
       </c>
       <c r="G1907" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52491,7 +52497,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1908" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52517,7 +52523,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1909" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52543,7 +52549,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1910" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52569,7 +52575,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1911" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52595,7 +52601,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1912" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52621,7 +52627,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1913" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52647,7 +52653,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1914" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52673,7 +52679,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1915" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52699,7 +52705,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1916" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52725,7 +52731,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1917" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52751,7 +52757,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1918" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52777,7 +52783,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1919" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52803,7 +52809,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1920" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52829,7 +52835,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1921" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52855,7 +52861,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1922" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52881,7 +52887,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52907,7 +52913,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1924" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52933,7 +52939,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1925" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52959,7 +52965,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1926" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52985,7 +52991,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1927" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53011,7 +53017,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53037,7 +53043,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1929" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53063,7 +53069,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1930" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53089,7 +53095,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53115,7 +53121,7 @@
         <v>4.25</v>
       </c>
       <c r="G1932" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53141,7 +53147,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53167,7 +53173,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1934" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53193,7 +53199,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1935" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53219,7 +53225,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1936" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53245,7 +53251,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1937" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53271,7 +53277,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1938" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53297,7 +53303,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1939" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53323,7 +53329,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1940" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53349,7 +53355,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1941" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53375,7 +53381,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1942" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53401,7 +53407,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1943" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53427,7 +53433,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1944" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53453,7 +53459,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1945" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53479,7 +53485,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1946" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53505,7 +53511,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1947" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53531,7 +53537,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53557,7 +53563,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1949" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53583,7 +53589,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1950" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53609,7 +53615,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53635,7 +53641,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1952" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53661,7 +53667,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1953" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53687,7 +53693,7 @@
         <v>4</v>
       </c>
       <c r="G1954" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53713,7 +53719,7 @@
         <v>4</v>
       </c>
       <c r="G1955" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53739,7 +53745,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53765,7 +53771,7 @@
         <v>4</v>
       </c>
       <c r="G1957" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53791,7 +53797,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1958" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53817,7 +53823,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1959" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53843,7 +53849,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1960" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53869,7 +53875,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1961" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53895,7 +53901,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1962" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53921,7 +53927,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1963" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53947,7 +53953,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1964" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53973,7 +53979,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1965" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53999,7 +54005,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1966" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54025,7 +54031,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1967" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54051,7 +54057,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1968" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54077,7 +54083,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54103,7 +54109,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1970" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54129,7 +54135,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54155,7 +54161,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1972" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54181,7 +54187,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1973" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54207,7 +54213,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1974" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54233,7 +54239,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1975" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54259,7 +54265,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54285,7 +54291,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1977" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54311,7 +54317,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1978" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54337,7 +54343,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1979" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54363,7 +54369,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54389,7 +54395,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1981" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54415,7 +54421,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1982" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54441,7 +54447,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1983" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54467,7 +54473,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1984" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54493,7 +54499,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1985" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54519,7 +54525,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1986" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54545,7 +54551,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1987" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54571,7 +54577,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54597,7 +54603,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1989" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54623,7 +54629,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1990" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54649,7 +54655,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1991" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54675,7 +54681,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1992" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54701,7 +54707,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1993" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54727,7 +54733,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54753,7 +54759,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54779,7 +54785,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1996" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54805,7 +54811,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1997" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54831,7 +54837,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54857,7 +54863,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1999" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54883,7 +54889,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2000" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54909,7 +54915,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54935,7 +54941,7 @@
         <v>4</v>
       </c>
       <c r="G2002" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54961,7 +54967,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2003" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54987,7 +54993,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2004" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55013,7 +55019,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2005" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55039,7 +55045,7 @@
         <v>4</v>
       </c>
       <c r="G2006" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55065,7 +55071,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2007" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55091,7 +55097,7 @@
         <v>4</v>
       </c>
       <c r="G2008" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55117,7 +55123,7 @@
         <v>4</v>
       </c>
       <c r="G2009" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55143,7 +55149,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G2010" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55169,7 +55175,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G2011" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55195,7 +55201,7 @@
         <v>4</v>
       </c>
       <c r="G2012" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55221,7 +55227,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G2013" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55247,7 +55253,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2014" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55273,7 +55279,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55299,7 +55305,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2016" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55325,7 +55331,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55351,7 +55357,7 @@
         <v>4</v>
       </c>
       <c r="G2018" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55377,7 +55383,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2019" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55403,7 +55409,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2020" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55429,7 +55435,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2021" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55455,7 +55461,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2022" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55481,7 +55487,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2023" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55507,7 +55513,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2024" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55533,7 +55539,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55559,7 +55565,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55585,7 +55591,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55611,7 +55617,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2028" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55637,7 +55643,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2029" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55663,7 +55669,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2030" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55689,7 +55695,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2031" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55715,7 +55721,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2032" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55741,7 +55747,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2033" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55767,7 +55773,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55793,7 +55799,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2035" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55819,7 +55825,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2036" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55845,7 +55851,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2037" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55871,7 +55877,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2038" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55897,7 +55903,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G2039" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55923,7 +55929,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2040" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55949,7 +55955,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2041" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55975,7 +55981,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2042" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56001,7 +56007,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2043" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56027,7 +56033,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2044" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56053,7 +56059,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2045" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56079,7 +56085,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2046" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56105,7 +56111,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2047" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56131,7 +56137,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2048" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56157,7 +56163,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2049" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56183,7 +56189,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2050" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56209,7 +56215,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2051" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56235,7 +56241,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2052" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56261,7 +56267,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2053" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56287,7 +56293,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2054" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56313,7 +56319,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G2055" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56339,7 +56345,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2056" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56365,7 +56371,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G2057" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56391,7 +56397,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2058" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56417,7 +56423,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2059" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56443,7 +56449,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G2060" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56469,7 +56475,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G2061" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56495,7 +56501,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2062" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56521,7 +56527,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2063" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56547,7 +56553,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2064" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56573,7 +56579,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2065" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56599,7 +56605,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G2066" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56625,7 +56631,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2067" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56651,7 +56657,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2068" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56677,7 +56683,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2069" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56703,7 +56709,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2070" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56729,7 +56735,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2071" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56755,7 +56761,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2072" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56781,7 +56787,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G2073" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56807,7 +56813,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2074" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56833,7 +56839,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G2075" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56859,7 +56865,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2076" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56885,7 +56891,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2077" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56911,7 +56917,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G2078" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56937,7 +56943,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56963,7 +56969,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2080" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56989,7 +56995,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2081" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57015,7 +57021,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2082" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57041,7 +57047,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2083" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57067,7 +57073,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2084" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57093,7 +57099,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2085" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57119,7 +57125,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2086" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57145,7 +57151,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57171,7 +57177,7 @@
         <v>4.5</v>
       </c>
       <c r="G2088" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57197,7 +57203,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G2089" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57223,7 +57229,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G2090" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57249,7 +57255,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2091" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57275,7 +57281,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G2092" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57301,7 +57307,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G2093" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57327,7 +57333,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G2094" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57353,7 +57359,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2095" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57379,7 +57385,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2096" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57405,7 +57411,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57431,7 +57437,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2098" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57457,7 +57463,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2099" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57483,7 +57489,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2100" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57509,7 +57515,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57535,7 +57541,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2102" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57561,7 +57567,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2103" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57587,7 +57593,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2104" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57613,7 +57619,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2105" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57639,7 +57645,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57665,7 +57671,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2107" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57691,7 +57697,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2108" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57717,7 +57723,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2109" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57743,7 +57749,7 @@
         <v>4.98999977111816</v>
       </c>
       <c r="G2110" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57769,7 +57775,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2111" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57795,7 +57801,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G2112" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57821,7 +57827,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2113" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57847,7 +57853,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G2114" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57873,7 +57879,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2115" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57899,7 +57905,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2116" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57925,7 +57931,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2117" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57951,7 +57957,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2118" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57977,7 +57983,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2119" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58003,7 +58009,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2120" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58029,7 +58035,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2121" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58055,7 +58061,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2122" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58081,7 +58087,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2123" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58107,7 +58113,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2124" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58133,7 +58139,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2125" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58159,7 +58165,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2126" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58185,7 +58191,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2127" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58211,7 +58217,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2128" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58237,7 +58243,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2129" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58263,7 +58269,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G2130" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58289,7 +58295,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2131" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58315,7 +58321,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58341,7 +58347,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G2133" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58367,7 +58373,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2134" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58393,7 +58399,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2135" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58419,7 +58425,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2136" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58445,7 +58451,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2137" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58471,7 +58477,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2138" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58497,7 +58503,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2139" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58523,7 +58529,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2140" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58549,7 +58555,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2141" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58575,7 +58581,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2142" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58601,7 +58607,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2143" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58627,7 +58633,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2144" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58653,7 +58659,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58679,7 +58685,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2146" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58705,7 +58711,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2147" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58731,7 +58737,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G2148" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58757,7 +58763,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G2149" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>

--- a/data/CALT.MI.xlsx
+++ b/data/CALT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="851">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80173289775848</t>
+    <t xml:space="preserve">1.80173254013062</t>
   </si>
   <si>
     <t xml:space="preserve">CALT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80949890613556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77843451499939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72407174110413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7349442243576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71164631843567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7007737159729</t>
+    <t xml:space="preserve">1.80949866771698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77843463420868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72407186031342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73494434356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71164619922638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70077383518219</t>
   </si>
   <si>
     <t xml:space="preserve">1.63243210315704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55244135856628</t>
+    <t xml:space="preserve">1.55244123935699</t>
   </si>
   <si>
     <t xml:space="preserve">1.53613245487213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53768575191498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49031269550323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49885523319244</t>
+    <t xml:space="preserve">1.53768563270569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49031257629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49885535240173</t>
   </si>
   <si>
     <t xml:space="preserve">1.47555708885193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47322726249695</t>
+    <t xml:space="preserve">1.47322714328766</t>
   </si>
   <si>
     <t xml:space="preserve">1.46779096126556</t>
@@ -92,121 +92,121 @@
     <t xml:space="preserve">1.47245061397552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46002495288849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43439698219299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4367264509201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45070564746857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40799200534821</t>
+    <t xml:space="preserve">1.4600248336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4343968629837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43672657012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45070552825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4079921245575</t>
   </si>
   <si>
     <t xml:space="preserve">1.38624691963196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39789605140686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3932363986969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43595004081726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40566229820251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43284368515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42119443416595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43051362037659</t>
+    <t xml:space="preserve">1.39789593219757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39323651790619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43594992160797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40566217899323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43284356594086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42119455337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43051385879517</t>
   </si>
   <si>
     <t xml:space="preserve">1.48487639427185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4631313085556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49963188171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51749384403229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56875002384186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58272910118103</t>
+    <t xml:space="preserve">1.46313118934631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49963200092316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51749396324158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56875038146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58272922039032</t>
   </si>
   <si>
     <t xml:space="preserve">1.57962262630463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60292088985443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59981453418732</t>
+    <t xml:space="preserve">1.60292077064514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59981441497803</t>
   </si>
   <si>
     <t xml:space="preserve">1.60758054256439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62155961990356</t>
+    <t xml:space="preserve">1.62155950069427</t>
   </si>
   <si>
     <t xml:space="preserve">1.66038990020752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66970932483673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69300770759583</t>
+    <t xml:space="preserve">1.66970920562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69300746917725</t>
   </si>
   <si>
     <t xml:space="preserve">1.68524158000946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69145405292511</t>
+    <t xml:space="preserve">1.6914541721344</t>
   </si>
   <si>
     <t xml:space="preserve">1.6774754524231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71630597114563</t>
+    <t xml:space="preserve">1.71630585193634</t>
   </si>
   <si>
     <t xml:space="preserve">1.70543336868286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64641094207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64796423912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69611394405365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72251868247986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73183810710907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75047671794891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75513601303101</t>
+    <t xml:space="preserve">1.64641082286835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64796435832977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69611418247223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72251856327057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73183798789978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75047659873962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7551361322403</t>
   </si>
   <si>
     <t xml:space="preserve">1.75668954849243</t>
@@ -218,103 +218,103 @@
     <t xml:space="preserve">1.80017971992493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7675621509552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77066838741302</t>
+    <t xml:space="preserve">1.76756191253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77066850662231</t>
   </si>
   <si>
     <t xml:space="preserve">1.76290225982666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73960399627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7473703622818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73028481006622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74581694602966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70388007164001</t>
+    <t xml:space="preserve">1.73960411548615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74737012386322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73028492927551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74581682682037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7038801908493</t>
   </si>
   <si>
     <t xml:space="preserve">1.70853960514069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73805046081543</t>
+    <t xml:space="preserve">1.73805058002472</t>
   </si>
   <si>
     <t xml:space="preserve">1.76347017288208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74758315086365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75552666187286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78571224212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76982510089874</t>
+    <t xml:space="preserve">1.74758303165436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75552678108215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78571212291718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76982522010803</t>
   </si>
   <si>
     <t xml:space="preserve">1.75870406627655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7793573141098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78730082511902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71580874919891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73487341403961</t>
+    <t xml:space="preserve">1.77935743331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78730094432831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71580898761749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7348735332489</t>
   </si>
   <si>
     <t xml:space="preserve">1.73169589042664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71422004699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6665586233139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62048614025116</t>
+    <t xml:space="preserve">1.71422016620636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66655874252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62048590183258</t>
   </si>
   <si>
     <t xml:space="preserve">1.61254251003265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57917952537537</t>
+    <t xml:space="preserve">1.57917964458466</t>
   </si>
   <si>
     <t xml:space="preserve">1.588711977005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65067160129547</t>
+    <t xml:space="preserve">1.65067172050476</t>
   </si>
   <si>
     <t xml:space="preserve">1.58632898330688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60936534404755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59665536880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54899430274963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53151834011078</t>
+    <t xml:space="preserve">1.60936510562897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59665548801422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54899418354034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5315181016922</t>
   </si>
   <si>
     <t xml:space="preserve">1.57997405529022</t>
@@ -323,13 +323,13 @@
     <t xml:space="preserve">1.52516329288483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53310692310333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57282495498657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55693769454956</t>
+    <t xml:space="preserve">1.53310704231262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57282471656799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55693793296814</t>
   </si>
   <si>
     <t xml:space="preserve">1.66814732551575</t>
@@ -338,10 +338,10 @@
     <t xml:space="preserve">1.65702664852142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62842965126038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68403434753418</t>
+    <t xml:space="preserve">1.62842977046967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68403458595276</t>
   </si>
   <si>
     <t xml:space="preserve">1.73010718822479</t>
@@ -350,61 +350,61 @@
     <t xml:space="preserve">1.723752617836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73963963985443</t>
+    <t xml:space="preserve">1.73963975906372</t>
   </si>
   <si>
     <t xml:space="preserve">1.67609095573425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63637340068817</t>
+    <t xml:space="preserve">1.63637328147888</t>
   </si>
   <si>
     <t xml:space="preserve">1.6443167924881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69992160797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69515573978424</t>
+    <t xml:space="preserve">1.69992172718048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69515562057495</t>
   </si>
   <si>
     <t xml:space="preserve">1.63478469848633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60459911823273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62684118747711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60301029682159</t>
+    <t xml:space="preserve">1.60459935665131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62684106826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6030101776123</t>
   </si>
   <si>
     <t xml:space="preserve">1.58076846599579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59983277320862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64113938808441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61730897426605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63955068588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61095404624939</t>
+    <t xml:space="preserve">1.59983289241791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64113962650299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61730873584747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63955056667328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61095416545868</t>
   </si>
   <si>
     <t xml:space="preserve">1.58791756629944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57679677009583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56249821186066</t>
+    <t xml:space="preserve">1.57679653167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56249833106995</t>
   </si>
   <si>
     <t xml:space="preserve">1.56329262256622</t>
@@ -413,25 +413,25 @@
     <t xml:space="preserve">1.59188938140869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62525248527527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6331958770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64272832870483</t>
+    <t xml:space="preserve">1.62525236606598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63319599628448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64272820949554</t>
   </si>
   <si>
     <t xml:space="preserve">1.65226030349731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5585263967514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56488132476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53072392940521</t>
+    <t xml:space="preserve">1.55852651596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56488120555878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5307240486145</t>
   </si>
   <si>
     <t xml:space="preserve">1.5529659986496</t>
@@ -440,13 +440,13 @@
     <t xml:space="preserve">1.5640869140625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58712339401245</t>
+    <t xml:space="preserve">1.58712327480316</t>
   </si>
   <si>
     <t xml:space="preserve">1.66020393371582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6474940776825</t>
+    <t xml:space="preserve">1.64749419689178</t>
   </si>
   <si>
     <t xml:space="preserve">1.62366342544556</t>
@@ -470,10 +470,10 @@
     <t xml:space="preserve">1.70945394039154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70786547660828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7459944486618</t>
+    <t xml:space="preserve">1.7078652381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74599432945251</t>
   </si>
   <si>
     <t xml:space="preserve">1.69197833538055</t>
@@ -482,151 +482,151 @@
     <t xml:space="preserve">1.69833302497864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70627665519714</t>
+    <t xml:space="preserve">1.70627653598785</t>
   </si>
   <si>
     <t xml:space="preserve">1.69356691837311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72534132003784</t>
+    <t xml:space="preserve">1.72534108161926</t>
   </si>
   <si>
     <t xml:space="preserve">1.72851872444153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79842185974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7952446937561</t>
+    <t xml:space="preserve">1.79842174053192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79524433612823</t>
   </si>
   <si>
     <t xml:space="preserve">1.81113171577454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81589782238007</t>
+    <t xml:space="preserve">1.81589806079865</t>
   </si>
   <si>
     <t xml:space="preserve">1.77141380310059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76823663711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80318820476532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82542991638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82701861858368</t>
+    <t xml:space="preserve">1.76823651790619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80318808555603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82543015480042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82701849937439</t>
   </si>
   <si>
     <t xml:space="preserve">1.85084915161133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83496224880219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81907510757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80001068115234</t>
+    <t xml:space="preserve">1.8349621295929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81907534599304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80001056194305</t>
   </si>
   <si>
     <t xml:space="preserve">1.80159914493561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85879302024841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8699141740799</t>
+    <t xml:space="preserve">1.85879290103912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86991405487061</t>
   </si>
   <si>
     <t xml:space="preserve">1.88897848129272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88580107688904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87467980384827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89374482631683</t>
+    <t xml:space="preserve">1.88580119609833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87467968463898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89374470710754</t>
   </si>
   <si>
     <t xml:space="preserve">1.88262343406677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9286961555481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94776093959808</t>
+    <t xml:space="preserve">1.92869663238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94776082038879</t>
   </si>
   <si>
     <t xml:space="preserve">1.92393004894257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92551898956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92075276374817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9366397857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91916382312775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93346261978149</t>
+    <t xml:space="preserve">1.92551922798157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92075264453888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93663966655731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91916394233704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93346226215363</t>
   </si>
   <si>
     <t xml:space="preserve">1.9223415851593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90645408630371</t>
+    <t xml:space="preserve">1.90645444393158</t>
   </si>
   <si>
     <t xml:space="preserve">1.9143979549408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8921560049057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90963196754456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91757547855377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93822848796844</t>
+    <t xml:space="preserve">1.89215612411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90963184833527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91757524013519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93822860717773</t>
   </si>
   <si>
     <t xml:space="preserve">2.0224301815033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97953546047211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99383342266083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00177693367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9970109462738</t>
+    <t xml:space="preserve">1.97953510284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99383366107941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00177717208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99701058864594</t>
   </si>
   <si>
     <t xml:space="preserve">2.03990626335144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0637366771698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07326912879944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08439016342163</t>
+    <t xml:space="preserve">2.06373691558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07326936721802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08439040184021</t>
   </si>
   <si>
     <t xml:space="preserve">2.08280110359192</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">2.08756756782532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06532526016235</t>
+    <t xml:space="preserve">2.06532502174377</t>
   </si>
   <si>
     <t xml:space="preserve">2.07803511619568</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">2.08121252059937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17063975334167</t>
+    <t xml:space="preserve">2.17063999176025</t>
   </si>
   <si>
     <t xml:space="preserve">2.16901397705078</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">2.19340300559998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16250991821289</t>
+    <t xml:space="preserve">2.16251039505005</t>
   </si>
   <si>
     <t xml:space="preserve">2.19502854347229</t>
@@ -662,25 +662,25 @@
     <t xml:space="preserve">2.2519371509552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22754764556885</t>
+    <t xml:space="preserve">2.22754788398743</t>
   </si>
   <si>
     <t xml:space="preserve">2.23079991340637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20641040802002</t>
+    <t xml:space="preserve">2.2064106464386</t>
   </si>
   <si>
     <t xml:space="preserve">2.24380707740784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23242616653442</t>
+    <t xml:space="preserve">2.23242568969727</t>
   </si>
   <si>
     <t xml:space="preserve">2.21941828727722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24218130111694</t>
+    <t xml:space="preserve">2.24218106269836</t>
   </si>
   <si>
     <t xml:space="preserve">2.1234872341156</t>
@@ -692,37 +692,37 @@
     <t xml:space="preserve">2.11373138427734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12511324882507</t>
+    <t xml:space="preserve">2.12511348724365</t>
   </si>
   <si>
     <t xml:space="preserve">2.12186145782471</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14299821853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13812112808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18689942359924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19665455818176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20315885543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21128821372986</t>
+    <t xml:space="preserve">2.14299845695496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1381208896637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18689918518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19665503501892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20315861701965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21128845214844</t>
   </si>
   <si>
     <t xml:space="preserve">2.26494479179382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27632641792297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28933358192444</t>
+    <t xml:space="preserve">2.27632617950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28933382034302</t>
   </si>
   <si>
     <t xml:space="preserve">2.28608202934265</t>
@@ -731,43 +731,43 @@
     <t xml:space="preserve">2.2747004032135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29095983505249</t>
+    <t xml:space="preserve">2.29096007347107</t>
   </si>
   <si>
     <t xml:space="preserve">2.24543333053589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24055552482605</t>
+    <t xml:space="preserve">2.24055528640747</t>
   </si>
   <si>
     <t xml:space="preserve">2.21616649627686</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17551755905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14137291908264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10234999656677</t>
+    <t xml:space="preserve">2.17551779747009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14137244224548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10235023498535</t>
   </si>
   <si>
     <t xml:space="preserve">2.04219007492065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07308292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15438055992126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13161659240723</t>
+    <t xml:space="preserve">2.07308316230774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15438032150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13161683082581</t>
   </si>
   <si>
     <t xml:space="preserve">2.18364763259888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14462471008301</t>
+    <t xml:space="preserve">2.14462423324585</t>
   </si>
   <si>
     <t xml:space="preserve">2.11210560798645</t>
@@ -776,43 +776,43 @@
     <t xml:space="preserve">2.12673902511597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15763235092163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14625024795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15600609779358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32510471343994</t>
+    <t xml:space="preserve">2.15763211250305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1462504863739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15600633621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32510447502136</t>
   </si>
   <si>
     <t xml:space="preserve">2.30721926689148</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29421162605286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31697487831116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32185244560242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40640234947205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40152406692505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41453194618225</t>
+    <t xml:space="preserve">2.29421138763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31697511672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32185292243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40640211105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40152454376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41453170776367</t>
   </si>
   <si>
     <t xml:space="preserve">2.4129056930542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47956943511963</t>
+    <t xml:space="preserve">2.47956967353821</t>
   </si>
   <si>
     <t xml:space="preserve">2.47631788253784</t>
@@ -821,34 +821,34 @@
     <t xml:space="preserve">2.53647780418396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5689971446991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5787525177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58363008499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61614942550659</t>
+    <t xml:space="preserve">2.56899666786194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57875227928162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58363056182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61614918708801</t>
   </si>
   <si>
     <t xml:space="preserve">2.6015157699585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63403463363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62590503692627</t>
+    <t xml:space="preserve">2.63403487205505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62590479850769</t>
   </si>
   <si>
     <t xml:space="preserve">2.58525633811951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59826397895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59338641166687</t>
+    <t xml:space="preserve">2.59826421737671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59338617324829</t>
   </si>
   <si>
     <t xml:space="preserve">2.61777520179749</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">2.62753105163574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60639333724976</t>
+    <t xml:space="preserve">2.60639357566833</t>
   </si>
   <si>
     <t xml:space="preserve">2.60314154624939</t>
@@ -866,10 +866,10 @@
     <t xml:space="preserve">2.60801959037781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59175992012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59013414382935</t>
+    <t xml:space="preserve">2.59176015853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59013438224792</t>
   </si>
   <si>
     <t xml:space="preserve">2.62102723121643</t>
@@ -881,16 +881,16 @@
     <t xml:space="preserve">2.64704251289368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63240885734558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65029382705688</t>
+    <t xml:space="preserve">2.63240838050842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65029430389404</t>
   </si>
   <si>
     <t xml:space="preserve">2.70395040512085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80963706970215</t>
+    <t xml:space="preserve">2.80963730812073</t>
   </si>
   <si>
     <t xml:space="preserve">2.81288909912109</t>
@@ -899,13 +899,13 @@
     <t xml:space="preserve">2.82427072525024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79662942886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80475926399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7738664150238</t>
+    <t xml:space="preserve">2.7966296672821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80475902557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77386593818665</t>
   </si>
   <si>
     <t xml:space="preserve">2.76411056518555</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">2.69744682312012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68443918228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69582080841064</t>
+    <t xml:space="preserve">2.68443894386292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69582104682922</t>
   </si>
   <si>
     <t xml:space="preserve">2.68281292915344</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">2.63728666305542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61452341079712</t>
+    <t xml:space="preserve">2.6145236492157</t>
   </si>
   <si>
     <t xml:space="preserve">2.6242790222168</t>
@@ -944,16 +944,16 @@
     <t xml:space="preserve">2.61940097808838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55273723602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56411910057068</t>
+    <t xml:space="preserve">2.55273747444153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5641188621521</t>
   </si>
   <si>
     <t xml:space="preserve">2.57550072669983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52509641647339</t>
+    <t xml:space="preserve">2.52509617805481</t>
   </si>
   <si>
     <t xml:space="preserve">2.4860737323761</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">2.388516664505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3446159362793</t>
+    <t xml:space="preserve">2.34461617469788</t>
   </si>
   <si>
     <t xml:space="preserve">2.36250162124634</t>
@@ -977,34 +977,34 @@
     <t xml:space="preserve">2.43729496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45355463027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4389214515686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44705080986023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50395894050598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52834820747375</t>
+    <t xml:space="preserve">2.45355439186096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43892097473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44705104827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5039587020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52834796905518</t>
   </si>
   <si>
     <t xml:space="preserve">2.72346186637878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73159122467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56086754798889</t>
+    <t xml:space="preserve">2.73159146308899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56086730957031</t>
   </si>
   <si>
     <t xml:space="preserve">2.45518064498901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47143983840942</t>
+    <t xml:space="preserve">2.471440076828</t>
   </si>
   <si>
     <t xml:space="preserve">2.48769927024841</t>
@@ -1013,40 +1013,40 @@
     <t xml:space="preserve">2.54460787773132</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49582886695862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51208877563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52021837234497</t>
+    <t xml:space="preserve">2.49582958221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51208853721619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52021813392639</t>
   </si>
   <si>
     <t xml:space="preserve">2.33323431015015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39014291763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34136462211609</t>
+    <t xml:space="preserve">2.39014220237732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34136414527893</t>
   </si>
   <si>
     <t xml:space="preserve">2.3576238155365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3657534122467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34949398040771</t>
+    <t xml:space="preserve">2.36575365066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34949445724487</t>
   </si>
   <si>
     <t xml:space="preserve">2.30884528160095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19502878189087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20334386825562</t>
+    <t xml:space="preserve">2.19502902030945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20334362983704</t>
   </si>
   <si>
     <t xml:space="preserve">2.17839980125427</t>
@@ -1055,10 +1055,10 @@
     <t xml:space="preserve">2.1617705821991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17008566856384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09525465965271</t>
+    <t xml:space="preserve">2.17008543014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09525489807129</t>
   </si>
   <si>
     <t xml:space="preserve">2.07862567901611</t>
@@ -1067,25 +1067,25 @@
     <t xml:space="preserve">2.14514183998108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.269859790802</t>
+    <t xml:space="preserve">2.26985955238342</t>
   </si>
   <si>
     <t xml:space="preserve">2.37794780731201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21997261047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24491572380066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22828674316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28648829460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21165800094604</t>
+    <t xml:space="preserve">2.21997284889221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24491548538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22828698158264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28648853302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21165823936462</t>
   </si>
   <si>
     <t xml:space="preserve">2.25323057174683</t>
@@ -1094,22 +1094,22 @@
     <t xml:space="preserve">2.27817392349243</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26154494285583</t>
+    <t xml:space="preserve">2.26154518127441</t>
   </si>
   <si>
     <t xml:space="preserve">2.18671464920044</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13682746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15345644950867</t>
+    <t xml:space="preserve">2.13682723045349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15345621109009</t>
   </si>
   <si>
     <t xml:space="preserve">2.11188387870789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1285126209259</t>
+    <t xml:space="preserve">2.12851285934448</t>
   </si>
   <si>
     <t xml:space="preserve">2.36131906509399</t>
@@ -1127,79 +1127,79 @@
     <t xml:space="preserve">2.32806086540222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31974673271179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31143188476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23660159111023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39457726478577</t>
+    <t xml:space="preserve">2.31974649429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3114321231842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23660135269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39457678794861</t>
   </si>
   <si>
     <t xml:space="preserve">2.10356950759888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12019848823547</t>
+    <t xml:space="preserve">2.12019872665405</t>
   </si>
   <si>
     <t xml:space="preserve">2.07031154632568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98716628551483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99548065662384</t>
+    <t xml:space="preserve">1.98716640472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99548101425171</t>
   </si>
   <si>
     <t xml:space="preserve">2.03705334663391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04536771774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0619969367981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08694052696228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87907803058624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88739252090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91233587265015</t>
+    <t xml:space="preserve">2.0453679561615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06199669837952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0869402885437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87907767295837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88739228248596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91233563423157</t>
   </si>
   <si>
     <t xml:space="preserve">1.86244881153107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84581959247589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89570677280426</t>
+    <t xml:space="preserve">1.84581971168518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89570689201355</t>
   </si>
   <si>
     <t xml:space="preserve">1.83750534057617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7959326505661</t>
+    <t xml:space="preserve">1.79593288898468</t>
   </si>
   <si>
     <t xml:space="preserve">1.76267457008362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7793036699295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8125616312027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78761839866638</t>
+    <t xml:space="preserve">1.77930378913879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81256175041199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78761827945709</t>
   </si>
   <si>
     <t xml:space="preserve">1.80424737930298</t>
@@ -1211,28 +1211,28 @@
     <t xml:space="preserve">1.82087647914886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87076318264008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92896461486816</t>
+    <t xml:space="preserve">1.87076330184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92896473407745</t>
   </si>
   <si>
     <t xml:space="preserve">1.93727910518646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90402126312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94559383392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97885179519653</t>
+    <t xml:space="preserve">1.90402150154114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94559371471405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97885203361511</t>
   </si>
   <si>
     <t xml:space="preserve">2.05368256568909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01210999488831</t>
+    <t xml:space="preserve">2.01210975646973</t>
   </si>
   <si>
     <t xml:space="preserve">2.09671592712402</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">2.08815789222717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06248378753662</t>
+    <t xml:space="preserve">2.0624840259552</t>
   </si>
   <si>
     <t xml:space="preserve">2.07104206085205</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">2.03680992126465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01113557815552</t>
+    <t xml:space="preserve">2.0111358165741</t>
   </si>
   <si>
     <t xml:space="preserve">2.05392575263977</t>
@@ -1259,40 +1259,40 @@
     <t xml:space="preserve">2.11383199691772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13950610160828</t>
+    <t xml:space="preserve">2.13950634002686</t>
   </si>
   <si>
     <t xml:space="preserve">2.13094806671143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1737380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25076079368591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24220204353333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1908540725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18229627609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2079701423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21652841567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19941258430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22508597373962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1566219329834</t>
+    <t xml:space="preserve">2.17373824119568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25076055526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2422022819519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19085431098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18229603767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20797038078308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21652817726135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19941234588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2250862121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15662217140198</t>
   </si>
   <si>
     <t xml:space="preserve">2.31066632270813</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">2.46471118927002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41336274147034</t>
+    <t xml:space="preserve">2.41336250305176</t>
   </si>
   <si>
     <t xml:space="preserve">2.36201429367065</t>
@@ -1361,37 +1361,37 @@
     <t xml:space="preserve">2.52461719512939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49894332885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51605939865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55029129981995</t>
+    <t xml:space="preserve">2.49894309043884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51605916023254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55029106140137</t>
   </si>
   <si>
     <t xml:space="preserve">2.59308123588562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56740760803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61019730567932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68721961975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64442944526672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58452343940735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60163950920105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53317546844482</t>
+    <t xml:space="preserve">2.56740736961365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6101975440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6872193813324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6444296836853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58452320098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60163927078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53317523002625</t>
   </si>
   <si>
     <t xml:space="preserve">2.43903684616089</t>
@@ -1403,16 +1403,16 @@
     <t xml:space="preserve">2.27643442153931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26787686347961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12239003181458</t>
+    <t xml:space="preserve">2.26787662506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12239027023315</t>
   </si>
   <si>
     <t xml:space="preserve">1.94267165660858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95122945308685</t>
+    <t xml:space="preserve">1.95122957229614</t>
   </si>
   <si>
     <t xml:space="preserve">1.74583697319031</t>
@@ -1421,19 +1421,19 @@
     <t xml:space="preserve">1.75439488887787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62602460384369</t>
+    <t xml:space="preserve">1.6260244846344</t>
   </si>
   <si>
     <t xml:space="preserve">1.78006887435913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70732581615448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70304691791534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68593084812164</t>
+    <t xml:space="preserve">1.70732593536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70304679870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68593072891235</t>
   </si>
   <si>
     <t xml:space="preserve">1.83997535705566</t>
@@ -1448,22 +1448,22 @@
     <t xml:space="preserve">1.87420749664307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93411362171173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07959985733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88276529312134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86564910411835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89132332801819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91699731349945</t>
+    <t xml:space="preserve">1.93411374092102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0796000957489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88276541233063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86564922332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89132344722748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91699743270874</t>
   </si>
   <si>
     <t xml:space="preserve">1.89988124370575</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">1.85709130764008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95978760719299</t>
+    <t xml:space="preserve">1.9597874879837</t>
   </si>
   <si>
     <t xml:space="preserve">1.98546147346497</t>
@@ -1484,19 +1484,19 @@
     <t xml:space="preserve">1.9769035577774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02825140953064</t>
+    <t xml:space="preserve">2.02825164794922</t>
   </si>
   <si>
     <t xml:space="preserve">2.10527396202087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16518044471741</t>
+    <t xml:space="preserve">2.16518020629883</t>
   </si>
   <si>
     <t xml:space="preserve">2.25931835174561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14806437492371</t>
+    <t xml:space="preserve">2.14806413650513</t>
   </si>
   <si>
     <t xml:space="preserve">2.15589737892151</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">2.11189937591553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05910205841064</t>
+    <t xml:space="preserve">2.05910181999207</t>
   </si>
   <si>
     <t xml:space="preserve">2.05030226707458</t>
@@ -1532,19 +1532,19 @@
     <t xml:space="preserve">2.12069916725159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08550071716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07670116424561</t>
+    <t xml:space="preserve">2.08550047874451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07670092582703</t>
   </si>
   <si>
     <t xml:space="preserve">1.97110605239868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95350682735443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96230673789978</t>
+    <t xml:space="preserve">1.95350706577301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96230661869049</t>
   </si>
   <si>
     <t xml:space="preserve">2.09430050849915</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">2.41988492012024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43748426437378</t>
+    <t xml:space="preserve">2.4374840259552</t>
   </si>
   <si>
     <t xml:space="preserve">2.44628357887268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5166802406311</t>
+    <t xml:space="preserve">2.51668000221252</t>
   </si>
   <si>
     <t xml:space="preserve">2.53427958488464</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">2.50788068771362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61347603797913</t>
+    <t xml:space="preserve">2.61347579956055</t>
   </si>
   <si>
     <t xml:space="preserve">2.68387246131897</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">2.63987445831299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67507290840149</t>
+    <t xml:space="preserve">2.67507266998291</t>
   </si>
   <si>
     <t xml:space="preserve">2.65747356414795</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">2.64867401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63107466697693</t>
+    <t xml:space="preserve">2.63107490539551</t>
   </si>
   <si>
     <t xml:space="preserve">2.62227511405945</t>
@@ -1637,25 +1637,25 @@
     <t xml:space="preserve">2.74546933174133</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73666977882385</t>
+    <t xml:space="preserve">2.73667001724243</t>
   </si>
   <si>
     <t xml:space="preserve">2.76306867599487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80706667900085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79826664924622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72786998748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81586599349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83346509933472</t>
+    <t xml:space="preserve">2.80706691741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79826688766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72787022590637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81586623191833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8334653377533</t>
   </si>
   <si>
     <t xml:space="preserve">2.8774631023407</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">2.88626265525818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9478600025177</t>
+    <t xml:space="preserve">2.94785976409912</t>
   </si>
   <si>
     <t xml:space="preserve">2.97425866127014</t>
@@ -1685,28 +1685,28 @@
     <t xml:space="preserve">2.85986399650574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84226512908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85106444358826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90386176109314</t>
+    <t xml:space="preserve">2.84226489067078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85106420516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90386152267456</t>
   </si>
   <si>
     <t xml:space="preserve">2.89506220817566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9566593170166</t>
+    <t xml:space="preserve">2.95665907859802</t>
   </si>
   <si>
     <t xml:space="preserve">2.93905997276306</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93026065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0270562171936</t>
+    <t xml:space="preserve">2.93026041984558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02705597877502</t>
   </si>
   <si>
     <t xml:space="preserve">3.12385153770447</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">3.23824596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29984331130981</t>
+    <t xml:space="preserve">3.29984307289124</t>
   </si>
   <si>
     <t xml:space="preserve">3.26464486122131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36144018173218</t>
+    <t xml:space="preserve">3.3614399433136</t>
   </si>
   <si>
     <t xml:space="preserve">3.34384083747864</t>
@@ -1760,13 +1760,13 @@
     <t xml:space="preserve">3.49343395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44063663482666</t>
+    <t xml:space="preserve">3.44063639640808</t>
   </si>
   <si>
     <t xml:space="preserve">3.41423749923706</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39663815498352</t>
+    <t xml:space="preserve">3.3966383934021</t>
   </si>
   <si>
     <t xml:space="preserve">3.43216013908386</t>
@@ -2562,6 +2562,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.73999977111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82000017166138</t>
   </si>
 </sst>
 </file>
@@ -58881,7 +58884,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6493402778</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>44215</v>
@@ -58902,6 +58905,32 @@
         <v>849</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6493518519</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>16822</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>5.88000011444092</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>5.69999980926514</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>5.69999980926514</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>5.82000017166138</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>850</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CALT.MI.xlsx
+++ b/data/CALT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="853">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,16 +50,16 @@
     <t xml:space="preserve">1.77843463420868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72407186031342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73494434356689</t>
+    <t xml:space="preserve">1.72407197952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73494446277618</t>
   </si>
   <si>
     <t xml:space="preserve">1.71164619922638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70077383518219</t>
+    <t xml:space="preserve">1.70077359676361</t>
   </si>
   <si>
     <t xml:space="preserve">1.63243210315704</t>
@@ -68,25 +68,25 @@
     <t xml:space="preserve">1.55244123935699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53613245487213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53768563270569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49031257629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49885535240173</t>
+    <t xml:space="preserve">1.53613257408142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53768575191498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49031281471252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49885511398315</t>
   </si>
   <si>
     <t xml:space="preserve">1.47555708885193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47322714328766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46779096126556</t>
+    <t xml:space="preserve">1.47322726249695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46779084205627</t>
   </si>
   <si>
     <t xml:space="preserve">1.47245061397552</t>
@@ -95,127 +95,127 @@
     <t xml:space="preserve">1.4600248336792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4343968629837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43672657012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45070552825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4079921245575</t>
+    <t xml:space="preserve">1.43439674377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43672668933868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45070564746857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40799224376678</t>
   </si>
   <si>
     <t xml:space="preserve">1.38624691963196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39789593219757</t>
+    <t xml:space="preserve">1.39789605140686</t>
   </si>
   <si>
     <t xml:space="preserve">1.39323651790619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43594992160797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40566217899323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43284356594086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42119455337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43051385879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48487639427185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46313118934631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49963200092316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51749396324158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56875038146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58272922039032</t>
+    <t xml:space="preserve">1.43595004081726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40566205978394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43284368515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42119443416595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43051362037659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48487627506256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4631313085556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49963188171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51749408245087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56875026226044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58272933959961</t>
   </si>
   <si>
     <t xml:space="preserve">1.57962262630463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60292077064514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59981441497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60758054256439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62155950069427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66038990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66970920562744</t>
+    <t xml:space="preserve">1.60292088985443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59981429576874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60758066177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62155938148499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66038978099823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66970944404602</t>
   </si>
   <si>
     <t xml:space="preserve">1.69300746917725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68524158000946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6914541721344</t>
+    <t xml:space="preserve">1.68524134159088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69145452976227</t>
   </si>
   <si>
     <t xml:space="preserve">1.6774754524231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71630585193634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70543336868286</t>
+    <t xml:space="preserve">1.71630609035492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70543348789215</t>
   </si>
   <si>
     <t xml:space="preserve">1.64641082286835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64796435832977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69611418247223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72251856327057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73183798789978</t>
+    <t xml:space="preserve">1.64796423912048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69611406326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72251880168915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73183822631836</t>
   </si>
   <si>
     <t xml:space="preserve">1.75047659873962</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7551361322403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75668954849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78620040416718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80017971992493</t>
+    <t xml:space="preserve">1.75513637065887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75668942928314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78620064258575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80017960071564</t>
   </si>
   <si>
     <t xml:space="preserve">1.76756191253662</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">1.77066850662231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76290225982666</t>
+    <t xml:space="preserve">1.76290237903595</t>
   </si>
   <si>
     <t xml:space="preserve">1.73960411548615</t>
@@ -239,25 +239,25 @@
     <t xml:space="preserve">1.74581682682037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7038801908493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70853960514069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73805058002472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76347017288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74758303165436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75552678108215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78571212291718</t>
+    <t xml:space="preserve">1.70388007164001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70853984355927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7380508184433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76347029209137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74758315086365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75552690029144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78571200370789</t>
   </si>
   <si>
     <t xml:space="preserve">1.76982522010803</t>
@@ -266,28 +266,28 @@
     <t xml:space="preserve">1.75870406627655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77935743331909</t>
+    <t xml:space="preserve">1.7793573141098</t>
   </si>
   <si>
     <t xml:space="preserve">1.78730094432831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71580898761749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7348735332489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73169589042664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71422016620636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66655874252319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62048590183258</t>
+    <t xml:space="preserve">1.71580910682678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73487341403961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73169600963593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71422028541565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66655886173248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62048602104187</t>
   </si>
   <si>
     <t xml:space="preserve">1.61254251003265</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">1.57917964458466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.588711977005</t>
+    <t xml:space="preserve">1.58871185779572</t>
   </si>
   <si>
     <t xml:space="preserve">1.65067172050476</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">1.58632898330688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60936510562897</t>
+    <t xml:space="preserve">1.60936522483826</t>
   </si>
   <si>
     <t xml:space="preserve">1.59665548801422</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">1.54899418354034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5315181016922</t>
+    <t xml:space="preserve">1.53151845932007</t>
   </si>
   <si>
     <t xml:space="preserve">1.57997405529022</t>
@@ -323,19 +323,19 @@
     <t xml:space="preserve">1.52516329288483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53310704231262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57282471656799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55693793296814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66814732551575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65702664852142</t>
+    <t xml:space="preserve">1.53310680389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57282483577728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55693781375885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66814744472504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65702652931213</t>
   </si>
   <si>
     <t xml:space="preserve">1.62842977046967</t>
@@ -344,34 +344,34 @@
     <t xml:space="preserve">1.68403458595276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73010718822479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.723752617836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73963975906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67609095573425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63637328147888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6443167924881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69992172718048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69515562057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63478469848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60459935665131</t>
+    <t xml:space="preserve">1.73010742664337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72375237941742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73963952064514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67609083652496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6363730430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64431703090668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69992184638977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69515573978424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63478457927704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60459899902344</t>
   </si>
   <si>
     <t xml:space="preserve">1.62684106826782</t>
@@ -380,58 +380,58 @@
     <t xml:space="preserve">1.6030101776123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58076846599579</t>
+    <t xml:space="preserve">1.5807683467865</t>
   </si>
   <si>
     <t xml:space="preserve">1.59983289241791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64113962650299</t>
+    <t xml:space="preserve">1.64113938808441</t>
   </si>
   <si>
     <t xml:space="preserve">1.61730873584747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63955056667328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61095416545868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58791756629944</t>
+    <t xml:space="preserve">1.63955068588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61095380783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58791744709015</t>
   </si>
   <si>
     <t xml:space="preserve">1.57679653167725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56249833106995</t>
+    <t xml:space="preserve">1.56249809265137</t>
   </si>
   <si>
     <t xml:space="preserve">1.56329262256622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59188938140869</t>
+    <t xml:space="preserve">1.5918892621994</t>
   </si>
   <si>
     <t xml:space="preserve">1.62525236606598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63319599628448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64272820949554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65226030349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55852651596069</t>
+    <t xml:space="preserve">1.6331958770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64272832870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6522604227066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5585263967514</t>
   </si>
   <si>
     <t xml:space="preserve">1.56488120555878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5307240486145</t>
+    <t xml:space="preserve">1.53072392940521</t>
   </si>
   <si>
     <t xml:space="preserve">1.5529659986496</t>
@@ -446,70 +446,70 @@
     <t xml:space="preserve">1.66020393371582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64749419689178</t>
+    <t xml:space="preserve">1.6474940776825</t>
   </si>
   <si>
     <t xml:space="preserve">1.62366342544556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.622074842453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63160705566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65861535072327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65384924411774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66496992111206</t>
+    <t xml:space="preserve">1.62207496166229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63160729408264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65861511230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65384912490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66497004032135</t>
   </si>
   <si>
     <t xml:space="preserve">1.70945394039154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7078652381897</t>
+    <t xml:space="preserve">1.70786535739899</t>
   </si>
   <si>
     <t xml:space="preserve">1.74599432945251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69197833538055</t>
+    <t xml:space="preserve">1.69197845458984</t>
   </si>
   <si>
     <t xml:space="preserve">1.69833302497864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70627653598785</t>
+    <t xml:space="preserve">1.70627665519714</t>
   </si>
   <si>
     <t xml:space="preserve">1.69356691837311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72534108161926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72851872444153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79842174053192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79524433612823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81113171577454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81589806079865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77141380310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76823651790619</t>
+    <t xml:space="preserve">1.72534096240997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72851884365082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7984219789505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79524457454681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81113159656525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81589782238007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77141404151917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76823627948761</t>
   </si>
   <si>
     <t xml:space="preserve">1.80318808555603</t>
@@ -518,10 +518,10 @@
     <t xml:space="preserve">1.82543015480042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82701849937439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85084915161133</t>
+    <t xml:space="preserve">1.82701885700226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85084927082062</t>
   </si>
   <si>
     <t xml:space="preserve">1.8349621295929</t>
@@ -539,58 +539,58 @@
     <t xml:space="preserve">1.85879290103912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86991405487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88897848129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88580119609833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87467968463898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89374470710754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88262343406677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92869663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94776082038879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92393004894257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92551922798157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92075264453888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93663966655731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91916394233704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93346226215363</t>
+    <t xml:space="preserve">1.8699141740799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88897860050201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88580095767975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87467980384827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89374458789825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88262355327606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92869627475739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94776093959808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92392992973328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9255188703537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92075288295746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93664002418518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91916406154633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93346238136292</t>
   </si>
   <si>
     <t xml:space="preserve">1.9223415851593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90645444393158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9143979549408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89215612411499</t>
+    <t xml:space="preserve">1.90645468235016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439783573151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89215576648712</t>
   </si>
   <si>
     <t xml:space="preserve">1.90963184833527</t>
@@ -599,13 +599,13 @@
     <t xml:space="preserve">1.91757524013519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93822860717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0224301815033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97953510284424</t>
+    <t xml:space="preserve">1.93822848796844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02243065834045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97953522205353</t>
   </si>
   <si>
     <t xml:space="preserve">1.99383366107941</t>
@@ -614,31 +614,31 @@
     <t xml:space="preserve">2.00177717208862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99701058864594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03990626335144</t>
+    <t xml:space="preserve">1.9970109462738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03990602493286</t>
   </si>
   <si>
     <t xml:space="preserve">2.06373691558838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07326936721802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08439040184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08280110359192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08756756782532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06532502174377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07803511619568</t>
+    <t xml:space="preserve">2.07326865196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08438992500305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0828013420105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08756732940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06532549858093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07803535461426</t>
   </si>
   <si>
     <t xml:space="preserve">2.08121252059937</t>
@@ -656,13 +656,13 @@
     <t xml:space="preserve">2.16251039505005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19502854347229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2519371509552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22754788398743</t>
+    <t xml:space="preserve">2.19502902030945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25193691253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22754764556885</t>
   </si>
   <si>
     <t xml:space="preserve">2.23079991340637</t>
@@ -671,31 +671,31 @@
     <t xml:space="preserve">2.2064106464386</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24380707740784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23242568969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21941828727722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24218106269836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1234872341156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12999081611633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11373138427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12511348724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12186145782471</t>
+    <t xml:space="preserve">2.24380731582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23242592811584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2194185256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24218130111694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12348699569702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12999057769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11373114585876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12511324882507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12186121940613</t>
   </si>
   <si>
     <t xml:space="preserve">2.14299845695496</t>
@@ -704,34 +704,34 @@
     <t xml:space="preserve">2.1381208896637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18689918518066</t>
+    <t xml:space="preserve">2.18689942359924</t>
   </si>
   <si>
     <t xml:space="preserve">2.19665503501892</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20315861701965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21128845214844</t>
+    <t xml:space="preserve">2.20315885543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21128869056702</t>
   </si>
   <si>
     <t xml:space="preserve">2.26494479179382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27632617950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28933382034302</t>
+    <t xml:space="preserve">2.27632641792297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2893340587616</t>
   </si>
   <si>
     <t xml:space="preserve">2.28608202934265</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2747004032135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29096007347107</t>
+    <t xml:space="preserve">2.27470016479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29095959663391</t>
   </si>
   <si>
     <t xml:space="preserve">2.24543333053589</t>
@@ -740,25 +740,25 @@
     <t xml:space="preserve">2.24055528640747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21616649627686</t>
+    <t xml:space="preserve">2.21616625785828</t>
   </si>
   <si>
     <t xml:space="preserve">2.17551779747009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14137244224548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10235023498535</t>
+    <t xml:space="preserve">2.14137268066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10234975814819</t>
   </si>
   <si>
     <t xml:space="preserve">2.04219007492065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07308316230774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15438032150269</t>
+    <t xml:space="preserve">2.07308268547058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15438055992126</t>
   </si>
   <si>
     <t xml:space="preserve">2.13161683082581</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">2.18364763259888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14462423324585</t>
+    <t xml:space="preserve">2.14462447166443</t>
   </si>
   <si>
     <t xml:space="preserve">2.11210560798645</t>
@@ -785,31 +785,31 @@
     <t xml:space="preserve">2.15600633621216</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32510447502136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30721926689148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29421138763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31697511672974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32185292243958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40640211105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40152454376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41453170776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4129056930542</t>
+    <t xml:space="preserve">2.32510471343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30721950531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29421162605286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31697463989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.321852684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40640234947205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40152406692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41453194618225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41290593147278</t>
   </si>
   <si>
     <t xml:space="preserve">2.47956967353821</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">2.47631788253784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53647780418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56899666786194</t>
+    <t xml:space="preserve">2.53647756576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5689971446991</t>
   </si>
   <si>
     <t xml:space="preserve">2.57875227928162</t>
@@ -830,58 +830,58 @@
     <t xml:space="preserve">2.58363056182861</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61614918708801</t>
+    <t xml:space="preserve">2.61614894866943</t>
   </si>
   <si>
     <t xml:space="preserve">2.6015157699585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63403487205505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62590479850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58525633811951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59826421737671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59338617324829</t>
+    <t xml:space="preserve">2.63403463363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62590503692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58525657653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59826397895813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59338593482971</t>
   </si>
   <si>
     <t xml:space="preserve">2.61777520179749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62753105163574</t>
+    <t xml:space="preserve">2.62753081321716</t>
   </si>
   <si>
     <t xml:space="preserve">2.60639357566833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60314154624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60801959037781</t>
+    <t xml:space="preserve">2.60314178466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60801935195923</t>
   </si>
   <si>
     <t xml:space="preserve">2.59176015853882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59013438224792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62102723121643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64216470718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64704251289368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63240838050842</t>
+    <t xml:space="preserve">2.59013414382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62102699279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64216423034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6470422744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63240885734558</t>
   </si>
   <si>
     <t xml:space="preserve">2.65029430389404</t>
@@ -890,58 +890,58 @@
     <t xml:space="preserve">2.70395040512085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80963730812073</t>
+    <t xml:space="preserve">2.80963683128357</t>
   </si>
   <si>
     <t xml:space="preserve">2.81288909912109</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82427072525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7966296672821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80475902557373</t>
+    <t xml:space="preserve">2.82427048683167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79662942886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80475950241089</t>
   </si>
   <si>
     <t xml:space="preserve">2.77386593818665</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76411056518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71533179283142</t>
+    <t xml:space="preserve">2.76411080360413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71533203125</t>
   </si>
   <si>
     <t xml:space="preserve">2.69744682312012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68443894386292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69582104682922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68281292915344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66655349731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65842413902283</t>
+    <t xml:space="preserve">2.68443942070007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69582080841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68281316757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66655373573303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65842390060425</t>
   </si>
   <si>
     <t xml:space="preserve">2.63728666305542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6145236492157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6242790222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61940097808838</t>
+    <t xml:space="preserve">2.61452341079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62427878379822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61940121650696</t>
   </si>
   <si>
     <t xml:space="preserve">2.55273747444153</t>
@@ -950,25 +950,25 @@
     <t xml:space="preserve">2.5641188621521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57550072669983</t>
+    <t xml:space="preserve">2.57550048828125</t>
   </si>
   <si>
     <t xml:space="preserve">2.52509617805481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4860737323761</t>
+    <t xml:space="preserve">2.48607349395752</t>
   </si>
   <si>
     <t xml:space="preserve">2.40802812576294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.388516664505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34461617469788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36250162124634</t>
+    <t xml:space="preserve">2.38851642608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3446159362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36250138282776</t>
   </si>
   <si>
     <t xml:space="preserve">2.37388324737549</t>
@@ -977,16 +977,16 @@
     <t xml:space="preserve">2.43729496002197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45355439186096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43892097473145</t>
+    <t xml:space="preserve">2.45355463027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4389214515686</t>
   </si>
   <si>
     <t xml:space="preserve">2.44705104827881</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5039587020874</t>
+    <t xml:space="preserve">2.50395917892456</t>
   </si>
   <si>
     <t xml:space="preserve">2.52834796905518</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">2.72346186637878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73159146308899</t>
+    <t xml:space="preserve">2.73159170150757</t>
   </si>
   <si>
     <t xml:space="preserve">2.56086730957031</t>
@@ -1004,52 +1004,49 @@
     <t xml:space="preserve">2.45518064498901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.471440076828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48769927024841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54460787773132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49582958221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51208853721619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52021813392639</t>
+    <t xml:space="preserve">2.47143983840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48769950866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54460763931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4958291053772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51208829879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52021837234497</t>
   </si>
   <si>
     <t xml:space="preserve">2.33323431015015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39014220237732</t>
+    <t xml:space="preserve">2.39014291763306</t>
   </si>
   <si>
     <t xml:space="preserve">2.34136414527893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3576238155365</t>
+    <t xml:space="preserve">2.35762357711792</t>
   </si>
   <si>
     <t xml:space="preserve">2.36575365066528</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34949445724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30884528160095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19502902030945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20334362983704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17839980125427</t>
+    <t xml:space="preserve">2.34949398040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30884480476379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20334386825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17839956283569</t>
   </si>
   <si>
     <t xml:space="preserve">2.1617705821991</t>
@@ -1061,22 +1058,22 @@
     <t xml:space="preserve">2.09525489807129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07862567901611</t>
+    <t xml:space="preserve">2.07862591743469</t>
   </si>
   <si>
     <t xml:space="preserve">2.14514183998108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26985955238342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37794780731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21997284889221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24491548538208</t>
+    <t xml:space="preserve">2.269859790802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37794804573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21997261047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24491596221924</t>
   </si>
   <si>
     <t xml:space="preserve">2.22828698158264</t>
@@ -1091,7 +1088,7 @@
     <t xml:space="preserve">2.25323057174683</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27817392349243</t>
+    <t xml:space="preserve">2.27817368507385</t>
   </si>
   <si>
     <t xml:space="preserve">2.26154518127441</t>
@@ -1100,91 +1097,91 @@
     <t xml:space="preserve">2.18671464920044</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13682723045349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15345621109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11188387870789</t>
+    <t xml:space="preserve">2.13682746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15345644950867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11188364028931</t>
   </si>
   <si>
     <t xml:space="preserve">2.12851285934448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36131906509399</t>
+    <t xml:space="preserve">2.36131858825684</t>
   </si>
   <si>
     <t xml:space="preserve">2.35300445556641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30311751365662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29480266571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32806086540222</t>
+    <t xml:space="preserve">2.30311727523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29480290412903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3280611038208</t>
   </si>
   <si>
     <t xml:space="preserve">2.31974649429321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3114321231842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23660135269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39457678794861</t>
+    <t xml:space="preserve">2.31143188476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23660159111023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39457702636719</t>
   </si>
   <si>
     <t xml:space="preserve">2.10356950759888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12019872665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07031154632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98716640472412</t>
+    <t xml:space="preserve">2.12019824981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0703113079071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98716628551483</t>
   </si>
   <si>
     <t xml:space="preserve">1.99548101425171</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03705334663391</t>
+    <t xml:space="preserve">2.03705358505249</t>
   </si>
   <si>
     <t xml:space="preserve">2.0453679561615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06199669837952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0869402885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87907767295837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88739228248596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91233563423157</t>
+    <t xml:space="preserve">2.0619969367981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08694076538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87907779216766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88739204406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91233587265015</t>
   </si>
   <si>
     <t xml:space="preserve">1.86244881153107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84581971168518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89570689201355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83750534057617</t>
+    <t xml:space="preserve">1.84581983089447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89570677280426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83750545978546</t>
   </si>
   <si>
     <t xml:space="preserve">1.79593288898468</t>
@@ -1196,52 +1193,55 @@
     <t xml:space="preserve">1.77930378913879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81256175041199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78761827945709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80424737930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82919073104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82087647914886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87076330184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92896473407745</t>
+    <t xml:space="preserve">1.81256186962128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78761839866638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8042471408844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82919061183929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82087624073029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87076318264008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92896485328674</t>
   </si>
   <si>
     <t xml:space="preserve">1.93727910518646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90402150154114</t>
+    <t xml:space="preserve">1.90402138233185</t>
   </si>
   <si>
     <t xml:space="preserve">1.94559371471405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97885203361511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05368256568909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01210975646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09671592712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08815789222717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0624840259552</t>
+    <t xml:space="preserve">1.97885191440582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05368208885193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01210999488831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0967161655426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08815813064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04536771774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06248378753662</t>
   </si>
   <si>
     <t xml:space="preserve">2.07104206085205</t>
@@ -1250,52 +1250,52 @@
     <t xml:space="preserve">2.03680992126465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0111358165741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05392575263977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11383199691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13950634002686</t>
+    <t xml:space="preserve">2.01113557815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05392599105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11383175849915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13950610160828</t>
   </si>
   <si>
     <t xml:space="preserve">2.13094806671143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17373824119568</t>
+    <t xml:space="preserve">2.1737380027771</t>
   </si>
   <si>
     <t xml:space="preserve">2.25076055526733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2422022819519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19085431098938</t>
+    <t xml:space="preserve">2.24220204353333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1908540725708</t>
   </si>
   <si>
     <t xml:space="preserve">2.18229603767395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20797038078308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21652817726135</t>
+    <t xml:space="preserve">2.2079701423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21652841567993</t>
   </si>
   <si>
     <t xml:space="preserve">2.19941234588623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2250862121582</t>
+    <t xml:space="preserve">2.22508597373962</t>
   </si>
   <si>
     <t xml:space="preserve">2.15662217140198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31066632270813</t>
+    <t xml:space="preserve">2.31066656112671</t>
   </si>
   <si>
     <t xml:space="preserve">2.30210876464844</t>
@@ -1304,10 +1304,10 @@
     <t xml:space="preserve">2.33634090423584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32778239250183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29355025291443</t>
+    <t xml:space="preserve">2.32778286933899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29355049133301</t>
   </si>
   <si>
     <t xml:space="preserve">2.34489846229553</t>
@@ -1319,34 +1319,34 @@
     <t xml:space="preserve">2.42192077636719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39624667167664</t>
+    <t xml:space="preserve">2.39624691009521</t>
   </si>
   <si>
     <t xml:space="preserve">2.38768887519836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40480494499207</t>
+    <t xml:space="preserve">2.40480470657349</t>
   </si>
   <si>
     <t xml:space="preserve">2.47326922416687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46471118927002</t>
+    <t xml:space="preserve">2.46471095085144</t>
   </si>
   <si>
     <t xml:space="preserve">2.41336250305176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36201429367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37057280540466</t>
+    <t xml:space="preserve">2.36201453208923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37057256698608</t>
   </si>
   <si>
     <t xml:space="preserve">2.37913060188293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31922483444214</t>
+    <t xml:space="preserve">2.31922459602356</t>
   </si>
   <si>
     <t xml:space="preserve">2.48182702064514</t>
@@ -1361,121 +1361,121 @@
     <t xml:space="preserve">2.52461719512939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49894309043884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51605916023254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55029106140137</t>
+    <t xml:space="preserve">2.49894332885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5160596370697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55029129981995</t>
   </si>
   <si>
     <t xml:space="preserve">2.59308123588562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56740736961365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6101975440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6872193813324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6444296836853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58452320098877</t>
+    <t xml:space="preserve">2.56740760803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61019730567932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68721985816956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64442920684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58452343940735</t>
   </si>
   <si>
     <t xml:space="preserve">2.60163927078247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53317523002625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43903684616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49038505554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27643442153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26787662506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12239027023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94267165660858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95122957229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74583697319031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75439488887787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6260244846344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78006887435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70732593536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70304679870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68593072891235</t>
+    <t xml:space="preserve">2.53317546844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43903660774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49038529396057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27643465995789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26787686347961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12239003181458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94267129898071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95122945308685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74583685398102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75439500808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62602472305298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78006911277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70732581615448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70304691791534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68593084812164</t>
   </si>
   <si>
     <t xml:space="preserve">1.83997535705566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84853315353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81430089473724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87420749664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93411374092102</t>
+    <t xml:space="preserve">1.84853339195251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81430101394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87420725822449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93411350250244</t>
   </si>
   <si>
     <t xml:space="preserve">2.0796000957489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88276541233063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86564922332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89132344722748</t>
+    <t xml:space="preserve">1.88276517391205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86564934253693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89132356643677</t>
   </si>
   <si>
     <t xml:space="preserve">1.91699743270874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89988124370575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85709130764008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9597874879837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98546147346497</t>
+    <t xml:space="preserve">1.89988148212433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85709118843079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95978760719299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98546171188354</t>
   </si>
   <si>
     <t xml:space="preserve">1.96834564208984</t>
@@ -1493,22 +1493,22 @@
     <t xml:space="preserve">2.16518020629883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25931835174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14806413650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15589737892151</t>
+    <t xml:space="preserve">2.25931859016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14806437492371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15589761734009</t>
   </si>
   <si>
     <t xml:space="preserve">2.14709782600403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11189937591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05910181999207</t>
+    <t xml:space="preserve">2.11189961433411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05910205841064</t>
   </si>
   <si>
     <t xml:space="preserve">2.05030226707458</t>
@@ -1520,31 +1520,31 @@
     <t xml:space="preserve">2.06790161132812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13829827308655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10310006141663</t>
+    <t xml:space="preserve">2.13829851150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10309982299805</t>
   </si>
   <si>
     <t xml:space="preserve">2.12949872016907</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12069916725159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08550047874451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07670092582703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97110605239868</t>
+    <t xml:space="preserve">2.12069892883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08550095558167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07670116424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97110629081726</t>
   </si>
   <si>
     <t xml:space="preserve">1.95350706577301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96230661869049</t>
+    <t xml:space="preserve">1.96230685710907</t>
   </si>
   <si>
     <t xml:space="preserve">2.09430050849915</t>
@@ -1562,16 +1562,16 @@
     <t xml:space="preserve">2.19989538192749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24389338493347</t>
+    <t xml:space="preserve">2.24389314651489</t>
   </si>
   <si>
     <t xml:space="preserve">2.28789091110229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31429004669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39348602294922</t>
+    <t xml:space="preserve">2.31428980827332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3934862613678</t>
   </si>
   <si>
     <t xml:space="preserve">2.41988492012024</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">2.44628357887268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51668000221252</t>
+    <t xml:space="preserve">2.51668047904968</t>
   </si>
   <si>
     <t xml:space="preserve">2.53427958488464</t>
@@ -1595,16 +1595,16 @@
     <t xml:space="preserve">2.56067824363708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58707690238953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60467624664307</t>
+    <t xml:space="preserve">2.58707714080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60467648506165</t>
   </si>
   <si>
     <t xml:space="preserve">2.52547979354858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50788068771362</t>
+    <t xml:space="preserve">2.50788044929504</t>
   </si>
   <si>
     <t xml:space="preserve">2.61347579956055</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">2.67507266998291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65747356414795</t>
+    <t xml:space="preserve">2.65747380256653</t>
   </si>
   <si>
     <t xml:space="preserve">2.64867401123047</t>
@@ -1634,16 +1634,16 @@
     <t xml:space="preserve">2.62227511405945</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74546933174133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73667001724243</t>
+    <t xml:space="preserve">2.74546909332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73666977882385</t>
   </si>
   <si>
     <t xml:space="preserve">2.76306867599487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80706691741943</t>
+    <t xml:space="preserve">2.80706644058228</t>
   </si>
   <si>
     <t xml:space="preserve">2.79826688766479</t>
@@ -1652,16 +1652,16 @@
     <t xml:space="preserve">2.72787022590637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81586623191833</t>
+    <t xml:space="preserve">2.81586599349976</t>
   </si>
   <si>
     <t xml:space="preserve">2.8334653377533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8774631023407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88626265525818</t>
+    <t xml:space="preserve">2.87746286392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8862624168396</t>
   </si>
   <si>
     <t xml:space="preserve">2.94785976409912</t>
@@ -1673,52 +1673,52 @@
     <t xml:space="preserve">2.9918577671051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01825666427612</t>
+    <t xml:space="preserve">3.01825642585754</t>
   </si>
   <si>
     <t xml:space="preserve">2.96545886993408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9126615524292</t>
+    <t xml:space="preserve">2.91266131401062</t>
   </si>
   <si>
     <t xml:space="preserve">2.85986399650574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84226489067078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85106420516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90386152267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89506220817566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95665907859802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93905997276306</t>
+    <t xml:space="preserve">2.84226512908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85106444358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90386176109314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89506244659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95665955543518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93906021118164</t>
   </si>
   <si>
     <t xml:space="preserve">2.93026041984558</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02705597877502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12385153770447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15025019645691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07105398178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19424843788147</t>
+    <t xml:space="preserve">3.0270562171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12385129928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15024995803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07105374336243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19424819946289</t>
   </si>
   <si>
     <t xml:space="preserve">3.20304775238037</t>
@@ -1727,16 +1727,16 @@
     <t xml:space="preserve">3.23824596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29984307289124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26464486122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3614399433136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34384083747864</t>
+    <t xml:space="preserve">3.29984331130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26464462280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36144018173218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34384107589722</t>
   </si>
   <si>
     <t xml:space="preserve">3.3526406288147</t>
@@ -1751,22 +1751,22 @@
     <t xml:space="preserve">3.40543794631958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52863240242004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55503106117249</t>
+    <t xml:space="preserve">3.52863216400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55503082275391</t>
   </si>
   <si>
     <t xml:space="preserve">3.49343395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44063639640808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41423749923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3966383934021</t>
+    <t xml:space="preserve">3.44063663482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41423797607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39663815498352</t>
   </si>
   <si>
     <t xml:space="preserve">3.43216013908386</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">3.39631509780884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.476966381073</t>
+    <t xml:space="preserve">3.47696685791016</t>
   </si>
   <si>
     <t xml:space="preserve">3.46800518035889</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">3.4948890209198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52177286148071</t>
+    <t xml:space="preserve">3.52177262306213</t>
   </si>
   <si>
     <t xml:space="preserve">3.57554030418396</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">3.58450150489807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60242390632629</t>
+    <t xml:space="preserve">3.60242414474487</t>
   </si>
   <si>
     <t xml:space="preserve">3.67411398887634</t>
@@ -1805,10 +1805,10 @@
     <t xml:space="preserve">3.73684287071228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72788119316101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79061055183411</t>
+    <t xml:space="preserve">3.72788143157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79061031341553</t>
   </si>
   <si>
     <t xml:space="preserve">3.74580383300781</t>
@@ -1817,58 +1817,58 @@
     <t xml:space="preserve">3.85333943367004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80853271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92502951622009</t>
+    <t xml:space="preserve">3.80853295326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92502903938293</t>
   </si>
   <si>
     <t xml:space="preserve">3.95191264152527</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83541631698608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76372623443604</t>
+    <t xml:space="preserve">3.83541679382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76372647285461</t>
   </si>
   <si>
     <t xml:space="preserve">3.78164887428284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88022255897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89814519882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69203662872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81749415397644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70995879173279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71892023086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84437799453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65619158744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68307518959045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6203465461731</t>
+    <t xml:space="preserve">3.8802227973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89814496040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69203639030457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81749439239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70995903015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71892046928406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8443775177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65619134902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68307542800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62034630775452</t>
   </si>
   <si>
     <t xml:space="preserve">3.53969526290894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64723014831543</t>
+    <t xml:space="preserve">3.64723038673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.82645535469055</t>
@@ -1880,13 +1880,13 @@
     <t xml:space="preserve">3.79957127571106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7547652721405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01464128494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96983528137207</t>
+    <t xml:space="preserve">3.75476551055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01464176177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96983551979065</t>
   </si>
   <si>
     <t xml:space="preserve">4.00568056106567</t>
@@ -1904,16 +1904,16 @@
     <t xml:space="preserve">4.1400990486145</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98775792121887</t>
+    <t xml:space="preserve">3.98775768280029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91606783866882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90710639953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07737064361572</t>
+    <t xml:space="preserve">3.90710687637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07737016677856</t>
   </si>
   <si>
     <t xml:space="preserve">4.03256416320801</t>
@@ -1925,19 +1925,19 @@
     <t xml:space="preserve">4.02360248565674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96087408065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11321544647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04152584075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08633136749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77268767356873</t>
+    <t xml:space="preserve">3.96087455749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11321592330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04152536392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08633184432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7726879119873</t>
   </si>
   <si>
     <t xml:space="preserve">3.62930798530579</t>
@@ -1949,10 +1949,10 @@
     <t xml:space="preserve">3.54865670204163</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40527629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37839293479919</t>
+    <t xml:space="preserve">3.40527653694153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37839245796204</t>
   </si>
   <si>
     <t xml:space="preserve">3.41423773765564</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">3.4590437412262</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56657910346985</t>
+    <t xml:space="preserve">3.56657886505127</t>
   </si>
   <si>
     <t xml:space="preserve">3.50385046005249</t>
@@ -1979,10 +1979,10 @@
     <t xml:space="preserve">3.53073406219482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48592805862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3335862159729</t>
+    <t xml:space="preserve">3.48592782020569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33358645439148</t>
   </si>
   <si>
     <t xml:space="preserve">3.3515088558197</t>
@@ -1994,25 +1994,25 @@
     <t xml:space="preserve">3.23501253128052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31566405296326</t>
+    <t xml:space="preserve">3.31566381454468</t>
   </si>
   <si>
     <t xml:space="preserve">3.26189637184143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.091632604599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18124508857727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66515278816223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70099782943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59346294403076</t>
+    <t xml:space="preserve">3.09163284301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18124485015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66515302658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70099759101868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59346270561218</t>
   </si>
   <si>
     <t xml:space="preserve">3.51281142234802</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">3.71200084686279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70281267166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65687203407288</t>
+    <t xml:space="preserve">3.70281291007996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65687227249146</t>
   </si>
   <si>
     <t xml:space="preserve">3.74875330924988</t>
@@ -2036,13 +2036,13 @@
     <t xml:space="preserve">3.72118902206421</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41798090934753</t>
+    <t xml:space="preserve">3.41798114776611</t>
   </si>
   <si>
     <t xml:space="preserve">3.43635725975037</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48229789733887</t>
+    <t xml:space="preserve">3.48229765892029</t>
   </si>
   <si>
     <t xml:space="preserve">3.46392154693604</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">3.45473337173462</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44554543495178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4087929725647</t>
+    <t xml:space="preserve">3.4455451965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40879273414612</t>
   </si>
   <si>
     <t xml:space="preserve">3.55580282211304</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64768409729004</t>
+    <t xml:space="preserve">3.64768385887146</t>
   </si>
   <si>
     <t xml:space="preserve">3.68443655967712</t>
@@ -2096,7 +2096,10 @@
     <t xml:space="preserve">3.69362449645996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5925555229187</t>
+    <t xml:space="preserve">3.62930774688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59255528450012</t>
   </si>
   <si>
     <t xml:space="preserve">3.4914858341217</t>
@@ -2126,16 +2129,16 @@
     <t xml:space="preserve">3.19746613502502</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26178288459778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23421835899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20665431022644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99532723426819</t>
+    <t xml:space="preserve">3.2617826461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23421859741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20665407180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99532747268677</t>
   </si>
   <si>
     <t xml:space="preserve">3.05964422225952</t>
@@ -2150,7 +2153,7 @@
     <t xml:space="preserve">2.84831738471985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75643610954285</t>
+    <t xml:space="preserve">2.75643634796143</t>
   </si>
   <si>
     <t xml:space="preserve">2.66455507278442</t>
@@ -2165,10 +2168,10 @@
     <t xml:space="preserve">2.82994103431702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78400063514709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93101072311401</t>
+    <t xml:space="preserve">2.78400039672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93101048469543</t>
   </si>
   <si>
     <t xml:space="preserve">2.91263437271118</t>
@@ -2177,7 +2180,7 @@
     <t xml:space="preserve">2.90344619750977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94019865989685</t>
+    <t xml:space="preserve">2.94019889831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.08720850944519</t>
@@ -2186,7 +2189,7 @@
     <t xml:space="preserve">3.10558485984802</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17908978462219</t>
+    <t xml:space="preserve">3.17909002304077</t>
   </si>
   <si>
     <t xml:space="preserve">3.18827795982361</t>
@@ -2204,7 +2207,7 @@
     <t xml:space="preserve">3.05045604705811</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12396121025085</t>
+    <t xml:space="preserve">3.12396097183228</t>
   </si>
   <si>
     <t xml:space="preserve">3.16071367263794</t>
@@ -2213,7 +2216,7 @@
     <t xml:space="preserve">3.09639668464661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07802033424377</t>
+    <t xml:space="preserve">3.07802057266235</t>
   </si>
   <si>
     <t xml:space="preserve">3.01370358467102</t>
@@ -2225,7 +2228,7 @@
     <t xml:space="preserve">3.04126811027527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88507008552551</t>
+    <t xml:space="preserve">2.88506984710693</t>
   </si>
   <si>
     <t xml:space="preserve">2.81156492233276</t>
@@ -2243,7 +2246,7 @@
     <t xml:space="preserve">3.14233732223511</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16990184783936</t>
+    <t xml:space="preserve">3.16990160942078</t>
   </si>
   <si>
     <t xml:space="preserve">3.28934717178345</t>
@@ -2252,7 +2255,7 @@
     <t xml:space="preserve">3.3169116973877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3628523349762</t>
+    <t xml:space="preserve">3.36285209655762</t>
   </si>
   <si>
     <t xml:space="preserve">3.38122844696045</t>
@@ -2261,13 +2264,13 @@
     <t xml:space="preserve">3.28015923500061</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50067400932312</t>
+    <t xml:space="preserve">3.50067377090454</t>
   </si>
   <si>
     <t xml:space="preserve">3.52823829650879</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60174345970154</t>
+    <t xml:space="preserve">3.60174322128296</t>
   </si>
   <si>
     <t xml:space="preserve">3.63849592208862</t>
@@ -2279,10 +2282,10 @@
     <t xml:space="preserve">3.76712942123413</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75794148445129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77631759643555</t>
+    <t xml:space="preserve">3.75794172286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77631783485413</t>
   </si>
   <si>
     <t xml:space="preserve">3.8148148059845</t>
@@ -2565,6 +2568,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.82000017166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71999979019165</t>
   </si>
 </sst>
 </file>
@@ -18706,7 +18712,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G608" t="s">
-        <v>343</v>
+        <v>214</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18732,7 +18738,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G609" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18758,7 +18764,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G610" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18784,7 +18790,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G611" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18810,7 +18816,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G612" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18836,7 +18842,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G613" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18862,7 +18868,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G614" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18888,7 +18894,7 @@
         <v>2.5</v>
       </c>
       <c r="G615" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18914,7 +18920,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G616" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18940,7 +18946,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G617" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18966,7 +18972,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G618" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18992,7 +18998,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G619" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19018,7 +19024,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G620" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19044,7 +19050,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G621" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19070,7 +19076,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G622" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19096,7 +19102,7 @@
         <v>2.75</v>
       </c>
       <c r="G623" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19122,7 +19128,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G624" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19148,7 +19154,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19174,7 +19180,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G626" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19200,7 +19206,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G627" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19226,7 +19232,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G628" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19252,7 +19258,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G629" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19278,7 +19284,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G630" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19304,7 +19310,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G631" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19330,7 +19336,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G632" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19356,7 +19362,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G633" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19382,7 +19388,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G634" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19408,7 +19414,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G635" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19434,7 +19440,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G636" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19460,7 +19466,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G637" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19486,7 +19492,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G638" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19512,7 +19518,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G639" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19538,7 +19544,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G640" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19564,7 +19570,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G641" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19590,7 +19596,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G642" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19616,7 +19622,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G643" t="s">
-        <v>343</v>
+        <v>214</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19642,7 +19648,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G644" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19668,7 +19674,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G645" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19694,7 +19700,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G646" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19720,7 +19726,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G647" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19746,7 +19752,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G648" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19772,7 +19778,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G649" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19798,7 +19804,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G650" t="s">
-        <v>343</v>
+        <v>214</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19824,7 +19830,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G651" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19850,7 +19856,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G652" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19876,7 +19882,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G653" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19902,7 +19908,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G654" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19928,7 +19934,7 @@
         <v>2.5</v>
       </c>
       <c r="G655" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19954,7 +19960,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G656" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19980,7 +19986,7 @@
         <v>2.5</v>
       </c>
       <c r="G657" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20006,7 +20012,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G658" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20032,7 +20038,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G659" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20058,7 +20064,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G660" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20084,7 +20090,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G661" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20110,7 +20116,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G662" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20136,7 +20142,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G663" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20162,7 +20168,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G664" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20188,7 +20194,7 @@
         <v>2.75</v>
       </c>
       <c r="G665" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20214,7 +20220,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G666" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20240,7 +20246,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G667" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20266,7 +20272,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G668" t="s">
-        <v>343</v>
+        <v>214</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20292,7 +20298,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G669" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20318,7 +20324,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G670" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20344,7 +20350,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G671" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20370,7 +20376,7 @@
         <v>2.75</v>
       </c>
       <c r="G672" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20396,7 +20402,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G673" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20422,7 +20428,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G674" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20448,7 +20454,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G675" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20474,7 +20480,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G676" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20500,7 +20506,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G677" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20526,7 +20532,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G678" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20552,7 +20558,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G679" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20578,7 +20584,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G680" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20604,7 +20610,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G681" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20630,7 +20636,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G682" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20656,7 +20662,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G683" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20682,7 +20688,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G684" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20708,7 +20714,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G685" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20734,7 +20740,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G686" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20760,7 +20766,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G687" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20786,7 +20792,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G688" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20812,7 +20818,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G689" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20838,7 +20844,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G690" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20864,7 +20870,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G691" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20890,7 +20896,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G692" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20916,7 +20922,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G693" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20942,7 +20948,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G694" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20968,7 +20974,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G695" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20994,7 +21000,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G696" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21020,7 +21026,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G697" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21046,7 +21052,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G698" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21072,7 +21078,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G699" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21098,7 +21104,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G700" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21124,7 +21130,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G701" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21150,7 +21156,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G702" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21176,7 +21182,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G703" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21202,7 +21208,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G704" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21228,7 +21234,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G705" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21254,7 +21260,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G706" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21280,7 +21286,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G707" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21306,7 +21312,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G708" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21332,7 +21338,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G709" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21358,7 +21364,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G710" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21384,7 +21390,7 @@
         <v>2.5</v>
       </c>
       <c r="G711" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21410,7 +21416,7 @@
         <v>2.5</v>
       </c>
       <c r="G712" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21436,7 +21442,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G713" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21462,7 +21468,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21488,7 +21494,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G715" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21514,7 +21520,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G716" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21540,7 +21546,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G717" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21566,7 +21572,7 @@
         <v>2.5</v>
       </c>
       <c r="G718" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21592,7 +21598,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G719" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21618,7 +21624,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G720" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21644,7 +21650,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G721" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21670,7 +21676,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G722" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21696,7 +21702,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G723" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21722,7 +21728,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G724" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21748,7 +21754,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G725" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21774,7 +21780,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G726" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21800,7 +21806,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G727" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21826,7 +21832,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G728" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21852,7 +21858,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G729" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21878,7 +21884,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G730" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21904,7 +21910,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G731" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21930,7 +21936,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G732" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21956,7 +21962,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G733" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21982,7 +21988,7 @@
         <v>2.5</v>
       </c>
       <c r="G734" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22008,7 +22014,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G735" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22034,7 +22040,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G736" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22060,7 +22066,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G737" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22086,7 +22092,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G738" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22112,7 +22118,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G739" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22138,7 +22144,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G740" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22164,7 +22170,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G741" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22190,7 +22196,7 @@
         <v>2.5</v>
       </c>
       <c r="G742" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22216,7 +22222,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G743" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22242,7 +22248,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G744" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22268,7 +22274,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G745" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22294,7 +22300,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G746" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22320,7 +22326,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G747" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22346,7 +22352,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G748" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22372,7 +22378,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G749" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22398,7 +22404,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G750" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22424,7 +22430,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G751" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22450,7 +22456,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G752" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22476,7 +22482,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G753" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22502,7 +22508,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G754" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22528,7 +22534,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G755" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22554,7 +22560,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G756" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22580,7 +22586,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G757" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22606,7 +22612,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G758" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22632,7 +22638,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G759" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22658,7 +22664,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G760" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22684,7 +22690,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G761" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22710,7 +22716,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G762" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22736,7 +22742,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G763" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22762,7 +22768,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G764" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22788,7 +22794,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G765" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22814,7 +22820,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G766" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22840,7 +22846,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G767" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22866,7 +22872,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G768" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22892,7 +22898,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G769" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22918,7 +22924,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G770" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22944,7 +22950,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G771" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22970,7 +22976,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G772" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22996,7 +23002,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G773" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23022,7 +23028,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G774" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23048,7 +23054,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G775" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23074,7 +23080,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G776" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23100,7 +23106,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G777" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23126,7 +23132,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G778" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23152,7 +23158,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G779" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23178,7 +23184,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G780" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23204,7 +23210,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G781" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23230,7 +23236,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G782" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23256,7 +23262,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G783" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23282,7 +23288,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G784" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23308,7 +23314,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G785" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23334,7 +23340,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G786" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23360,7 +23366,7 @@
         <v>2.25</v>
       </c>
       <c r="G787" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23386,7 +23392,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G788" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23412,7 +23418,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G789" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23438,7 +23444,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G790" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23464,7 +23470,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G791" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23490,7 +23496,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G792" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23516,7 +23522,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G793" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23542,7 +23548,7 @@
         <v>2.5</v>
       </c>
       <c r="G794" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23568,7 +23574,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G795" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23594,7 +23600,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G796" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23620,7 +23626,7 @@
         <v>2.5</v>
       </c>
       <c r="G797" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23646,7 +23652,7 @@
         <v>2.5</v>
       </c>
       <c r="G798" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23672,7 +23678,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G799" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23698,7 +23704,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G800" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23724,7 +23730,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G801" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23750,7 +23756,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G802" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23776,7 +23782,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G803" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23802,7 +23808,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G804" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23828,7 +23834,7 @@
         <v>2.5</v>
       </c>
       <c r="G805" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23854,7 +23860,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G806" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23880,7 +23886,7 @@
         <v>2.5</v>
       </c>
       <c r="G807" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23906,7 +23912,7 @@
         <v>2.5</v>
       </c>
       <c r="G808" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23932,7 +23938,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G809" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23958,7 +23964,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G810" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23984,7 +23990,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G811" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24010,7 +24016,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G812" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24036,7 +24042,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G813" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24062,7 +24068,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24088,7 +24094,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G815" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24114,7 +24120,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G816" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24140,7 +24146,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G817" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24166,7 +24172,7 @@
         <v>2.5</v>
       </c>
       <c r="G818" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24192,7 +24198,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G819" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24218,7 +24224,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G820" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24244,7 +24250,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G821" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24270,7 +24276,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G822" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24296,7 +24302,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G823" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24322,7 +24328,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G824" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24348,7 +24354,7 @@
         <v>2.5</v>
       </c>
       <c r="G825" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24374,7 +24380,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G826" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24400,7 +24406,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G827" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24426,7 +24432,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G828" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24452,7 +24458,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G829" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24478,7 +24484,7 @@
         <v>2.5</v>
       </c>
       <c r="G830" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24504,7 +24510,7 @@
         <v>2.5</v>
       </c>
       <c r="G831" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24530,7 +24536,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24556,7 +24562,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G833" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24582,7 +24588,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G834" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24608,7 +24614,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G835" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24634,7 +24640,7 @@
         <v>2.5</v>
       </c>
       <c r="G836" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24660,7 +24666,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G837" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24686,7 +24692,7 @@
         <v>2.5</v>
       </c>
       <c r="G838" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24712,7 +24718,7 @@
         <v>2.5</v>
       </c>
       <c r="G839" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24738,7 +24744,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24764,7 +24770,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G841" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24790,7 +24796,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G842" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24816,7 +24822,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G843" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24842,7 +24848,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G844" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24868,7 +24874,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G845" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24894,7 +24900,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G846" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24920,7 +24926,7 @@
         <v>2.5</v>
       </c>
       <c r="G847" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24946,7 +24952,7 @@
         <v>2.5</v>
       </c>
       <c r="G848" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24972,7 +24978,7 @@
         <v>2.5</v>
       </c>
       <c r="G849" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24998,7 +25004,7 @@
         <v>2.5</v>
       </c>
       <c r="G850" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25024,7 +25030,7 @@
         <v>2.5</v>
       </c>
       <c r="G851" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25050,7 +25056,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G852" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25076,7 +25082,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G853" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25102,7 +25108,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G854" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25128,7 +25134,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G855" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25154,7 +25160,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G856" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25180,7 +25186,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G857" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25206,7 +25212,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G858" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25232,7 +25238,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G859" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25258,7 +25264,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G860" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25284,7 +25290,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G861" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25310,7 +25316,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G862" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25388,7 +25394,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G865" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25570,7 +25576,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G872" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25752,7 +25758,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G879" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25778,7 +25784,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G880" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25804,7 +25810,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G881" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -31108,7 +31114,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1085" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32096,7 +32102,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1123" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32122,7 +32128,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1124" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32200,7 +32206,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1127" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32304,7 +32310,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1131" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32434,7 +32440,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1136" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32564,7 +32570,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1141" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32824,7 +32830,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1151" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -32876,7 +32882,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1153" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -32902,7 +32908,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1154" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -32954,7 +32960,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1156" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33734,7 +33740,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1186" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33812,7 +33818,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1189" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -46500,7 +46506,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1677" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46526,7 +46532,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1678" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46578,7 +46584,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1680" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46604,7 +46610,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1681" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46734,7 +46740,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46760,7 +46766,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1687" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46786,7 +46792,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1688" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46812,7 +46818,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1689" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46890,7 +46896,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1692" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46916,7 +46922,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1693" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46942,7 +46948,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1694" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47020,7 +47026,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1697" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47046,7 +47052,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1698" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47072,7 +47078,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1699" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47098,7 +47104,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1700" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47150,7 +47156,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1702" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47176,7 +47182,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1703" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47202,7 +47208,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1704" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47228,7 +47234,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1705" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47358,7 +47364,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1710" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47410,7 +47416,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1712" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47436,7 +47442,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1713" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47462,7 +47468,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1714" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47488,7 +47494,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1715" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47514,7 +47520,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1716" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47540,7 +47546,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1717" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47566,7 +47572,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1718" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47592,7 +47598,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47618,7 +47624,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1720" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47644,7 +47650,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1721" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47670,7 +47676,7 @@
         <v>3</v>
       </c>
       <c r="G1722" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47696,7 +47702,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1723" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47722,7 +47728,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1724" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47748,7 +47754,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1725" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47774,7 +47780,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1726" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47800,7 +47806,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1727" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47826,7 +47832,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1728" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47852,7 +47858,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1729" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47878,7 +47884,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1730" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47904,7 +47910,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1731" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47930,7 +47936,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1732" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47956,7 +47962,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1733" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47982,7 +47988,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1734" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48008,7 +48014,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1735" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48034,7 +48040,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1736" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48060,7 +48066,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1737" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48086,7 +48092,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1738" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48112,7 +48118,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1739" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48138,7 +48144,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1740" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48164,7 +48170,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1741" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48190,7 +48196,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1742" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48216,7 +48222,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1743" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48242,7 +48248,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1744" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48268,7 +48274,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1745" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48294,7 +48300,7 @@
         <v>3.5</v>
       </c>
       <c r="G1746" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48320,7 +48326,7 @@
         <v>3.5</v>
       </c>
       <c r="G1747" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48346,7 +48352,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1748" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48372,7 +48378,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1749" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48398,7 +48404,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1750" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48424,7 +48430,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1751" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48450,7 +48456,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1752" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48476,7 +48482,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1753" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48502,7 +48508,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1754" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48528,7 +48534,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1755" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48554,7 +48560,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1756" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48580,7 +48586,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1757" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48606,7 +48612,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1758" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48632,7 +48638,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1759" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48658,7 +48664,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1760" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48684,7 +48690,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1761" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48710,7 +48716,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1762" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48736,7 +48742,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48762,7 +48768,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1764" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48788,7 +48794,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1765" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48814,7 +48820,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1766" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48840,7 +48846,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1767" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48866,7 +48872,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1768" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48892,7 +48898,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1769" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48918,7 +48924,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1770" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48944,7 +48950,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48970,7 +48976,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1772" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48996,7 +49002,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1773" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49022,7 +49028,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1774" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49048,7 +49054,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1775" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49074,7 +49080,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1776" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49100,7 +49106,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1777" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49126,7 +49132,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1778" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49152,7 +49158,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1779" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49178,7 +49184,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1780" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49204,7 +49210,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1781" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49230,7 +49236,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49256,7 +49262,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1783" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49282,7 +49288,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1784" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49308,7 +49314,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1785" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49334,7 +49340,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1786" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49360,7 +49366,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1787" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49386,7 +49392,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49412,7 +49418,7 @@
         <v>3.25</v>
       </c>
       <c r="G1789" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49438,7 +49444,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1790" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49464,7 +49470,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1791" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49490,7 +49496,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1792" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49516,7 +49522,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1793" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49542,7 +49548,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49568,7 +49574,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49594,7 +49600,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1796" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49620,7 +49626,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1797" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49646,7 +49652,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1798" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49672,7 +49678,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1799" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49698,7 +49704,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1800" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49724,7 +49730,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1801" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49750,7 +49756,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49802,7 +49808,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1804" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49828,7 +49834,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1805" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49854,7 +49860,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1806" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49880,7 +49886,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1807" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49906,7 +49912,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1808" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49984,7 +49990,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1811" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50192,7 +50198,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1819" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50374,7 +50380,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1826" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50400,7 +50406,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1827" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50426,7 +50432,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1828" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50478,7 +50484,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1830" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50504,7 +50510,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1831" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50530,7 +50536,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1832" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50556,7 +50562,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1833" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50582,7 +50588,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50608,7 +50614,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1835" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50686,7 +50692,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1838" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50842,7 +50848,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1844" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50920,7 +50926,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1847" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51102,7 +51108,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1854" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51128,7 +51134,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1855" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51154,7 +51160,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1856" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51206,7 +51212,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1858" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51232,7 +51238,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1859" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51258,7 +51264,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1860" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51310,7 +51316,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1862" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51414,7 +51420,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1866" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51440,7 +51446,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1867" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51570,7 +51576,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1872" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51700,7 +51706,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1877" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51752,7 +51758,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1879" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51778,7 +51784,7 @@
         <v>4</v>
       </c>
       <c r="G1880" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51804,7 +51810,7 @@
         <v>4</v>
       </c>
       <c r="G1881" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51830,7 +51836,7 @@
         <v>4</v>
       </c>
       <c r="G1882" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51856,7 +51862,7 @@
         <v>4</v>
       </c>
       <c r="G1883" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51882,7 +51888,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51908,7 +51914,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1885" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51934,7 +51940,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1886" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51960,7 +51966,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51986,7 +51992,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1888" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52012,7 +52018,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1889" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52038,7 +52044,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1890" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52064,7 +52070,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1891" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52090,7 +52096,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1892" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52116,7 +52122,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1893" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52142,7 +52148,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1894" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52168,7 +52174,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1895" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52194,7 +52200,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52220,7 +52226,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1897" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52246,7 +52252,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52272,7 +52278,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1899" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52298,7 +52304,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1900" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52324,7 +52330,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1901" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52350,7 +52356,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1902" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52376,7 +52382,7 @@
         <v>4</v>
       </c>
       <c r="G1903" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52402,7 +52408,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1904" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52428,7 +52434,7 @@
         <v>4</v>
       </c>
       <c r="G1905" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52454,7 +52460,7 @@
         <v>4</v>
       </c>
       <c r="G1906" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52480,7 +52486,7 @@
         <v>4</v>
       </c>
       <c r="G1907" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52506,7 +52512,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1908" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52532,7 +52538,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1909" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52558,7 +52564,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1910" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52584,7 +52590,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1911" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52610,7 +52616,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1912" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52636,7 +52642,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1913" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52662,7 +52668,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1914" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52688,7 +52694,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1915" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52714,7 +52720,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1916" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52740,7 +52746,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1917" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52766,7 +52772,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1918" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52792,7 +52798,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1919" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52818,7 +52824,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1920" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52844,7 +52850,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1921" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52870,7 +52876,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1922" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52896,7 +52902,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52922,7 +52928,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1924" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52948,7 +52954,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1925" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52974,7 +52980,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1926" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53000,7 +53006,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1927" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53026,7 +53032,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53052,7 +53058,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1929" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53078,7 +53084,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1930" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53104,7 +53110,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53130,7 +53136,7 @@
         <v>4.25</v>
       </c>
       <c r="G1932" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53156,7 +53162,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53182,7 +53188,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1934" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53208,7 +53214,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1935" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53234,7 +53240,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1936" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53260,7 +53266,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1937" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53286,7 +53292,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1938" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53312,7 +53318,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1939" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53338,7 +53344,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1940" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53364,7 +53370,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1941" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53390,7 +53396,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1942" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53416,7 +53422,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1943" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53442,7 +53448,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1944" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53468,7 +53474,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1945" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53494,7 +53500,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1946" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53520,7 +53526,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1947" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53546,7 +53552,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53572,7 +53578,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1949" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53598,7 +53604,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1950" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53624,7 +53630,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53650,7 +53656,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1952" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53676,7 +53682,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1953" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53702,7 +53708,7 @@
         <v>4</v>
       </c>
       <c r="G1954" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53728,7 +53734,7 @@
         <v>4</v>
       </c>
       <c r="G1955" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53754,7 +53760,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53780,7 +53786,7 @@
         <v>4</v>
       </c>
       <c r="G1957" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53806,7 +53812,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1958" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53832,7 +53838,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1959" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53858,7 +53864,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1960" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53884,7 +53890,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1961" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53910,7 +53916,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1962" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53936,7 +53942,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1963" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53962,7 +53968,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1964" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53988,7 +53994,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1965" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54014,7 +54020,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1966" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54040,7 +54046,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1967" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54066,7 +54072,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1968" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54092,7 +54098,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54118,7 +54124,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1970" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54144,7 +54150,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54170,7 +54176,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1972" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54196,7 +54202,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1973" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54222,7 +54228,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1974" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54248,7 +54254,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1975" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54274,7 +54280,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54300,7 +54306,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1977" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54326,7 +54332,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1978" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54352,7 +54358,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1979" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54378,7 +54384,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54404,7 +54410,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1981" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54430,7 +54436,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1982" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54456,7 +54462,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1983" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54482,7 +54488,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1984" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54508,7 +54514,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1985" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54534,7 +54540,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1986" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54560,7 +54566,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1987" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54586,7 +54592,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54612,7 +54618,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1989" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54638,7 +54644,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1990" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54664,7 +54670,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1991" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54690,7 +54696,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1992" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54716,7 +54722,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1993" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54742,7 +54748,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54768,7 +54774,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54794,7 +54800,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1996" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54820,7 +54826,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1997" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54846,7 +54852,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54872,7 +54878,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1999" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54898,7 +54904,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2000" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54924,7 +54930,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54950,7 +54956,7 @@
         <v>4</v>
       </c>
       <c r="G2002" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54976,7 +54982,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2003" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55002,7 +55008,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2004" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55028,7 +55034,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2005" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55054,7 +55060,7 @@
         <v>4</v>
       </c>
       <c r="G2006" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55080,7 +55086,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2007" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55106,7 +55112,7 @@
         <v>4</v>
       </c>
       <c r="G2008" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55132,7 +55138,7 @@
         <v>4</v>
       </c>
       <c r="G2009" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55158,7 +55164,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G2010" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55184,7 +55190,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G2011" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55210,7 +55216,7 @@
         <v>4</v>
       </c>
       <c r="G2012" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55236,7 +55242,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G2013" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55262,7 +55268,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2014" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55288,7 +55294,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55314,7 +55320,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2016" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55340,7 +55346,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55366,7 +55372,7 @@
         <v>4</v>
       </c>
       <c r="G2018" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55392,7 +55398,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2019" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55418,7 +55424,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2020" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55444,7 +55450,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2021" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55470,7 +55476,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2022" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55496,7 +55502,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2023" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55522,7 +55528,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2024" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55548,7 +55554,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55574,7 +55580,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55600,7 +55606,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55626,7 +55632,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2028" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55652,7 +55658,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2029" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55678,7 +55684,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2030" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55704,7 +55710,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2031" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55730,7 +55736,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2032" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55756,7 +55762,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2033" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55782,7 +55788,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55808,7 +55814,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2035" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55834,7 +55840,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2036" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55860,7 +55866,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2037" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55886,7 +55892,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2038" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55912,7 +55918,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G2039" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55938,7 +55944,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2040" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55964,7 +55970,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2041" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55990,7 +55996,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2042" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56016,7 +56022,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2043" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56042,7 +56048,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2044" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56068,7 +56074,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2045" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56094,7 +56100,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2046" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56120,7 +56126,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2047" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56146,7 +56152,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2048" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56172,7 +56178,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2049" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56198,7 +56204,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2050" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56224,7 +56230,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2051" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56250,7 +56256,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2052" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56276,7 +56282,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2053" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56302,7 +56308,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2054" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56328,7 +56334,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G2055" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56354,7 +56360,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2056" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56380,7 +56386,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G2057" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56406,7 +56412,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2058" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56432,7 +56438,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2059" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56458,7 +56464,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G2060" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56484,7 +56490,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G2061" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56510,7 +56516,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2062" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56536,7 +56542,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2063" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56562,7 +56568,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2064" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56588,7 +56594,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2065" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56614,7 +56620,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G2066" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56640,7 +56646,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2067" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56666,7 +56672,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2068" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56692,7 +56698,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2069" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56718,7 +56724,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2070" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56744,7 +56750,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2071" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56770,7 +56776,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2072" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56796,7 +56802,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G2073" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56822,7 +56828,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2074" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56848,7 +56854,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G2075" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56874,7 +56880,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2076" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56900,7 +56906,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2077" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56926,7 +56932,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G2078" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56952,7 +56958,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56978,7 +56984,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2080" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57004,7 +57010,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2081" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57030,7 +57036,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2082" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57056,7 +57062,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2083" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57082,7 +57088,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2084" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57108,7 +57114,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2085" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57134,7 +57140,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2086" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57160,7 +57166,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57186,7 +57192,7 @@
         <v>4.5</v>
       </c>
       <c r="G2088" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57212,7 +57218,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G2089" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57238,7 +57244,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G2090" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57264,7 +57270,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2091" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57290,7 +57296,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G2092" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57316,7 +57322,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G2093" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57342,7 +57348,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G2094" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57368,7 +57374,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2095" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57394,7 +57400,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2096" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57420,7 +57426,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57446,7 +57452,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2098" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57472,7 +57478,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2099" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57498,7 +57504,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2100" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57524,7 +57530,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57550,7 +57556,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2102" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57576,7 +57582,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2103" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57602,7 +57608,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2104" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57628,7 +57634,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2105" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57654,7 +57660,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57680,7 +57686,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2107" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57706,7 +57712,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2108" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57732,7 +57738,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2109" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57758,7 +57764,7 @@
         <v>4.98999977111816</v>
       </c>
       <c r="G2110" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57784,7 +57790,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2111" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57810,7 +57816,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G2112" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57836,7 +57842,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2113" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57862,7 +57868,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G2114" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57888,7 +57894,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2115" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57914,7 +57920,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2116" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57940,7 +57946,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2117" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57966,7 +57972,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2118" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57992,7 +57998,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2119" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58018,7 +58024,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2120" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58044,7 +58050,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2121" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58070,7 +58076,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2122" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58096,7 +58102,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2123" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58122,7 +58128,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2124" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58148,7 +58154,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2125" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58174,7 +58180,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2126" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58200,7 +58206,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2127" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58226,7 +58232,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2128" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58252,7 +58258,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2129" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58278,7 +58284,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G2130" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58304,7 +58310,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2131" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58330,7 +58336,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58356,7 +58362,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G2133" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58382,7 +58388,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2134" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58408,7 +58414,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2135" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58434,7 +58440,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2136" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58460,7 +58466,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2137" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58486,7 +58492,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2138" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58512,7 +58518,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2139" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58538,7 +58544,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2140" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58564,7 +58570,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2141" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58590,7 +58596,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2142" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58616,7 +58622,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2143" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58642,7 +58648,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2144" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58668,7 +58674,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58694,7 +58700,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2146" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58720,7 +58726,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2147" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58746,7 +58752,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G2148" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58772,7 +58778,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2149" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58798,7 +58804,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G2150" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58824,7 +58830,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2151" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58850,7 +58856,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G2152" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58876,7 +58882,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2153" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58902,7 +58908,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G2154" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58910,7 +58916,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6493518519</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>16822</v>
@@ -58928,9 +58934,35 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G2155" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6494907407</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>19557</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>5.84000015258789</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>5.71999979019165</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>5.82000017166138</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>5.71999979019165</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>852</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CALT.MI.xlsx
+++ b/data/CALT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="852">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80173242092133</t>
+    <t xml:space="preserve">1.80173254013062</t>
   </si>
   <si>
     <t xml:space="preserve">CALT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80949890613556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7784343957901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72407162189484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73494446277618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71164608001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70077347755432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63243222236633</t>
+    <t xml:space="preserve">1.80949866771698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77843463420868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72407186031342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73494434356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71164584159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70077359676361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63243186473846</t>
   </si>
   <si>
     <t xml:space="preserve">1.55244135856628</t>
@@ -71,28 +71,28 @@
     <t xml:space="preserve">1.53613245487213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53768575191498</t>
+    <t xml:space="preserve">1.53768587112427</t>
   </si>
   <si>
     <t xml:space="preserve">1.49031269550323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49885523319244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47555696964264</t>
+    <t xml:space="preserve">1.49885535240173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47555708885193</t>
   </si>
   <si>
     <t xml:space="preserve">1.47322714328766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46779072284698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47245073318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4600248336792</t>
+    <t xml:space="preserve">1.46779096126556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47245061397552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46002495288849</t>
   </si>
   <si>
     <t xml:space="preserve">1.43439674377441</t>
@@ -101,19 +101,19 @@
     <t xml:space="preserve">1.43672668933868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45070564746857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4079921245575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38624703884125</t>
+    <t xml:space="preserve">1.45070552825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40799200534821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38624691963196</t>
   </si>
   <si>
     <t xml:space="preserve">1.39789617061615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3932363986969</t>
+    <t xml:space="preserve">1.39323651790619</t>
   </si>
   <si>
     <t xml:space="preserve">1.43594992160797</t>
@@ -122,19 +122,19 @@
     <t xml:space="preserve">1.40566217899323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43284356594086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42119443416595</t>
+    <t xml:space="preserve">1.43284344673157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42119467258453</t>
   </si>
   <si>
     <t xml:space="preserve">1.43051373958588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48487615585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4631313085556</t>
+    <t xml:space="preserve">1.48487627506256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46313118934631</t>
   </si>
   <si>
     <t xml:space="preserve">1.49963200092316</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">1.57962262630463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60292100906372</t>
+    <t xml:space="preserve">1.60292077064514</t>
   </si>
   <si>
     <t xml:space="preserve">1.59981441497803</t>
@@ -161,16 +161,16 @@
     <t xml:space="preserve">1.6075804233551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62155961990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66038978099823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66970944404602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69300758838654</t>
+    <t xml:space="preserve">1.62155938148499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66039001941681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66970908641815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69300746917725</t>
   </si>
   <si>
     <t xml:space="preserve">1.68524158000946</t>
@@ -182,55 +182,55 @@
     <t xml:space="preserve">1.6774754524231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71630597114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70543324947357</t>
+    <t xml:space="preserve">1.71630585193634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70543360710144</t>
   </si>
   <si>
     <t xml:space="preserve">1.64641082286835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64796423912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69611418247223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72251868247986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73183798789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75047671794891</t>
+    <t xml:space="preserve">1.64796411991119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69611394405365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72251832485199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73183786869049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75047647953033</t>
   </si>
   <si>
     <t xml:space="preserve">1.75513625144958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75668966770172</t>
+    <t xml:space="preserve">1.75668942928314</t>
   </si>
   <si>
     <t xml:space="preserve">1.78620028495789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80017936229706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76756191253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77066850662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76290237903595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73960387706757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74737024307251</t>
+    <t xml:space="preserve">1.80017960071564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76756179332733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77066838741302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76290249824524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73960411548615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74736988544464</t>
   </si>
   <si>
     <t xml:space="preserve">1.73028469085693</t>
@@ -245,10 +245,10 @@
     <t xml:space="preserve">1.70853972434998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7380508184433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76347005367279</t>
+    <t xml:space="preserve">1.73805069923401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76347017288208</t>
   </si>
   <si>
     <t xml:space="preserve">1.74758315086365</t>
@@ -257,49 +257,49 @@
     <t xml:space="preserve">1.75552678108215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78571200370789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76982510089874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75870406627655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77935707569122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78730094432831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71580910682678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73487365245819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73169612884521</t>
+    <t xml:space="preserve">1.78571224212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76982498168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75870418548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77935743331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78730070590973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71580898761749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73487329483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73169589042664</t>
   </si>
   <si>
     <t xml:space="preserve">1.71422016620636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6665586233139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62048614025116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61254262924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57917964458466</t>
+    <t xml:space="preserve">1.66655886173248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62048602104187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61254274845123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57917976379395</t>
   </si>
   <si>
     <t xml:space="preserve">1.588711977005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65067172050476</t>
+    <t xml:space="preserve">1.65067160129547</t>
   </si>
   <si>
     <t xml:space="preserve">1.5863288640976</t>
@@ -308,40 +308,40 @@
     <t xml:space="preserve">1.60936522483826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59665536880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54899406433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53151822090149</t>
+    <t xml:space="preserve">1.59665548801422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54899418354034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53151834011078</t>
   </si>
   <si>
     <t xml:space="preserve">1.57997405529022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52516329288483</t>
+    <t xml:space="preserve">1.52516341209412</t>
   </si>
   <si>
     <t xml:space="preserve">1.53310704231262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57282495498657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55693793296814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66814732551575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65702664852142</t>
+    <t xml:space="preserve">1.57282483577728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55693781375885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66814756393433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65702652931213</t>
   </si>
   <si>
     <t xml:space="preserve">1.62842965126038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68403446674347</t>
+    <t xml:space="preserve">1.68403458595276</t>
   </si>
   <si>
     <t xml:space="preserve">1.73010730743408</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">1.72375249862671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73963963985443</t>
+    <t xml:space="preserve">1.73963952064514</t>
   </si>
   <si>
     <t xml:space="preserve">1.67609095573425</t>
@@ -359,40 +359,40 @@
     <t xml:space="preserve">1.63637328147888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64431691169739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69992172718048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69515573978424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63478457927704</t>
+    <t xml:space="preserve">1.64431667327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69992196559906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69515562057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63478469848633</t>
   </si>
   <si>
     <t xml:space="preserve">1.60459899902344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62684106826782</t>
+    <t xml:space="preserve">1.62684118747711</t>
   </si>
   <si>
     <t xml:space="preserve">1.60301041603088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58076822757721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59983277320862</t>
+    <t xml:space="preserve">1.58076846599579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59983289241791</t>
   </si>
   <si>
     <t xml:space="preserve">1.6411395072937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61730885505676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63955068588257</t>
+    <t xml:space="preserve">1.61730873584747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63955056667328</t>
   </si>
   <si>
     <t xml:space="preserve">1.6109539270401</t>
@@ -401,34 +401,34 @@
     <t xml:space="preserve">1.58791768550873</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57679665088654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56249809265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56329250335693</t>
+    <t xml:space="preserve">1.57679653167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56249833106995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56329262256622</t>
   </si>
   <si>
     <t xml:space="preserve">1.59188938140869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62525224685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63319599628448</t>
+    <t xml:space="preserve">1.62525236606598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6331958770752</t>
   </si>
   <si>
     <t xml:space="preserve">1.64272820949554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65226018428802</t>
+    <t xml:space="preserve">1.65226030349731</t>
   </si>
   <si>
     <t xml:space="preserve">1.55852627754211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56488144397736</t>
+    <t xml:space="preserve">1.56488108634949</t>
   </si>
   <si>
     <t xml:space="preserve">1.5307240486145</t>
@@ -437,49 +437,49 @@
     <t xml:space="preserve">1.5529659986496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56408703327179</t>
+    <t xml:space="preserve">1.5640869140625</t>
   </si>
   <si>
     <t xml:space="preserve">1.58712327480316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66020393371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64749419689178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62366342544556</t>
+    <t xml:space="preserve">1.66020405292511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6474940776825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62366354465485</t>
   </si>
   <si>
     <t xml:space="preserve">1.622074842453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63160693645477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65861535072327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65384924411774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66496992111206</t>
+    <t xml:space="preserve">1.63160705566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65861523151398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65384912490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66497015953064</t>
   </si>
   <si>
     <t xml:space="preserve">1.70945394039154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70786535739899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7459944486618</t>
+    <t xml:space="preserve">1.70786511898041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74599456787109</t>
   </si>
   <si>
     <t xml:space="preserve">1.69197845458984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69833302497864</t>
+    <t xml:space="preserve">1.69833314418793</t>
   </si>
   <si>
     <t xml:space="preserve">1.70627653598785</t>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">1.72851860523224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7984219789505</t>
+    <t xml:space="preserve">1.79842185974121</t>
   </si>
   <si>
     <t xml:space="preserve">1.79524445533752</t>
@@ -503,13 +503,13 @@
     <t xml:space="preserve">1.81113159656525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81589782238007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77141392230988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76823651790619</t>
+    <t xml:space="preserve">1.8158974647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77141380310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76823627948761</t>
   </si>
   <si>
     <t xml:space="preserve">1.80318820476532</t>
@@ -521,52 +521,52 @@
     <t xml:space="preserve">1.82701849937439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85084927082062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8349621295929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81907534599304</t>
+    <t xml:space="preserve">1.85084915161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83496236801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81907522678375</t>
   </si>
   <si>
     <t xml:space="preserve">1.80001068115234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8015992641449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85879278182983</t>
+    <t xml:space="preserve">1.80159938335419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85879290103912</t>
   </si>
   <si>
     <t xml:space="preserve">1.86991405487061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88897836208344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88580119609833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87467980384827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89374482631683</t>
+    <t xml:space="preserve">1.88897812366486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88580095767975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87468016147614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89374470710754</t>
   </si>
   <si>
     <t xml:space="preserve">1.88262355327606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92869627475739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9477607011795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92392992973328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92551898956299</t>
+    <t xml:space="preserve">1.92869639396667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94776082038879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92393028736115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92551875114441</t>
   </si>
   <si>
     <t xml:space="preserve">1.92075288295746</t>
@@ -575,37 +575,37 @@
     <t xml:space="preserve">1.93663966655731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91916394233704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93346238136292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92234122753143</t>
+    <t xml:space="preserve">1.91916406154633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93346273899078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9223415851593</t>
   </si>
   <si>
     <t xml:space="preserve">1.90645432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91439783573151</t>
+    <t xml:space="preserve">1.91439771652222</t>
   </si>
   <si>
     <t xml:space="preserve">1.8921560049057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90963184833527</t>
+    <t xml:space="preserve">1.90963160991669</t>
   </si>
   <si>
     <t xml:space="preserve">1.91757535934448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93822836875916</t>
+    <t xml:space="preserve">1.93822860717773</t>
   </si>
   <si>
     <t xml:space="preserve">2.02243041992188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97953522205353</t>
+    <t xml:space="preserve">1.97953510284424</t>
   </si>
   <si>
     <t xml:space="preserve">1.99383342266083</t>
@@ -614,25 +614,25 @@
     <t xml:space="preserve">2.00177693367004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9970109462738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03990626335144</t>
+    <t xml:space="preserve">1.99701106548309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03990650177002</t>
   </si>
   <si>
     <t xml:space="preserve">2.0637366771698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07326889038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08439040184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08280110359192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08756709098816</t>
+    <t xml:space="preserve">2.07326865196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08438992500305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0828013420105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0875678062439</t>
   </si>
   <si>
     <t xml:space="preserve">2.06532549858093</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">2.07803511619568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08121228218079</t>
+    <t xml:space="preserve">2.08121275901794</t>
   </si>
   <si>
     <t xml:space="preserve">2.17063999176025</t>
@@ -653,31 +653,31 @@
     <t xml:space="preserve">2.1934027671814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16251015663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19502878189087</t>
+    <t xml:space="preserve">2.16250991821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19502925872803</t>
   </si>
   <si>
     <t xml:space="preserve">2.2519371509552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22754788398743</t>
+    <t xml:space="preserve">2.22754812240601</t>
   </si>
   <si>
     <t xml:space="preserve">2.23079991340637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2064106464386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24380707740784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23242592811584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2194185256958</t>
+    <t xml:space="preserve">2.20641040802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24380731582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23242568969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21941828727722</t>
   </si>
   <si>
     <t xml:space="preserve">2.24218130111694</t>
@@ -686,142 +686,142 @@
     <t xml:space="preserve">2.1234872341156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12999081611633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11373114585876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12511324882507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12186145782471</t>
+    <t xml:space="preserve">2.12999105453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11373138427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12511348724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12186121940613</t>
   </si>
   <si>
     <t xml:space="preserve">2.14299845695496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1381208896637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18689942359924</t>
+    <t xml:space="preserve">2.13812065124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18689918518066</t>
   </si>
   <si>
     <t xml:space="preserve">2.19665455818176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20315885543823</t>
+    <t xml:space="preserve">2.20315861701965</t>
   </si>
   <si>
     <t xml:space="preserve">2.21128845214844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26494479179382</t>
+    <t xml:space="preserve">2.26494455337524</t>
   </si>
   <si>
     <t xml:space="preserve">2.27632617950439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28933382034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28608202934265</t>
+    <t xml:space="preserve">2.2893340587616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28608226776123</t>
   </si>
   <si>
     <t xml:space="preserve">2.2747004032135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29095983505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24543356895447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24055552482605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21616673469543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17551779747009</t>
+    <t xml:space="preserve">2.29096007347107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24543333053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24055528640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2161660194397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17551755905151</t>
   </si>
   <si>
     <t xml:space="preserve">2.14137268066406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10234975814819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04219007492065</t>
+    <t xml:space="preserve">2.10234999656677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04219031333923</t>
   </si>
   <si>
     <t xml:space="preserve">2.07308292388916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15438055992126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13161659240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18364763259888</t>
+    <t xml:space="preserve">2.15438008308411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13161730766296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1836473941803</t>
   </si>
   <si>
     <t xml:space="preserve">2.14462447166443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11210536956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12673902511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15763235092163</t>
+    <t xml:space="preserve">2.11210560798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12673926353455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15763211250305</t>
   </si>
   <si>
     <t xml:space="preserve">2.1462504863739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15600633621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32510447502136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30721926689148</t>
+    <t xml:space="preserve">2.15600609779358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32510471343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30721950531006</t>
   </si>
   <si>
     <t xml:space="preserve">2.29421162605286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31697487831116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.321852684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40640234947205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40152430534363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41453218460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41290593147278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47956967353821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47631788253784</t>
+    <t xml:space="preserve">2.31697511672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32185292243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40640211105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40152406692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41453170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4129056930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47956943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47631764411926</t>
   </si>
   <si>
     <t xml:space="preserve">2.53647780418396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56899690628052</t>
+    <t xml:space="preserve">2.5689971446991</t>
   </si>
   <si>
     <t xml:space="preserve">2.5787525177002</t>
@@ -830,31 +830,31 @@
     <t xml:space="preserve">2.58363032341003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61614942550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6015157699585</t>
+    <t xml:space="preserve">2.61614918708801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60151553153992</t>
   </si>
   <si>
     <t xml:space="preserve">2.63403463363647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62590503692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58525609970093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59826397895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59338617324829</t>
+    <t xml:space="preserve">2.62590479850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58525633811951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59826374053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59338593482971</t>
   </si>
   <si>
     <t xml:space="preserve">2.61777520179749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62753105163574</t>
+    <t xml:space="preserve">2.62753081321716</t>
   </si>
   <si>
     <t xml:space="preserve">2.60639357566833</t>
@@ -866,13 +866,13 @@
     <t xml:space="preserve">2.60801959037781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59175992012024</t>
+    <t xml:space="preserve">2.59176015853882</t>
   </si>
   <si>
     <t xml:space="preserve">2.59013414382935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62102675437927</t>
+    <t xml:space="preserve">2.62102699279785</t>
   </si>
   <si>
     <t xml:space="preserve">2.64216446876526</t>
@@ -881,16 +881,16 @@
     <t xml:space="preserve">2.64704251289368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63240838050842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65029406547546</t>
+    <t xml:space="preserve">2.63240885734558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65029430389404</t>
   </si>
   <si>
     <t xml:space="preserve">2.70395040512085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80963706970215</t>
+    <t xml:space="preserve">2.80963683128357</t>
   </si>
   <si>
     <t xml:space="preserve">2.81288909912109</t>
@@ -899,37 +899,37 @@
     <t xml:space="preserve">2.82427048683167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79662942886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80475950241089</t>
+    <t xml:space="preserve">2.79662990570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80475926399231</t>
   </si>
   <si>
     <t xml:space="preserve">2.7738664150238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76411056518555</t>
+    <t xml:space="preserve">2.76411080360413</t>
   </si>
   <si>
     <t xml:space="preserve">2.71533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69744682312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68443918228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69582104682922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68281316757202</t>
+    <t xml:space="preserve">2.69744658470154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68443894386292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69582080841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68281292915344</t>
   </si>
   <si>
     <t xml:space="preserve">2.66655373573303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65842413902283</t>
+    <t xml:space="preserve">2.65842366218567</t>
   </si>
   <si>
     <t xml:space="preserve">2.63728642463684</t>
@@ -941,16 +941,16 @@
     <t xml:space="preserve">2.62427878379822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61940097808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55273723602295</t>
+    <t xml:space="preserve">2.61940121650696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55273747444153</t>
   </si>
   <si>
     <t xml:space="preserve">2.56411910057068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57550048828125</t>
+    <t xml:space="preserve">2.57550072669983</t>
   </si>
   <si>
     <t xml:space="preserve">2.52509641647339</t>
@@ -965,13 +965,13 @@
     <t xml:space="preserve">2.388516664505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3446159362793</t>
+    <t xml:space="preserve">2.34461641311646</t>
   </si>
   <si>
     <t xml:space="preserve">2.36250138282776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37388300895691</t>
+    <t xml:space="preserve">2.37388324737549</t>
   </si>
   <si>
     <t xml:space="preserve">2.43729519844055</t>
@@ -983,37 +983,37 @@
     <t xml:space="preserve">2.43892121315002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44705104827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50395917892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52834796905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72346186637878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73159122467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56086754798889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45518064498901</t>
+    <t xml:space="preserve">2.44705080986023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5039587020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52834820747375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72346162796021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73159146308899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56086730957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45518040657043</t>
   </si>
   <si>
     <t xml:space="preserve">2.471440076828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48769927024841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54460763931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49582886695862</t>
+    <t xml:space="preserve">2.48769950866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54460787773132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4958291053772</t>
   </si>
   <si>
     <t xml:space="preserve">2.51208877563477</t>
@@ -1022,22 +1022,22 @@
     <t xml:space="preserve">2.52021837234497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33323431015015</t>
+    <t xml:space="preserve">2.33323454856873</t>
   </si>
   <si>
     <t xml:space="preserve">2.39014267921448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34136438369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3576238155365</t>
+    <t xml:space="preserve">2.34136462211609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35762357711792</t>
   </si>
   <si>
     <t xml:space="preserve">2.3657534122467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34949398040771</t>
+    <t xml:space="preserve">2.34949421882629</t>
   </si>
   <si>
     <t xml:space="preserve">2.30884528160095</t>
@@ -1046,43 +1046,43 @@
     <t xml:space="preserve">2.20334386825562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17839980125427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1617705821991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17008566856384</t>
+    <t xml:space="preserve">2.17840003967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16177082061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17008543014526</t>
   </si>
   <si>
     <t xml:space="preserve">2.09525465965271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07862567901611</t>
+    <t xml:space="preserve">2.07862591743469</t>
   </si>
   <si>
     <t xml:space="preserve">2.14514183998108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.269859790802</t>
+    <t xml:space="preserve">2.26985955238342</t>
   </si>
   <si>
     <t xml:space="preserve">2.37794780731201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21997261047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24491572380066</t>
+    <t xml:space="preserve">2.21997237205505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24491596221924</t>
   </si>
   <si>
     <t xml:space="preserve">2.22828674316406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28648829460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21165800094604</t>
+    <t xml:space="preserve">2.28648853302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21165823936462</t>
   </si>
   <si>
     <t xml:space="preserve">2.25323057174683</t>
@@ -1094,82 +1094,82 @@
     <t xml:space="preserve">2.26154494285583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18671464920044</t>
+    <t xml:space="preserve">2.18671488761902</t>
   </si>
   <si>
     <t xml:space="preserve">2.13682746887207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15345644950867</t>
+    <t xml:space="preserve">2.15345621109009</t>
   </si>
   <si>
     <t xml:space="preserve">2.11188387870789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1285126209259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36131906509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35300445556641</t>
+    <t xml:space="preserve">2.12851285934448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36131882667542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35300469398499</t>
   </si>
   <si>
     <t xml:space="preserve">2.30311751365662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29480266571045</t>
+    <t xml:space="preserve">2.29480290412903</t>
   </si>
   <si>
     <t xml:space="preserve">2.32806086540222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31974673271179</t>
+    <t xml:space="preserve">2.31974649429321</t>
   </si>
   <si>
     <t xml:space="preserve">2.31143188476562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23660159111023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39457726478577</t>
+    <t xml:space="preserve">2.23660135269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39457678794861</t>
   </si>
   <si>
     <t xml:space="preserve">2.10356950759888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12019848823547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07031154632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98716628551483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99548065662384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03705334663391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04536771774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0619969367981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08694052696228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87907803058624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88739252090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91233587265015</t>
+    <t xml:space="preserve">2.12019824981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0703113079071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98716640472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99548077583313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03705358505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0453679561615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06199669837952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0869402885437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87907755374908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88739216327667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91233563423157</t>
   </si>
   <si>
     <t xml:space="preserve">1.86244881153107</t>
@@ -1178,22 +1178,22 @@
     <t xml:space="preserve">1.84581959247589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89570677280426</t>
+    <t xml:space="preserve">1.89570665359497</t>
   </si>
   <si>
     <t xml:space="preserve">1.83750534057617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7959326505661</t>
+    <t xml:space="preserve">1.79593288898468</t>
   </si>
   <si>
     <t xml:space="preserve">1.76267457008362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7793036699295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8125616312027</t>
+    <t xml:space="preserve">1.77930390834808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81256175041199</t>
   </si>
   <si>
     <t xml:space="preserve">1.78761839866638</t>
@@ -1205,43 +1205,43 @@
     <t xml:space="preserve">1.82919073104858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82087647914886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87076318264008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92896461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93727910518646</t>
+    <t xml:space="preserve">1.82087635993958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87076342105865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92896473407745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93727934360504</t>
   </si>
   <si>
     <t xml:space="preserve">1.90402126312256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94559383392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97885179519653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05368256568909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01210999488831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09671592712402</t>
+    <t xml:space="preserve">1.94559347629547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97885203361511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05368232727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01210975646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0967161655426</t>
   </si>
   <si>
     <t xml:space="preserve">2.08815789222717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06248378753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07104206085205</t>
+    <t xml:space="preserve">2.0624840259552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07104182243347</t>
   </si>
   <si>
     <t xml:space="preserve">2.03680992126465</t>
@@ -1256,49 +1256,49 @@
     <t xml:space="preserve">2.11383199691772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13950610160828</t>
+    <t xml:space="preserve">2.13950634002686</t>
   </si>
   <si>
     <t xml:space="preserve">2.13094806671143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1737380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25076079368591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24220204353333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1908540725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18229627609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2079701423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21652841567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19941258430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22508597373962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1566219329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31066632270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30210876464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33634090423584</t>
+    <t xml:space="preserve">2.17373824119568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25076055526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2422022819519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19085431098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18229603767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20797038078308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21652817726135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19941234588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2250862121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15662217140198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31066656112671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30210852622986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33634066581726</t>
   </si>
   <si>
     <t xml:space="preserve">2.32778239250183</t>
@@ -1313,28 +1313,28 @@
     <t xml:space="preserve">2.35345673561096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42192077636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39624667167664</t>
+    <t xml:space="preserve">2.42192101478577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39624643325806</t>
   </si>
   <si>
     <t xml:space="preserve">2.38768887519836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40480494499207</t>
+    <t xml:space="preserve">2.40480470657349</t>
   </si>
   <si>
     <t xml:space="preserve">2.47326922416687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46471118927002</t>
+    <t xml:space="preserve">2.46471095085144</t>
   </si>
   <si>
     <t xml:space="preserve">2.41336274147034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36201429367065</t>
+    <t xml:space="preserve">2.36201453208923</t>
   </si>
   <si>
     <t xml:space="preserve">2.37057280540466</t>
@@ -1346,40 +1346,40 @@
     <t xml:space="preserve">2.31922483444214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48182702064514</t>
+    <t xml:space="preserve">2.48182725906372</t>
   </si>
   <si>
     <t xml:space="preserve">2.5417332649231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50750136375427</t>
+    <t xml:space="preserve">2.50750112533569</t>
   </si>
   <si>
     <t xml:space="preserve">2.52461719512939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49894332885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51605939865112</t>
+    <t xml:space="preserve">2.49894309043884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51605916023254</t>
   </si>
   <si>
     <t xml:space="preserve">2.55029129981995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59308123588562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56740760803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61019730567932</t>
+    <t xml:space="preserve">2.5930814743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56740736961365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6101975440979</t>
   </si>
   <si>
     <t xml:space="preserve">2.68721961975098</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64442944526672</t>
+    <t xml:space="preserve">2.6444296836853</t>
   </si>
   <si>
     <t xml:space="preserve">2.58452343940735</t>
@@ -1388,34 +1388,34 @@
     <t xml:space="preserve">2.60163950920105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53317546844482</t>
+    <t xml:space="preserve">2.53317523002625</t>
   </si>
   <si>
     <t xml:space="preserve">2.43903684616089</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49038505554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27643442153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26787686347961</t>
+    <t xml:space="preserve">2.49038529396057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27643465995789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26787662506104</t>
   </si>
   <si>
     <t xml:space="preserve">2.12239003181458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94267165660858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95122945308685</t>
+    <t xml:space="preserve">1.94267141819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95122933387756</t>
   </si>
   <si>
     <t xml:space="preserve">1.74583697319031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75439488887787</t>
+    <t xml:space="preserve">1.75439500808716</t>
   </si>
   <si>
     <t xml:space="preserve">1.62602460384369</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">1.78006887435913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70732581615448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70304691791534</t>
+    <t xml:space="preserve">1.70732605457306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70304679870605</t>
   </si>
   <si>
     <t xml:space="preserve">1.68593084812164</t>
@@ -1436,16 +1436,16 @@
     <t xml:space="preserve">1.83997535705566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84853315353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81430089473724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87420749664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93411362171173</t>
+    <t xml:space="preserve">1.84853339195251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81430101394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87420737743378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93411326408386</t>
   </si>
   <si>
     <t xml:space="preserve">2.07959985733032</t>
@@ -1454,49 +1454,49 @@
     <t xml:space="preserve">1.88276529312134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86564910411835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89132332801819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91699731349945</t>
+    <t xml:space="preserve">1.86564922332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89132344722748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91699743270874</t>
   </si>
   <si>
     <t xml:space="preserve">1.89988124370575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85709130764008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95978760719299</t>
+    <t xml:space="preserve">1.85709142684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9597874879837</t>
   </si>
   <si>
     <t xml:space="preserve">1.98546147346497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96834564208984</t>
+    <t xml:space="preserve">1.96834540367126</t>
   </si>
   <si>
     <t xml:space="preserve">1.9769035577774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02825140953064</t>
+    <t xml:space="preserve">2.0282518863678</t>
   </si>
   <si>
     <t xml:space="preserve">2.10527396202087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16518044471741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25931835174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14806437492371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15589737892151</t>
+    <t xml:space="preserve">2.16518020629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25931859016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14806413650513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15589761734009</t>
   </si>
   <si>
     <t xml:space="preserve">2.14709782600403</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">2.11189937591553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05910205841064</t>
+    <t xml:space="preserve">2.05910181999207</t>
   </si>
   <si>
     <t xml:space="preserve">2.05030226707458</t>
@@ -1526,22 +1526,22 @@
     <t xml:space="preserve">2.12949872016907</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12069916725159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08550071716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07670116424561</t>
+    <t xml:space="preserve">2.12069940567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08550047874451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07670092582703</t>
   </si>
   <si>
     <t xml:space="preserve">1.97110605239868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95350682735443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96230673789978</t>
+    <t xml:space="preserve">1.95350706577301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96230661869049</t>
   </si>
   <si>
     <t xml:space="preserve">2.09430050849915</t>
@@ -1574,13 +1574,13 @@
     <t xml:space="preserve">2.41988492012024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43748426437378</t>
+    <t xml:space="preserve">2.4374840259552</t>
   </si>
   <si>
     <t xml:space="preserve">2.44628357887268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5166802406311</t>
+    <t xml:space="preserve">2.51668000221252</t>
   </si>
   <si>
     <t xml:space="preserve">2.53427958488464</t>
@@ -1604,19 +1604,19 @@
     <t xml:space="preserve">2.50788068771362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61347603797913</t>
+    <t xml:space="preserve">2.61347579956055</t>
   </si>
   <si>
     <t xml:space="preserve">2.68387246131897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66627311706543</t>
+    <t xml:space="preserve">2.66627335548401</t>
   </si>
   <si>
     <t xml:space="preserve">2.63987445831299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67507290840149</t>
+    <t xml:space="preserve">2.67507266998291</t>
   </si>
   <si>
     <t xml:space="preserve">2.65747356414795</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">2.64867401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63107466697693</t>
+    <t xml:space="preserve">2.63107514381409</t>
   </si>
   <si>
     <t xml:space="preserve">2.62227511405945</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">2.74546933174133</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73666977882385</t>
+    <t xml:space="preserve">2.73667001724243</t>
   </si>
   <si>
     <t xml:space="preserve">2.76306867599487</t>
@@ -1643,16 +1643,16 @@
     <t xml:space="preserve">2.80706667900085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79826664924622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72786998748779</t>
+    <t xml:space="preserve">2.79826688766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72787022590637</t>
   </si>
   <si>
     <t xml:space="preserve">2.81586599349976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83346509933472</t>
+    <t xml:space="preserve">2.8334653377533</t>
   </si>
   <si>
     <t xml:space="preserve">2.8774631023407</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">2.88626265525818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9478600025177</t>
+    <t xml:space="preserve">2.94785976409912</t>
   </si>
   <si>
     <t xml:space="preserve">2.97425866127014</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">2.85986399650574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84226512908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85106444358826</t>
+    <t xml:space="preserve">2.84226489067078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85106420516968</t>
   </si>
   <si>
     <t xml:space="preserve">2.90386176109314</t>
@@ -1694,16 +1694,16 @@
     <t xml:space="preserve">2.89506220817566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9566593170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93905997276306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93026065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0270562171936</t>
+    <t xml:space="preserve">2.95665907859802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93906021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93026041984558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02705597877502</t>
   </si>
   <si>
     <t xml:space="preserve">3.12385153770447</t>
@@ -1712,28 +1712,28 @@
     <t xml:space="preserve">3.15025019645691</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07105398178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19424843788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20304775238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23824596405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29984331130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26464486122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36144018173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34384083747864</t>
+    <t xml:space="preserve">3.07105422019958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19424819946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20304751396179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23824572563171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29984307289124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26464462280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3614399433136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34384107589722</t>
   </si>
   <si>
     <t xml:space="preserve">3.3526406288147</t>
@@ -1757,13 +1757,13 @@
     <t xml:space="preserve">3.49343395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44063663482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41423749923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39663815498352</t>
+    <t xml:space="preserve">3.44063639640808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41423773765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3966383934021</t>
   </si>
   <si>
     <t xml:space="preserve">3.43216013908386</t>
@@ -1950,9 +1950,6 @@
   </si>
   <si>
     <t xml:space="preserve">3.37839293479919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41423773765564</t>
   </si>
   <si>
     <t xml:space="preserve">3.36943125724792</t>
@@ -42684,7 +42681,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1530" t="s">
-        <v>646</v>
+        <v>582</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42736,7 +42733,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1532" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42762,7 +42759,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1533" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42892,7 +42889,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1538" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42918,7 +42915,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1539" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43022,7 +43019,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1543" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43100,7 +43097,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1546" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43152,7 +43149,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1548" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43204,7 +43201,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1550" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43230,7 +43227,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1551" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43438,7 +43435,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1559" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43464,7 +43461,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1560" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43542,7 +43539,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1563" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43568,7 +43565,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1564" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43594,7 +43591,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1565" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43620,7 +43617,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1566" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43646,7 +43643,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1567" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43672,7 +43669,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1568" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43698,7 +43695,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1569" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43724,7 +43721,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1570" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43750,7 +43747,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1571" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43776,7 +43773,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1572" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43802,7 +43799,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1573" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43854,7 +43851,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1575" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44114,7 +44111,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1585" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44140,7 +44137,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1586" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44192,7 +44189,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1588" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44218,7 +44215,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1589" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44348,7 +44345,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1594" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44374,7 +44371,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1595" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44478,7 +44475,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1599" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44504,7 +44501,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1600" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44582,7 +44579,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1603" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44634,7 +44631,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1605" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44712,7 +44709,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1608" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44868,7 +44865,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1614" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44946,7 +44943,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1617" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45154,7 +45151,7 @@
         <v>4</v>
       </c>
       <c r="G1625" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45180,7 +45177,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45206,7 +45203,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1627" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45232,7 +45229,7 @@
         <v>4</v>
       </c>
       <c r="G1628" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45258,7 +45255,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1629" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45284,7 +45281,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1630" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45310,7 +45307,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1631" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45336,7 +45333,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1632" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45362,7 +45359,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1633" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45388,7 +45385,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1634" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45414,7 +45411,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45440,7 +45437,7 @@
         <v>4</v>
       </c>
       <c r="G1636" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45466,7 +45463,7 @@
         <v>4</v>
       </c>
       <c r="G1637" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45492,7 +45489,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1638" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45518,7 +45515,7 @@
         <v>4</v>
       </c>
       <c r="G1639" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45544,7 +45541,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1640" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45570,7 +45567,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1641" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45596,7 +45593,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1642" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45622,7 +45619,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1643" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45648,7 +45645,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1644" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45674,7 +45671,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1645" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45700,7 +45697,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45726,7 +45723,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1647" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45752,7 +45749,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1648" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45778,7 +45775,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1649" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45804,7 +45801,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1650" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45830,7 +45827,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1651" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45856,7 +45853,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1652" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45882,7 +45879,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1653" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45908,7 +45905,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1654" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45934,7 +45931,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1655" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45960,7 +45957,7 @@
         <v>3.75</v>
       </c>
       <c r="G1656" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45986,7 +45983,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1657" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46012,7 +46009,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1658" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46038,7 +46035,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1659" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46064,7 +46061,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1660" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46090,7 +46087,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1661" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46116,7 +46113,7 @@
         <v>3.75</v>
       </c>
       <c r="G1662" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46142,7 +46139,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1663" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46168,7 +46165,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1664" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46194,7 +46191,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1665" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46220,7 +46217,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46246,7 +46243,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1667" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46272,7 +46269,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1668" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46298,7 +46295,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1669" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46324,7 +46321,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1670" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46350,7 +46347,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1671" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46376,7 +46373,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1672" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46402,7 +46399,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1673" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46428,7 +46425,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1674" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46454,7 +46451,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1675" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46480,7 +46477,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1676" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46532,7 +46529,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1678" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46558,7 +46555,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1679" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46584,7 +46581,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1680" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46610,7 +46607,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1681" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46636,7 +46633,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1682" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46662,7 +46659,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1683" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46688,7 +46685,7 @@
         <v>3.75</v>
       </c>
       <c r="G1684" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46714,7 +46711,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1685" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46740,7 +46737,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46792,7 +46789,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1688" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46818,7 +46815,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1689" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46844,7 +46841,7 @@
         <v>3.75</v>
       </c>
       <c r="G1690" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46870,7 +46867,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1691" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46896,7 +46893,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1692" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46922,7 +46919,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1693" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46948,7 +46945,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1694" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46974,7 +46971,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1695" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47000,7 +46997,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1696" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47052,7 +47049,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1698" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47078,7 +47075,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1699" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47104,7 +47101,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1700" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47130,7 +47127,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1701" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47156,7 +47153,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1702" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47182,7 +47179,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1703" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47208,7 +47205,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1704" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47234,7 +47231,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1705" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47260,7 +47257,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1706" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47286,7 +47283,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1707" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47312,7 +47309,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1708" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47338,7 +47335,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1709" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47364,7 +47361,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1710" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47390,7 +47387,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1711" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47416,7 +47413,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1712" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47442,7 +47439,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1713" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47468,7 +47465,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1714" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47494,7 +47491,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1715" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47520,7 +47517,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1716" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47546,7 +47543,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1717" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47572,7 +47569,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1718" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47598,7 +47595,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47624,7 +47621,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1720" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47650,7 +47647,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1721" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47676,7 +47673,7 @@
         <v>3</v>
       </c>
       <c r="G1722" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47702,7 +47699,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1723" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47728,7 +47725,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1724" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47754,7 +47751,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1725" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47780,7 +47777,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1726" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47806,7 +47803,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1727" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47832,7 +47829,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1728" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47858,7 +47855,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1729" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47884,7 +47881,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1730" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47910,7 +47907,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1731" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47936,7 +47933,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1732" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47962,7 +47959,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1733" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47988,7 +47985,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1734" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48014,7 +48011,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1735" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48040,7 +48037,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1736" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48066,7 +48063,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1737" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48092,7 +48089,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1738" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48118,7 +48115,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1739" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48144,7 +48141,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1740" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48170,7 +48167,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1741" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48196,7 +48193,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1742" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48222,7 +48219,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1743" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48248,7 +48245,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1744" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48274,7 +48271,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1745" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48300,7 +48297,7 @@
         <v>3.5</v>
       </c>
       <c r="G1746" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48326,7 +48323,7 @@
         <v>3.5</v>
       </c>
       <c r="G1747" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48352,7 +48349,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1748" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48378,7 +48375,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1749" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48404,7 +48401,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1750" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48430,7 +48427,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1751" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48456,7 +48453,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1752" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48482,7 +48479,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1753" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48508,7 +48505,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1754" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48534,7 +48531,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1755" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48560,7 +48557,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1756" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48586,7 +48583,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1757" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48612,7 +48609,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1758" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48638,7 +48635,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1759" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48664,7 +48661,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1760" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48690,7 +48687,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1761" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48716,7 +48713,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1762" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48742,7 +48739,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48768,7 +48765,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1764" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48794,7 +48791,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1765" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48820,7 +48817,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1766" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48846,7 +48843,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1767" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48872,7 +48869,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1768" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48898,7 +48895,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1769" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48924,7 +48921,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1770" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48950,7 +48947,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48976,7 +48973,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1772" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49002,7 +48999,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1773" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49028,7 +49025,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1774" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49054,7 +49051,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1775" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49080,7 +49077,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1776" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49106,7 +49103,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1777" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49132,7 +49129,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1778" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49158,7 +49155,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1779" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49184,7 +49181,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1780" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49210,7 +49207,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1781" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49236,7 +49233,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49262,7 +49259,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1783" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49288,7 +49285,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1784" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49314,7 +49311,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1785" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49340,7 +49337,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1786" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49366,7 +49363,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1787" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49392,7 +49389,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49418,7 +49415,7 @@
         <v>3.25</v>
       </c>
       <c r="G1789" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49444,7 +49441,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1790" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49470,7 +49467,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1791" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49496,7 +49493,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1792" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49522,7 +49519,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1793" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49548,7 +49545,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49574,7 +49571,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49600,7 +49597,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1796" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49626,7 +49623,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1797" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49652,7 +49649,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1798" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49678,7 +49675,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1799" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49704,7 +49701,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1800" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49730,7 +49727,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1801" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49756,7 +49753,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49782,7 +49779,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1803" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49808,7 +49805,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1804" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49834,7 +49831,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1805" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49860,7 +49857,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1806" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49886,7 +49883,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1807" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49912,7 +49909,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1808" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49938,7 +49935,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1809" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49964,7 +49961,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1810" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49990,7 +49987,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1811" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50016,7 +50013,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1812" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50042,7 +50039,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1813" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50068,7 +50065,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1814" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50094,7 +50091,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1815" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50120,7 +50117,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1816" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50146,7 +50143,7 @@
         <v>3.75</v>
       </c>
       <c r="G1817" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50172,7 +50169,7 @@
         <v>3.75</v>
       </c>
       <c r="G1818" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50198,7 +50195,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1819" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50224,7 +50221,7 @@
         <v>3.75</v>
       </c>
       <c r="G1820" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50250,7 +50247,7 @@
         <v>3.75</v>
       </c>
       <c r="G1821" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50276,7 +50273,7 @@
         <v>3.75</v>
       </c>
       <c r="G1822" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50302,7 +50299,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1823" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50328,7 +50325,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1824" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50354,7 +50351,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1825" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50380,7 +50377,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1826" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50406,7 +50403,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1827" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50432,7 +50429,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1828" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50458,7 +50455,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1829" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50484,7 +50481,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1830" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50510,7 +50507,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1831" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50536,7 +50533,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1832" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50562,7 +50559,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1833" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50588,7 +50585,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50614,7 +50611,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1835" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50640,7 +50637,7 @@
         <v>4</v>
       </c>
       <c r="G1836" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50666,7 +50663,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1837" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50692,7 +50689,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1838" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50718,7 +50715,7 @@
         <v>4</v>
       </c>
       <c r="G1839" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50744,7 +50741,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1840" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50770,7 +50767,7 @@
         <v>4</v>
       </c>
       <c r="G1841" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50796,7 +50793,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1842" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50822,7 +50819,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1843" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50848,7 +50845,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1844" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50874,7 +50871,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1845" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50900,7 +50897,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1846" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50926,7 +50923,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1847" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50952,7 +50949,7 @@
         <v>4</v>
       </c>
       <c r="G1848" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50978,7 +50975,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1849" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51004,7 +51001,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1850" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51030,7 +51027,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1851" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51056,7 +51053,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1852" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51082,7 +51079,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1853" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51108,7 +51105,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1854" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51134,7 +51131,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1855" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51160,7 +51157,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1856" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51186,7 +51183,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1857" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51212,7 +51209,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1858" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51264,7 +51261,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1860" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51290,7 +51287,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1861" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51316,7 +51313,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1862" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51342,7 +51339,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1863" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51368,7 +51365,7 @@
         <v>4</v>
       </c>
       <c r="G1864" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51394,7 +51391,7 @@
         <v>4</v>
       </c>
       <c r="G1865" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51446,7 +51443,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1867" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51472,7 +51469,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1868" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51498,7 +51495,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1869" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51524,7 +51521,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1870" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51550,7 +51547,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1871" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51602,7 +51599,7 @@
         <v>4</v>
       </c>
       <c r="G1873" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51628,7 +51625,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1874" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51654,7 +51651,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1875" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51680,7 +51677,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1876" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51706,7 +51703,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1877" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51732,7 +51729,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1878" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51758,7 +51755,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1879" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51784,7 +51781,7 @@
         <v>4</v>
       </c>
       <c r="G1880" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51810,7 +51807,7 @@
         <v>4</v>
       </c>
       <c r="G1881" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51836,7 +51833,7 @@
         <v>4</v>
       </c>
       <c r="G1882" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51862,7 +51859,7 @@
         <v>4</v>
       </c>
       <c r="G1883" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51888,7 +51885,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51914,7 +51911,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1885" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51940,7 +51937,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1886" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51966,7 +51963,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51992,7 +51989,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1888" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52018,7 +52015,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1889" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52044,7 +52041,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1890" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52070,7 +52067,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1891" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52096,7 +52093,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1892" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52122,7 +52119,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1893" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52148,7 +52145,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1894" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52174,7 +52171,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1895" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52200,7 +52197,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52226,7 +52223,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1897" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52252,7 +52249,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52278,7 +52275,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1899" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52304,7 +52301,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1900" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52330,7 +52327,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1901" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52356,7 +52353,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1902" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52382,7 +52379,7 @@
         <v>4</v>
       </c>
       <c r="G1903" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52408,7 +52405,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1904" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52434,7 +52431,7 @@
         <v>4</v>
       </c>
       <c r="G1905" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52460,7 +52457,7 @@
         <v>4</v>
       </c>
       <c r="G1906" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52486,7 +52483,7 @@
         <v>4</v>
       </c>
       <c r="G1907" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52512,7 +52509,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1908" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52538,7 +52535,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1909" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52564,7 +52561,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1910" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52590,7 +52587,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1911" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52616,7 +52613,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1912" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52642,7 +52639,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1913" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52668,7 +52665,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1914" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52694,7 +52691,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1915" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52720,7 +52717,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1916" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52746,7 +52743,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1917" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52772,7 +52769,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1918" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52798,7 +52795,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1919" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52824,7 +52821,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1920" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52850,7 +52847,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1921" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52876,7 +52873,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1922" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52902,7 +52899,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52928,7 +52925,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1924" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52954,7 +52951,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1925" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52980,7 +52977,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1926" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53006,7 +53003,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1927" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53032,7 +53029,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53058,7 +53055,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1929" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53084,7 +53081,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1930" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53110,7 +53107,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53136,7 +53133,7 @@
         <v>4.25</v>
       </c>
       <c r="G1932" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53162,7 +53159,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53188,7 +53185,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1934" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53214,7 +53211,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1935" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53240,7 +53237,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1936" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53266,7 +53263,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1937" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53292,7 +53289,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1938" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53318,7 +53315,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1939" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53344,7 +53341,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1940" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53370,7 +53367,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1941" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53396,7 +53393,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1942" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53422,7 +53419,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1943" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53448,7 +53445,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1944" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53474,7 +53471,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1945" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53500,7 +53497,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1946" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53526,7 +53523,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1947" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53552,7 +53549,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53578,7 +53575,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1949" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53604,7 +53601,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1950" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53630,7 +53627,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53656,7 +53653,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1952" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53682,7 +53679,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1953" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53708,7 +53705,7 @@
         <v>4</v>
       </c>
       <c r="G1954" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53734,7 +53731,7 @@
         <v>4</v>
       </c>
       <c r="G1955" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53760,7 +53757,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53786,7 +53783,7 @@
         <v>4</v>
       </c>
       <c r="G1957" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53812,7 +53809,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1958" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53838,7 +53835,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1959" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53864,7 +53861,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1960" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53890,7 +53887,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1961" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53916,7 +53913,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1962" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53942,7 +53939,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1963" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53968,7 +53965,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1964" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53994,7 +53991,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1965" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54020,7 +54017,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1966" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54046,7 +54043,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1967" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54072,7 +54069,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1968" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54098,7 +54095,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54124,7 +54121,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1970" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54150,7 +54147,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54176,7 +54173,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1972" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54202,7 +54199,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1973" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54228,7 +54225,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1974" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54254,7 +54251,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1975" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54280,7 +54277,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54306,7 +54303,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1977" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54332,7 +54329,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1978" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54358,7 +54355,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1979" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54384,7 +54381,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54410,7 +54407,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1981" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54436,7 +54433,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1982" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54462,7 +54459,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1983" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54488,7 +54485,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1984" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54514,7 +54511,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1985" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54540,7 +54537,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1986" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54566,7 +54563,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1987" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54592,7 +54589,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54618,7 +54615,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1989" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54644,7 +54641,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1990" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54670,7 +54667,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1991" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54696,7 +54693,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1992" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54722,7 +54719,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1993" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54748,7 +54745,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54774,7 +54771,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54800,7 +54797,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1996" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54826,7 +54823,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1997" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54852,7 +54849,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54878,7 +54875,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1999" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54904,7 +54901,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2000" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54930,7 +54927,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54956,7 +54953,7 @@
         <v>4</v>
       </c>
       <c r="G2002" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54982,7 +54979,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2003" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55008,7 +55005,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2004" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55034,7 +55031,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2005" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55060,7 +55057,7 @@
         <v>4</v>
       </c>
       <c r="G2006" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55086,7 +55083,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2007" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55112,7 +55109,7 @@
         <v>4</v>
       </c>
       <c r="G2008" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55138,7 +55135,7 @@
         <v>4</v>
       </c>
       <c r="G2009" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55164,7 +55161,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G2010" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55190,7 +55187,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G2011" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55216,7 +55213,7 @@
         <v>4</v>
       </c>
       <c r="G2012" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55242,7 +55239,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G2013" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55268,7 +55265,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2014" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55294,7 +55291,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55320,7 +55317,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2016" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55346,7 +55343,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55372,7 +55369,7 @@
         <v>4</v>
       </c>
       <c r="G2018" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55398,7 +55395,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2019" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55424,7 +55421,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2020" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55450,7 +55447,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2021" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55476,7 +55473,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2022" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55502,7 +55499,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2023" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55528,7 +55525,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2024" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55554,7 +55551,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55580,7 +55577,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55606,7 +55603,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55632,7 +55629,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2028" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55658,7 +55655,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2029" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55684,7 +55681,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2030" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55710,7 +55707,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2031" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55736,7 +55733,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2032" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55762,7 +55759,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2033" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55788,7 +55785,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55814,7 +55811,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2035" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55840,7 +55837,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2036" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55866,7 +55863,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2037" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55892,7 +55889,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2038" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55918,7 +55915,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G2039" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55944,7 +55941,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2040" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55970,7 +55967,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2041" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55996,7 +55993,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2042" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56022,7 +56019,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2043" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56048,7 +56045,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2044" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56074,7 +56071,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2045" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56100,7 +56097,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2046" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56126,7 +56123,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2047" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56152,7 +56149,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2048" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56178,7 +56175,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2049" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56204,7 +56201,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2050" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56230,7 +56227,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2051" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56256,7 +56253,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2052" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56282,7 +56279,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2053" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56308,7 +56305,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2054" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56334,7 +56331,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G2055" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56360,7 +56357,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2056" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56386,7 +56383,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G2057" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56412,7 +56409,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2058" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56438,7 +56435,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2059" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56464,7 +56461,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G2060" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56490,7 +56487,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G2061" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56516,7 +56513,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2062" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56542,7 +56539,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2063" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56568,7 +56565,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2064" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56594,7 +56591,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2065" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56620,7 +56617,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G2066" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56646,7 +56643,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2067" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56672,7 +56669,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2068" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56698,7 +56695,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2069" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56724,7 +56721,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2070" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56750,7 +56747,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2071" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56776,7 +56773,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2072" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56802,7 +56799,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G2073" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56828,7 +56825,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2074" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56854,7 +56851,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G2075" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56880,7 +56877,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2076" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56906,7 +56903,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2077" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56932,7 +56929,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G2078" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56958,7 +56955,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56984,7 +56981,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2080" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57010,7 +57007,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2081" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57036,7 +57033,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2082" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57062,7 +57059,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2083" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57088,7 +57085,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2084" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57114,7 +57111,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2085" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57140,7 +57137,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2086" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57166,7 +57163,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57192,7 +57189,7 @@
         <v>4.5</v>
       </c>
       <c r="G2088" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57218,7 +57215,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G2089" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57244,7 +57241,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G2090" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57270,7 +57267,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2091" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57296,7 +57293,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G2092" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57322,7 +57319,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G2093" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57348,7 +57345,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G2094" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57374,7 +57371,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2095" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57400,7 +57397,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2096" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57426,7 +57423,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57452,7 +57449,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2098" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57478,7 +57475,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2099" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57504,7 +57501,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2100" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57530,7 +57527,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57556,7 +57553,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2102" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57582,7 +57579,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2103" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57608,7 +57605,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2104" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57634,7 +57631,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2105" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57660,7 +57657,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57686,7 +57683,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2107" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57712,7 +57709,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2108" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57738,7 +57735,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2109" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57764,7 +57761,7 @@
         <v>4.98999977111816</v>
       </c>
       <c r="G2110" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57790,7 +57787,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2111" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57816,7 +57813,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G2112" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57842,7 +57839,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2113" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57868,7 +57865,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G2114" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57894,7 +57891,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2115" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57920,7 +57917,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2116" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57946,7 +57943,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2117" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57972,7 +57969,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2118" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57998,7 +57995,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2119" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58024,7 +58021,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2120" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58050,7 +58047,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2121" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58076,7 +58073,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2122" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58102,7 +58099,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2123" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58128,7 +58125,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2124" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58154,7 +58151,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2125" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58180,7 +58177,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2126" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58206,7 +58203,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2127" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58232,7 +58229,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2128" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58258,7 +58255,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2129" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58284,7 +58281,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G2130" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58310,7 +58307,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2131" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58336,7 +58333,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58362,7 +58359,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G2133" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58388,7 +58385,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2134" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58414,7 +58411,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2135" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58440,7 +58437,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2136" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58466,7 +58463,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2137" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58492,7 +58489,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2138" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58518,7 +58515,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2139" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58544,7 +58541,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2140" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58570,7 +58567,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2141" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58596,7 +58593,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2142" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58622,7 +58619,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2143" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58648,7 +58645,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2144" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58674,7 +58671,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58700,7 +58697,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2146" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58726,7 +58723,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2147" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58752,7 +58749,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G2148" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58778,7 +58775,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2149" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58804,7 +58801,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G2150" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58830,7 +58827,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2151" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58856,7 +58853,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G2152" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58882,7 +58879,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2153" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58908,7 +58905,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G2154" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58934,7 +58931,7 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G2155" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58960,7 +58957,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2156" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58986,7 +58983,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G2157" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58994,7 +58991,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6493634259</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>1694</v>
@@ -59006,15 +59003,41 @@
         <v>5.69999980926514</v>
       </c>
       <c r="E2158" t="n">
-        <v>5.76000022888184</v>
+        <v>5.80000019073486</v>
       </c>
       <c r="F2158" t="n">
         <v>5.80000019073486</v>
       </c>
       <c r="G2158" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6495486111</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>5534</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>5.84000015258789</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>5.71999979019165</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>5.76000022888184</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>5.78000020980835</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>850</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CALT.MI.xlsx
+++ b/data/CALT.MI.xlsx
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80173301696777</t>
+    <t xml:space="preserve">1.80173277854919</t>
   </si>
   <si>
     <t xml:space="preserve">CALT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80949890613556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77843463420868</t>
+    <t xml:space="preserve">1.80949878692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77843451499939</t>
   </si>
   <si>
     <t xml:space="preserve">1.72407197952271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73494470119476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71164619922638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70077359676361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63243222236633</t>
+    <t xml:space="preserve">1.73494458198547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71164643764496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7007737159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63243210315704</t>
   </si>
   <si>
     <t xml:space="preserve">1.55244135856628</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">1.53613257408142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53768587112427</t>
+    <t xml:space="preserve">1.53768575191498</t>
   </si>
   <si>
     <t xml:space="preserve">1.49031257629395</t>
@@ -80,31 +80,31 @@
     <t xml:space="preserve">1.49885523319244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47555696964264</t>
+    <t xml:space="preserve">1.47555708885193</t>
   </si>
   <si>
     <t xml:space="preserve">1.47322714328766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46779072284698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47245073318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46002495288849</t>
+    <t xml:space="preserve">1.46779096126556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47245061397552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4600248336792</t>
   </si>
   <si>
     <t xml:space="preserve">1.43439674377441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4367264509201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45070576667786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4079921245575</t>
+    <t xml:space="preserve">1.43672657012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45070564746857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40799188613892</t>
   </si>
   <si>
     <t xml:space="preserve">1.38624703884125</t>
@@ -113,10 +113,10 @@
     <t xml:space="preserve">1.39789605140686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39323651790619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43594980239868</t>
+    <t xml:space="preserve">1.3932363986969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43595004081726</t>
   </si>
   <si>
     <t xml:space="preserve">1.40566217899323</t>
@@ -125,16 +125,16 @@
     <t xml:space="preserve">1.43284356594086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42119431495667</t>
+    <t xml:space="preserve">1.42119455337524</t>
   </si>
   <si>
     <t xml:space="preserve">1.43051385879517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48487627506256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4631313085556</t>
+    <t xml:space="preserve">1.48487639427185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46313118934631</t>
   </si>
   <si>
     <t xml:space="preserve">1.49963200092316</t>
@@ -143,10 +143,10 @@
     <t xml:space="preserve">1.51749396324158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56875014305115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58272910118103</t>
+    <t xml:space="preserve">1.56875002384186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58272922039032</t>
   </si>
   <si>
     <t xml:space="preserve">1.57962262630463</t>
@@ -161,43 +161,43 @@
     <t xml:space="preserve">1.60758054256439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62155973911285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6603901386261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66970944404602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69300782680511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68524169921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69145441055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67747521400452</t>
+    <t xml:space="preserve">1.62155950069427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66039001941681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66970920562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69300746917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68524146080017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69145405292511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6774754524231</t>
   </si>
   <si>
     <t xml:space="preserve">1.71630585193634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70543360710144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64641094207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64796423912048</t>
+    <t xml:space="preserve">1.70543348789215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64641106128693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64796411991119</t>
   </si>
   <si>
     <t xml:space="preserve">1.69611394405365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72251880168915</t>
+    <t xml:space="preserve">1.72251868247986</t>
   </si>
   <si>
     <t xml:space="preserve">1.73183810710907</t>
@@ -206,37 +206,37 @@
     <t xml:space="preserve">1.75047647953033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75513625144958</t>
+    <t xml:space="preserve">1.75513648986816</t>
   </si>
   <si>
     <t xml:space="preserve">1.75668954849243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78620040416718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80017983913422</t>
+    <t xml:space="preserve">1.78620052337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80017960071564</t>
   </si>
   <si>
     <t xml:space="preserve">1.76756203174591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77066850662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76290237903595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73960399627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74737024307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73028481006622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74581670761108</t>
+    <t xml:space="preserve">1.77066838741302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76290249824524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73960423469543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74737012386322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73028457164764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74581694602966</t>
   </si>
   <si>
     <t xml:space="preserve">1.70388007164001</t>
@@ -245,13 +245,13 @@
     <t xml:space="preserve">1.70853972434998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73805105686188</t>
+    <t xml:space="preserve">1.73805069923401</t>
   </si>
   <si>
     <t xml:space="preserve">1.76347029209137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74758327007294</t>
+    <t xml:space="preserve">1.74758315086365</t>
   </si>
   <si>
     <t xml:space="preserve">1.75552678108215</t>
@@ -260,13 +260,13 @@
     <t xml:space="preserve">1.78571224212646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76982510089874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75870418548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7793573141098</t>
+    <t xml:space="preserve">1.76982486248016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75870430469513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77935755252838</t>
   </si>
   <si>
     <t xml:space="preserve">1.78730082511902</t>
@@ -278,49 +278,49 @@
     <t xml:space="preserve">1.73487341403961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73169612884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71422016620636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66655874252319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62048602104187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61254262924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57917976379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58871173858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65067172050476</t>
+    <t xml:space="preserve">1.73169589042664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71422028541565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66655886173248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62048614025116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61254251003265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57917964458466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.588711977005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65067183971405</t>
   </si>
   <si>
     <t xml:space="preserve">1.5863288640976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60936522483826</t>
+    <t xml:space="preserve">1.60936534404755</t>
   </si>
   <si>
     <t xml:space="preserve">1.59665548801422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54899406433105</t>
+    <t xml:space="preserve">1.54899418354034</t>
   </si>
   <si>
     <t xml:space="preserve">1.53151834011078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57997381687164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52516353130341</t>
+    <t xml:space="preserve">1.57997393608093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52516341209412</t>
   </si>
   <si>
     <t xml:space="preserve">1.53310692310333</t>
@@ -332,28 +332,28 @@
     <t xml:space="preserve">1.55693769454956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66814756393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65702641010284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62842965126038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68403458595276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73010718822479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.723752617836</t>
+    <t xml:space="preserve">1.66814732551575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65702652931213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62842977046967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68403470516205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7301070690155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72375249862671</t>
   </si>
   <si>
     <t xml:space="preserve">1.73963963985443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67609095573425</t>
+    <t xml:space="preserve">1.67609107494354</t>
   </si>
   <si>
     <t xml:space="preserve">1.63637328147888</t>
@@ -377,52 +377,52 @@
     <t xml:space="preserve">1.62684118747711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6030101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58076822757721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59983277320862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6411395072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61730885505676</t>
+    <t xml:space="preserve">1.60301053524017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5807683467865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5998330116272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64113938808441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61730873584747</t>
   </si>
   <si>
     <t xml:space="preserve">1.63955068588257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6109539270401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58791744709015</t>
+    <t xml:space="preserve">1.61095404624939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58791756629944</t>
   </si>
   <si>
     <t xml:space="preserve">1.57679665088654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56249809265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56329262256622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59188950061798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62525224685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63319575786591</t>
+    <t xml:space="preserve">1.56249821186066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56329250335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59188938140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62525236606598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6331958770752</t>
   </si>
   <si>
     <t xml:space="preserve">1.64272820949554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65226018428802</t>
+    <t xml:space="preserve">1.65226030349731</t>
   </si>
   <si>
     <t xml:space="preserve">1.55852651596069</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">1.56488132476807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5307240486145</t>
+    <t xml:space="preserve">1.53072381019592</t>
   </si>
   <si>
     <t xml:space="preserve">1.55296587944031</t>
@@ -443,16 +443,16 @@
     <t xml:space="preserve">1.58712315559387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66020393371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64749431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62366378307343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62207496166229</t>
+    <t xml:space="preserve">1.66020405292511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64749419689178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62366354465485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.622074842453</t>
   </si>
   <si>
     <t xml:space="preserve">1.63160705566406</t>
@@ -461,13 +461,13 @@
     <t xml:space="preserve">1.65861523151398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65384912490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66497015953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70945405960083</t>
+    <t xml:space="preserve">1.65384900569916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66497004032135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70945394039154</t>
   </si>
   <si>
     <t xml:space="preserve">1.7078652381897</t>
@@ -476,70 +476,70 @@
     <t xml:space="preserve">1.7459944486618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69197845458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69833302497864</t>
+    <t xml:space="preserve">1.69197833538055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69833314418793</t>
   </si>
   <si>
     <t xml:space="preserve">1.70627665519714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69356679916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72534120082855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72851860523224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79842209815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79524421691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81113171577454</t>
+    <t xml:space="preserve">1.6935670375824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72534108161926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72851884365082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79842174053192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7952446937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81113159656525</t>
   </si>
   <si>
     <t xml:space="preserve">1.81589782238007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77141380310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76823627948761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80318808555603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82543003559113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82701873779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8508495092392</t>
+    <t xml:space="preserve">1.77141392230988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76823651790619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80318820476532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82543015480042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82701861858368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85084927082062</t>
   </si>
   <si>
     <t xml:space="preserve">1.83496201038361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81907522678375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80001103878021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80159950256348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85879290103912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86991441249847</t>
+    <t xml:space="preserve">1.81907510757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80001056194305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8015992641449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85879302024841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86991405487061</t>
   </si>
   <si>
     <t xml:space="preserve">1.88897860050201</t>
@@ -548,22 +548,22 @@
     <t xml:space="preserve">1.88580107688904</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87467992305756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89374470710754</t>
+    <t xml:space="preserve">1.87467968463898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89374458789825</t>
   </si>
   <si>
     <t xml:space="preserve">1.88262367248535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92869639396667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94776093959808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92393004894257</t>
+    <t xml:space="preserve">1.9286961555481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9477607011795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92392992973328</t>
   </si>
   <si>
     <t xml:space="preserve">1.9255188703537</t>
@@ -575,52 +575,52 @@
     <t xml:space="preserve">1.9366397857666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91916382312775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93346238136292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92234170436859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90645444393158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9143979549408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89215588569641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90963196754456</t>
+    <t xml:space="preserve">1.91916394233704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9334625005722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9223415851593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90645432472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439783573151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89215576648712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90963184833527</t>
   </si>
   <si>
     <t xml:space="preserve">1.91757524013519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93822860717773</t>
+    <t xml:space="preserve">1.93822884559631</t>
   </si>
   <si>
     <t xml:space="preserve">2.02243041992188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97953498363495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99383330345154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00177693367004</t>
+    <t xml:space="preserve">1.97953546047211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99383318424225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00177717208862</t>
   </si>
   <si>
     <t xml:space="preserve">1.9970109462738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03990626335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06373715400696</t>
+    <t xml:space="preserve">2.03990602493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06373691558838</t>
   </si>
   <si>
     <t xml:space="preserve">2.07326889038086</t>
@@ -629,19 +629,19 @@
     <t xml:space="preserve">2.08439016342163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0828013420105</t>
+    <t xml:space="preserve">2.08280110359192</t>
   </si>
   <si>
     <t xml:space="preserve">2.08756732940674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06532573699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07803535461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08121252059937</t>
+    <t xml:space="preserve">2.06532549858093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07803511619568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08121228218079</t>
   </si>
   <si>
     <t xml:space="preserve">2.17063999176025</t>
@@ -662,19 +662,19 @@
     <t xml:space="preserve">2.25193691253662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22754788398743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23079991340637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2064106464386</t>
+    <t xml:space="preserve">2.22754812240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23079943656921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20641040802002</t>
   </si>
   <si>
     <t xml:space="preserve">2.24380731582642</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23242568969727</t>
+    <t xml:space="preserve">2.23242592811584</t>
   </si>
   <si>
     <t xml:space="preserve">2.21941828727722</t>
@@ -683,19 +683,19 @@
     <t xml:space="preserve">2.24218153953552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12348699569702</t>
+    <t xml:space="preserve">2.1234872341156</t>
   </si>
   <si>
     <t xml:space="preserve">2.12999081611633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11373162269592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12511301040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12186098098755</t>
+    <t xml:space="preserve">2.11373138427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12511348724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12186121940613</t>
   </si>
   <si>
     <t xml:space="preserve">2.14299869537354</t>
@@ -704,25 +704,25 @@
     <t xml:space="preserve">2.1381208896637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18689918518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19665455818176</t>
+    <t xml:space="preserve">2.18689942359924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19665503501892</t>
   </si>
   <si>
     <t xml:space="preserve">2.20315861701965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21128845214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26494431495667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27632641792297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2893340587616</t>
+    <t xml:space="preserve">2.21128821372986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26494479179382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27632617950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28933382034302</t>
   </si>
   <si>
     <t xml:space="preserve">2.28608226776123</t>
@@ -734,25 +734,25 @@
     <t xml:space="preserve">2.29096007347107</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24543356895447</t>
+    <t xml:space="preserve">2.24543333053589</t>
   </si>
   <si>
     <t xml:space="preserve">2.24055552482605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21616625785828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17551779747009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14137315750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10234999656677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04219031333923</t>
+    <t xml:space="preserve">2.21616649627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17551755905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14137244224548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10234975814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04218983650208</t>
   </si>
   <si>
     <t xml:space="preserve">2.07308316230774</t>
@@ -761,13 +761,13 @@
     <t xml:space="preserve">2.15438032150269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13161683082581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1836473941803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14462471008301</t>
+    <t xml:space="preserve">2.13161706924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18364691734314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14462447166443</t>
   </si>
   <si>
     <t xml:space="preserve">2.11210584640503</t>
@@ -782,13 +782,13 @@
     <t xml:space="preserve">2.14625072479248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15600633621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32510447502136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30721950531006</t>
+    <t xml:space="preserve">2.15600609779358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32510471343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30721926689148</t>
   </si>
   <si>
     <t xml:space="preserve">2.29421162605286</t>
@@ -797,22 +797,22 @@
     <t xml:space="preserve">2.31697511672974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.321852684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40640211105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40152406692505</t>
+    <t xml:space="preserve">2.32185316085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40640234947205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40152430534363</t>
   </si>
   <si>
     <t xml:space="preserve">2.41453194618225</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4129056930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47956967353821</t>
+    <t xml:space="preserve">2.41290616989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47956943511963</t>
   </si>
   <si>
     <t xml:space="preserve">2.47631788253784</t>
@@ -821,28 +821,28 @@
     <t xml:space="preserve">2.53647756576538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56899666786194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5787525177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58363056182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61614894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60151553153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63403487205505</t>
+    <t xml:space="preserve">2.56899690628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57875227928162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58363032341003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61614918708801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60151600837708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63403463363647</t>
   </si>
   <si>
     <t xml:space="preserve">2.62590479850769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58525657653809</t>
+    <t xml:space="preserve">2.58525609970093</t>
   </si>
   <si>
     <t xml:space="preserve">2.59826397895813</t>
@@ -851,25 +851,25 @@
     <t xml:space="preserve">2.59338593482971</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61777520179749</t>
+    <t xml:space="preserve">2.61777544021606</t>
   </si>
   <si>
     <t xml:space="preserve">2.62753105163574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60639357566833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60314154624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60801959037781</t>
+    <t xml:space="preserve">2.60639381408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60314178466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60801982879639</t>
   </si>
   <si>
     <t xml:space="preserve">2.59176015853882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59013438224792</t>
+    <t xml:space="preserve">2.59013414382935</t>
   </si>
   <si>
     <t xml:space="preserve">2.62102699279785</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">2.64216470718384</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64704251289368</t>
+    <t xml:space="preserve">2.6470422744751</t>
   </si>
   <si>
     <t xml:space="preserve">2.632408618927</t>
@@ -893,16 +893,16 @@
     <t xml:space="preserve">2.80963706970215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81288886070251</t>
+    <t xml:space="preserve">2.81288933753967</t>
   </si>
   <si>
     <t xml:space="preserve">2.82427072525024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79662919044495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80475902557373</t>
+    <t xml:space="preserve">2.79662990570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80475926399231</t>
   </si>
   <si>
     <t xml:space="preserve">2.77386617660522</t>
@@ -911,34 +911,34 @@
     <t xml:space="preserve">2.76411056518555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71533250808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69744658470154</t>
+    <t xml:space="preserve">2.71533203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69744682312012</t>
   </si>
   <si>
     <t xml:space="preserve">2.68443918228149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69582056999207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68281292915344</t>
+    <t xml:space="preserve">2.69582080841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68281316757202</t>
   </si>
   <si>
     <t xml:space="preserve">2.66655349731445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65842390060425</t>
+    <t xml:space="preserve">2.65842413902283</t>
   </si>
   <si>
     <t xml:space="preserve">2.63728666305542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6145236492157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62427878379822</t>
+    <t xml:space="preserve">2.61452341079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6242790222168</t>
   </si>
   <si>
     <t xml:space="preserve">2.61940121650696</t>
@@ -950,22 +950,22 @@
     <t xml:space="preserve">2.5641188621521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57550096511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52509593963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4860737323761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40802788734436</t>
+    <t xml:space="preserve">2.57550048828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52509617805481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48607349395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40802812576294</t>
   </si>
   <si>
     <t xml:space="preserve">2.38851642608643</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3446159362793</t>
+    <t xml:space="preserve">2.34461617469788</t>
   </si>
   <si>
     <t xml:space="preserve">2.36250162124634</t>
@@ -974,16 +974,16 @@
     <t xml:space="preserve">2.37388324737549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43729519844055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45355415344238</t>
+    <t xml:space="preserve">2.43729496002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45355486869812</t>
   </si>
   <si>
     <t xml:space="preserve">2.43892097473145</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44705104827881</t>
+    <t xml:space="preserve">2.44705057144165</t>
   </si>
   <si>
     <t xml:space="preserve">2.50395894050598</t>
@@ -995,10 +995,10 @@
     <t xml:space="preserve">2.72346186637878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73159170150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56086707115173</t>
+    <t xml:space="preserve">2.73159146308899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56086754798889</t>
   </si>
   <si>
     <t xml:space="preserve">2.45518064498901</t>
@@ -1019,13 +1019,13 @@
     <t xml:space="preserve">2.51208877563477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52021813392639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33323407173157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39014267921448</t>
+    <t xml:space="preserve">2.52021837234497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33323431015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39014291763306</t>
   </si>
   <si>
     <t xml:space="preserve">2.34136438369751</t>
@@ -1052,16 +1052,16 @@
     <t xml:space="preserve">2.17839980125427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16177129745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17008519172668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09525465965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07862615585327</t>
+    <t xml:space="preserve">2.16177082061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17008543014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09525489807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07862567901611</t>
   </si>
   <si>
     <t xml:space="preserve">2.14514183998108</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">2.26985955238342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37794756889343</t>
+    <t xml:space="preserve">2.37794780731201</t>
   </si>
   <si>
     <t xml:space="preserve">2.21997261047363</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">2.22828698158264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28648853302002</t>
+    <t xml:space="preserve">2.28648829460144</t>
   </si>
   <si>
     <t xml:space="preserve">2.21165800094604</t>
@@ -1091,67 +1091,67 @@
     <t xml:space="preserve">2.25323033332825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27817392349243</t>
+    <t xml:space="preserve">2.27817416191101</t>
   </si>
   <si>
     <t xml:space="preserve">2.26154494285583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18671464920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13682746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15345621109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11188364028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12851285934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36131882667542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35300421714783</t>
+    <t xml:space="preserve">2.18671441078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13682723045349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15345644950867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11188411712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1285126209259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36131906509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35300445556641</t>
   </si>
   <si>
     <t xml:space="preserve">2.30311727523804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29480290412903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3280611038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31974625587463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31143188476562</t>
+    <t xml:space="preserve">2.29480314254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32806086540222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31974649429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3114321231842</t>
   </si>
   <si>
     <t xml:space="preserve">2.23660159111023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39457726478577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10356950759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12019848823547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07031106948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98716616630554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99548101425171</t>
+    <t xml:space="preserve">2.39457702636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1035692691803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12019872665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0703113079071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98716652393341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99548065662384</t>
   </si>
   <si>
     <t xml:space="preserve">2.03705334663391</t>
@@ -1160,25 +1160,25 @@
     <t xml:space="preserve">2.0453679561615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0619969367981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0869402885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87907767295837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88739252090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91233599185944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86244869232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84581983089447</t>
+    <t xml:space="preserve">2.06199717521667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08694005012512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87907803058624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88739240169525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91233563423157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86244881153107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84581995010376</t>
   </si>
   <si>
     <t xml:space="preserve">1.89570689201355</t>
@@ -1193,40 +1193,40 @@
     <t xml:space="preserve">1.7626748085022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7793036699295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81256175041199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7876181602478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80424737930298</t>
+    <t xml:space="preserve">1.77930390834808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81256198883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78761827945709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80424749851227</t>
   </si>
   <si>
     <t xml:space="preserve">1.82919085025787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82087635993958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87076330184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92896497249603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93727946281433</t>
+    <t xml:space="preserve">1.82087624073029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87076318264008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92896485328674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93727934360504</t>
   </si>
   <si>
     <t xml:space="preserve">1.90402138233185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94559371471405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97885191440582</t>
+    <t xml:space="preserve">1.94559383392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97885179519653</t>
   </si>
   <si>
     <t xml:space="preserve">2.05368256568909</t>
@@ -1241,88 +1241,85 @@
     <t xml:space="preserve">2.08815789222717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04536771774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0624840259552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07104206085205</t>
+    <t xml:space="preserve">2.06248378753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07104182243347</t>
   </si>
   <si>
     <t xml:space="preserve">2.03680992126465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01113533973694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05392599105835</t>
+    <t xml:space="preserve">2.01113557815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05392575263977</t>
   </si>
   <si>
     <t xml:space="preserve">2.11383199691772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13950634002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13094782829285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1737380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25076079368591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2422022819519</t>
+    <t xml:space="preserve">2.13950610160828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13094806671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17373824119568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25076055526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24220204353333</t>
   </si>
   <si>
     <t xml:space="preserve">2.1908540725708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18229603767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20797038078308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21652817726135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19941210746765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22508645057678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1566219329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31066679954529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30210852622986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33634090423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32778263092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29355049133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34489870071411</t>
+    <t xml:space="preserve">2.18229651451111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2079701423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21652841567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19941234588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2250862121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15662217140198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31066656112671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30210876464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33634066581726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32778239250183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29355072975159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34489893913269</t>
   </si>
   <si>
     <t xml:space="preserve">2.35345673561096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42192101478577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39624691009521</t>
+    <t xml:space="preserve">2.42192077636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39624667167664</t>
   </si>
   <si>
     <t xml:space="preserve">2.38768863677979</t>
@@ -1331,16 +1328,16 @@
     <t xml:space="preserve">2.40480494499207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47326898574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46471118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41336274147034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36201453208923</t>
+    <t xml:space="preserve">2.47326922416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46471095085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41336250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36201477050781</t>
   </si>
   <si>
     <t xml:space="preserve">2.37057256698608</t>
@@ -1349,37 +1346,37 @@
     <t xml:space="preserve">2.37913084030151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31922483444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48182725906372</t>
+    <t xml:space="preserve">2.31922459602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48182702064514</t>
   </si>
   <si>
     <t xml:space="preserve">2.5417332649231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50750112533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52461719512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49894332885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51605916023254</t>
+    <t xml:space="preserve">2.50750088691711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52461743354797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49894309043884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5160596370697</t>
   </si>
   <si>
     <t xml:space="preserve">2.55029129981995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5930814743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56740713119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61019706726074</t>
+    <t xml:space="preserve">2.59308099746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56740736961365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61019730567932</t>
   </si>
   <si>
     <t xml:space="preserve">2.68721961975098</t>
@@ -1391,25 +1388,25 @@
     <t xml:space="preserve">2.58452343940735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60163950920105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53317523002625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43903684616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49038529396057</t>
+    <t xml:space="preserve">2.60163974761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53317546844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43903708457947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49038505554199</t>
   </si>
   <si>
     <t xml:space="preserve">2.27643442153931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26787638664246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12239003181458</t>
+    <t xml:space="preserve">2.26787662506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12239027023315</t>
   </si>
   <si>
     <t xml:space="preserve">1.94267153739929</t>
@@ -1427,13 +1424,13 @@
     <t xml:space="preserve">1.62602460384369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78006887435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70732605457306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70304679870605</t>
+    <t xml:space="preserve">1.78006899356842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70732581615448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70304691791534</t>
   </si>
   <si>
     <t xml:space="preserve">1.68593084812164</t>
@@ -1445,22 +1442,22 @@
     <t xml:space="preserve">1.84853339195251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81430125236511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87420737743378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93411338329315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0796000957489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88276553153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86564934253693</t>
+    <t xml:space="preserve">1.81430113315582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87420725822449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93411362171173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07959985733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88276541233063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86564946174622</t>
   </si>
   <si>
     <t xml:space="preserve">1.89132344722748</t>
@@ -1469,37 +1466,37 @@
     <t xml:space="preserve">1.91699731349945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89988136291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85709130764008</t>
+    <t xml:space="preserve">1.89988160133362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85709142684937</t>
   </si>
   <si>
     <t xml:space="preserve">1.95978760719299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98546159267426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96834564208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97690343856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0282518863678</t>
+    <t xml:space="preserve">1.98546171188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96834540367126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9769035577774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02825164794922</t>
   </si>
   <si>
     <t xml:space="preserve">2.10527420043945</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16518044471741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25931835174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14806413650513</t>
+    <t xml:space="preserve">2.16518020629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25931859016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14806389808655</t>
   </si>
   <si>
     <t xml:space="preserve">2.15589737892151</t>
@@ -1508,22 +1505,22 @@
     <t xml:space="preserve">2.14709806442261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11189961433411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05910205841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05030226707458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02390384674072</t>
+    <t xml:space="preserve">2.11189937591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05910181999207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05030250549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02390360832214</t>
   </si>
   <si>
     <t xml:space="preserve">2.06790161132812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13829851150513</t>
+    <t xml:space="preserve">2.13829827308655</t>
   </si>
   <si>
     <t xml:space="preserve">2.10310006141663</t>
@@ -1535,16 +1532,16 @@
     <t xml:space="preserve">2.12069916725159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08550071716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07670116424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97110605239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95350706577301</t>
+    <t xml:space="preserve">2.08550095558167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07670092582703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97110629081726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9535071849823</t>
   </si>
   <si>
     <t xml:space="preserve">1.96230661869049</t>
@@ -1559,16 +1556,16 @@
     <t xml:space="preserve">2.16469717025757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20869517326355</t>
+    <t xml:space="preserve">2.20869469642639</t>
   </si>
   <si>
     <t xml:space="preserve">2.19989538192749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24389290809631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28789114952087</t>
+    <t xml:space="preserve">2.24389338493347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28789091110229</t>
   </si>
   <si>
     <t xml:space="preserve">2.31429004669189</t>
@@ -1589,7 +1586,7 @@
     <t xml:space="preserve">2.5166802406311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53427958488464</t>
+    <t xml:space="preserve">2.53427934646606</t>
   </si>
   <si>
     <t xml:space="preserve">2.56947779655457</t>
@@ -1604,37 +1601,37 @@
     <t xml:space="preserve">2.60467624664307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52548003196716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50788044929504</t>
+    <t xml:space="preserve">2.52547979354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50788068771362</t>
   </si>
   <si>
     <t xml:space="preserve">2.61347579956055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68387246131897</t>
+    <t xml:space="preserve">2.68387222290039</t>
   </si>
   <si>
     <t xml:space="preserve">2.66627311706543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63987421989441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67507266998291</t>
+    <t xml:space="preserve">2.63987445831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67507290840149</t>
   </si>
   <si>
     <t xml:space="preserve">2.65747356414795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64867424964905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63107466697693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62227535247803</t>
+    <t xml:space="preserve">2.64867401123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63107490539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62227511405945</t>
   </si>
   <si>
     <t xml:space="preserve">2.74546933174133</t>
@@ -1646,43 +1643,43 @@
     <t xml:space="preserve">2.76306867599487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80706667900085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79826712608337</t>
+    <t xml:space="preserve">2.80706644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79826664924622</t>
   </si>
   <si>
     <t xml:space="preserve">2.72787022590637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81586599349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83346509933472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8774631023407</t>
+    <t xml:space="preserve">2.81586623191833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8334653377533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87746286392212</t>
   </si>
   <si>
     <t xml:space="preserve">2.88626265525818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94785952568054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97425889968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9918577671051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01825642585754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9654586315155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91266179084778</t>
+    <t xml:space="preserve">2.9478600025177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97425842285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99185752868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01825666427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96545886993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9126615524292</t>
   </si>
   <si>
     <t xml:space="preserve">2.85986399650574</t>
@@ -1691,13 +1688,13 @@
     <t xml:space="preserve">2.84226489067078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85106468200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90386176109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89506220817566</t>
+    <t xml:space="preserve">2.85106444358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90386199951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89506196975708</t>
   </si>
   <si>
     <t xml:space="preserve">2.9566593170166</t>
@@ -1706,34 +1703,34 @@
     <t xml:space="preserve">2.93906021118164</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93026041984558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02705574035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12385153770447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15025019645691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07105398178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19424819946289</t>
+    <t xml:space="preserve">2.93026065826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0270562171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12385129928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15024995803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07105374336243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19424843788147</t>
   </si>
   <si>
     <t xml:space="preserve">3.20304775238037</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23824620246887</t>
+    <t xml:space="preserve">3.23824596405029</t>
   </si>
   <si>
     <t xml:space="preserve">3.29984307289124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26464486122131</t>
+    <t xml:space="preserve">3.26464462280273</t>
   </si>
   <si>
     <t xml:space="preserve">3.36144018173218</t>
@@ -1745,219 +1742,222 @@
     <t xml:space="preserve">3.35264039039612</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37023973464966</t>
+    <t xml:space="preserve">3.37023997306824</t>
   </si>
   <si>
     <t xml:space="preserve">3.33504128456116</t>
   </si>
   <si>
-    <t xml:space="preserve">3.405437707901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52863216400146</t>
+    <t xml:space="preserve">3.40543794631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52863240242004</t>
   </si>
   <si>
     <t xml:space="preserve">3.55503106117249</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49343395233154</t>
+    <t xml:space="preserve">3.49343371391296</t>
   </si>
   <si>
     <t xml:space="preserve">3.44063639640808</t>
   </si>
   <si>
+    <t xml:space="preserve">3.41423773765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39663815498352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43216037750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44112133979797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39631509780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47696661949158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46800518035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4948890209198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52177286148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57554030418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58450150489807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60242390632629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67411398887634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73684287071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72788119316101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79061055183411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74580359458923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85333919525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80853295326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92502903938293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95191264152527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83541679382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76372623443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78164911270142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8802227973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8981454372406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69203639030457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81749439239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70995903015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71892046928406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8443775177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65619158744812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68307542800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6203465461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53969526290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64723014831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82645511627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88918447494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79957151412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75476551055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01464176177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96983528137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00568056106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0594482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14906072616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10425424575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1400990486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98775792121887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91606783866882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90710687637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07737064361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03256368637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05048704147339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02360248565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96087431907654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11321544647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04152584075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08633184432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77268815040588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62930798530579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55761766433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54865646362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40527629852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37839269638062</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.41423749923706</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3966383934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43216013908386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44112133979797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39631509780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47696685791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46800518035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4948890209198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52177286148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57554030418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58450150489807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60242390632629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67411398887634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73684287071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72788119316101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79061055183411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74580383300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85333919525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80853271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92502903938293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95191264152527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83541679382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76372623443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78164887428284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8802227973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8981454372406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69203639030457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81749439239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70995903015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71892046928406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84437775611877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65619158744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68307542800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6203465461731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53969526290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64723038673401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82645535469055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88918447494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79957151412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7547652721405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01464176177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96983551979065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00568056106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05944871902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14906072616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1042537689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1400990486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98775768280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91606783866882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90710687637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07737064361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03256416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05048656463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02360248565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96087455749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11321544647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04152536392212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08633184432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77268815040588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62930798530579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55761766433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54865646362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40527629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37839269638062</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.36943125724792</t>
   </si>
   <si>
@@ -1982,25 +1982,25 @@
     <t xml:space="preserve">3.48592782020569</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33358645439148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3515088558197</t>
+    <t xml:space="preserve">3.33358669281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35150909423828</t>
   </si>
   <si>
     <t xml:space="preserve">3.27085757255554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23501253128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31566381454468</t>
+    <t xml:space="preserve">3.2350127696991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31566405296326</t>
   </si>
   <si>
     <t xml:space="preserve">3.26189637184143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.091632604599</t>
+    <t xml:space="preserve">3.09163236618042</t>
   </si>
   <si>
     <t xml:space="preserve">3.18124485015869</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">3.66515302658081</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70099759101868</t>
+    <t xml:space="preserve">3.70099782943726</t>
   </si>
   <si>
     <t xml:space="preserve">3.59346294403076</t>
@@ -25322,7 +25322,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G862" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25348,7 +25348,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G863" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25374,7 +25374,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G864" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25426,7 +25426,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G866" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25452,7 +25452,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G867" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25478,7 +25478,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G868" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25504,7 +25504,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G869" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25530,7 +25530,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G870" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25556,7 +25556,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G871" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25582,7 +25582,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G872" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25608,7 +25608,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G873" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25634,7 +25634,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G874" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25660,7 +25660,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G875" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25686,7 +25686,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G876" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25712,7 +25712,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G877" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25738,7 +25738,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G878" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25764,7 +25764,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G879" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25842,7 +25842,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G882" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25868,7 +25868,7 @@
         <v>2.5</v>
       </c>
       <c r="G883" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25894,7 +25894,7 @@
         <v>2.5</v>
       </c>
       <c r="G884" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25920,7 +25920,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G885" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25946,7 +25946,7 @@
         <v>2.5</v>
       </c>
       <c r="G886" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25972,7 +25972,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G887" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25998,7 +25998,7 @@
         <v>2.5</v>
       </c>
       <c r="G888" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26024,7 +26024,7 @@
         <v>2.5</v>
       </c>
       <c r="G889" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26050,7 +26050,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G890" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26076,7 +26076,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G891" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26102,7 +26102,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G892" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26128,7 +26128,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G893" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26154,7 +26154,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G894" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26180,7 +26180,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G895" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26206,7 +26206,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G896" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26232,7 +26232,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G897" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26258,7 +26258,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G898" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26284,7 +26284,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G899" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26310,7 +26310,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G900" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26336,7 +26336,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G901" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26362,7 +26362,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G902" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26388,7 +26388,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G903" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26414,7 +26414,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26440,7 +26440,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G905" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26466,7 +26466,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G906" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26492,7 +26492,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G907" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26518,7 +26518,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G908" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26544,7 +26544,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G909" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26570,7 +26570,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G910" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26596,7 +26596,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G911" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26622,7 +26622,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G912" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26648,7 +26648,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G913" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26674,7 +26674,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G914" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26700,7 +26700,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G915" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26726,7 +26726,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G916" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26752,7 +26752,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G917" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26778,7 +26778,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G918" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26804,7 +26804,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G919" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26830,7 +26830,7 @@
         <v>2.75</v>
       </c>
       <c r="G920" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26856,7 +26856,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G921" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26882,7 +26882,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G922" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26908,7 +26908,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G923" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26934,7 +26934,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G924" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26960,7 +26960,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G925" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26986,7 +26986,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G926" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27012,7 +27012,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G927" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27038,7 +27038,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G928" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27064,7 +27064,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G929" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27090,7 +27090,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G930" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27116,7 +27116,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G931" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27142,7 +27142,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G932" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27168,7 +27168,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G933" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27194,7 +27194,7 @@
         <v>2.75</v>
       </c>
       <c r="G934" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27220,7 +27220,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G935" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27246,7 +27246,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G936" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27272,7 +27272,7 @@
         <v>2.75</v>
       </c>
       <c r="G937" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27298,7 +27298,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G938" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27324,7 +27324,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G939" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27350,7 +27350,7 @@
         <v>2.75</v>
       </c>
       <c r="G940" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27376,7 +27376,7 @@
         <v>2.75</v>
       </c>
       <c r="G941" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27402,7 +27402,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G942" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27428,7 +27428,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G943" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27454,7 +27454,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G944" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27480,7 +27480,7 @@
         <v>2.75</v>
       </c>
       <c r="G945" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27506,7 +27506,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G946" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27532,7 +27532,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G947" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27558,7 +27558,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G948" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27584,7 +27584,7 @@
         <v>2.75</v>
       </c>
       <c r="G949" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27610,7 +27610,7 @@
         <v>2.75</v>
       </c>
       <c r="G950" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27636,7 +27636,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G951" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27662,7 +27662,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G952" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27688,7 +27688,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G953" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27714,7 +27714,7 @@
         <v>2.75</v>
       </c>
       <c r="G954" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27740,7 +27740,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G955" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27766,7 +27766,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G956" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27792,7 +27792,7 @@
         <v>2.75</v>
       </c>
       <c r="G957" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -27818,7 +27818,7 @@
         <v>2.75</v>
       </c>
       <c r="G958" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -27844,7 +27844,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G959" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27870,7 +27870,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G960" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -27896,7 +27896,7 @@
         <v>2.75</v>
       </c>
       <c r="G961" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27922,7 +27922,7 @@
         <v>2.75</v>
       </c>
       <c r="G962" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27948,7 +27948,7 @@
         <v>2.75</v>
       </c>
       <c r="G963" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -27974,7 +27974,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G964" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28000,7 +28000,7 @@
         <v>2.75</v>
       </c>
       <c r="G965" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28026,7 +28026,7 @@
         <v>2.75</v>
       </c>
       <c r="G966" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28052,7 +28052,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G967" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28078,7 +28078,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G968" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28104,7 +28104,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G969" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28130,7 +28130,7 @@
         <v>2.75</v>
       </c>
       <c r="G970" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28156,7 +28156,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G971" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28182,7 +28182,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G972" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28208,7 +28208,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G973" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28234,7 +28234,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G974" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28260,7 +28260,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G975" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28286,7 +28286,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G976" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28312,7 +28312,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G977" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28338,7 +28338,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G978" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28364,7 +28364,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G979" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28390,7 +28390,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G980" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28416,7 +28416,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G981" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28442,7 +28442,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G982" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28468,7 +28468,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G983" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28494,7 +28494,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G984" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28520,7 +28520,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G985" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28546,7 +28546,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G986" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28572,7 +28572,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G987" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28598,7 +28598,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G988" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28624,7 +28624,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G989" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28650,7 +28650,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G990" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28676,7 +28676,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G991" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28702,7 +28702,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G992" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28728,7 +28728,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G993" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28754,7 +28754,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G994" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28780,7 +28780,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G995" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28806,7 +28806,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G996" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28832,7 +28832,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G997" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28858,7 +28858,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G998" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28884,7 +28884,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G999" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28910,7 +28910,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1000" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -28936,7 +28936,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1001" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -28962,7 +28962,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1002" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -28988,7 +28988,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1003" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29014,7 +29014,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1004" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29040,7 +29040,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1005" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29066,7 +29066,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1006" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29092,7 +29092,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29118,7 +29118,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1008" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29144,7 +29144,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1009" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29170,7 +29170,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1010" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29196,7 +29196,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1011" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29222,7 +29222,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1012" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29248,7 +29248,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1013" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29274,7 +29274,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1014" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29300,7 +29300,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1015" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29326,7 +29326,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1016" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29352,7 +29352,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1017" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29378,7 +29378,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1018" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29404,7 +29404,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1019" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29430,7 +29430,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1020" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29456,7 +29456,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1021" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29482,7 +29482,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1022" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29508,7 +29508,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1023" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29534,7 +29534,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1024" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29560,7 +29560,7 @@
         <v>3</v>
       </c>
       <c r="G1025" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29586,7 +29586,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1026" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29612,7 +29612,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1027" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29638,7 +29638,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1028" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29664,7 +29664,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1029" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29690,7 +29690,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1030" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29716,7 +29716,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1031" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29742,7 +29742,7 @@
         <v>3</v>
       </c>
       <c r="G1032" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -29768,7 +29768,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1033" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29794,7 +29794,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1034" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29820,7 +29820,7 @@
         <v>3</v>
       </c>
       <c r="G1035" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29846,7 +29846,7 @@
         <v>3</v>
       </c>
       <c r="G1036" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -29872,7 +29872,7 @@
         <v>3</v>
       </c>
       <c r="G1037" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -29898,7 +29898,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1038" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -29924,7 +29924,7 @@
         <v>3</v>
       </c>
       <c r="G1039" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29950,7 +29950,7 @@
         <v>3</v>
       </c>
       <c r="G1040" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -29976,7 +29976,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30002,7 +30002,7 @@
         <v>3</v>
       </c>
       <c r="G1042" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30028,7 +30028,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1043" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30054,7 +30054,7 @@
         <v>3</v>
       </c>
       <c r="G1044" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30080,7 +30080,7 @@
         <v>3</v>
       </c>
       <c r="G1045" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30106,7 +30106,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1046" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30132,7 +30132,7 @@
         <v>3</v>
       </c>
       <c r="G1047" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30158,7 +30158,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1048" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30184,7 +30184,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1049" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30210,7 +30210,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1050" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30236,7 +30236,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1051" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30262,7 +30262,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1052" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30288,7 +30288,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1053" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30314,7 +30314,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1054" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30340,7 +30340,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1055" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30366,7 +30366,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1056" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30392,7 +30392,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1057" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30418,7 +30418,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1058" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30444,7 +30444,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G1059" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30470,7 +30470,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1060" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30496,7 +30496,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1061" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30522,7 +30522,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1062" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30548,7 +30548,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1063" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30574,7 +30574,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1064" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30600,7 +30600,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1065" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30626,7 +30626,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1066" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30652,7 +30652,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1067" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30678,7 +30678,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1068" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30704,7 +30704,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1069" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30730,7 +30730,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1070" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30756,7 +30756,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1071" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30782,7 +30782,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1072" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -30808,7 +30808,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1073" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30834,7 +30834,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1074" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -30860,7 +30860,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1075" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -30886,7 +30886,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1076" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30912,7 +30912,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1077" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30938,7 +30938,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1078" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -30964,7 +30964,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1079" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -30990,7 +30990,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1080" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31016,7 +31016,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1081" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31042,7 +31042,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1082" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31068,7 +31068,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1083" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31094,7 +31094,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1084" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31146,7 +31146,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1086" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31172,7 +31172,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1087" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31198,7 +31198,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1088" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31224,7 +31224,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1089" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31250,7 +31250,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1090" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31276,7 +31276,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1091" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31302,7 +31302,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1092" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31328,7 +31328,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1093" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31354,7 +31354,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1094" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31380,7 +31380,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1095" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31406,7 +31406,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1096" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31432,7 +31432,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1097" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31458,7 +31458,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1098" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31484,7 +31484,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1099" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31510,7 +31510,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1100" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31536,7 +31536,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1101" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31562,7 +31562,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1102" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31588,7 +31588,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1103" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31614,7 +31614,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1104" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31640,7 +31640,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1105" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31666,7 +31666,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1106" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31692,7 +31692,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1107" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31718,7 +31718,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1108" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31744,7 +31744,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31770,7 +31770,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1110" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31796,7 +31796,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1111" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31822,7 +31822,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1112" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31848,7 +31848,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1113" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31874,7 +31874,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1114" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -31900,7 +31900,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1115" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -31926,7 +31926,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1116" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -31952,7 +31952,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1117" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31978,7 +31978,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1118" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32004,7 +32004,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1119" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32030,7 +32030,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1120" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32056,7 +32056,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1121" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32082,7 +32082,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1122" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32160,7 +32160,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1125" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32186,7 +32186,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1126" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32238,7 +32238,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1128" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32264,7 +32264,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1129" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32290,7 +32290,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1130" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32342,7 +32342,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1132" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32368,7 +32368,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32394,7 +32394,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1134" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32420,7 +32420,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1135" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32446,7 +32446,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1136" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32472,7 +32472,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1137" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32498,7 +32498,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1138" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32524,7 +32524,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1139" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32550,7 +32550,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1140" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32576,7 +32576,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1141" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32602,7 +32602,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1142" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32628,7 +32628,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1143" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32654,7 +32654,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1144" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32680,7 +32680,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1145" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32706,7 +32706,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1146" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32732,7 +32732,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1147" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32758,7 +32758,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1148" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32784,7 +32784,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1149" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32810,7 +32810,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1150" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -32862,7 +32862,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1152" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -32940,7 +32940,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1155" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32992,7 +32992,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1157" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33018,7 +33018,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1158" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33044,7 +33044,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1159" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33070,7 +33070,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1160" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33096,7 +33096,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1161" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33122,7 +33122,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1162" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33148,7 +33148,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1163" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33174,7 +33174,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1164" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33200,7 +33200,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1165" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33226,7 +33226,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1166" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33252,7 +33252,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1167" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33278,7 +33278,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1168" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33304,7 +33304,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1169" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33330,7 +33330,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1170" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33356,7 +33356,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1171" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33382,7 +33382,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1172" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33408,7 +33408,7 @@
         <v>2.5</v>
       </c>
       <c r="G1173" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33434,7 +33434,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1174" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33460,7 +33460,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1175" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33486,7 +33486,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1176" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33512,7 +33512,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1177" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33538,7 +33538,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1178" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33564,7 +33564,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1179" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33590,7 +33590,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1180" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33616,7 +33616,7 @@
         <v>2.5</v>
       </c>
       <c r="G1181" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33642,7 +33642,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1182" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33668,7 +33668,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1183" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33694,7 +33694,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1184" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33720,7 +33720,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33772,7 +33772,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1187" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33798,7 +33798,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1188" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -33850,7 +33850,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1190" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -33876,7 +33876,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1191" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -33902,7 +33902,7 @@
         <v>2.5</v>
       </c>
       <c r="G1192" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -33928,7 +33928,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1193" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33954,7 +33954,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1194" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33980,7 +33980,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1195" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34006,7 +34006,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1196" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34032,7 +34032,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34058,7 +34058,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1198" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34084,7 +34084,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1199" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34110,7 +34110,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1200" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34136,7 +34136,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1201" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34162,7 +34162,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1202" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34188,7 +34188,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1203" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34214,7 +34214,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1204" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34240,7 +34240,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1205" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34266,7 +34266,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1206" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34292,7 +34292,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1207" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34318,7 +34318,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1208" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34344,7 +34344,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1209" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34370,7 +34370,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1210" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34396,7 +34396,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1211" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34422,7 +34422,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1212" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34448,7 +34448,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1213" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34474,7 +34474,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1214" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34500,7 +34500,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1215" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34526,7 +34526,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1216" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34552,7 +34552,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1217" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34578,7 +34578,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1218" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34604,7 +34604,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1219" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34630,7 +34630,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1220" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34656,7 +34656,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1221" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34682,7 +34682,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1222" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34708,7 +34708,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1223" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34734,7 +34734,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1224" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34760,7 +34760,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1225" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34786,7 +34786,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1226" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34812,7 +34812,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1227" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -34838,7 +34838,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1228" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -34864,7 +34864,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1229" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -34890,7 +34890,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1230" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -34916,7 +34916,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1231" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -34942,7 +34942,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1232" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34968,7 +34968,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1233" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34994,7 +34994,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1234" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35020,7 +35020,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1235" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35046,7 +35046,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1236" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35072,7 +35072,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1237" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35098,7 +35098,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1238" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35124,7 +35124,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1239" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35150,7 +35150,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1240" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35176,7 +35176,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1241" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35202,7 +35202,7 @@
         <v>2.5</v>
       </c>
       <c r="G1242" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35228,7 +35228,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1243" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35254,7 +35254,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1244" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35280,7 +35280,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1245" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35306,7 +35306,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1246" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35332,7 +35332,7 @@
         <v>2.75</v>
       </c>
       <c r="G1247" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35358,7 +35358,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G1248" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35384,7 +35384,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1249" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35410,7 +35410,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1250" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35436,7 +35436,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1251" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35462,7 +35462,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1252" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35488,7 +35488,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1253" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35514,7 +35514,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1254" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35540,7 +35540,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1255" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35566,7 +35566,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1256" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35592,7 +35592,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1257" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35618,7 +35618,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1258" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35644,7 +35644,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1259" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35670,7 +35670,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1260" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35696,7 +35696,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1261" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35722,7 +35722,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1262" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35748,7 +35748,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1263" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35774,7 +35774,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1264" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35800,7 +35800,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1265" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35826,7 +35826,7 @@
         <v>3</v>
       </c>
       <c r="G1266" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -35852,7 +35852,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1267" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -35878,7 +35878,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1268" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -35904,7 +35904,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1269" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -35930,7 +35930,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1270" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -35956,7 +35956,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1271" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35982,7 +35982,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1272" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36008,7 +36008,7 @@
         <v>3</v>
       </c>
       <c r="G1273" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36034,7 +36034,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1274" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36060,7 +36060,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1275" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36086,7 +36086,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1276" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36112,7 +36112,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1277" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36138,7 +36138,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1278" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36164,7 +36164,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1279" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36190,7 +36190,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1280" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36216,7 +36216,7 @@
         <v>3</v>
       </c>
       <c r="G1281" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36242,7 +36242,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1282" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36268,7 +36268,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1283" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36294,7 +36294,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1284" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36320,7 +36320,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1285" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36346,7 +36346,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1286" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36372,7 +36372,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1287" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36398,7 +36398,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1288" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36424,7 +36424,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1289" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36450,7 +36450,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1290" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36476,7 +36476,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1291" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36502,7 +36502,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1292" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36528,7 +36528,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1293" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36554,7 +36554,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1294" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36580,7 +36580,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1295" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36606,7 +36606,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1296" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36632,7 +36632,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1297" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36658,7 +36658,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1298" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -36684,7 +36684,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1299" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36710,7 +36710,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1300" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -36736,7 +36736,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1301" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36762,7 +36762,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1302" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36788,7 +36788,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1303" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36814,7 +36814,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1304" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36840,7 +36840,7 @@
         <v>3.25</v>
       </c>
       <c r="G1305" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36866,7 +36866,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1306" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36892,7 +36892,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1307" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36918,7 +36918,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1308" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36944,7 +36944,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1309" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36970,7 +36970,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1310" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36996,7 +36996,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1311" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37022,7 +37022,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1312" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37048,7 +37048,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1313" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37074,7 +37074,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1314" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37100,7 +37100,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1315" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37126,7 +37126,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1316" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37152,7 +37152,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1317" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37178,7 +37178,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1318" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37204,7 +37204,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1319" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37230,7 +37230,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1320" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37256,7 +37256,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1321" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37282,7 +37282,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1322" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37308,7 +37308,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1323" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37334,7 +37334,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1324" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37360,7 +37360,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1325" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37386,7 +37386,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1326" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37412,7 +37412,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1327" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37438,7 +37438,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1328" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37464,7 +37464,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1329" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37490,7 +37490,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1330" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37516,7 +37516,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1331" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37542,7 +37542,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1332" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37568,7 +37568,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1333" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37594,7 +37594,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1334" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37620,7 +37620,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1335" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37646,7 +37646,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1336" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37672,7 +37672,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1337" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -37698,7 +37698,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1338" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -37724,7 +37724,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1339" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -37750,7 +37750,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1340" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -37776,7 +37776,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1341" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37802,7 +37802,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1342" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37828,7 +37828,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1343" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37854,7 +37854,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1344" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37880,7 +37880,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1345" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37906,7 +37906,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1346" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37932,7 +37932,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1347" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37958,7 +37958,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1348" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -37984,7 +37984,7 @@
         <v>3.75</v>
       </c>
       <c r="G1349" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38010,7 +38010,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1350" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38036,7 +38036,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1351" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38062,7 +38062,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1352" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38088,7 +38088,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1353" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38114,7 +38114,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1354" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38140,7 +38140,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38166,7 +38166,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1356" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38192,7 +38192,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1357" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38218,7 +38218,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1358" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38244,7 +38244,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1359" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38270,7 +38270,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1360" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38296,7 +38296,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1361" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38322,7 +38322,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1362" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38348,7 +38348,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1363" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38374,7 +38374,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1364" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38400,7 +38400,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1365" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38426,7 +38426,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1366" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38452,7 +38452,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1367" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38478,7 +38478,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1368" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38504,7 +38504,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1369" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38530,7 +38530,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1370" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38556,7 +38556,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1371" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38582,7 +38582,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1372" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38608,7 +38608,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1373" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -38634,7 +38634,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1374" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -38660,7 +38660,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1375" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -38686,7 +38686,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1376" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -38712,7 +38712,7 @@
         <v>4</v>
       </c>
       <c r="G1377" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -38738,7 +38738,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1378" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -38764,7 +38764,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1379" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -38790,7 +38790,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1380" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38816,7 +38816,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1381" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38842,7 +38842,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1382" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38868,7 +38868,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1383" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38894,7 +38894,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1384" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38920,7 +38920,7 @@
         <v>4.25</v>
       </c>
       <c r="G1385" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38946,7 +38946,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G1386" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38972,7 +38972,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1387" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38998,7 +38998,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G1388" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39024,7 +39024,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1389" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39050,7 +39050,7 @@
         <v>4.25</v>
       </c>
       <c r="G1390" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39076,7 +39076,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1391" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39102,7 +39102,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1392" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39128,7 +39128,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1393" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39154,7 +39154,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1394" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39180,7 +39180,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1395" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39206,7 +39206,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1396" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39232,7 +39232,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1397" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39258,7 +39258,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1398" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39284,7 +39284,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1399" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39310,7 +39310,7 @@
         <v>4.25</v>
       </c>
       <c r="G1400" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39336,7 +39336,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1401" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39362,7 +39362,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1402" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39388,7 +39388,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1403" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39414,7 +39414,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1404" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39440,7 +39440,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1405" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39466,7 +39466,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1406" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39492,7 +39492,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1407" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39518,7 +39518,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1408" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39544,7 +39544,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1409" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39570,7 +39570,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1410" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39596,7 +39596,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1411" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39622,7 +39622,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1412" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39648,7 +39648,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1413" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39674,7 +39674,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1414" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39700,7 +39700,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1415" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39726,7 +39726,7 @@
         <v>4.25</v>
       </c>
       <c r="G1416" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39752,7 +39752,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1417" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39778,7 +39778,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1418" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39804,7 +39804,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G1419" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39830,7 +39830,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1420" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39856,7 +39856,7 @@
         <v>4.25</v>
       </c>
       <c r="G1421" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39882,7 +39882,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1422" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39908,7 +39908,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1423" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39934,7 +39934,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1424" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39960,7 +39960,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1425" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39986,7 +39986,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1426" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40012,7 +40012,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G1427" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40038,7 +40038,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1428" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40064,7 +40064,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1429" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40090,7 +40090,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1430" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40116,7 +40116,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1431" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40142,7 +40142,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1432" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40168,7 +40168,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1433" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40194,7 +40194,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1434" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40220,7 +40220,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1435" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40246,7 +40246,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1436" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40272,7 +40272,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1437" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40298,7 +40298,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1438" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40324,7 +40324,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1439" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40350,7 +40350,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1440" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40376,7 +40376,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1441" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40402,7 +40402,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1442" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40428,7 +40428,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G1443" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40454,7 +40454,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G1444" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40480,7 +40480,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1445" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40506,7 +40506,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1446" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40532,7 +40532,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1447" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40558,7 +40558,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1448" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40584,7 +40584,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1449" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40610,7 +40610,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1450" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40636,7 +40636,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1451" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40662,7 +40662,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1452" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40688,7 +40688,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G1453" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40714,7 +40714,7 @@
         <v>4.25</v>
       </c>
       <c r="G1454" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -40740,7 +40740,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G1455" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40766,7 +40766,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1456" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40792,7 +40792,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1457" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40818,7 +40818,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1458" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40844,7 +40844,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1459" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40870,7 +40870,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1460" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40896,7 +40896,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1461" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40922,7 +40922,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1462" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40948,7 +40948,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1463" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40974,7 +40974,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1464" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41000,7 +41000,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1465" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41026,7 +41026,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1466" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41052,7 +41052,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1467" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41078,7 +41078,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1468" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41104,7 +41104,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1469" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41130,7 +41130,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1470" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41156,7 +41156,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1471" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41182,7 +41182,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G1472" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41208,7 +41208,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1473" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41234,7 +41234,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G1474" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41260,7 +41260,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G1475" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41286,7 +41286,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1476" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41312,7 +41312,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1477" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41338,7 +41338,7 @@
         <v>4.5</v>
       </c>
       <c r="G1478" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41364,7 +41364,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1479" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41390,7 +41390,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1480" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41416,7 +41416,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1481" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41442,7 +41442,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1482" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41468,7 +41468,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1483" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41494,7 +41494,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1484" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41520,7 +41520,7 @@
         <v>4.5</v>
       </c>
       <c r="G1485" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41546,7 +41546,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1486" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41572,7 +41572,7 @@
         <v>4.5</v>
       </c>
       <c r="G1487" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41598,7 +41598,7 @@
         <v>4.5</v>
       </c>
       <c r="G1488" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41624,7 +41624,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G1489" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41650,7 +41650,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1490" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -41676,7 +41676,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G1491" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41702,7 +41702,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G1492" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41728,7 +41728,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1493" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41754,7 +41754,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1494" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41780,7 +41780,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1495" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41806,7 +41806,7 @@
         <v>4.5</v>
       </c>
       <c r="G1496" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41832,7 +41832,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1497" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41858,7 +41858,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1498" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41884,7 +41884,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1499" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41910,7 +41910,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1500" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41936,7 +41936,7 @@
         <v>4.25</v>
       </c>
       <c r="G1501" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41962,7 +41962,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1502" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41988,7 +41988,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1503" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42014,7 +42014,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1504" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42040,7 +42040,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1505" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42066,7 +42066,7 @@
         <v>4.25</v>
       </c>
       <c r="G1506" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42092,7 +42092,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1507" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42118,7 +42118,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1508" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42144,7 +42144,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1509" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42170,7 +42170,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1510" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42196,7 +42196,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1511" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42222,7 +42222,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1512" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42248,7 +42248,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1513" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42274,7 +42274,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1514" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42300,7 +42300,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1515" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42326,7 +42326,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1516" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42352,7 +42352,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1517" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42378,7 +42378,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1518" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42404,7 +42404,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1519" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42430,7 +42430,7 @@
         <v>4</v>
       </c>
       <c r="G1520" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42456,7 +42456,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1521" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42482,7 +42482,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1522" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42508,7 +42508,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1523" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42534,7 +42534,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1524" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42560,7 +42560,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1525" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42586,7 +42586,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1526" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42612,7 +42612,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1527" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42638,7 +42638,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1528" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42664,7 +42664,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1529" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42690,7 +42690,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1530" t="s">
-        <v>584</v>
+        <v>647</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42716,7 +42716,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1531" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42794,7 +42794,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1534" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42820,7 +42820,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1535" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42846,7 +42846,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1536" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42872,7 +42872,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1537" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42950,7 +42950,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1540" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42976,7 +42976,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1541" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43002,7 +43002,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1542" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43054,7 +43054,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1544" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43080,7 +43080,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1545" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43132,7 +43132,7 @@
         <v>4</v>
       </c>
       <c r="G1547" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43184,7 +43184,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1549" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43262,7 +43262,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1552" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43288,7 +43288,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1553" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43314,7 +43314,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1554" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43340,7 +43340,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1555" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43366,7 +43366,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1556" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43392,7 +43392,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1557" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43418,7 +43418,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1558" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43496,7 +43496,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1561" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43522,7 +43522,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1562" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43834,7 +43834,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1574" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43886,7 +43886,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1576" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43912,7 +43912,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1577" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43938,7 +43938,7 @@
         <v>4</v>
       </c>
       <c r="G1578" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43964,7 +43964,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1579" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43990,7 +43990,7 @@
         <v>4</v>
       </c>
       <c r="G1580" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44016,7 +44016,7 @@
         <v>4</v>
       </c>
       <c r="G1581" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44042,7 +44042,7 @@
         <v>4</v>
       </c>
       <c r="G1582" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -44068,7 +44068,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1583" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44094,7 +44094,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1584" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44172,7 +44172,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1587" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44250,7 +44250,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1590" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44276,7 +44276,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1591" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44302,7 +44302,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1592" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44328,7 +44328,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1593" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44406,7 +44406,7 @@
         <v>4</v>
       </c>
       <c r="G1596" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44432,7 +44432,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1597" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44458,7 +44458,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1598" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44536,7 +44536,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1601" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44562,7 +44562,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1602" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44614,7 +44614,7 @@
         <v>4</v>
       </c>
       <c r="G1604" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44666,7 +44666,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1606" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44692,7 +44692,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1607" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44744,7 +44744,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1609" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44770,7 +44770,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1610" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44796,7 +44796,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1611" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44822,7 +44822,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1612" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44848,7 +44848,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1613" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44900,7 +44900,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1615" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44926,7 +44926,7 @@
         <v>4</v>
       </c>
       <c r="G1616" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44978,7 +44978,7 @@
         <v>4</v>
       </c>
       <c r="G1618" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45004,7 +45004,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1619" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45030,7 +45030,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1620" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45056,7 +45056,7 @@
         <v>4</v>
       </c>
       <c r="G1621" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45082,7 +45082,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1622" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45108,7 +45108,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1623" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45134,7 +45134,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1624" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -59052,7 +59052,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6495833333</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>3349</v>
@@ -59064,7 +59064,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="E2160" t="n">
-        <v>5.76000022888184</v>
+        <v>5.80000019073486</v>
       </c>
       <c r="F2160" t="n">
         <v>5.80000019073486</v>
@@ -59073,6 +59073,32 @@
         <v>854</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6494444444</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>5819</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>5.80000019073486</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>5.65999984741211</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>5.76000022888184</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>5.67999982833862</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>848</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CALT.MI.xlsx
+++ b/data/CALT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,73 +38,73 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8017326593399</t>
+    <t xml:space="preserve">1.80173254013062</t>
   </si>
   <si>
     <t xml:space="preserve">CALT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80949902534485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77843451499939</t>
+    <t xml:space="preserve">1.80949878692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77843463420868</t>
   </si>
   <si>
     <t xml:space="preserve">1.72407197952271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73494446277618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71164631843567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70077347755432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63243222236633</t>
+    <t xml:space="preserve">1.73494434356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71164608001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70077359676361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63243210315704</t>
   </si>
   <si>
     <t xml:space="preserve">1.55244123935699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53613257408142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53768587112427</t>
+    <t xml:space="preserve">1.53613269329071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53768575191498</t>
   </si>
   <si>
     <t xml:space="preserve">1.49031269550323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49885535240173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47555696964264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47322702407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46779096126556</t>
+    <t xml:space="preserve">1.49885523319244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47555720806122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47322726249695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46779084205627</t>
   </si>
   <si>
     <t xml:space="preserve">1.47245061397552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46002495288849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43439662456512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43672668933868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45070540904999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40799188613892</t>
+    <t xml:space="preserve">1.4600248336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4343968629837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4367264509201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45070564746857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4079921245575</t>
   </si>
   <si>
     <t xml:space="preserve">1.38624691963196</t>
@@ -116,100 +116,100 @@
     <t xml:space="preserve">1.39323651790619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43595004081726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40566229820251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43284344673157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42119431495667</t>
+    <t xml:space="preserve">1.43594992160797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40566217899323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43284368515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42119443416595</t>
   </si>
   <si>
     <t xml:space="preserve">1.43051373958588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48487627506256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46313118934631</t>
+    <t xml:space="preserve">1.48487639427185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4631313085556</t>
   </si>
   <si>
     <t xml:space="preserve">1.49963188171387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51749396324158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56875002384186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58272922039032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57962262630463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60292088985443</t>
+    <t xml:space="preserve">1.51749384403229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56874990463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58272910118103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57962274551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60292077064514</t>
   </si>
   <si>
     <t xml:space="preserve">1.59981441497803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60758066177368</t>
+    <t xml:space="preserve">1.60758054256439</t>
   </si>
   <si>
     <t xml:space="preserve">1.62155961990356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66039025783539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66970944404602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69300746917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68524158000946</t>
+    <t xml:space="preserve">1.66038990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66970932483673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69300770759583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68524146080017</t>
   </si>
   <si>
     <t xml:space="preserve">1.69145441055298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6774754524231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71630585193634</t>
+    <t xml:space="preserve">1.67747557163239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71630597114563</t>
   </si>
   <si>
     <t xml:space="preserve">1.70543336868286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64641106128693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64796423912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69611406326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72251868247986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73183798789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75047671794891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75513637065887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75668942928314</t>
+    <t xml:space="preserve">1.64641094207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6479640007019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69611394405365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72251880168915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73183810710907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75047659873962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75513625144958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75668931007385</t>
   </si>
   <si>
     <t xml:space="preserve">1.78620064258575</t>
@@ -218,25 +218,25 @@
     <t xml:space="preserve">1.80017971992493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76756203174591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77066838741302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76290249824524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73960399627686</t>
+    <t xml:space="preserve">1.7675621509552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77066850662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76290225982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73960423469543</t>
   </si>
   <si>
     <t xml:space="preserve">1.74737012386322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73028457164764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74581694602966</t>
+    <t xml:space="preserve">1.73028481006622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74581682682037</t>
   </si>
   <si>
     <t xml:space="preserve">1.7038801908493</t>
@@ -245,85 +245,85 @@
     <t xml:space="preserve">1.70853972434998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73805093765259</t>
+    <t xml:space="preserve">1.7380508184433</t>
   </si>
   <si>
     <t xml:space="preserve">1.76347029209137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74758327007294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75552666187286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78571236133575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76982498168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75870394706726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77935719490051</t>
+    <t xml:space="preserve">1.74758315086365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75552678108215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78571200370789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76982510089874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75870418548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77935755252838</t>
   </si>
   <si>
     <t xml:space="preserve">1.78730082511902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71580898761749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7348735332489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73169589042664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71422004699707</t>
+    <t xml:space="preserve">1.71580910682678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73487341403961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73169612884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71422016620636</t>
   </si>
   <si>
     <t xml:space="preserve">1.66655886173248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62048602104187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61254262924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57917940616608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58871185779572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65067195892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5863288640976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60936522483826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59665548801422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54899418354034</t>
+    <t xml:space="preserve">1.62048614025116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61254251003265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57917976379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.588711977005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65067172050476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58632898330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60936534404755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59665560722351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54899406433105</t>
   </si>
   <si>
     <t xml:space="preserve">1.53151822090149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57997405529022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52516353130341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53310704231262</t>
+    <t xml:space="preserve">1.57997393608093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52516329288483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53310692310333</t>
   </si>
   <si>
     <t xml:space="preserve">1.57282495498657</t>
@@ -332,52 +332,52 @@
     <t xml:space="preserve">1.55693769454956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66814744472504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65702641010284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62842977046967</t>
+    <t xml:space="preserve">1.66814756393433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65702664852142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62842965126038</t>
   </si>
   <si>
     <t xml:space="preserve">1.68403458595276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73010730743408</t>
+    <t xml:space="preserve">1.73010742664337</t>
   </si>
   <si>
     <t xml:space="preserve">1.72375249862671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73963940143585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67609119415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63637316226959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64431691169739</t>
+    <t xml:space="preserve">1.73963952064514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67609095573425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63637328147888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6443167924881</t>
   </si>
   <si>
     <t xml:space="preserve">1.69992184638977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69515573978424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63478469848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60459899902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62684094905853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6030101776123</t>
+    <t xml:space="preserve">1.69515597820282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63478457927704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60459887981415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62684118747711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60301029682159</t>
   </si>
   <si>
     <t xml:space="preserve">1.5807683467865</t>
@@ -386,10 +386,10 @@
     <t xml:space="preserve">1.59983289241791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6411395072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61730885505676</t>
+    <t xml:space="preserve">1.64113938808441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61730873584747</t>
   </si>
   <si>
     <t xml:space="preserve">1.63955068588257</t>
@@ -398,34 +398,34 @@
     <t xml:space="preserve">1.61095404624939</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58791744709015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57679653167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56249833106995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56329238414764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5918892621994</t>
+    <t xml:space="preserve">1.58791756629944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57679665088654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56249821186066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56329262256622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59188938140869</t>
   </si>
   <si>
     <t xml:space="preserve">1.62525236606598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6331958770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64272809028625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65226054191589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55852651596069</t>
+    <t xml:space="preserve">1.63319575786591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64272820949554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6522604227066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5585263967514</t>
   </si>
   <si>
     <t xml:space="preserve">1.56488132476807</t>
@@ -434,121 +434,121 @@
     <t xml:space="preserve">1.53072392940521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55296587944031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56408703327179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58712303638458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66020405292511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64749419689178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62366342544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.622074842453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63160693645477</t>
+    <t xml:space="preserve">1.5529659986496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5640869140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58712315559387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66020393371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6474940776825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62366330623627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62207472324371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63160729408264</t>
   </si>
   <si>
     <t xml:space="preserve">1.65861535072327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65384912490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66496992111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70945405960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70786547660828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74599456787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69197821617126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69833326339722</t>
+    <t xml:space="preserve">1.65384900569916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66497004032135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70945394039154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70786535739899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7459944486618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69197833538055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69833302497864</t>
   </si>
   <si>
     <t xml:space="preserve">1.70627665519714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6935670375824</t>
+    <t xml:space="preserve">1.69356691837311</t>
   </si>
   <si>
     <t xml:space="preserve">1.72534120082855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72851884365082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7984219789505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7952446937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81113147735596</t>
+    <t xml:space="preserve">1.72851872444153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79842174053192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79524445533752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81113171577454</t>
   </si>
   <si>
     <t xml:space="preserve">1.81589770317078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7714136838913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7682363986969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80318832397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82543015480042</t>
+    <t xml:space="preserve">1.77141404151917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76823651790619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80318796634674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82543003559113</t>
   </si>
   <si>
     <t xml:space="preserve">1.82701873779297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85084939002991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83496236801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81907498836517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80001080036163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80159914493561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85879278182983</t>
+    <t xml:space="preserve">1.85084927082062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83496224880219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81907522678375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80001068115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8015992641449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85879302024841</t>
   </si>
   <si>
     <t xml:space="preserve">1.86991405487061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8889787197113</t>
+    <t xml:space="preserve">1.88897860050201</t>
   </si>
   <si>
     <t xml:space="preserve">1.88580083847046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87468004226685</t>
+    <t xml:space="preserve">1.87467992305756</t>
   </si>
   <si>
     <t xml:space="preserve">1.89374458789825</t>
@@ -557,19 +557,19 @@
     <t xml:space="preserve">1.88262367248535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92869603633881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9477607011795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92392992973328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9255188703537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92075276374817</t>
+    <t xml:space="preserve">1.92869591712952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94776093959808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92393016815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92551863193512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92075288295746</t>
   </si>
   <si>
     <t xml:space="preserve">1.9366397857666</t>
@@ -581,106 +581,106 @@
     <t xml:space="preserve">1.9334625005722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92234146595001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90645456314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9143979549408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89215576648712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90963196754456</t>
+    <t xml:space="preserve">1.9223415851593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90645432472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439783573151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8921560049057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90963208675385</t>
   </si>
   <si>
     <t xml:space="preserve">1.91757547855377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93822860717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02242994308472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97953498363495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99383354187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00177693367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99701058864594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03990578651428</t>
+    <t xml:space="preserve">1.93822836875916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02243041992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97953522205353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99383342266083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00177717208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9970109462738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03990602493286</t>
   </si>
   <si>
     <t xml:space="preserve">2.06373691558838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07326912879944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08438992500305</t>
+    <t xml:space="preserve">2.07326889038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08439016342163</t>
   </si>
   <si>
     <t xml:space="preserve">2.0828013420105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08756732940674</t>
+    <t xml:space="preserve">2.08756709098816</t>
   </si>
   <si>
     <t xml:space="preserve">2.06532526016235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07803511619568</t>
+    <t xml:space="preserve">2.07803535461426</t>
   </si>
   <si>
     <t xml:space="preserve">2.08121252059937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1706395149231</t>
+    <t xml:space="preserve">2.17063999176025</t>
   </si>
   <si>
     <t xml:space="preserve">2.1690137386322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19340300559998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16251015663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19502902030945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2519371509552</t>
+    <t xml:space="preserve">2.1934027671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16250991821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19502878189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25193691253662</t>
   </si>
   <si>
     <t xml:space="preserve">2.22754788398743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23079991340637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2064106464386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.243807554245</t>
+    <t xml:space="preserve">2.23079967498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20641040802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24380707740784</t>
   </si>
   <si>
     <t xml:space="preserve">2.23242592811584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21941804885864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24218153953552</t>
+    <t xml:space="preserve">2.21941828727722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24218130111694</t>
   </si>
   <si>
     <t xml:space="preserve">2.12348699569702</t>
@@ -689,22 +689,22 @@
     <t xml:space="preserve">2.12999081611633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11373162269592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12511324882507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12186121940613</t>
+    <t xml:space="preserve">2.11373138427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12511348724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12186145782471</t>
   </si>
   <si>
     <t xml:space="preserve">2.14299845695496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1381208896637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18689918518066</t>
+    <t xml:space="preserve">2.13812065124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18689942359924</t>
   </si>
   <si>
     <t xml:space="preserve">2.19665503501892</t>
@@ -716,22 +716,22 @@
     <t xml:space="preserve">2.21128845214844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2649450302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27632617950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28933382034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28608179092407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27470064163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29095983505249</t>
+    <t xml:space="preserve">2.26494455337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27632641792297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2893340587616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28608202934265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2747004032135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29096007347107</t>
   </si>
   <si>
     <t xml:space="preserve">2.24543333053589</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">2.24055552482605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21616649627686</t>
+    <t xml:space="preserve">2.21616625785828</t>
   </si>
   <si>
     <t xml:space="preserve">2.17551779747009</t>
@@ -752,40 +752,40 @@
     <t xml:space="preserve">2.10234975814819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04219031333923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07308292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15438008308411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13161706924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1836473941803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14462494850159</t>
+    <t xml:space="preserve">2.04218983650208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07308268547058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15438055992126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13161683082581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18364715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14462447166443</t>
   </si>
   <si>
     <t xml:space="preserve">2.11210584640503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12673878669739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15763211250305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14625072479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15600633621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32510447502136</t>
+    <t xml:space="preserve">2.12673950195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15763235092163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1462504863739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15600609779358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32510471343994</t>
   </si>
   <si>
     <t xml:space="preserve">2.30721926689148</t>
@@ -794,58 +794,58 @@
     <t xml:space="preserve">2.29421162605286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31697511672974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32185244560242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40640187263489</t>
+    <t xml:space="preserve">2.31697463989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32185292243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40640258789062</t>
   </si>
   <si>
     <t xml:space="preserve">2.40152454376221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41453170776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4129056930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47956991195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47631812095642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53647780418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5689971446991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5787525177002</t>
+    <t xml:space="preserve">2.41453194618225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41290616989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47956967353821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47631788253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53647756576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56899690628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57875227928162</t>
   </si>
   <si>
     <t xml:space="preserve">2.58363032341003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61614918708801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60151600837708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63403487205505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62590479850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58525681495667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59826397895813</t>
+    <t xml:space="preserve">2.61614942550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6015157699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63403463363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62590503692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58525609970093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59826445579529</t>
   </si>
   <si>
     <t xml:space="preserve">2.59338617324829</t>
@@ -854,13 +854,13 @@
     <t xml:space="preserve">2.61777544021606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62753105163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60639357566833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60314154624939</t>
+    <t xml:space="preserve">2.62753081321716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60639381408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60314178466797</t>
   </si>
   <si>
     <t xml:space="preserve">2.60801959037781</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">2.59176015853882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59013438224792</t>
+    <t xml:space="preserve">2.59013414382935</t>
   </si>
   <si>
     <t xml:space="preserve">2.62102723121643</t>
@@ -878,10 +878,10 @@
     <t xml:space="preserve">2.64216446876526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64704203605652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.632408618927</t>
+    <t xml:space="preserve">2.64704251289368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63240885734558</t>
   </si>
   <si>
     <t xml:space="preserve">2.65029430389404</t>
@@ -890,10 +890,10 @@
     <t xml:space="preserve">2.70395040512085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80963706970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81288909912109</t>
+    <t xml:space="preserve">2.80963683128357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81288933753967</t>
   </si>
   <si>
     <t xml:space="preserve">2.82427048683167</t>
@@ -902,16 +902,16 @@
     <t xml:space="preserve">2.7966296672821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80475902557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7738664150238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76411080360413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71533179283142</t>
+    <t xml:space="preserve">2.80475950241089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77386593818665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76411056518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71533203125</t>
   </si>
   <si>
     <t xml:space="preserve">2.69744682312012</t>
@@ -929,85 +929,85 @@
     <t xml:space="preserve">2.66655349731445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65842437744141</t>
+    <t xml:space="preserve">2.65842390060425</t>
   </si>
   <si>
     <t xml:space="preserve">2.63728666305542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61452317237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6242790222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61940097808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55273771286011</t>
+    <t xml:space="preserve">2.61452341079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62427878379822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61940121650696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55273747444153</t>
   </si>
   <si>
     <t xml:space="preserve">2.5641188621521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57550096511841</t>
+    <t xml:space="preserve">2.57550072669983</t>
   </si>
   <si>
     <t xml:space="preserve">2.52509641647339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4860737323761</t>
+    <t xml:space="preserve">2.48607349395752</t>
   </si>
   <si>
     <t xml:space="preserve">2.40802788734436</t>
   </si>
   <si>
-    <t xml:space="preserve">2.388516664505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34461617469788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36250138282776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37388300895691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43729519844055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45355486869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43892121315002</t>
+    <t xml:space="preserve">2.38851642608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3446159362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36250162124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37388324737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43729496002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45355463027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43892097473145</t>
   </si>
   <si>
     <t xml:space="preserve">2.44705080986023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50395894050598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52834796905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72346186637878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73159122467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56086683273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45518040657043</t>
+    <t xml:space="preserve">2.50395917892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52834820747375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72346162796021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73159146308899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56086754798889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45518088340759</t>
   </si>
   <si>
     <t xml:space="preserve">2.47143983840942</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48769950866699</t>
+    <t xml:space="preserve">2.48769927024841</t>
   </si>
   <si>
     <t xml:space="preserve">2.54460763931274</t>
@@ -1022,64 +1022,64 @@
     <t xml:space="preserve">2.52021837234497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3332347869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3901424407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34136438369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3576238155365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36575317382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34949421882629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30884528160095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20334339141846</t>
+    <t xml:space="preserve">2.33323431015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39014267921448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34136462211609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35762357711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3657534122467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34949398040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30884504318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20334386825562</t>
   </si>
   <si>
     <t xml:space="preserve">2.17839980125427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16177105903625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17008543014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09525513648987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07862591743469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14514207839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26985931396484</t>
+    <t xml:space="preserve">2.16177082061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17008566856384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09525489807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07862567901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14514183998108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26985955238342</t>
   </si>
   <si>
     <t xml:space="preserve">2.37794780731201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21997237205505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24491620063782</t>
+    <t xml:space="preserve">2.21997261047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24491596221924</t>
   </si>
   <si>
     <t xml:space="preserve">2.22828674316406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28648853302002</t>
+    <t xml:space="preserve">2.28648829460144</t>
   </si>
   <si>
     <t xml:space="preserve">2.21165800094604</t>
@@ -1088,73 +1088,73 @@
     <t xml:space="preserve">2.25323033332825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27817368507385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26154494285583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18671441078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13682746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15345621109009</t>
+    <t xml:space="preserve">2.27817392349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26154518127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18671417236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13682723045349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15345644950867</t>
   </si>
   <si>
     <t xml:space="preserve">2.11188387870789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12851309776306</t>
+    <t xml:space="preserve">2.12851285934448</t>
   </si>
   <si>
     <t xml:space="preserve">2.36131882667542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35300445556641</t>
+    <t xml:space="preserve">2.35300469398499</t>
   </si>
   <si>
     <t xml:space="preserve">2.30311727523804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29480314254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32806086540222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31974649429321</t>
+    <t xml:space="preserve">2.29480290412903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3280611038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31974673271179</t>
   </si>
   <si>
     <t xml:space="preserve">2.31143188476562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23660135269165</t>
+    <t xml:space="preserve">2.23660159111023</t>
   </si>
   <si>
     <t xml:space="preserve">2.39457726478577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1035692691803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12019848823547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07031106948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98716640472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99548077583313</t>
+    <t xml:space="preserve">2.10356950759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12019824981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0703113079071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98716628551483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99548089504242</t>
   </si>
   <si>
     <t xml:space="preserve">2.03705334663391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04536819458008</t>
+    <t xml:space="preserve">2.04536771774292</t>
   </si>
   <si>
     <t xml:space="preserve">2.0619969367981</t>
@@ -1163,73 +1163,73 @@
     <t xml:space="preserve">2.08694052696228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87907791137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88739240169525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91233575344086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86244857311249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84581983089447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89570701122284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83750522136688</t>
+    <t xml:space="preserve">1.87907779216766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88739228248596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91233587265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86244893074036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84581971168518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89570689201355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83750557899475</t>
   </si>
   <si>
     <t xml:space="preserve">1.79593288898468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76267457008362</t>
+    <t xml:space="preserve">1.76267468929291</t>
   </si>
   <si>
     <t xml:space="preserve">1.77930390834808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81256175041199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78761827945709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8042471408844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82919096946716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82087635993958</t>
+    <t xml:space="preserve">1.81256198883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78761839866638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80424737930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82919061183929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82087624073029</t>
   </si>
   <si>
     <t xml:space="preserve">1.87076330184937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92896473407745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93727946281433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90402138233185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94559359550476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97885191440582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05368208885193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01210975646973</t>
+    <t xml:space="preserve">1.92896461486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93727934360504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90402126312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94559383392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97885179519653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05368256568909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01210999488831</t>
   </si>
   <si>
     <t xml:space="preserve">2.09671592712402</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">2.08815789222717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06248378753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07104182243347</t>
+    <t xml:space="preserve">2.06248354911804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07104206085205</t>
   </si>
   <si>
     <t xml:space="preserve">2.03680992126465</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">2.01113557815552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05392575263977</t>
+    <t xml:space="preserve">2.05392599105835</t>
   </si>
   <si>
     <t xml:space="preserve">2.11383199691772</t>
@@ -1265,19 +1265,19 @@
     <t xml:space="preserve">2.1737380027771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25076055526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24220204353333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1908540725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18229627609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20796990394592</t>
+    <t xml:space="preserve">2.25076031684875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2422022819519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19085431098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18229603767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2079701423645</t>
   </si>
   <si>
     <t xml:space="preserve">2.21652841567993</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">2.31066656112671</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30210852622986</t>
+    <t xml:space="preserve">2.30210876464844</t>
   </si>
   <si>
     <t xml:space="preserve">2.33634066581726</t>
@@ -1304,10 +1304,10 @@
     <t xml:space="preserve">2.32778263092041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29355072975159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34489846229553</t>
+    <t xml:space="preserve">2.29355049133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34489870071411</t>
   </si>
   <si>
     <t xml:space="preserve">2.35345673561096</t>
@@ -1316,28 +1316,28 @@
     <t xml:space="preserve">2.42192101478577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39624667167664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38768863677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40480494499207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47326946258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46471095085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41336274147034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36201477050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37057280540466</t>
+    <t xml:space="preserve">2.39624691009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38768887519836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40480470657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47326922416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46471118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41336250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36201453208923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37057256698608</t>
   </si>
   <si>
     <t xml:space="preserve">2.37913060188293</t>
@@ -1352,13 +1352,13 @@
     <t xml:space="preserve">2.5417332649231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50750136375427</t>
+    <t xml:space="preserve">2.50750112533569</t>
   </si>
   <si>
     <t xml:space="preserve">2.52461719512939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49894285202026</t>
+    <t xml:space="preserve">2.49894332885742</t>
   </si>
   <si>
     <t xml:space="preserve">2.51605939865112</t>
@@ -1370,52 +1370,52 @@
     <t xml:space="preserve">2.59308123588562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56740713119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61019730567932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68721961975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64442944526672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58452343940735</t>
+    <t xml:space="preserve">2.56740736961365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6101975440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68721985816956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64442920684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58452367782593</t>
   </si>
   <si>
     <t xml:space="preserve">2.60163927078247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53317499160767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43903684616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49038529396057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27643418312073</t>
+    <t xml:space="preserve">2.5331757068634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43903660774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49038505554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27643442153931</t>
   </si>
   <si>
     <t xml:space="preserve">2.26787686347961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.122389793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94267153739929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95122945308685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74583697319031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75439488887787</t>
+    <t xml:space="preserve">2.12239003181458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94267141819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95122957229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74583685398102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75439500808716</t>
   </si>
   <si>
     <t xml:space="preserve">1.62602472305298</t>
@@ -1424,91 +1424,91 @@
     <t xml:space="preserve">1.78006899356842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70732593536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70304691791534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68593072891235</t>
+    <t xml:space="preserve">1.70732581615448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70304679870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68593084812164</t>
   </si>
   <si>
     <t xml:space="preserve">1.83997535705566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84853315353394</t>
+    <t xml:space="preserve">1.84853339195251</t>
   </si>
   <si>
     <t xml:space="preserve">1.81430101394653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87420737743378</t>
+    <t xml:space="preserve">1.87420725822449</t>
   </si>
   <si>
     <t xml:space="preserve">1.93411338329315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07959985733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88276541233063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86564922332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89132344722748</t>
+    <t xml:space="preserve">2.0796000957489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88276517391205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86564946174622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89132356643677</t>
   </si>
   <si>
     <t xml:space="preserve">1.91699743270874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89988124370575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85709142684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9597874879837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98546123504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96834552288055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97690367698669</t>
+    <t xml:space="preserve">1.89988136291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85709130764008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95978760719299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98546147346497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96834564208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9769035577774</t>
   </si>
   <si>
     <t xml:space="preserve">2.02825164794922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10527420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16518020629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25931859016418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14806413650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15589737892151</t>
+    <t xml:space="preserve">2.10527396202087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16518044471741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25931835174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14806437492371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15589761734009</t>
   </si>
   <si>
     <t xml:space="preserve">2.14709782600403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11189937591553</t>
+    <t xml:space="preserve">2.11189961433411</t>
   </si>
   <si>
     <t xml:space="preserve">2.05910205841064</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05030250549316</t>
+    <t xml:space="preserve">2.05030226707458</t>
   </si>
   <si>
     <t xml:space="preserve">2.02390360832214</t>
@@ -1517,37 +1517,37 @@
     <t xml:space="preserve">2.06790161132812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13829827308655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10310029983521</t>
+    <t xml:space="preserve">2.13829851150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10309982299805</t>
   </si>
   <si>
     <t xml:space="preserve">2.12949872016907</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12069916725159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08550071716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07670092582703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97110617160797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95350694656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96230673789978</t>
+    <t xml:space="preserve">2.12069892883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08550095558167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07670116424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97110629081726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95350706577301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96230685710907</t>
   </si>
   <si>
     <t xml:space="preserve">2.09430050849915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0327033996582</t>
+    <t xml:space="preserve">2.03270316123962</t>
   </si>
   <si>
     <t xml:space="preserve">2.16469717025757</t>
@@ -1559,13 +1559,13 @@
     <t xml:space="preserve">2.19989538192749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24389338493347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28789114952087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31429004669189</t>
+    <t xml:space="preserve">2.24389314651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28789091110229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31428980827332</t>
   </si>
   <si>
     <t xml:space="preserve">2.3934862613678</t>
@@ -1580,40 +1580,40 @@
     <t xml:space="preserve">2.44628357887268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5166802406311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53427934646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56947755813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56067848205566</t>
+    <t xml:space="preserve">2.51668047904968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53427958488464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56947779655457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56067824363708</t>
   </si>
   <si>
     <t xml:space="preserve">2.58707714080811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60467600822449</t>
+    <t xml:space="preserve">2.60467648506165</t>
   </si>
   <si>
     <t xml:space="preserve">2.52547979354858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50788068771362</t>
+    <t xml:space="preserve">2.50788044929504</t>
   </si>
   <si>
     <t xml:space="preserve">2.61347579956055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68387222290039</t>
+    <t xml:space="preserve">2.68387246131897</t>
   </si>
   <si>
     <t xml:space="preserve">2.66627311706543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63987421989441</t>
+    <t xml:space="preserve">2.63987445831299</t>
   </si>
   <si>
     <t xml:space="preserve">2.67507266998291</t>
@@ -1622,16 +1622,16 @@
     <t xml:space="preserve">2.65747380256653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64867424964905</t>
+    <t xml:space="preserve">2.64867401123047</t>
   </si>
   <si>
     <t xml:space="preserve">2.63107490539551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62227535247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74546933174133</t>
+    <t xml:space="preserve">2.62227511405945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74546909332275</t>
   </si>
   <si>
     <t xml:space="preserve">2.73666977882385</t>
@@ -1640,25 +1640,25 @@
     <t xml:space="preserve">2.76306867599487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80706667900085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79826664924622</t>
+    <t xml:space="preserve">2.80706644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79826688766479</t>
   </si>
   <si>
     <t xml:space="preserve">2.72787022590637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81586623191833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83346509933472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87746334075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88626289367676</t>
+    <t xml:space="preserve">2.81586599349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8334653377533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87746286392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8862624168396</t>
   </si>
   <si>
     <t xml:space="preserve">2.94785976409912</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">2.96545886993408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9126615524292</t>
+    <t xml:space="preserve">2.91266131401062</t>
   </si>
   <si>
     <t xml:space="preserve">2.85986399650574</t>
@@ -1691,16 +1691,16 @@
     <t xml:space="preserve">2.90386176109314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89506220817566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9566593170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93905997276306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93026065826416</t>
+    <t xml:space="preserve">2.89506244659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95665955543518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93906021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93026041984558</t>
   </si>
   <si>
     <t xml:space="preserve">3.0270562171936</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">3.15024995803833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07105422019958</t>
+    <t xml:space="preserve">3.07105374336243</t>
   </si>
   <si>
     <t xml:space="preserve">3.19424819946289</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">3.29984331130981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26464486122131</t>
+    <t xml:space="preserve">3.26464462280273</t>
   </si>
   <si>
     <t xml:space="preserve">3.36144018173218</t>
@@ -1736,222 +1736,225 @@
     <t xml:space="preserve">3.34384107589722</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35264039039612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37023997306824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33504152297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40543818473816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52863240242004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55503106117249</t>
+    <t xml:space="preserve">3.3526406288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37023973464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33504128456116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40543794631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52863216400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55503082275391</t>
   </si>
   <si>
     <t xml:space="preserve">3.49343395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44063687324524</t>
+    <t xml:space="preserve">3.44063663482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41423797607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39663815498352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43216013908386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44112133979797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39631509780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47696685791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46800518035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4948890209198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52177262306213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57554030418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58450150489807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60242414474487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67411398887634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73684287071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72788143157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79061031341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74580383300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85333943367004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80853295326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92502903938293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95191264152527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83541679382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76372647285461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78164887428284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8802227973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89814496040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69203639030457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81749439239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70995903015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71892046928406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8443775177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65619134902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68307542800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62034630775452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53969526290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64723038673401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82645535469055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88918423652649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79957127571106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75476551055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01464176177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96983551979065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00568056106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0594482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14906072616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10425424575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1400990486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98775768280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91606783866882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90710687637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07737016677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03256416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05048656463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02360248565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96087455749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11321592330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04152536392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08633184432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7726879119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62930798530579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55761790275574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54865670204163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40527653694153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37839245796204</t>
   </si>
   <si>
     <t xml:space="preserve">3.41423773765564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39663815498352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43216037750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44112133979797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39631533622742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47696661949158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46800518035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4948890209198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52177286148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57554030418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58450150489807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60242390632629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67411398887634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73684287071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72788119316101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79061055183411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74580383300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85333943367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80853295326233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92502903938293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95191264152527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83541655540466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76372599601746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78164887428284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88022255897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8981454372406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69203662872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81749439239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70995903015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71892023086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84437775611877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65619158744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68307518959045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6203465461731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53969550132751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64723014831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82645535469055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88918447494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79957103729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75476551055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01464128494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96983528137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00568056106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0594482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14906072616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10425424575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1400990486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98775792121887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91606783866882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90710639953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07737064361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03256416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05048656463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02360248565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96087431907654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11321544647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04152584075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08633136749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7726879119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62930798530579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55761790275574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54865646362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40527629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37839269638062</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.36943125724792</t>
   </si>
   <si>
@@ -1979,37 +1982,37 @@
     <t xml:space="preserve">3.33358645439148</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35150909423828</t>
+    <t xml:space="preserve">3.3515088558197</t>
   </si>
   <si>
     <t xml:space="preserve">3.27085757255554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2350127696991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31566405296326</t>
+    <t xml:space="preserve">3.23501253128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31566381454468</t>
   </si>
   <si>
     <t xml:space="preserve">3.26189637184143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.091632604599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18124508857727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66515278816223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70099782943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59346294403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5128116607666</t>
+    <t xml:space="preserve">3.09163284301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18124485015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66515302658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70099759101868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59346270561218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51281142234802</t>
   </si>
   <si>
     <t xml:space="preserve">3.67524838447571</t>
@@ -2018,10 +2021,10 @@
     <t xml:space="preserve">3.71200084686279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70281267166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65687203407288</t>
+    <t xml:space="preserve">3.70281291007996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65687227249146</t>
   </si>
   <si>
     <t xml:space="preserve">3.74875330924988</t>
@@ -2030,13 +2033,13 @@
     <t xml:space="preserve">3.72118902206421</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41798090934753</t>
+    <t xml:space="preserve">3.41798114776611</t>
   </si>
   <si>
     <t xml:space="preserve">3.43635725975037</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48229789733887</t>
+    <t xml:space="preserve">3.48229765892029</t>
   </si>
   <si>
     <t xml:space="preserve">3.46392154693604</t>
@@ -2060,16 +2063,16 @@
     <t xml:space="preserve">3.45473337173462</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44554543495178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4087929725647</t>
+    <t xml:space="preserve">3.4455451965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40879273414612</t>
   </si>
   <si>
     <t xml:space="preserve">3.55580282211304</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64768409729004</t>
+    <t xml:space="preserve">3.64768385887146</t>
   </si>
   <si>
     <t xml:space="preserve">3.68443655967712</t>
@@ -2090,7 +2093,10 @@
     <t xml:space="preserve">3.69362449645996</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5925555229187</t>
+    <t xml:space="preserve">3.62930774688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59255528450012</t>
   </si>
   <si>
     <t xml:space="preserve">3.4914858341217</t>
@@ -2120,16 +2126,16 @@
     <t xml:space="preserve">3.19746613502502</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26178288459778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23421835899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20665431022644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99532723426819</t>
+    <t xml:space="preserve">3.2617826461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23421859741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20665407180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99532747268677</t>
   </si>
   <si>
     <t xml:space="preserve">3.05964422225952</t>
@@ -2144,7 +2150,7 @@
     <t xml:space="preserve">2.84831738471985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75643610954285</t>
+    <t xml:space="preserve">2.75643634796143</t>
   </si>
   <si>
     <t xml:space="preserve">2.66455507278442</t>
@@ -2159,10 +2165,10 @@
     <t xml:space="preserve">2.82994103431702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78400063514709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93101072311401</t>
+    <t xml:space="preserve">2.78400039672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93101048469543</t>
   </si>
   <si>
     <t xml:space="preserve">2.91263437271118</t>
@@ -2171,7 +2177,7 @@
     <t xml:space="preserve">2.90344619750977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94019865989685</t>
+    <t xml:space="preserve">2.94019889831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.08720850944519</t>
@@ -2180,7 +2186,7 @@
     <t xml:space="preserve">3.10558485984802</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17908978462219</t>
+    <t xml:space="preserve">3.17909002304077</t>
   </si>
   <si>
     <t xml:space="preserve">3.18827795982361</t>
@@ -2198,7 +2204,7 @@
     <t xml:space="preserve">3.05045604705811</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12396121025085</t>
+    <t xml:space="preserve">3.12396097183228</t>
   </si>
   <si>
     <t xml:space="preserve">3.16071367263794</t>
@@ -2207,7 +2213,7 @@
     <t xml:space="preserve">3.09639668464661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07802033424377</t>
+    <t xml:space="preserve">3.07802057266235</t>
   </si>
   <si>
     <t xml:space="preserve">3.01370358467102</t>
@@ -2219,7 +2225,7 @@
     <t xml:space="preserve">3.04126811027527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88507008552551</t>
+    <t xml:space="preserve">2.88506984710693</t>
   </si>
   <si>
     <t xml:space="preserve">2.81156492233276</t>
@@ -2237,7 +2243,7 @@
     <t xml:space="preserve">3.14233732223511</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16990184783936</t>
+    <t xml:space="preserve">3.16990160942078</t>
   </si>
   <si>
     <t xml:space="preserve">3.28934717178345</t>
@@ -2246,7 +2252,7 @@
     <t xml:space="preserve">3.3169116973877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3628523349762</t>
+    <t xml:space="preserve">3.36285209655762</t>
   </si>
   <si>
     <t xml:space="preserve">3.38122844696045</t>
@@ -2255,13 +2261,13 @@
     <t xml:space="preserve">3.28015923500061</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50067400932312</t>
+    <t xml:space="preserve">3.50067377090454</t>
   </si>
   <si>
     <t xml:space="preserve">3.52823829650879</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60174345970154</t>
+    <t xml:space="preserve">3.60174322128296</t>
   </si>
   <si>
     <t xml:space="preserve">3.63849592208862</t>
@@ -2273,10 +2279,10 @@
     <t xml:space="preserve">3.76712942123413</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75794148445129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77631759643555</t>
+    <t xml:space="preserve">3.75794172286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77631783485413</t>
   </si>
   <si>
     <t xml:space="preserve">3.8148148059845</t>
@@ -42684,7 +42690,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1530" t="s">
-        <v>582</v>
+        <v>646</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42736,7 +42742,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1532" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42762,7 +42768,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1533" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42892,7 +42898,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1538" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42918,7 +42924,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1539" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43022,7 +43028,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1543" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43100,7 +43106,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1546" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43152,7 +43158,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1548" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43204,7 +43210,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1550" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43230,7 +43236,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1551" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43438,7 +43444,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1559" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43464,7 +43470,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1560" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43542,7 +43548,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1563" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43568,7 +43574,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1564" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43594,7 +43600,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1565" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43620,7 +43626,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1566" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43646,7 +43652,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1567" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43672,7 +43678,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1568" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43698,7 +43704,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1569" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43724,7 +43730,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1570" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43750,7 +43756,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1571" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43776,7 +43782,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1572" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43802,7 +43808,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1573" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43854,7 +43860,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1575" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44114,7 +44120,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1585" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44140,7 +44146,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1586" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44192,7 +44198,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1588" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44218,7 +44224,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1589" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44348,7 +44354,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1594" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44374,7 +44380,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1595" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44478,7 +44484,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1599" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44504,7 +44510,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1600" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44582,7 +44588,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1603" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44634,7 +44640,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1605" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44712,7 +44718,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1608" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44868,7 +44874,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1614" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44946,7 +44952,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1617" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45154,7 +45160,7 @@
         <v>4</v>
       </c>
       <c r="G1625" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45180,7 +45186,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45206,7 +45212,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1627" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45232,7 +45238,7 @@
         <v>4</v>
       </c>
       <c r="G1628" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45258,7 +45264,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1629" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45284,7 +45290,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1630" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45310,7 +45316,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1631" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45336,7 +45342,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1632" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45362,7 +45368,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1633" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45388,7 +45394,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1634" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45414,7 +45420,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45440,7 +45446,7 @@
         <v>4</v>
       </c>
       <c r="G1636" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45466,7 +45472,7 @@
         <v>4</v>
       </c>
       <c r="G1637" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45492,7 +45498,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1638" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45518,7 +45524,7 @@
         <v>4</v>
       </c>
       <c r="G1639" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45544,7 +45550,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1640" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45570,7 +45576,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1641" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45596,7 +45602,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1642" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45622,7 +45628,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1643" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45648,7 +45654,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1644" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45674,7 +45680,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1645" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45700,7 +45706,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45726,7 +45732,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1647" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45752,7 +45758,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1648" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45778,7 +45784,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1649" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45804,7 +45810,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1650" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45830,7 +45836,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1651" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45856,7 +45862,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1652" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45882,7 +45888,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1653" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45908,7 +45914,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1654" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45934,7 +45940,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1655" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45960,7 +45966,7 @@
         <v>3.75</v>
       </c>
       <c r="G1656" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45986,7 +45992,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1657" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46012,7 +46018,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1658" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46038,7 +46044,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1659" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46064,7 +46070,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1660" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46090,7 +46096,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1661" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46116,7 +46122,7 @@
         <v>3.75</v>
       </c>
       <c r="G1662" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46142,7 +46148,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1663" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46168,7 +46174,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1664" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46194,7 +46200,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1665" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46220,7 +46226,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46246,7 +46252,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1667" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46272,7 +46278,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1668" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46298,7 +46304,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1669" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46324,7 +46330,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1670" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46350,7 +46356,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1671" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46376,7 +46382,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1672" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46402,7 +46408,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1673" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46428,7 +46434,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1674" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46454,7 +46460,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1675" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46480,7 +46486,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1676" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46506,7 +46512,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1677" t="s">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46532,7 +46538,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1678" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46558,7 +46564,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1679" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46584,7 +46590,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1680" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46610,7 +46616,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1681" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46636,7 +46642,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1682" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46662,7 +46668,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1683" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46688,7 +46694,7 @@
         <v>3.75</v>
       </c>
       <c r="G1684" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46714,7 +46720,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1685" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46740,7 +46746,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46766,7 +46772,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1687" t="s">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46792,7 +46798,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1688" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46818,7 +46824,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1689" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46844,7 +46850,7 @@
         <v>3.75</v>
       </c>
       <c r="G1690" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46870,7 +46876,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1691" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46896,7 +46902,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1692" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46922,7 +46928,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1693" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46948,7 +46954,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1694" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46974,7 +46980,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1695" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47000,7 +47006,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1696" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47026,7 +47032,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1697" t="s">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47052,7 +47058,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1698" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47078,7 +47084,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1699" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47104,7 +47110,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1700" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47130,7 +47136,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1701" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47156,7 +47162,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1702" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47182,7 +47188,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1703" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47208,7 +47214,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1704" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47234,7 +47240,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1705" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47260,7 +47266,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1706" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47286,7 +47292,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1707" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47312,7 +47318,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1708" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47338,7 +47344,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1709" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47364,7 +47370,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1710" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47390,7 +47396,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1711" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47416,7 +47422,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1712" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47442,7 +47448,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1713" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47468,7 +47474,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1714" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47494,7 +47500,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1715" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47520,7 +47526,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1716" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47546,7 +47552,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1717" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47572,7 +47578,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1718" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47598,7 +47604,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47624,7 +47630,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1720" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47650,7 +47656,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1721" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47676,7 +47682,7 @@
         <v>3</v>
       </c>
       <c r="G1722" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47702,7 +47708,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1723" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47728,7 +47734,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1724" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47754,7 +47760,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1725" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47780,7 +47786,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1726" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47806,7 +47812,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1727" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47832,7 +47838,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1728" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47858,7 +47864,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1729" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47884,7 +47890,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1730" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47910,7 +47916,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1731" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47936,7 +47942,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1732" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47962,7 +47968,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1733" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47988,7 +47994,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1734" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48014,7 +48020,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1735" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48040,7 +48046,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1736" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48066,7 +48072,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1737" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48092,7 +48098,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1738" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48118,7 +48124,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1739" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48144,7 +48150,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1740" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48170,7 +48176,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1741" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48196,7 +48202,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1742" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48222,7 +48228,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1743" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48248,7 +48254,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1744" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48274,7 +48280,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1745" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48300,7 +48306,7 @@
         <v>3.5</v>
       </c>
       <c r="G1746" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48326,7 +48332,7 @@
         <v>3.5</v>
       </c>
       <c r="G1747" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48352,7 +48358,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1748" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48378,7 +48384,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1749" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48404,7 +48410,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1750" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48430,7 +48436,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1751" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48456,7 +48462,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1752" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48482,7 +48488,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1753" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48508,7 +48514,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1754" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48534,7 +48540,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1755" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48560,7 +48566,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1756" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48586,7 +48592,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1757" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48612,7 +48618,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1758" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48638,7 +48644,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1759" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48664,7 +48670,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1760" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48690,7 +48696,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1761" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48716,7 +48722,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1762" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48742,7 +48748,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48768,7 +48774,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1764" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48794,7 +48800,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1765" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48820,7 +48826,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1766" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48846,7 +48852,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1767" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48872,7 +48878,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1768" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48898,7 +48904,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1769" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48924,7 +48930,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1770" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48950,7 +48956,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48976,7 +48982,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1772" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49002,7 +49008,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1773" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49028,7 +49034,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1774" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49054,7 +49060,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1775" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49080,7 +49086,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1776" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49106,7 +49112,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1777" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49132,7 +49138,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1778" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49158,7 +49164,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1779" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49184,7 +49190,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1780" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49210,7 +49216,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1781" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49236,7 +49242,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49262,7 +49268,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1783" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49288,7 +49294,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1784" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49314,7 +49320,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1785" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49340,7 +49346,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1786" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49366,7 +49372,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1787" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49392,7 +49398,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49418,7 +49424,7 @@
         <v>3.25</v>
       </c>
       <c r="G1789" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49444,7 +49450,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1790" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49470,7 +49476,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1791" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49496,7 +49502,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1792" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49522,7 +49528,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1793" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49548,7 +49554,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49574,7 +49580,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49600,7 +49606,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1796" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49626,7 +49632,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1797" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49652,7 +49658,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1798" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49678,7 +49684,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1799" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49704,7 +49710,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1800" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49730,7 +49736,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1801" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49756,7 +49762,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49782,7 +49788,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1803" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49808,7 +49814,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1804" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49834,7 +49840,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1805" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49860,7 +49866,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1806" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49886,7 +49892,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1807" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49912,7 +49918,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1808" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49938,7 +49944,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1809" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49964,7 +49970,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1810" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49990,7 +49996,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1811" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50016,7 +50022,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1812" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50042,7 +50048,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1813" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50068,7 +50074,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1814" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50094,7 +50100,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1815" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50120,7 +50126,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1816" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50146,7 +50152,7 @@
         <v>3.75</v>
       </c>
       <c r="G1817" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50172,7 +50178,7 @@
         <v>3.75</v>
       </c>
       <c r="G1818" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50198,7 +50204,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1819" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50224,7 +50230,7 @@
         <v>3.75</v>
       </c>
       <c r="G1820" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50250,7 +50256,7 @@
         <v>3.75</v>
       </c>
       <c r="G1821" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50276,7 +50282,7 @@
         <v>3.75</v>
       </c>
       <c r="G1822" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50302,7 +50308,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1823" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50328,7 +50334,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1824" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50354,7 +50360,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1825" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50380,7 +50386,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1826" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50406,7 +50412,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1827" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50432,7 +50438,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1828" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50458,7 +50464,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1829" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50484,7 +50490,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1830" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50510,7 +50516,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1831" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50536,7 +50542,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1832" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50562,7 +50568,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1833" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50588,7 +50594,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50614,7 +50620,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1835" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50640,7 +50646,7 @@
         <v>4</v>
       </c>
       <c r="G1836" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50666,7 +50672,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1837" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50692,7 +50698,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1838" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50718,7 +50724,7 @@
         <v>4</v>
       </c>
       <c r="G1839" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50744,7 +50750,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1840" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50770,7 +50776,7 @@
         <v>4</v>
       </c>
       <c r="G1841" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50796,7 +50802,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1842" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50822,7 +50828,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1843" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50848,7 +50854,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1844" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50874,7 +50880,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1845" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50900,7 +50906,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1846" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50926,7 +50932,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1847" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50952,7 +50958,7 @@
         <v>4</v>
       </c>
       <c r="G1848" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50978,7 +50984,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1849" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51004,7 +51010,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1850" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51030,7 +51036,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1851" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51056,7 +51062,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1852" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51082,7 +51088,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1853" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51108,7 +51114,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1854" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51134,7 +51140,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1855" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51160,7 +51166,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1856" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51186,7 +51192,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1857" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51212,7 +51218,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1858" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51238,7 +51244,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1859" t="s">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51264,7 +51270,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1860" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51290,7 +51296,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1861" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51316,7 +51322,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1862" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51342,7 +51348,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1863" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51368,7 +51374,7 @@
         <v>4</v>
       </c>
       <c r="G1864" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51394,7 +51400,7 @@
         <v>4</v>
       </c>
       <c r="G1865" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51420,7 +51426,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1866" t="s">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51446,7 +51452,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1867" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51472,7 +51478,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1868" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51498,7 +51504,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1869" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51524,7 +51530,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1870" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51550,7 +51556,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1871" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51576,7 +51582,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1872" t="s">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51602,7 +51608,7 @@
         <v>4</v>
       </c>
       <c r="G1873" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51628,7 +51634,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1874" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51654,7 +51660,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1875" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51680,7 +51686,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1876" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51706,7 +51712,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1877" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51732,7 +51738,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1878" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51758,7 +51764,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1879" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51784,7 +51790,7 @@
         <v>4</v>
       </c>
       <c r="G1880" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51810,7 +51816,7 @@
         <v>4</v>
       </c>
       <c r="G1881" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51836,7 +51842,7 @@
         <v>4</v>
       </c>
       <c r="G1882" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51862,7 +51868,7 @@
         <v>4</v>
       </c>
       <c r="G1883" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51888,7 +51894,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51914,7 +51920,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1885" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51940,7 +51946,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1886" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51966,7 +51972,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51992,7 +51998,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1888" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52018,7 +52024,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1889" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52044,7 +52050,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1890" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52070,7 +52076,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1891" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52096,7 +52102,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1892" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52122,7 +52128,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1893" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52148,7 +52154,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1894" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52174,7 +52180,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1895" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52200,7 +52206,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52226,7 +52232,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1897" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52252,7 +52258,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52278,7 +52284,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1899" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52304,7 +52310,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1900" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52330,7 +52336,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1901" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52356,7 +52362,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1902" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52382,7 +52388,7 @@
         <v>4</v>
       </c>
       <c r="G1903" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52408,7 +52414,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1904" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52434,7 +52440,7 @@
         <v>4</v>
       </c>
       <c r="G1905" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52460,7 +52466,7 @@
         <v>4</v>
       </c>
       <c r="G1906" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52486,7 +52492,7 @@
         <v>4</v>
       </c>
       <c r="G1907" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52512,7 +52518,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1908" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52538,7 +52544,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1909" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52564,7 +52570,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1910" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52590,7 +52596,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1911" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52616,7 +52622,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1912" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52642,7 +52648,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1913" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52668,7 +52674,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1914" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52694,7 +52700,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1915" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52720,7 +52726,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1916" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52746,7 +52752,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1917" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52772,7 +52778,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1918" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52798,7 +52804,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1919" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52824,7 +52830,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1920" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52850,7 +52856,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1921" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52876,7 +52882,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1922" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52902,7 +52908,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52928,7 +52934,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1924" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52954,7 +52960,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1925" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52980,7 +52986,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1926" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53006,7 +53012,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1927" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53032,7 +53038,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53058,7 +53064,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1929" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53084,7 +53090,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1930" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53110,7 +53116,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53136,7 +53142,7 @@
         <v>4.25</v>
       </c>
       <c r="G1932" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53162,7 +53168,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53188,7 +53194,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1934" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53214,7 +53220,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1935" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53240,7 +53246,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1936" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53266,7 +53272,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1937" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53292,7 +53298,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1938" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53318,7 +53324,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1939" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53344,7 +53350,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1940" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53370,7 +53376,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1941" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53396,7 +53402,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1942" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53422,7 +53428,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1943" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53448,7 +53454,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1944" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53474,7 +53480,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1945" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53500,7 +53506,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1946" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53526,7 +53532,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1947" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53552,7 +53558,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53578,7 +53584,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1949" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53604,7 +53610,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1950" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53630,7 +53636,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53656,7 +53662,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1952" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53682,7 +53688,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1953" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53708,7 +53714,7 @@
         <v>4</v>
       </c>
       <c r="G1954" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53734,7 +53740,7 @@
         <v>4</v>
       </c>
       <c r="G1955" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53760,7 +53766,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53786,7 +53792,7 @@
         <v>4</v>
       </c>
       <c r="G1957" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53812,7 +53818,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1958" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53838,7 +53844,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1959" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53864,7 +53870,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1960" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53890,7 +53896,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1961" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53916,7 +53922,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1962" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53942,7 +53948,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1963" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53968,7 +53974,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1964" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53994,7 +54000,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1965" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54020,7 +54026,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1966" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54046,7 +54052,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1967" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54072,7 +54078,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1968" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54098,7 +54104,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54124,7 +54130,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1970" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54150,7 +54156,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54176,7 +54182,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1972" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54202,7 +54208,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1973" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54228,7 +54234,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1974" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54254,7 +54260,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1975" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54280,7 +54286,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54306,7 +54312,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1977" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54332,7 +54338,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1978" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54358,7 +54364,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1979" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54384,7 +54390,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54410,7 +54416,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1981" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54436,7 +54442,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1982" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54462,7 +54468,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1983" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54488,7 +54494,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1984" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54514,7 +54520,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1985" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54540,7 +54546,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1986" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54566,7 +54572,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1987" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54592,7 +54598,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54618,7 +54624,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1989" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54644,7 +54650,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1990" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54670,7 +54676,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1991" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54696,7 +54702,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1992" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54722,7 +54728,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1993" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54748,7 +54754,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54774,7 +54780,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54800,7 +54806,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1996" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54826,7 +54832,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1997" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54852,7 +54858,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54878,7 +54884,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1999" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54904,7 +54910,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2000" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54930,7 +54936,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54956,7 +54962,7 @@
         <v>4</v>
       </c>
       <c r="G2002" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54982,7 +54988,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2003" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55008,7 +55014,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2004" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55034,7 +55040,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2005" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55060,7 +55066,7 @@
         <v>4</v>
       </c>
       <c r="G2006" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55086,7 +55092,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2007" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55112,7 +55118,7 @@
         <v>4</v>
       </c>
       <c r="G2008" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55138,7 +55144,7 @@
         <v>4</v>
       </c>
       <c r="G2009" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55164,7 +55170,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G2010" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55190,7 +55196,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G2011" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55216,7 +55222,7 @@
         <v>4</v>
       </c>
       <c r="G2012" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55242,7 +55248,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G2013" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55268,7 +55274,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2014" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55294,7 +55300,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55320,7 +55326,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2016" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55346,7 +55352,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55372,7 +55378,7 @@
         <v>4</v>
       </c>
       <c r="G2018" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55398,7 +55404,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2019" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55424,7 +55430,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2020" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55450,7 +55456,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2021" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55476,7 +55482,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2022" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55502,7 +55508,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2023" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55528,7 +55534,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2024" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55554,7 +55560,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55580,7 +55586,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55606,7 +55612,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55632,7 +55638,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2028" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55658,7 +55664,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2029" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55684,7 +55690,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2030" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55710,7 +55716,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2031" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55736,7 +55742,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2032" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55762,7 +55768,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2033" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55788,7 +55794,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55814,7 +55820,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2035" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55840,7 +55846,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2036" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55866,7 +55872,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2037" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55892,7 +55898,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2038" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55918,7 +55924,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G2039" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55944,7 +55950,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2040" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55970,7 +55976,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2041" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55996,7 +56002,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2042" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56022,7 +56028,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2043" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56048,7 +56054,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2044" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56074,7 +56080,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2045" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56100,7 +56106,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2046" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56126,7 +56132,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2047" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56152,7 +56158,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2048" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56178,7 +56184,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2049" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56204,7 +56210,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2050" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56230,7 +56236,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2051" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56256,7 +56262,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2052" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56282,7 +56288,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2053" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56308,7 +56314,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2054" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56334,7 +56340,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G2055" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56360,7 +56366,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2056" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56386,7 +56392,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G2057" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56412,7 +56418,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2058" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56438,7 +56444,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2059" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56464,7 +56470,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G2060" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56490,7 +56496,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G2061" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56516,7 +56522,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2062" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56542,7 +56548,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2063" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56568,7 +56574,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2064" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56594,7 +56600,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2065" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56620,7 +56626,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G2066" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56646,7 +56652,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2067" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56672,7 +56678,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2068" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56698,7 +56704,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2069" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56724,7 +56730,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2070" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56750,7 +56756,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2071" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56776,7 +56782,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2072" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56802,7 +56808,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G2073" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56828,7 +56834,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2074" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56854,7 +56860,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G2075" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56880,7 +56886,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2076" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56906,7 +56912,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2077" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56932,7 +56938,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G2078" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56958,7 +56964,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56984,7 +56990,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2080" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57010,7 +57016,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2081" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57036,7 +57042,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2082" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57062,7 +57068,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2083" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57088,7 +57094,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2084" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57114,7 +57120,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2085" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57140,7 +57146,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2086" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57166,7 +57172,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57192,7 +57198,7 @@
         <v>4.5</v>
       </c>
       <c r="G2088" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57218,7 +57224,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G2089" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57244,7 +57250,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G2090" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57270,7 +57276,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2091" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57296,7 +57302,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G2092" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57322,7 +57328,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G2093" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57348,7 +57354,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G2094" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57374,7 +57380,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2095" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57400,7 +57406,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2096" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57426,7 +57432,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57452,7 +57458,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2098" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57478,7 +57484,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2099" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57504,7 +57510,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2100" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57530,7 +57536,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57556,7 +57562,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2102" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57582,7 +57588,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2103" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57608,7 +57614,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2104" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57634,7 +57640,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2105" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57660,7 +57666,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57686,7 +57692,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2107" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57712,7 +57718,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2108" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57738,7 +57744,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2109" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57764,7 +57770,7 @@
         <v>4.98999977111816</v>
       </c>
       <c r="G2110" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57790,7 +57796,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2111" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57816,7 +57822,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G2112" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57842,7 +57848,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2113" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57868,7 +57874,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G2114" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57894,7 +57900,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2115" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57920,7 +57926,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2116" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57946,7 +57952,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2117" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57972,7 +57978,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2118" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57998,7 +58004,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2119" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58024,7 +58030,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2120" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58050,7 +58056,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2121" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58076,7 +58082,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2122" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58102,7 +58108,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2123" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58128,7 +58134,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2124" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58154,7 +58160,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2125" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58180,7 +58186,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2126" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58206,7 +58212,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2127" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58232,7 +58238,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2128" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58258,7 +58264,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2129" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58284,7 +58290,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G2130" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58310,7 +58316,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2131" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58336,7 +58342,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58362,7 +58368,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G2133" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58388,7 +58394,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2134" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58414,7 +58420,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2135" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58440,7 +58446,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2136" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58466,7 +58472,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2137" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58492,7 +58498,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2138" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58518,7 +58524,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2139" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58544,7 +58550,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2140" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58570,7 +58576,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2141" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58596,7 +58602,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2142" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58622,7 +58628,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2143" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58648,7 +58654,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2144" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58674,7 +58680,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58700,7 +58706,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2146" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58726,7 +58732,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2147" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58752,7 +58758,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G2148" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58778,7 +58784,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2149" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58804,7 +58810,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G2150" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58830,7 +58836,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2151" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58856,7 +58862,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G2152" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58882,7 +58888,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2153" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58908,7 +58914,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G2154" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58934,7 +58940,7 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G2155" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58960,7 +58966,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2156" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58986,7 +58992,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G2157" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59012,7 +59018,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G2158" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59038,7 +59044,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G2159" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59064,7 +59070,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G2160" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59090,7 +59096,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2161" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -59098,7 +59104,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6494907407</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>4639</v>
@@ -59116,9 +59122,35 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G2162" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6494328704</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>8021</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>5.80000019073486</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>5.71999979019165</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>5.78000020980835</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>5.76000022888184</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>854</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CALT.MI.xlsx
+++ b/data/CALT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80173277854919</t>
+    <t xml:space="preserve">1.8017326593399</t>
   </si>
   <si>
     <t xml:space="preserve">CALT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80949854850769</t>
+    <t xml:space="preserve">1.80949866771698</t>
   </si>
   <si>
     <t xml:space="preserve">1.77843463420868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72407197952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73494458198547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7116459608078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7007737159729</t>
+    <t xml:space="preserve">1.72407209873199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73494446277618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71164631843567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70077359676361</t>
   </si>
   <si>
     <t xml:space="preserve">1.63243210315704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55244123935699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53613245487213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53768575191498</t>
+    <t xml:space="preserve">1.55244112014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53613257408142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53768587112427</t>
   </si>
   <si>
     <t xml:space="preserve">1.49031269550323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49885535240173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47555696964264</t>
+    <t xml:space="preserve">1.49885523319244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47555708885193</t>
   </si>
   <si>
     <t xml:space="preserve">1.47322726249695</t>
@@ -89,16 +89,16 @@
     <t xml:space="preserve">1.46779096126556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47245049476624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4600248336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43439650535583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43672657012939</t>
+    <t xml:space="preserve">1.47245061397552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46002471446991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4343968629837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43672668933868</t>
   </si>
   <si>
     <t xml:space="preserve">1.45070552825928</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">1.39789605140686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39323651790619</t>
+    <t xml:space="preserve">1.39323663711548</t>
   </si>
   <si>
     <t xml:space="preserve">1.43594992160797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40566205978394</t>
+    <t xml:space="preserve">1.40566217899323</t>
   </si>
   <si>
     <t xml:space="preserve">1.43284356594086</t>
@@ -131,25 +131,25 @@
     <t xml:space="preserve">1.43051385879517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48487627506256</t>
+    <t xml:space="preserve">1.48487639427185</t>
   </si>
   <si>
     <t xml:space="preserve">1.46313118934631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49963200092316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51749396324158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56875014305115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58272922039032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57962250709534</t>
+    <t xml:space="preserve">1.49963188171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51749384403229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56875026226044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58272910118103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57962262630463</t>
   </si>
   <si>
     <t xml:space="preserve">1.60292077064514</t>
@@ -164,25 +164,25 @@
     <t xml:space="preserve">1.62155950069427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66038990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66970932483673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69300758838654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68524146080017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6914541721344</t>
+    <t xml:space="preserve">1.66038978099823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66970956325531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69300782680511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68524158000946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69145441055298</t>
   </si>
   <si>
     <t xml:space="preserve">1.6774754524231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71630573272705</t>
+    <t xml:space="preserve">1.71630585193634</t>
   </si>
   <si>
     <t xml:space="preserve">1.70543348789215</t>
@@ -191,106 +191,106 @@
     <t xml:space="preserve">1.64641082286835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64796423912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69611394405365</t>
+    <t xml:space="preserve">1.64796411991119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69611382484436</t>
   </si>
   <si>
     <t xml:space="preserve">1.72251856327057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73183786869049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75047659873962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75513637065887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75668942928314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78620040416718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80017960071564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76756203174591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77066850662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76290237903595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73960411548615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74737000465393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73028469085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74581706523895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70388007164001</t>
+    <t xml:space="preserve">1.73183810710907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75047636032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75513625144958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75668931007385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78620064258575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80017983913422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7675621509552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77066838741302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76290225982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73960435390472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74737012386322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73028481006622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74581670761108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7038801908493</t>
   </si>
   <si>
     <t xml:space="preserve">1.70853972434998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73805069923401</t>
+    <t xml:space="preserve">1.7380508184433</t>
   </si>
   <si>
     <t xml:space="preserve">1.76347029209137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74758315086365</t>
+    <t xml:space="preserve">1.74758303165436</t>
   </si>
   <si>
     <t xml:space="preserve">1.75552666187286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78571236133575</t>
+    <t xml:space="preserve">1.78571200370789</t>
   </si>
   <si>
     <t xml:space="preserve">1.76982498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75870406627655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77935743331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78730070590973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71580898761749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73487341403961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73169600963593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71422004699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66655886173248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62048625946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61254274845123</t>
+    <t xml:space="preserve">1.75870430469513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77935767173767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78730082511902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71580910682678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73487329483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73169612884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71422016620636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66655898094177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62048590183258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61254251003265</t>
   </si>
   <si>
     <t xml:space="preserve">1.57917964458466</t>
@@ -299,19 +299,19 @@
     <t xml:space="preserve">1.588711977005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65067172050476</t>
+    <t xml:space="preserve">1.65067183971405</t>
   </si>
   <si>
     <t xml:space="preserve">1.5863288640976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60936510562897</t>
+    <t xml:space="preserve">1.60936534404755</t>
   </si>
   <si>
     <t xml:space="preserve">1.59665560722351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54899430274963</t>
+    <t xml:space="preserve">1.54899418354034</t>
   </si>
   <si>
     <t xml:space="preserve">1.53151834011078</t>
@@ -320,22 +320,22 @@
     <t xml:space="preserve">1.57997393608093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52516329288483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53310704231262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57282483577728</t>
+    <t xml:space="preserve">1.52516353130341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53310692310333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57282495498657</t>
   </si>
   <si>
     <t xml:space="preserve">1.55693781375885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66814756393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65702652931213</t>
+    <t xml:space="preserve">1.66814744472504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65702664852142</t>
   </si>
   <si>
     <t xml:space="preserve">1.62842965126038</t>
@@ -344,28 +344,28 @@
     <t xml:space="preserve">1.68403446674347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73010718822479</t>
+    <t xml:space="preserve">1.73010742664337</t>
   </si>
   <si>
     <t xml:space="preserve">1.72375249862671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73963963985443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67609107494354</t>
+    <t xml:space="preserve">1.73963940143585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67609095573425</t>
   </si>
   <si>
     <t xml:space="preserve">1.63637328147888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64431691169739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69992196559906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69515562057495</t>
+    <t xml:space="preserve">1.6443167924881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69992160797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69515573978424</t>
   </si>
   <si>
     <t xml:space="preserve">1.63478469848633</t>
@@ -389,16 +389,16 @@
     <t xml:space="preserve">1.6411395072937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61730861663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63955056667328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6109539270401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58791744709015</t>
+    <t xml:space="preserve">1.61730873584747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63955068588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61095404624939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58791756629944</t>
   </si>
   <si>
     <t xml:space="preserve">1.57679665088654</t>
@@ -410,88 +410,88 @@
     <t xml:space="preserve">1.56329262256622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59188914299011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62525236606598</t>
+    <t xml:space="preserve">1.5918892621994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62525224685669</t>
   </si>
   <si>
     <t xml:space="preserve">1.6331958770752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64272820949554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6522604227066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55852663516998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56488120555878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5307240486145</t>
+    <t xml:space="preserve">1.64272832870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65226018428802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55852651596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56488132476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53072392940521</t>
   </si>
   <si>
     <t xml:space="preserve">1.5529659986496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5640869140625</t>
+    <t xml:space="preserve">1.56408703327179</t>
   </si>
   <si>
     <t xml:space="preserve">1.58712315559387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66020393371582</t>
+    <t xml:space="preserve">1.66020381450653</t>
   </si>
   <si>
     <t xml:space="preserve">1.6474940776825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62366366386414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62207508087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63160705566406</t>
+    <t xml:space="preserve">1.62366342544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.622074842453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63160729408264</t>
   </si>
   <si>
     <t xml:space="preserve">1.65861523151398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65384924411774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66497015953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70945394039154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70786535739899</t>
+    <t xml:space="preserve">1.65384912490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66497004032135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70945405960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70786547660828</t>
   </si>
   <si>
     <t xml:space="preserve">1.7459944486618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69197833538055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69833302497864</t>
+    <t xml:space="preserve">1.69197821617126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69833290576935</t>
   </si>
   <si>
     <t xml:space="preserve">1.70627665519714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69356679916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72534108161926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72851872444153</t>
+    <t xml:space="preserve">1.6935670375824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72534132003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72851884365082</t>
   </si>
   <si>
     <t xml:space="preserve">1.79842174053192</t>
@@ -500,103 +500,103 @@
     <t xml:space="preserve">1.79524457454681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81113171577454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81589758396149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7714136838913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7682363986969</t>
+    <t xml:space="preserve">1.81113159656525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81589782238007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77141380310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76823651790619</t>
   </si>
   <si>
     <t xml:space="preserve">1.80318808555603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82542991638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82701849937439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85084903240204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83496201038361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81907522678375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80001068115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8015992641449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85879302024841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86991393566132</t>
+    <t xml:space="preserve">1.82543003559113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82701873779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85084939002991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83496236801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81907534599304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80001056194305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80159938335419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85879290103912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8699141740799</t>
   </si>
   <si>
     <t xml:space="preserve">1.88897824287415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88580095767975</t>
+    <t xml:space="preserve">1.88580107688904</t>
   </si>
   <si>
     <t xml:space="preserve">1.87468004226685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89374434947968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88262343406677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92869639396667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94776046276093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92393016815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92551863193512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92075264453888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9366397857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91916418075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9334625005722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92234170436859</t>
+    <t xml:space="preserve">1.89374482631683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88262379169464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9286961555481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94776105880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92393028736115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92551898956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92075288295746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93663990497589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91916406154633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93346273899078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92234182357788</t>
   </si>
   <si>
     <t xml:space="preserve">1.90645444393158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91439807415009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89215588569641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90963172912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91757547855377</t>
+    <t xml:space="preserve">1.91439819335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89215564727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90963208675385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91757535934448</t>
   </si>
   <si>
     <t xml:space="preserve">1.93822860717773</t>
@@ -605,31 +605,31 @@
     <t xml:space="preserve">2.02243041992188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97953522205353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99383330345154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00177693367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99701106548309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03990602493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06373643875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07326889038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08438992500305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0828013420105</t>
+    <t xml:space="preserve">1.97953510284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99383318424225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00177669525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99701082706451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03990626335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06373691558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07326912879944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08439016342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08280158042908</t>
   </si>
   <si>
     <t xml:space="preserve">2.08756756782532</t>
@@ -641,10 +641,10 @@
     <t xml:space="preserve">2.07803511619568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08121252059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17063975334167</t>
+    <t xml:space="preserve">2.08121275901794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17063999176025</t>
   </si>
   <si>
     <t xml:space="preserve">2.16901397705078</t>
@@ -656,10 +656,10 @@
     <t xml:space="preserve">2.16251015663147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19502902030945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25193738937378</t>
+    <t xml:space="preserve">2.19502925872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25193667411804</t>
   </si>
   <si>
     <t xml:space="preserve">2.22754812240601</t>
@@ -671,13 +671,13 @@
     <t xml:space="preserve">2.2064106464386</t>
   </si>
   <si>
-    <t xml:space="preserve">2.243807554245</t>
+    <t xml:space="preserve">2.24380707740784</t>
   </si>
   <si>
     <t xml:space="preserve">2.23242568969727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21941828727722</t>
+    <t xml:space="preserve">2.21941804885864</t>
   </si>
   <si>
     <t xml:space="preserve">2.24218130111694</t>
@@ -686,46 +686,46 @@
     <t xml:space="preserve">2.1234872341156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12999081611633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11373114585876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12511348724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12186098098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14299869537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1381208896637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18689918518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19665455818176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20315885543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21128869056702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26494479179382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27632594108582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28933382034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28608202934265</t>
+    <t xml:space="preserve">2.12999105453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11373138427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12511301040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12186121940613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14299845695496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13812112808228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18689942359924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19665479660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20315861701965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21128845214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26494455337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27632617950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28933429718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28608250617981</t>
   </si>
   <si>
     <t xml:space="preserve">2.27470064163208</t>
@@ -737,22 +737,22 @@
     <t xml:space="preserve">2.24543356895447</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24055552482605</t>
+    <t xml:space="preserve">2.24055528640747</t>
   </si>
   <si>
     <t xml:space="preserve">2.2161660194397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17551779747009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14137268066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10234999656677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04219007492065</t>
+    <t xml:space="preserve">2.17551732063293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14137291908264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10235023498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04218983650208</t>
   </si>
   <si>
     <t xml:space="preserve">2.07308292388916</t>
@@ -761,19 +761,19 @@
     <t xml:space="preserve">2.15438032150269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13161706924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1836473941803</t>
+    <t xml:space="preserve">2.13161683082581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18364715576172</t>
   </si>
   <si>
     <t xml:space="preserve">2.14462471008301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11210584640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12673878669739</t>
+    <t xml:space="preserve">2.11210560798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12673926353455</t>
   </si>
   <si>
     <t xml:space="preserve">2.15763211250305</t>
@@ -785,34 +785,34 @@
     <t xml:space="preserve">2.15600633621216</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32510447502136</t>
+    <t xml:space="preserve">2.32510471343994</t>
   </si>
   <si>
     <t xml:space="preserve">2.30721950531006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29421162605286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31697487831116</t>
+    <t xml:space="preserve">2.29421138763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31697463989258</t>
   </si>
   <si>
     <t xml:space="preserve">2.32185292243958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40640211105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40152406692505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41453146934509</t>
+    <t xml:space="preserve">2.40640234947205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40152430534363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41453170776367</t>
   </si>
   <si>
     <t xml:space="preserve">2.41290593147278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47956967353821</t>
+    <t xml:space="preserve">2.47956991195679</t>
   </si>
   <si>
     <t xml:space="preserve">2.47631788253784</t>
@@ -821,31 +821,31 @@
     <t xml:space="preserve">2.53647756576538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5689971446991</t>
+    <t xml:space="preserve">2.56899666786194</t>
   </si>
   <si>
     <t xml:space="preserve">2.57875227928162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58363056182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61614894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60151600837708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63403463363647</t>
+    <t xml:space="preserve">2.58363032341003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61614918708801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60151529312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6340343952179</t>
   </si>
   <si>
     <t xml:space="preserve">2.62590479850769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58525633811951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59826374053955</t>
+    <t xml:space="preserve">2.58525657653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59826397895813</t>
   </si>
   <si>
     <t xml:space="preserve">2.59338593482971</t>
@@ -854,31 +854,31 @@
     <t xml:space="preserve">2.61777520179749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62753129005432</t>
+    <t xml:space="preserve">2.62753081321716</t>
   </si>
   <si>
     <t xml:space="preserve">2.60639381408691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60314130783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60801959037781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5917603969574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59013390541077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62102699279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64216423034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6470422744751</t>
+    <t xml:space="preserve">2.60314154624939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60801935195923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59176015853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59013414382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62102723121643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64216446876526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64704251289368</t>
   </si>
   <si>
     <t xml:space="preserve">2.63240885734558</t>
@@ -890,97 +890,97 @@
     <t xml:space="preserve">2.70395040512085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80963683128357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81288909912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82427048683167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7966296672821</t>
+    <t xml:space="preserve">2.80963706970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81288886070251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82427072525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79662942886353</t>
   </si>
   <si>
     <t xml:space="preserve">2.80475926399231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77386665344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76411080360413</t>
+    <t xml:space="preserve">2.77386593818665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76411056518555</t>
   </si>
   <si>
     <t xml:space="preserve">2.71533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69744658470154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68443918228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69582080841064</t>
+    <t xml:space="preserve">2.6974470615387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68443894386292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69582056999207</t>
   </si>
   <si>
     <t xml:space="preserve">2.68281292915344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66655373573303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65842390060425</t>
+    <t xml:space="preserve">2.66655349731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65842366218567</t>
   </si>
   <si>
     <t xml:space="preserve">2.63728642463684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6145236492157</t>
+    <t xml:space="preserve">2.61452341079712</t>
   </si>
   <si>
     <t xml:space="preserve">2.6242790222168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61940121650696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55273771286011</t>
+    <t xml:space="preserve">2.61940097808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55273747444153</t>
   </si>
   <si>
     <t xml:space="preserve">2.56411910057068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57550096511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52509617805481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48607397079468</t>
+    <t xml:space="preserve">2.57550024986267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52509593963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48607325553894</t>
   </si>
   <si>
     <t xml:space="preserve">2.40802812576294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.388516664505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34461617469788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36250114440918</t>
+    <t xml:space="preserve">2.38851642608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3446159362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36250138282776</t>
   </si>
   <si>
     <t xml:space="preserve">2.37388324737549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43729496002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45355463027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43892097473145</t>
+    <t xml:space="preserve">2.43729519844055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45355415344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43892121315002</t>
   </si>
   <si>
     <t xml:space="preserve">2.44705080986023</t>
@@ -995,88 +995,88 @@
     <t xml:space="preserve">2.72346162796021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73159122467041</t>
+    <t xml:space="preserve">2.73159146308899</t>
   </si>
   <si>
     <t xml:space="preserve">2.56086730957031</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45518064498901</t>
+    <t xml:space="preserve">2.45518088340759</t>
   </si>
   <si>
     <t xml:space="preserve">2.471440076828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48769927024841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54460763931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4958291053772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51208877563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52021837234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33323454856873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39014267921448</t>
+    <t xml:space="preserve">2.48769974708557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54460787773132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49582958221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51208853721619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52021861076355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33323431015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39014291763306</t>
   </si>
   <si>
     <t xml:space="preserve">2.34136438369751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35762357711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3657534122467</t>
+    <t xml:space="preserve">2.3576238155365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36575365066528</t>
   </si>
   <si>
     <t xml:space="preserve">2.34949398040771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30884528160095</t>
+    <t xml:space="preserve">2.30884504318237</t>
   </si>
   <si>
     <t xml:space="preserve">2.20334362983704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17839980125427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1617705821991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17008566856384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09525489807129</t>
+    <t xml:space="preserve">2.17840003967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16177082061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17008543014526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09525465965271</t>
   </si>
   <si>
     <t xml:space="preserve">2.07862567901611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14514207839966</t>
+    <t xml:space="preserve">2.14514183998108</t>
   </si>
   <si>
     <t xml:space="preserve">2.26985955238342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37794756889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21997261047363</t>
+    <t xml:space="preserve">2.37794780731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21997284889221</t>
   </si>
   <si>
     <t xml:space="preserve">2.24491596221924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22828674316406</t>
+    <t xml:space="preserve">2.22828698158264</t>
   </si>
   <si>
     <t xml:space="preserve">2.28648853302002</t>
@@ -1085,55 +1085,55 @@
     <t xml:space="preserve">2.21165800094604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25323033332825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27817368507385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26154470443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18671441078186</t>
+    <t xml:space="preserve">2.25323057174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27817416191101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26154518127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18671464920044</t>
   </si>
   <si>
     <t xml:space="preserve">2.13682746887207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15345621109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11188387870789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1285126209259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36131906509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35300421714783</t>
+    <t xml:space="preserve">2.15345644950867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11188411712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12851285934448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36131882667542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35300445556641</t>
   </si>
   <si>
     <t xml:space="preserve">2.30311727523804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29480314254761</t>
+    <t xml:space="preserve">2.29480266571045</t>
   </si>
   <si>
     <t xml:space="preserve">2.32806086540222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31974649429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31143188476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23660135269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39457726478577</t>
+    <t xml:space="preserve">2.31974625587463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31143164634705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23660159111023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39457702636719</t>
   </si>
   <si>
     <t xml:space="preserve">2.10356950759888</t>
@@ -1142,94 +1142,94 @@
     <t xml:space="preserve">2.12019848823547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07031178474426</t>
+    <t xml:space="preserve">2.0703113079071</t>
   </si>
   <si>
     <t xml:space="preserve">1.98716640472412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99548077583313</t>
+    <t xml:space="preserve">1.99548101425171</t>
   </si>
   <si>
     <t xml:space="preserve">2.03705358505249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0453679561615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06199669837952</t>
+    <t xml:space="preserve">2.04536771774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0619969367981</t>
   </si>
   <si>
     <t xml:space="preserve">2.0869402885437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87907767295837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88739228248596</t>
+    <t xml:space="preserve">1.87907791137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88739216327667</t>
   </si>
   <si>
     <t xml:space="preserve">1.91233563423157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86244857311249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84581983089447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89570653438568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83750510215759</t>
+    <t xml:space="preserve">1.86244869232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84581971168518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89570665359497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83750522136688</t>
   </si>
   <si>
     <t xml:space="preserve">1.79593288898468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76267457008362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77930390834808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81256198883057</t>
+    <t xml:space="preserve">1.76267445087433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77930378913879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81256186962128</t>
   </si>
   <si>
     <t xml:space="preserve">1.78761851787567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80424737930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82919061183929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82087624073029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87076330184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92896461486816</t>
+    <t xml:space="preserve">1.80424726009369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82919085025787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82087635993958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87076318264008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92896485328674</t>
   </si>
   <si>
     <t xml:space="preserve">1.93727910518646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90402126312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94559359550476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97885191440582</t>
+    <t xml:space="preserve">1.90402138233185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94559395313263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97885203361511</t>
   </si>
   <si>
     <t xml:space="preserve">2.05368232727051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01210975646973</t>
+    <t xml:space="preserve">2.01211023330688</t>
   </si>
   <si>
     <t xml:space="preserve">2.0967161655426</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">2.0624840259552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07104182243347</t>
+    <t xml:space="preserve">2.07104206085205</t>
   </si>
   <si>
     <t xml:space="preserve">2.03680992126465</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">2.01113557815552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05392575263977</t>
+    <t xml:space="preserve">2.05392599105835</t>
   </si>
   <si>
     <t xml:space="preserve">2.11383199691772</t>
@@ -1259,34 +1259,34 @@
     <t xml:space="preserve">2.13950610160828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13094830513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1737380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25076055526733</t>
+    <t xml:space="preserve">2.13094806671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17373824119568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25076031684875</t>
   </si>
   <si>
     <t xml:space="preserve">2.2422022819519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1908540725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18229627609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20797038078308</t>
+    <t xml:space="preserve">2.19085454940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18229603767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2079701423645</t>
   </si>
   <si>
     <t xml:space="preserve">2.21652841567993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19941234588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22508597373962</t>
+    <t xml:space="preserve">2.19941210746765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22508645057678</t>
   </si>
   <si>
     <t xml:space="preserve">2.15662217140198</t>
@@ -1295,13 +1295,13 @@
     <t xml:space="preserve">2.31066656112671</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30210852622986</t>
+    <t xml:space="preserve">2.30210876464844</t>
   </si>
   <si>
     <t xml:space="preserve">2.33634066581726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32778239250183</t>
+    <t xml:space="preserve">2.32778263092041</t>
   </si>
   <si>
     <t xml:space="preserve">2.29355049133301</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">2.34489846229553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35345673561096</t>
+    <t xml:space="preserve">2.35345697402954</t>
   </si>
   <si>
     <t xml:space="preserve">2.42192077636719</t>
@@ -1319,25 +1319,25 @@
     <t xml:space="preserve">2.39624667167664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38768863677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40480494499207</t>
+    <t xml:space="preserve">2.38768887519836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40480470657349</t>
   </si>
   <si>
     <t xml:space="preserve">2.47326922416687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46471118927002</t>
+    <t xml:space="preserve">2.4647114276886</t>
   </si>
   <si>
     <t xml:space="preserve">2.41336274147034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36201477050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37057280540466</t>
+    <t xml:space="preserve">2.36201453208923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37057256698608</t>
   </si>
   <si>
     <t xml:space="preserve">2.37913060188293</t>
@@ -1346,28 +1346,28 @@
     <t xml:space="preserve">2.31922459602356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48182702064514</t>
+    <t xml:space="preserve">2.48182725906372</t>
   </si>
   <si>
     <t xml:space="preserve">2.5417332649231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50750136375427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52461743354797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49894309043884</t>
+    <t xml:space="preserve">2.50750112533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52461719512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49894332885742</t>
   </si>
   <si>
     <t xml:space="preserve">2.51605916023254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55029106140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5930814743042</t>
+    <t xml:space="preserve">2.55029129981995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59308123588562</t>
   </si>
   <si>
     <t xml:space="preserve">2.56740736961365</t>
@@ -1382,13 +1382,13 @@
     <t xml:space="preserve">2.64442944526672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58452320098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60163927078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53317523002625</t>
+    <t xml:space="preserve">2.58452343940735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60163950920105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53317546844482</t>
   </si>
   <si>
     <t xml:space="preserve">2.43903684616089</t>
@@ -1400,16 +1400,16 @@
     <t xml:space="preserve">2.27643442153931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26787686347961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.122389793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94267153739929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95122921466827</t>
+    <t xml:space="preserve">2.26787638664246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12239027023315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94267165660858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95122933387756</t>
   </si>
   <si>
     <t xml:space="preserve">1.74583697319031</t>
@@ -1418,55 +1418,55 @@
     <t xml:space="preserve">1.75439500808716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62602472305298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78006887435913</t>
+    <t xml:space="preserve">1.62602460384369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78006899356842</t>
   </si>
   <si>
     <t xml:space="preserve">1.70732593536377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70304691791534</t>
+    <t xml:space="preserve">1.70304679870605</t>
   </si>
   <si>
     <t xml:space="preserve">1.68593072891235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83997547626495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84853327274323</t>
+    <t xml:space="preserve">1.83997535705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84853315353394</t>
   </si>
   <si>
     <t xml:space="preserve">1.81430101394653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87420725822449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93411338329315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07959985733032</t>
+    <t xml:space="preserve">1.87420737743378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93411350250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0796000957489</t>
   </si>
   <si>
     <t xml:space="preserve">1.88276517391205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86564946174622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89132332801819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91699731349945</t>
+    <t xml:space="preserve">1.86564934253693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89132344722748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91699743270874</t>
   </si>
   <si>
     <t xml:space="preserve">1.89988136291504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85709142684937</t>
+    <t xml:space="preserve">1.8570910692215</t>
   </si>
   <si>
     <t xml:space="preserve">1.9597874879837</t>
@@ -1475,19 +1475,19 @@
     <t xml:space="preserve">1.98546147346497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96834552288055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97690343856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02825140953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10527420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16518020629883</t>
+    <t xml:space="preserve">1.96834564208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9769035577774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0282518863678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10527396202087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16518044471741</t>
   </si>
   <si>
     <t xml:space="preserve">2.25931859016418</t>
@@ -1502,10 +1502,10 @@
     <t xml:space="preserve">2.14709782600403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11189937591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05910181999207</t>
+    <t xml:space="preserve">2.11189961433411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05910205841064</t>
   </si>
   <si>
     <t xml:space="preserve">2.05030226707458</t>
@@ -1523,19 +1523,19 @@
     <t xml:space="preserve">2.10310006141663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12949872016907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12069940567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08550047874451</t>
+    <t xml:space="preserve">2.12949895858765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12069916725159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08550071716309</t>
   </si>
   <si>
     <t xml:space="preserve">2.07670092582703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97110605239868</t>
+    <t xml:space="preserve">1.97110629081726</t>
   </si>
   <si>
     <t xml:space="preserve">1.95350706577301</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">2.09430050849915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03270316123962</t>
+    <t xml:space="preserve">2.03270292282104</t>
   </si>
   <si>
     <t xml:space="preserve">2.16469717025757</t>
@@ -1562,10 +1562,10 @@
     <t xml:space="preserve">2.24389338493347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28789091110229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31429004669189</t>
+    <t xml:space="preserve">2.28789114952087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31428980827332</t>
   </si>
   <si>
     <t xml:space="preserve">2.39348602294922</t>
@@ -1574,13 +1574,13 @@
     <t xml:space="preserve">2.41988492012024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4374840259552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44628357887268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51668000221252</t>
+    <t xml:space="preserve">2.43748378753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44628381729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5166802406311</t>
   </si>
   <si>
     <t xml:space="preserve">2.53427958488464</t>
@@ -1589,19 +1589,19 @@
     <t xml:space="preserve">2.56947779655457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56067824363708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58707690238953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60467624664307</t>
+    <t xml:space="preserve">2.56067848205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58707714080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60467648506165</t>
   </si>
   <si>
     <t xml:space="preserve">2.52547979354858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50788068771362</t>
+    <t xml:space="preserve">2.50788044929504</t>
   </si>
   <si>
     <t xml:space="preserve">2.61347579956055</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">2.68387246131897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66627335548401</t>
+    <t xml:space="preserve">2.66627311706543</t>
   </si>
   <si>
     <t xml:space="preserve">2.63987445831299</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">2.67507266998291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65747356414795</t>
+    <t xml:space="preserve">2.65747380256653</t>
   </si>
   <si>
     <t xml:space="preserve">2.64867401123047</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">2.62227511405945</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74546933174133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73667001724243</t>
+    <t xml:space="preserve">2.74546909332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73666954040527</t>
   </si>
   <si>
     <t xml:space="preserve">2.76306867599487</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">2.79826688766479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72787022590637</t>
+    <t xml:space="preserve">2.72787046432495</t>
   </si>
   <si>
     <t xml:space="preserve">2.81586599349976</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">2.97425866127014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9918577671051</t>
+    <t xml:space="preserve">2.99185800552368</t>
   </si>
   <si>
     <t xml:space="preserve">3.01825666427612</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">2.96545886993408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9126615524292</t>
+    <t xml:space="preserve">2.91266131401062</t>
   </si>
   <si>
     <t xml:space="preserve">2.85986399650574</t>
@@ -1706,22 +1706,22 @@
     <t xml:space="preserve">3.02705597877502</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12385153770447</t>
+    <t xml:space="preserve">3.12385129928589</t>
   </si>
   <si>
     <t xml:space="preserve">3.15025019645691</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07105422019958</t>
+    <t xml:space="preserve">3.07105398178101</t>
   </si>
   <si>
     <t xml:space="preserve">3.19424819946289</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20304751396179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23824572563171</t>
+    <t xml:space="preserve">3.20304775238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23824596405029</t>
   </si>
   <si>
     <t xml:space="preserve">3.29984307289124</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">3.52863240242004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55503106117249</t>
+    <t xml:space="preserve">3.55503082275391</t>
   </si>
   <si>
     <t xml:space="preserve">3.49343395233154</t>
@@ -1772,10 +1772,10 @@
     <t xml:space="preserve">3.44112133979797</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39631509780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.476966381073</t>
+    <t xml:space="preserve">3.39631485939026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47696661949158</t>
   </si>
   <si>
     <t xml:space="preserve">3.46800518035889</t>
@@ -1784,7 +1784,7 @@
     <t xml:space="preserve">3.4948890209198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52177286148071</t>
+    <t xml:space="preserve">3.52177262306213</t>
   </si>
   <si>
     <t xml:space="preserve">3.57554030418396</t>
@@ -1802,10 +1802,10 @@
     <t xml:space="preserve">3.73684287071228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72788119316101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79061055183411</t>
+    <t xml:space="preserve">3.72788143157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79061007499695</t>
   </si>
   <si>
     <t xml:space="preserve">3.74580383300781</t>
@@ -1814,19 +1814,19 @@
     <t xml:space="preserve">3.85333943367004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80853271484375</t>
+    <t xml:space="preserve">3.80853295326233</t>
   </si>
   <si>
     <t xml:space="preserve">3.92502951622009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95191264152527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83541631698608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76372623443604</t>
+    <t xml:space="preserve">3.95191311836243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83541679382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76372647285461</t>
   </si>
   <si>
     <t xml:space="preserve">3.78164887428284</t>
@@ -1838,34 +1838,34 @@
     <t xml:space="preserve">3.89814519882202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69203662872314</t>
+    <t xml:space="preserve">3.69203639030457</t>
   </si>
   <si>
     <t xml:space="preserve">3.81749415397644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70995879173279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71892023086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84437799453735</t>
+    <t xml:space="preserve">3.70995903015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71892046928406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8443775177002</t>
   </si>
   <si>
     <t xml:space="preserve">3.65619158744812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68307518959045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6203465461731</t>
+    <t xml:space="preserve">3.68307542800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62034630775452</t>
   </si>
   <si>
     <t xml:space="preserve">3.53969526290894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64723014831543</t>
+    <t xml:space="preserve">3.64723038673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.82645535469055</t>
@@ -1877,10 +1877,10 @@
     <t xml:space="preserve">3.79957127571106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7547652721405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01464128494263</t>
+    <t xml:space="preserve">3.75476551055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01464176177979</t>
   </si>
   <si>
     <t xml:space="preserve">3.96983528137207</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">4.10425424575806</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1400990486145</t>
+    <t xml:space="preserve">4.14009857177734</t>
   </si>
   <si>
     <t xml:space="preserve">3.98775792121887</t>
@@ -1907,10 +1907,10 @@
     <t xml:space="preserve">3.91606783866882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90710639953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07737064361572</t>
+    <t xml:space="preserve">3.90710687637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07737016677856</t>
   </si>
   <si>
     <t xml:space="preserve">4.03256416320801</t>
@@ -1934,22 +1934,25 @@
     <t xml:space="preserve">4.08633136749268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77268767356873</t>
+    <t xml:space="preserve">3.7726879119873</t>
   </si>
   <si>
     <t xml:space="preserve">3.62930798530579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55761790275574</t>
+    <t xml:space="preserve">3.55761766433716</t>
   </si>
   <si>
     <t xml:space="preserve">3.54865670204163</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40527629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37839293479919</t>
+    <t xml:space="preserve">3.40527653694153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37839269638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41423749923706</t>
   </si>
   <si>
     <t xml:space="preserve">3.36943125724792</t>
@@ -1973,10 +1976,10 @@
     <t xml:space="preserve">3.53073406219482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48592805862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3335862159729</t>
+    <t xml:space="preserve">3.48592782020569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33358645439148</t>
   </si>
   <si>
     <t xml:space="preserve">3.3515088558197</t>
@@ -1985,19 +1988,19 @@
     <t xml:space="preserve">3.27085757255554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23501253128052</t>
+    <t xml:space="preserve">3.2350127696991</t>
   </si>
   <si>
     <t xml:space="preserve">3.31566405296326</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26189637184143</t>
+    <t xml:space="preserve">3.26189661026001</t>
   </si>
   <si>
     <t xml:space="preserve">3.091632604599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18124508857727</t>
+    <t xml:space="preserve">3.18124485015869</t>
   </si>
   <si>
     <t xml:space="preserve">3.66515278816223</t>
@@ -42687,7 +42690,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1530" t="s">
-        <v>582</v>
+        <v>646</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42739,7 +42742,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1532" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42765,7 +42768,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1533" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42895,7 +42898,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1538" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42921,7 +42924,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1539" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43025,7 +43028,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1543" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43103,7 +43106,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1546" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43155,7 +43158,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1548" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43207,7 +43210,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1550" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43233,7 +43236,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1551" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43441,7 +43444,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1559" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43467,7 +43470,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1560" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43545,7 +43548,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1563" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43571,7 +43574,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1564" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43597,7 +43600,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1565" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43623,7 +43626,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1566" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43649,7 +43652,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1567" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43675,7 +43678,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1568" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43701,7 +43704,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1569" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43727,7 +43730,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1570" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43753,7 +43756,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1571" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43779,7 +43782,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1572" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43805,7 +43808,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1573" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43857,7 +43860,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1575" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44117,7 +44120,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1585" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44143,7 +44146,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1586" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44195,7 +44198,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1588" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44221,7 +44224,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1589" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44351,7 +44354,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1594" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44377,7 +44380,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1595" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44481,7 +44484,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1599" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44507,7 +44510,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1600" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44585,7 +44588,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1603" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44637,7 +44640,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1605" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44715,7 +44718,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1608" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44871,7 +44874,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1614" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44949,7 +44952,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1617" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45157,7 +45160,7 @@
         <v>4</v>
       </c>
       <c r="G1625" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45183,7 +45186,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45209,7 +45212,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1627" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45235,7 +45238,7 @@
         <v>4</v>
       </c>
       <c r="G1628" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45261,7 +45264,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1629" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45287,7 +45290,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1630" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45313,7 +45316,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1631" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45339,7 +45342,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1632" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45365,7 +45368,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1633" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45391,7 +45394,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1634" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45417,7 +45420,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45443,7 +45446,7 @@
         <v>4</v>
       </c>
       <c r="G1636" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45469,7 +45472,7 @@
         <v>4</v>
       </c>
       <c r="G1637" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45495,7 +45498,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1638" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45521,7 +45524,7 @@
         <v>4</v>
       </c>
       <c r="G1639" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45547,7 +45550,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1640" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45573,7 +45576,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1641" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45599,7 +45602,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1642" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45625,7 +45628,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1643" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45651,7 +45654,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1644" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45677,7 +45680,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1645" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45703,7 +45706,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45729,7 +45732,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1647" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45755,7 +45758,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1648" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45781,7 +45784,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1649" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45807,7 +45810,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1650" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45833,7 +45836,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1651" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45859,7 +45862,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1652" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45885,7 +45888,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1653" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45911,7 +45914,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1654" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45937,7 +45940,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1655" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45963,7 +45966,7 @@
         <v>3.75</v>
       </c>
       <c r="G1656" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45989,7 +45992,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1657" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46015,7 +46018,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1658" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46041,7 +46044,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1659" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46067,7 +46070,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1660" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46093,7 +46096,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1661" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46119,7 +46122,7 @@
         <v>3.75</v>
       </c>
       <c r="G1662" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46145,7 +46148,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1663" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46171,7 +46174,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1664" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46197,7 +46200,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1665" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46223,7 +46226,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46249,7 +46252,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1667" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46275,7 +46278,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1668" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46301,7 +46304,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1669" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46327,7 +46330,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1670" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46353,7 +46356,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1671" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46379,7 +46382,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1672" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46405,7 +46408,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1673" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46431,7 +46434,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1674" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46457,7 +46460,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1675" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46483,7 +46486,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1676" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46535,7 +46538,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1678" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46561,7 +46564,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1679" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46587,7 +46590,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1680" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46613,7 +46616,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1681" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46639,7 +46642,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1682" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46665,7 +46668,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1683" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46691,7 +46694,7 @@
         <v>3.75</v>
       </c>
       <c r="G1684" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46717,7 +46720,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1685" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46743,7 +46746,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46795,7 +46798,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1688" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46821,7 +46824,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1689" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46847,7 +46850,7 @@
         <v>3.75</v>
       </c>
       <c r="G1690" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46873,7 +46876,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1691" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46899,7 +46902,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1692" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46925,7 +46928,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1693" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46951,7 +46954,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1694" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46977,7 +46980,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1695" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47003,7 +47006,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1696" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47055,7 +47058,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1698" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47081,7 +47084,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1699" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47107,7 +47110,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1700" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47133,7 +47136,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1701" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47159,7 +47162,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1702" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47185,7 +47188,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1703" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47211,7 +47214,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1704" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47237,7 +47240,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1705" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47263,7 +47266,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1706" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47289,7 +47292,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1707" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47315,7 +47318,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1708" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47341,7 +47344,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1709" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47367,7 +47370,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1710" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47393,7 +47396,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1711" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47419,7 +47422,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1712" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47445,7 +47448,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1713" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47471,7 +47474,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1714" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47497,7 +47500,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1715" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47523,7 +47526,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1716" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47549,7 +47552,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1717" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47575,7 +47578,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1718" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47601,7 +47604,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47627,7 +47630,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1720" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47653,7 +47656,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1721" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47679,7 +47682,7 @@
         <v>3</v>
       </c>
       <c r="G1722" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47705,7 +47708,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1723" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47731,7 +47734,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1724" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47757,7 +47760,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1725" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47783,7 +47786,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1726" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47809,7 +47812,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1727" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47835,7 +47838,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1728" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47861,7 +47864,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1729" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47887,7 +47890,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1730" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47913,7 +47916,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1731" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47939,7 +47942,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1732" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47965,7 +47968,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1733" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47991,7 +47994,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1734" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48017,7 +48020,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1735" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48043,7 +48046,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1736" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48069,7 +48072,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1737" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48095,7 +48098,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1738" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48121,7 +48124,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1739" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48147,7 +48150,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1740" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48173,7 +48176,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1741" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48199,7 +48202,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1742" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48225,7 +48228,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1743" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48251,7 +48254,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1744" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48277,7 +48280,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1745" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48303,7 +48306,7 @@
         <v>3.5</v>
       </c>
       <c r="G1746" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48329,7 +48332,7 @@
         <v>3.5</v>
       </c>
       <c r="G1747" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48355,7 +48358,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1748" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48381,7 +48384,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1749" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48407,7 +48410,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1750" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48433,7 +48436,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1751" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48459,7 +48462,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1752" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48485,7 +48488,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1753" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48511,7 +48514,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1754" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48537,7 +48540,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1755" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48563,7 +48566,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1756" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48589,7 +48592,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1757" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48615,7 +48618,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1758" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48641,7 +48644,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1759" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48667,7 +48670,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1760" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48693,7 +48696,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1761" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48719,7 +48722,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1762" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48745,7 +48748,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48771,7 +48774,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1764" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48797,7 +48800,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1765" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48823,7 +48826,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1766" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48849,7 +48852,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1767" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48875,7 +48878,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1768" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48901,7 +48904,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1769" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48927,7 +48930,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1770" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48953,7 +48956,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48979,7 +48982,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1772" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49005,7 +49008,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1773" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49031,7 +49034,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1774" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49057,7 +49060,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1775" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49083,7 +49086,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1776" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49109,7 +49112,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1777" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49135,7 +49138,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1778" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49161,7 +49164,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1779" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49187,7 +49190,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1780" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49213,7 +49216,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1781" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49239,7 +49242,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49265,7 +49268,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1783" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49291,7 +49294,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1784" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49317,7 +49320,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1785" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49343,7 +49346,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1786" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49369,7 +49372,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1787" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49395,7 +49398,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49421,7 +49424,7 @@
         <v>3.25</v>
       </c>
       <c r="G1789" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49447,7 +49450,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1790" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49473,7 +49476,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1791" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49499,7 +49502,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1792" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49525,7 +49528,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1793" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49551,7 +49554,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49577,7 +49580,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49603,7 +49606,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1796" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49629,7 +49632,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1797" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49655,7 +49658,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1798" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49681,7 +49684,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1799" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49707,7 +49710,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1800" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49733,7 +49736,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1801" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49759,7 +49762,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49785,7 +49788,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1803" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49811,7 +49814,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1804" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49837,7 +49840,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1805" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49863,7 +49866,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1806" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49889,7 +49892,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1807" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49915,7 +49918,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1808" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49941,7 +49944,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1809" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49967,7 +49970,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1810" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49993,7 +49996,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1811" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50019,7 +50022,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1812" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50045,7 +50048,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1813" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50071,7 +50074,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1814" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50097,7 +50100,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1815" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50123,7 +50126,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1816" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50149,7 +50152,7 @@
         <v>3.75</v>
       </c>
       <c r="G1817" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50175,7 +50178,7 @@
         <v>3.75</v>
       </c>
       <c r="G1818" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50201,7 +50204,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1819" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50227,7 +50230,7 @@
         <v>3.75</v>
       </c>
       <c r="G1820" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50253,7 +50256,7 @@
         <v>3.75</v>
       </c>
       <c r="G1821" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50279,7 +50282,7 @@
         <v>3.75</v>
       </c>
       <c r="G1822" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50305,7 +50308,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1823" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50331,7 +50334,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1824" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50357,7 +50360,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1825" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50383,7 +50386,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1826" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50409,7 +50412,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1827" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50435,7 +50438,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1828" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50461,7 +50464,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1829" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50487,7 +50490,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1830" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50513,7 +50516,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1831" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50539,7 +50542,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1832" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50565,7 +50568,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1833" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50591,7 +50594,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50617,7 +50620,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1835" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50643,7 +50646,7 @@
         <v>4</v>
       </c>
       <c r="G1836" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50669,7 +50672,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1837" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50695,7 +50698,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1838" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50721,7 +50724,7 @@
         <v>4</v>
       </c>
       <c r="G1839" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50747,7 +50750,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1840" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50773,7 +50776,7 @@
         <v>4</v>
       </c>
       <c r="G1841" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50799,7 +50802,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1842" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50825,7 +50828,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1843" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50851,7 +50854,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1844" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50877,7 +50880,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1845" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50903,7 +50906,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1846" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50929,7 +50932,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1847" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50955,7 +50958,7 @@
         <v>4</v>
       </c>
       <c r="G1848" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50981,7 +50984,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1849" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51007,7 +51010,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1850" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51033,7 +51036,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1851" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51059,7 +51062,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1852" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51085,7 +51088,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1853" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51111,7 +51114,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1854" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51137,7 +51140,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1855" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51163,7 +51166,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1856" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51189,7 +51192,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1857" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51215,7 +51218,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1858" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51267,7 +51270,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1860" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51293,7 +51296,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1861" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51319,7 +51322,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1862" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51345,7 +51348,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1863" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51371,7 +51374,7 @@
         <v>4</v>
       </c>
       <c r="G1864" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51397,7 +51400,7 @@
         <v>4</v>
       </c>
       <c r="G1865" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51449,7 +51452,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1867" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51475,7 +51478,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1868" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51501,7 +51504,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1869" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51527,7 +51530,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1870" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51553,7 +51556,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1871" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51605,7 +51608,7 @@
         <v>4</v>
       </c>
       <c r="G1873" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51631,7 +51634,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1874" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51657,7 +51660,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1875" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51683,7 +51686,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1876" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51709,7 +51712,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1877" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51735,7 +51738,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1878" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51761,7 +51764,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1879" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51787,7 +51790,7 @@
         <v>4</v>
       </c>
       <c r="G1880" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51813,7 +51816,7 @@
         <v>4</v>
       </c>
       <c r="G1881" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51839,7 +51842,7 @@
         <v>4</v>
       </c>
       <c r="G1882" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51865,7 +51868,7 @@
         <v>4</v>
       </c>
       <c r="G1883" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51891,7 +51894,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51917,7 +51920,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1885" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51943,7 +51946,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1886" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51969,7 +51972,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51995,7 +51998,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1888" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52021,7 +52024,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1889" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52047,7 +52050,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1890" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52073,7 +52076,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1891" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52099,7 +52102,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1892" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52125,7 +52128,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1893" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52151,7 +52154,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1894" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52177,7 +52180,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1895" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52203,7 +52206,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52229,7 +52232,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1897" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52255,7 +52258,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52281,7 +52284,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1899" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52307,7 +52310,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1900" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52333,7 +52336,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1901" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52359,7 +52362,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1902" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52385,7 +52388,7 @@
         <v>4</v>
       </c>
       <c r="G1903" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52411,7 +52414,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1904" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52437,7 +52440,7 @@
         <v>4</v>
       </c>
       <c r="G1905" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52463,7 +52466,7 @@
         <v>4</v>
       </c>
       <c r="G1906" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52489,7 +52492,7 @@
         <v>4</v>
       </c>
       <c r="G1907" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52515,7 +52518,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1908" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52541,7 +52544,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1909" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52567,7 +52570,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1910" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52593,7 +52596,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1911" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52619,7 +52622,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1912" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52645,7 +52648,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1913" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52671,7 +52674,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1914" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52697,7 +52700,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1915" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52723,7 +52726,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1916" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52749,7 +52752,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1917" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52775,7 +52778,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1918" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52801,7 +52804,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1919" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52827,7 +52830,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1920" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52853,7 +52856,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1921" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52879,7 +52882,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1922" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52905,7 +52908,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52931,7 +52934,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1924" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52957,7 +52960,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1925" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52983,7 +52986,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1926" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53009,7 +53012,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1927" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53035,7 +53038,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53061,7 +53064,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1929" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53087,7 +53090,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1930" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53113,7 +53116,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53139,7 +53142,7 @@
         <v>4.25</v>
       </c>
       <c r="G1932" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53165,7 +53168,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53191,7 +53194,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1934" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53217,7 +53220,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1935" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53243,7 +53246,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1936" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53269,7 +53272,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1937" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53295,7 +53298,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1938" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53321,7 +53324,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1939" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53347,7 +53350,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1940" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53373,7 +53376,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1941" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53399,7 +53402,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1942" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53425,7 +53428,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1943" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53451,7 +53454,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1944" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53477,7 +53480,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1945" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53503,7 +53506,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1946" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53529,7 +53532,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1947" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53555,7 +53558,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53581,7 +53584,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1949" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53607,7 +53610,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1950" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53633,7 +53636,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53659,7 +53662,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1952" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53685,7 +53688,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1953" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53711,7 +53714,7 @@
         <v>4</v>
       </c>
       <c r="G1954" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53737,7 +53740,7 @@
         <v>4</v>
       </c>
       <c r="G1955" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53763,7 +53766,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53789,7 +53792,7 @@
         <v>4</v>
       </c>
       <c r="G1957" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53815,7 +53818,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1958" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53841,7 +53844,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1959" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53867,7 +53870,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1960" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53893,7 +53896,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1961" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53919,7 +53922,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1962" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53945,7 +53948,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1963" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53971,7 +53974,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1964" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53997,7 +54000,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1965" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54023,7 +54026,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1966" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54049,7 +54052,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1967" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54075,7 +54078,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1968" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54101,7 +54104,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54127,7 +54130,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1970" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54153,7 +54156,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54179,7 +54182,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1972" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54205,7 +54208,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1973" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54231,7 +54234,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1974" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54257,7 +54260,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1975" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54283,7 +54286,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54309,7 +54312,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1977" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54335,7 +54338,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1978" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54361,7 +54364,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1979" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54387,7 +54390,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54413,7 +54416,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1981" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54439,7 +54442,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1982" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54465,7 +54468,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1983" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54491,7 +54494,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1984" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54517,7 +54520,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1985" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54543,7 +54546,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1986" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54569,7 +54572,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1987" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54595,7 +54598,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54621,7 +54624,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1989" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54647,7 +54650,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1990" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54673,7 +54676,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1991" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54699,7 +54702,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1992" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54725,7 +54728,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1993" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54751,7 +54754,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54777,7 +54780,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54803,7 +54806,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1996" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54829,7 +54832,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1997" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54855,7 +54858,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54881,7 +54884,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1999" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54907,7 +54910,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2000" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54933,7 +54936,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54959,7 +54962,7 @@
         <v>4</v>
       </c>
       <c r="G2002" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54985,7 +54988,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2003" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55011,7 +55014,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2004" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55037,7 +55040,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2005" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55063,7 +55066,7 @@
         <v>4</v>
       </c>
       <c r="G2006" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55089,7 +55092,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2007" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55115,7 +55118,7 @@
         <v>4</v>
       </c>
       <c r="G2008" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55141,7 +55144,7 @@
         <v>4</v>
       </c>
       <c r="G2009" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55167,7 +55170,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G2010" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55193,7 +55196,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G2011" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55219,7 +55222,7 @@
         <v>4</v>
       </c>
       <c r="G2012" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55245,7 +55248,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G2013" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55271,7 +55274,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2014" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55297,7 +55300,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55323,7 +55326,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2016" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55349,7 +55352,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55375,7 +55378,7 @@
         <v>4</v>
       </c>
       <c r="G2018" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55401,7 +55404,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2019" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55427,7 +55430,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2020" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55453,7 +55456,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2021" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55479,7 +55482,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2022" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55505,7 +55508,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2023" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55531,7 +55534,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2024" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55557,7 +55560,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55583,7 +55586,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55609,7 +55612,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55635,7 +55638,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2028" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55661,7 +55664,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2029" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55687,7 +55690,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2030" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55713,7 +55716,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2031" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55739,7 +55742,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2032" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55765,7 +55768,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2033" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55791,7 +55794,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55817,7 +55820,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2035" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55843,7 +55846,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2036" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55869,7 +55872,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2037" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55895,7 +55898,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2038" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55921,7 +55924,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G2039" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55947,7 +55950,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2040" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55973,7 +55976,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2041" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55999,7 +56002,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2042" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56025,7 +56028,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2043" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56051,7 +56054,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2044" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56077,7 +56080,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2045" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56103,7 +56106,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2046" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56129,7 +56132,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2047" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56155,7 +56158,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2048" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56181,7 +56184,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2049" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56207,7 +56210,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2050" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56233,7 +56236,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2051" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56259,7 +56262,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2052" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56285,7 +56288,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2053" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56311,7 +56314,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2054" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56337,7 +56340,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G2055" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56363,7 +56366,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2056" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56389,7 +56392,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G2057" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56415,7 +56418,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2058" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56441,7 +56444,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2059" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56467,7 +56470,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G2060" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56493,7 +56496,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G2061" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56519,7 +56522,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2062" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56545,7 +56548,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2063" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56571,7 +56574,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2064" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56597,7 +56600,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2065" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56623,7 +56626,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G2066" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56649,7 +56652,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2067" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56675,7 +56678,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2068" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56701,7 +56704,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2069" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56727,7 +56730,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2070" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56753,7 +56756,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2071" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56779,7 +56782,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2072" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56805,7 +56808,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G2073" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56831,7 +56834,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2074" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56857,7 +56860,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G2075" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56883,7 +56886,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2076" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56909,7 +56912,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2077" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56935,7 +56938,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G2078" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56961,7 +56964,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56987,7 +56990,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2080" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57013,7 +57016,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2081" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57039,7 +57042,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2082" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57065,7 +57068,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2083" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57091,7 +57094,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2084" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57117,7 +57120,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2085" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57143,7 +57146,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2086" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57169,7 +57172,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57195,7 +57198,7 @@
         <v>4.5</v>
       </c>
       <c r="G2088" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57221,7 +57224,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G2089" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57247,7 +57250,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G2090" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57273,7 +57276,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2091" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57299,7 +57302,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G2092" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57325,7 +57328,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G2093" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57351,7 +57354,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G2094" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57377,7 +57380,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2095" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57403,7 +57406,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2096" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57429,7 +57432,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57455,7 +57458,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2098" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57481,7 +57484,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2099" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57507,7 +57510,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2100" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57533,7 +57536,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57559,7 +57562,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2102" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57585,7 +57588,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2103" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57611,7 +57614,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2104" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57637,7 +57640,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2105" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57663,7 +57666,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57689,7 +57692,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2107" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57715,7 +57718,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2108" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57741,7 +57744,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2109" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57767,7 +57770,7 @@
         <v>4.98999977111816</v>
       </c>
       <c r="G2110" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57793,7 +57796,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2111" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57819,7 +57822,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G2112" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57845,7 +57848,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2113" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57871,7 +57874,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G2114" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57897,7 +57900,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2115" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57923,7 +57926,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2116" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57949,7 +57952,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2117" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57975,7 +57978,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2118" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58001,7 +58004,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2119" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58027,7 +58030,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2120" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58053,7 +58056,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2121" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58079,7 +58082,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2122" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58105,7 +58108,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2123" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58131,7 +58134,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2124" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58157,7 +58160,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2125" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58183,7 +58186,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2126" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58209,7 +58212,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2127" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58235,7 +58238,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2128" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58261,7 +58264,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2129" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58287,7 +58290,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G2130" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58313,7 +58316,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2131" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58339,7 +58342,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58365,7 +58368,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G2133" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58391,7 +58394,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2134" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58417,7 +58420,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2135" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58443,7 +58446,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2136" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58469,7 +58472,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2137" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58495,7 +58498,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2138" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58521,7 +58524,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2139" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58547,7 +58550,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2140" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58573,7 +58576,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2141" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58599,7 +58602,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2142" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58625,7 +58628,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2143" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58651,7 +58654,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2144" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58677,7 +58680,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58703,7 +58706,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2146" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58729,7 +58732,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2147" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58755,7 +58758,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G2148" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58781,7 +58784,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2149" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58807,7 +58810,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G2150" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58833,7 +58836,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2151" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58859,7 +58862,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G2152" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58885,7 +58888,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2153" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58911,7 +58914,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G2154" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58937,7 +58940,7 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G2155" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58963,7 +58966,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2156" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58989,7 +58992,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G2157" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59015,7 +59018,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G2158" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59041,7 +59044,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G2159" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59067,7 +59070,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G2160" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59093,7 +59096,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2161" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -59119,7 +59122,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G2162" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -59145,7 +59148,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G2163" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -59171,7 +59174,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2164" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -59197,7 +59200,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G2165" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -59205,7 +59208,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.5603587963</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>14214</v>
@@ -59223,9 +59226,35 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G2166" t="s">
+        <v>847</v>
+      </c>
+      <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.649525463</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>3810</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>5.69999980926514</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>5.61999988555908</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>5.65999984741211</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>5.67999982833862</v>
+      </c>
+      <c r="G2167" t="s">
         <v>846</v>
       </c>
-      <c r="H2166" t="s">
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CALT.MI.xlsx
+++ b/data/CALT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="854">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8017326593399</t>
+    <t xml:space="preserve">1.80173289775848</t>
   </si>
   <si>
     <t xml:space="preserve">CALT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80949866771698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77843463420868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72407209873199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73494446277618</t>
+    <t xml:space="preserve">1.80949878692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77843451499939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72407197952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73494434356689</t>
   </si>
   <si>
     <t xml:space="preserve">1.71164631843567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70077359676361</t>
+    <t xml:space="preserve">1.70077383518219</t>
   </si>
   <si>
     <t xml:space="preserve">1.63243210315704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55244112014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53613257408142</t>
+    <t xml:space="preserve">1.55244123935699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53613245487213</t>
   </si>
   <si>
     <t xml:space="preserve">1.53768587112427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49031269550323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49885523319244</t>
+    <t xml:space="preserve">1.49031281471252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49885535240173</t>
   </si>
   <si>
     <t xml:space="preserve">1.47555708885193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47322726249695</t>
+    <t xml:space="preserve">1.47322714328766</t>
   </si>
   <si>
     <t xml:space="preserve">1.46779096126556</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">1.47245061397552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46002471446991</t>
+    <t xml:space="preserve">1.4600248336792</t>
   </si>
   <si>
     <t xml:space="preserve">1.4343968629837</t>
@@ -107,10 +107,10 @@
     <t xml:space="preserve">1.40799200534821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38624691963196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39789605140686</t>
+    <t xml:space="preserve">1.38624703884125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39789617061615</t>
   </si>
   <si>
     <t xml:space="preserve">1.39323663711548</t>
@@ -131,61 +131,61 @@
     <t xml:space="preserve">1.43051385879517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48487639427185</t>
+    <t xml:space="preserve">1.48487627506256</t>
   </si>
   <si>
     <t xml:space="preserve">1.46313118934631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49963188171387</t>
+    <t xml:space="preserve">1.49963200092316</t>
   </si>
   <si>
     <t xml:space="preserve">1.51749384403229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56875026226044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58272910118103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57962262630463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60292077064514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59981441497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60758066177368</t>
+    <t xml:space="preserve">1.56875002384186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58272922039032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57962250709534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60292088985443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59981429576874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60758054256439</t>
   </si>
   <si>
     <t xml:space="preserve">1.62155950069427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66038978099823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66970956325531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69300782680511</t>
+    <t xml:space="preserve">1.66038990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66970932483673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69300758838654</t>
   </si>
   <si>
     <t xml:space="preserve">1.68524158000946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69145441055298</t>
+    <t xml:space="preserve">1.69145429134369</t>
   </si>
   <si>
     <t xml:space="preserve">1.6774754524231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71630585193634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70543348789215</t>
+    <t xml:space="preserve">1.71630597114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70543324947357</t>
   </si>
   <si>
     <t xml:space="preserve">1.64641082286835</t>
@@ -194,64 +194,64 @@
     <t xml:space="preserve">1.64796411991119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69611382484436</t>
+    <t xml:space="preserve">1.69611394405365</t>
   </si>
   <si>
     <t xml:space="preserve">1.72251856327057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73183810710907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75047636032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75513625144958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75668931007385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78620064258575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80017983913422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7675621509552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77066838741302</t>
+    <t xml:space="preserve">1.7318377494812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75047659873962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75513648986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75668966770172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78620076179504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80017971992493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76756191253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77066850662231</t>
   </si>
   <si>
     <t xml:space="preserve">1.76290225982666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73960435390472</t>
+    <t xml:space="preserve">1.73960399627686</t>
   </si>
   <si>
     <t xml:space="preserve">1.74737012386322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73028481006622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74581670761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7038801908493</t>
+    <t xml:space="preserve">1.73028469085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74581682682037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70388007164001</t>
   </si>
   <si>
     <t xml:space="preserve">1.70853972434998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7380508184433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76347029209137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74758303165436</t>
+    <t xml:space="preserve">1.73805069923401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76347017288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74758327007294</t>
   </si>
   <si>
     <t xml:space="preserve">1.75552666187286</t>
@@ -263,34 +263,34 @@
     <t xml:space="preserve">1.76982498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75870430469513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77935767173767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78730082511902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71580910682678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73487329483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73169612884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71422016620636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66655898094177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62048590183258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61254251003265</t>
+    <t xml:space="preserve">1.75870394706726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7793573141098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78730070590973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71580898761749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73487341403961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73169600963593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71422028541565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66655886173248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62048614025116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61254262924194</t>
   </si>
   <si>
     <t xml:space="preserve">1.57917964458466</t>
@@ -299,28 +299,28 @@
     <t xml:space="preserve">1.588711977005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65067183971405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5863288640976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60936534404755</t>
+    <t xml:space="preserve">1.65067172050476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58632874488831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60936522483826</t>
   </si>
   <si>
     <t xml:space="preserve">1.59665560722351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54899418354034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53151834011078</t>
+    <t xml:space="preserve">1.54899406433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53151822090149</t>
   </si>
   <si>
     <t xml:space="preserve">1.57997393608093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52516353130341</t>
+    <t xml:space="preserve">1.52516341209412</t>
   </si>
   <si>
     <t xml:space="preserve">1.53310692310333</t>
@@ -329,46 +329,46 @@
     <t xml:space="preserve">1.57282495498657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55693781375885</t>
+    <t xml:space="preserve">1.55693769454956</t>
   </si>
   <si>
     <t xml:space="preserve">1.66814744472504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65702664852142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62842965126038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68403446674347</t>
+    <t xml:space="preserve">1.65702676773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62842977046967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68403458595276</t>
   </si>
   <si>
     <t xml:space="preserve">1.73010742664337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72375249862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73963940143585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67609095573425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63637328147888</t>
+    <t xml:space="preserve">1.723752617836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73963963985443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67609107494354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63637316226959</t>
   </si>
   <si>
     <t xml:space="preserve">1.6443167924881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69992160797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69515573978424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63478469848633</t>
+    <t xml:space="preserve">1.69992172718048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69515585899353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63478457927704</t>
   </si>
   <si>
     <t xml:space="preserve">1.60459911823273</t>
@@ -377,19 +377,19 @@
     <t xml:space="preserve">1.62684118747711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60301029682159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58076846599579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59983289241791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6411395072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61730873584747</t>
+    <t xml:space="preserve">1.6030101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5807683467865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59983277320862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64113938808441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61730861663818</t>
   </si>
   <si>
     <t xml:space="preserve">1.63955068588257</t>
@@ -407,28 +407,28 @@
     <t xml:space="preserve">1.56249821186066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56329262256622</t>
+    <t xml:space="preserve">1.56329250335693</t>
   </si>
   <si>
     <t xml:space="preserve">1.5918892621994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62525224685669</t>
+    <t xml:space="preserve">1.62525236606598</t>
   </si>
   <si>
     <t xml:space="preserve">1.6331958770752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64272832870483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65226018428802</t>
+    <t xml:space="preserve">1.64272809028625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65226030349731</t>
   </si>
   <si>
     <t xml:space="preserve">1.55852651596069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56488132476807</t>
+    <t xml:space="preserve">1.56488120555878</t>
   </si>
   <si>
     <t xml:space="preserve">1.53072392940521</t>
@@ -437,97 +437,97 @@
     <t xml:space="preserve">1.5529659986496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56408703327179</t>
+    <t xml:space="preserve">1.56408679485321</t>
   </si>
   <si>
     <t xml:space="preserve">1.58712315559387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66020381450653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6474940776825</t>
+    <t xml:space="preserve">1.6602041721344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64749419689178</t>
   </si>
   <si>
     <t xml:space="preserve">1.62366342544556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.622074842453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63160729408264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65861523151398</t>
+    <t xml:space="preserve">1.62207496166229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63160705566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65861535072327</t>
   </si>
   <si>
     <t xml:space="preserve">1.65384912490845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66497004032135</t>
+    <t xml:space="preserve">1.66496992111206</t>
   </si>
   <si>
     <t xml:space="preserve">1.70945405960083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70786547660828</t>
+    <t xml:space="preserve">1.7078652381897</t>
   </si>
   <si>
     <t xml:space="preserve">1.7459944486618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69197821617126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69833290576935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70627665519714</t>
+    <t xml:space="preserve">1.69197833538055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69833302497864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70627653598785</t>
   </si>
   <si>
     <t xml:space="preserve">1.6935670375824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72534132003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72851884365082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79842174053192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79524457454681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81113159656525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81589782238007</t>
+    <t xml:space="preserve">1.72534120082855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72851848602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7984219789505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7952446937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81113171577454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81589770317078</t>
   </si>
   <si>
     <t xml:space="preserve">1.77141380310059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76823651790619</t>
+    <t xml:space="preserve">1.76823663711548</t>
   </si>
   <si>
     <t xml:space="preserve">1.80318808555603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82543003559113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82701873779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85084939002991</t>
+    <t xml:space="preserve">1.82543015480042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82701885700226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85084927082062</t>
   </si>
   <si>
     <t xml:space="preserve">1.83496236801147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81907534599304</t>
+    <t xml:space="preserve">1.81907498836517</t>
   </si>
   <si>
     <t xml:space="preserve">1.80001056194305</t>
@@ -542,76 +542,76 @@
     <t xml:space="preserve">1.8699141740799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88897824287415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88580107688904</t>
+    <t xml:space="preserve">1.88897860050201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88580119609833</t>
   </si>
   <si>
     <t xml:space="preserve">1.87468004226685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89374482631683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88262379169464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9286961555481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94776105880737</t>
+    <t xml:space="preserve">1.89374470710754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88262367248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92869639396667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94776046276093</t>
   </si>
   <si>
     <t xml:space="preserve">1.92393028736115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92551898956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92075288295746</t>
+    <t xml:space="preserve">1.92551922798157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92075264453888</t>
   </si>
   <si>
     <t xml:space="preserve">1.93663990497589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91916406154633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93346273899078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92234182357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90645444393158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439819335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89215564727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90963208675385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91757535934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93822860717773</t>
+    <t xml:space="preserve">1.91916370391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93346226215363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9223415851593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90645432472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9143979549408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8921560049057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90963184833527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91757524013519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93822884559631</t>
   </si>
   <si>
     <t xml:space="preserve">2.02243041992188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97953510284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99383318424225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00177669525146</t>
+    <t xml:space="preserve">1.97953534126282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99383366107941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00177717208862</t>
   </si>
   <si>
     <t xml:space="preserve">1.99701082706451</t>
@@ -629,28 +629,28 @@
     <t xml:space="preserve">2.08439016342163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08280158042908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08756756782532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06532526016235</t>
+    <t xml:space="preserve">2.0828013420105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08756732940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06532549858093</t>
   </si>
   <si>
     <t xml:space="preserve">2.07803511619568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08121275901794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17063999176025</t>
+    <t xml:space="preserve">2.08121252059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17063975334167</t>
   </si>
   <si>
     <t xml:space="preserve">2.16901397705078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1934027671814</t>
+    <t xml:space="preserve">2.19340300559998</t>
   </si>
   <si>
     <t xml:space="preserve">2.16251015663147</t>
@@ -659,28 +659,28 @@
     <t xml:space="preserve">2.19502925872803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25193667411804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22754812240601</t>
+    <t xml:space="preserve">2.25193738937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22754788398743</t>
   </si>
   <si>
     <t xml:space="preserve">2.23079991340637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2064106464386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24380707740784</t>
+    <t xml:space="preserve">2.20641040802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24380731582642</t>
   </si>
   <si>
     <t xml:space="preserve">2.23242568969727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21941804885864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24218130111694</t>
+    <t xml:space="preserve">2.21941781044006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24218153953552</t>
   </si>
   <si>
     <t xml:space="preserve">2.1234872341156</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">2.12511301040649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12186121940613</t>
+    <t xml:space="preserve">2.12186145782471</t>
   </si>
   <si>
     <t xml:space="preserve">2.14299845695496</t>
@@ -704,13 +704,13 @@
     <t xml:space="preserve">2.13812112808228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18689942359924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19665479660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20315861701965</t>
+    <t xml:space="preserve">2.18689918518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19665503501892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20315885543823</t>
   </si>
   <si>
     <t xml:space="preserve">2.21128845214844</t>
@@ -722,37 +722,37 @@
     <t xml:space="preserve">2.27632617950439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28933429718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28608250617981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27470064163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29095983505249</t>
+    <t xml:space="preserve">2.28933382034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28608202934265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2747004032135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29096007347107</t>
   </si>
   <si>
     <t xml:space="preserve">2.24543356895447</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24055528640747</t>
+    <t xml:space="preserve">2.24055552482605</t>
   </si>
   <si>
     <t xml:space="preserve">2.2161660194397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17551732063293</t>
+    <t xml:space="preserve">2.17551755905151</t>
   </si>
   <si>
     <t xml:space="preserve">2.14137291908264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10235023498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04218983650208</t>
+    <t xml:space="preserve">2.10234999656677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04219007492065</t>
   </si>
   <si>
     <t xml:space="preserve">2.07308292388916</t>
@@ -764,37 +764,37 @@
     <t xml:space="preserve">2.13161683082581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18364715576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14462471008301</t>
+    <t xml:space="preserve">2.18364763259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14462447166443</t>
   </si>
   <si>
     <t xml:space="preserve">2.11210560798645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12673926353455</t>
+    <t xml:space="preserve">2.12673902511597</t>
   </si>
   <si>
     <t xml:space="preserve">2.15763211250305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14625072479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15600633621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32510471343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30721950531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29421138763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31697463989258</t>
+    <t xml:space="preserve">2.1462504863739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15600609779358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32510447502136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30721926689148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29421162605286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31697511672974</t>
   </si>
   <si>
     <t xml:space="preserve">2.32185292243958</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">2.41453170776367</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41290593147278</t>
+    <t xml:space="preserve">2.4129056930542</t>
   </si>
   <si>
     <t xml:space="preserve">2.47956991195679</t>
@@ -818,37 +818,37 @@
     <t xml:space="preserve">2.47631788253784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53647756576538</t>
+    <t xml:space="preserve">2.53647780418396</t>
   </si>
   <si>
     <t xml:space="preserve">2.56899666786194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57875227928162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58363032341003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61614918708801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60151529312134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6340343952179</t>
+    <t xml:space="preserve">2.5787525177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58363056182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61614942550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60151600837708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63403463363647</t>
   </si>
   <si>
     <t xml:space="preserve">2.62590479850769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58525657653809</t>
+    <t xml:space="preserve">2.58525633811951</t>
   </si>
   <si>
     <t xml:space="preserve">2.59826397895813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59338593482971</t>
+    <t xml:space="preserve">2.59338569641113</t>
   </si>
   <si>
     <t xml:space="preserve">2.61777520179749</t>
@@ -860,34 +860,34 @@
     <t xml:space="preserve">2.60639381408691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60314154624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60801935195923</t>
+    <t xml:space="preserve">2.60314178466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60801959037781</t>
   </si>
   <si>
     <t xml:space="preserve">2.59176015853882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59013414382935</t>
+    <t xml:space="preserve">2.59013438224792</t>
   </si>
   <si>
     <t xml:space="preserve">2.62102723121643</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64216446876526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64704251289368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63240885734558</t>
+    <t xml:space="preserve">2.64216423034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6470422744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.632408618927</t>
   </si>
   <si>
     <t xml:space="preserve">2.65029430389404</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70395040512085</t>
+    <t xml:space="preserve">2.70395064353943</t>
   </si>
   <si>
     <t xml:space="preserve">2.80963706970215</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">2.82427072525024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79662942886353</t>
+    <t xml:space="preserve">2.7966296672821</t>
   </si>
   <si>
     <t xml:space="preserve">2.80475926399231</t>
@@ -908,16 +908,16 @@
     <t xml:space="preserve">2.77386593818665</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76411056518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6974470615387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68443894386292</t>
+    <t xml:space="preserve">2.76411080360413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71533179283142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69744682312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68443870544434</t>
   </si>
   <si>
     <t xml:space="preserve">2.69582056999207</t>
@@ -929,43 +929,43 @@
     <t xml:space="preserve">2.66655349731445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65842366218567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63728642463684</t>
+    <t xml:space="preserve">2.65842413902283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.637286901474</t>
   </si>
   <si>
     <t xml:space="preserve">2.61452341079712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6242790222168</t>
+    <t xml:space="preserve">2.62427878379822</t>
   </si>
   <si>
     <t xml:space="preserve">2.61940097808838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55273747444153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56411910057068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57550024986267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52509593963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48607325553894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40802812576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38851642608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3446159362793</t>
+    <t xml:space="preserve">2.55273771286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5641188621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57550048828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52509641647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48607349395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40802788734436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.388516664505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34461641311646</t>
   </si>
   <si>
     <t xml:space="preserve">2.36250138282776</t>
@@ -974,19 +974,19 @@
     <t xml:space="preserve">2.37388324737549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43729519844055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45355415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43892121315002</t>
+    <t xml:space="preserve">2.43729543685913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45355463027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43892097473145</t>
   </si>
   <si>
     <t xml:space="preserve">2.44705080986023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5039587020874</t>
+    <t xml:space="preserve">2.50395894050598</t>
   </si>
   <si>
     <t xml:space="preserve">2.52834820747375</t>
@@ -998,55 +998,55 @@
     <t xml:space="preserve">2.73159146308899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56086730957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45518088340759</t>
+    <t xml:space="preserve">2.56086707115173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45518064498901</t>
   </si>
   <si>
     <t xml:space="preserve">2.471440076828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48769974708557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54460787773132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49582958221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51208853721619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52021861076355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33323431015015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39014291763306</t>
+    <t xml:space="preserve">2.48769950866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54460763931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49582934379578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51208877563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52021837234497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33323454856873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39014267921448</t>
   </si>
   <si>
     <t xml:space="preserve">2.34136438369751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3576238155365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36575365066528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34949398040771</t>
+    <t xml:space="preserve">2.35762357711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36575317382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34949421882629</t>
   </si>
   <si>
     <t xml:space="preserve">2.30884504318237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20334362983704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17840003967285</t>
+    <t xml:space="preserve">2.20334339141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17839980125427</t>
   </si>
   <si>
     <t xml:space="preserve">2.16177082061768</t>
@@ -1058,25 +1058,25 @@
     <t xml:space="preserve">2.09525465965271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07862567901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14514183998108</t>
+    <t xml:space="preserve">2.07862591743469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1451416015625</t>
   </si>
   <si>
     <t xml:space="preserve">2.26985955238342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37794780731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21997284889221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24491596221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22828698158264</t>
+    <t xml:space="preserve">2.37794804573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21997237205505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24491572380066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22828722000122</t>
   </si>
   <si>
     <t xml:space="preserve">2.28648853302002</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">2.25323057174683</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27817416191101</t>
+    <t xml:space="preserve">2.27817392349243</t>
   </si>
   <si>
     <t xml:space="preserve">2.26154518127441</t>
@@ -1097,40 +1097,40 @@
     <t xml:space="preserve">2.18671464920044</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13682746887207</t>
+    <t xml:space="preserve">2.13682770729065</t>
   </si>
   <si>
     <t xml:space="preserve">2.15345644950867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11188411712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12851285934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36131882667542</t>
+    <t xml:space="preserve">2.11188387870789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12851309776306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36131906509399</t>
   </si>
   <si>
     <t xml:space="preserve">2.35300445556641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30311727523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29480266571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32806086540222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31974625587463</t>
+    <t xml:space="preserve">2.30311751365662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29480290412903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3280611038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31974649429321</t>
   </si>
   <si>
     <t xml:space="preserve">2.31143164634705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23660159111023</t>
+    <t xml:space="preserve">2.23660135269165</t>
   </si>
   <si>
     <t xml:space="preserve">2.39457702636719</t>
@@ -1157,64 +1157,64 @@
     <t xml:space="preserve">2.04536771774292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0619969367981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0869402885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87907791137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88739216327667</t>
+    <t xml:space="preserve">2.06199669837952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08694052696228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87907767295837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88739252090454</t>
   </si>
   <si>
     <t xml:space="preserve">1.91233563423157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86244869232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84581971168518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89570665359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83750522136688</t>
+    <t xml:space="preserve">1.86244881153107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84581995010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89570689201355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83750510215759</t>
   </si>
   <si>
     <t xml:space="preserve">1.79593288898468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76267445087433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77930378913879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81256186962128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78761851787567</t>
+    <t xml:space="preserve">1.76267457008362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77930390834808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81256175041199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78761827945709</t>
   </si>
   <si>
     <t xml:space="preserve">1.80424726009369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82919085025787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82087635993958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87076318264008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92896485328674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93727910518646</t>
+    <t xml:space="preserve">1.82919096946716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82087624073029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87076306343079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92896473407745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93727934360504</t>
   </si>
   <si>
     <t xml:space="preserve">1.90402138233185</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">2.05368232727051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01211023330688</t>
+    <t xml:space="preserve">2.01210975646973</t>
   </si>
   <si>
     <t xml:space="preserve">2.0967161655426</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">2.08815789222717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0624840259552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07104206085205</t>
+    <t xml:space="preserve">2.06248378753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07104182243347</t>
   </si>
   <si>
     <t xml:space="preserve">2.03680992126465</t>
@@ -1253,34 +1253,34 @@
     <t xml:space="preserve">2.05392599105835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11383199691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13950610160828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13094806671143</t>
+    <t xml:space="preserve">2.1138322353363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13950634002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13094782829285</t>
   </si>
   <si>
     <t xml:space="preserve">2.17373824119568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25076031684875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2422022819519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19085454940796</t>
+    <t xml:space="preserve">2.25076055526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24220204353333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19085431098938</t>
   </si>
   <si>
     <t xml:space="preserve">2.18229603767395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2079701423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21652841567993</t>
+    <t xml:space="preserve">2.20797038078308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21652793884277</t>
   </si>
   <si>
     <t xml:space="preserve">2.19941210746765</t>
@@ -1289,19 +1289,19 @@
     <t xml:space="preserve">2.22508645057678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15662217140198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31066656112671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30210876464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33634066581726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32778263092041</t>
+    <t xml:space="preserve">2.1566219329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31066679954529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30210852622986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33634090423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32778239250183</t>
   </si>
   <si>
     <t xml:space="preserve">2.29355049133301</t>
@@ -1310,16 +1310,16 @@
     <t xml:space="preserve">2.34489846229553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35345697402954</t>
+    <t xml:space="preserve">2.35345673561096</t>
   </si>
   <si>
     <t xml:space="preserve">2.42192077636719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39624667167664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38768887519836</t>
+    <t xml:space="preserve">2.39624691009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38768863677979</t>
   </si>
   <si>
     <t xml:space="preserve">2.40480470657349</t>
@@ -1328,22 +1328,22 @@
     <t xml:space="preserve">2.47326922416687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4647114276886</t>
+    <t xml:space="preserve">2.46471118927002</t>
   </si>
   <si>
     <t xml:space="preserve">2.41336274147034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36201453208923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37057256698608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37913060188293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31922459602356</t>
+    <t xml:space="preserve">2.36201477050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37057280540466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37913084030151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31922483444214</t>
   </si>
   <si>
     <t xml:space="preserve">2.48182725906372</t>
@@ -1358,28 +1358,28 @@
     <t xml:space="preserve">2.52461719512939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49894332885742</t>
+    <t xml:space="preserve">2.49894309043884</t>
   </si>
   <si>
     <t xml:space="preserve">2.51605916023254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55029129981995</t>
+    <t xml:space="preserve">2.55029153823853</t>
   </si>
   <si>
     <t xml:space="preserve">2.59308123588562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56740736961365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6101975440979</t>
+    <t xml:space="preserve">2.56740713119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61019730567932</t>
   </si>
   <si>
     <t xml:space="preserve">2.68721961975098</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64442944526672</t>
+    <t xml:space="preserve">2.6444296836853</t>
   </si>
   <si>
     <t xml:space="preserve">2.58452343940735</t>
@@ -1388,22 +1388,22 @@
     <t xml:space="preserve">2.60163950920105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53317546844482</t>
+    <t xml:space="preserve">2.53317523002625</t>
   </si>
   <si>
     <t xml:space="preserve">2.43903684616089</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49038505554199</t>
+    <t xml:space="preserve">2.49038529396057</t>
   </si>
   <si>
     <t xml:space="preserve">2.27643442153931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26787638664246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12239027023315</t>
+    <t xml:space="preserve">2.26787662506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12239003181458</t>
   </si>
   <si>
     <t xml:space="preserve">1.94267165660858</t>
@@ -1415,31 +1415,31 @@
     <t xml:space="preserve">1.74583697319031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75439500808716</t>
+    <t xml:space="preserve">1.75439488887787</t>
   </si>
   <si>
     <t xml:space="preserve">1.62602460384369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78006899356842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70732593536377</t>
+    <t xml:space="preserve">1.78006887435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70732605457306</t>
   </si>
   <si>
     <t xml:space="preserve">1.70304679870605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68593072891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83997535705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84853315353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81430101394653</t>
+    <t xml:space="preserve">1.68593084812164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83997523784637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84853339195251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81430113315582</t>
   </si>
   <si>
     <t xml:space="preserve">1.87420737743378</t>
@@ -1451,10 +1451,10 @@
     <t xml:space="preserve">2.0796000957489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88276517391205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86564934253693</t>
+    <t xml:space="preserve">1.88276553153992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86564922332764</t>
   </si>
   <si>
     <t xml:space="preserve">1.89132344722748</t>
@@ -1466,16 +1466,16 @@
     <t xml:space="preserve">1.89988136291504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8570910692215</t>
+    <t xml:space="preserve">1.85709142684937</t>
   </si>
   <si>
     <t xml:space="preserve">1.9597874879837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98546147346497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96834564208984</t>
+    <t xml:space="preserve">1.98546171188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96834540367126</t>
   </si>
   <si>
     <t xml:space="preserve">1.9769035577774</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">2.10527396202087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16518044471741</t>
+    <t xml:space="preserve">2.16518020629883</t>
   </si>
   <si>
     <t xml:space="preserve">2.25931859016418</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">2.05030226707458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02390360832214</t>
+    <t xml:space="preserve">2.02390384674072</t>
   </si>
   <si>
     <t xml:space="preserve">2.06790161132812</t>
@@ -1520,19 +1520,19 @@
     <t xml:space="preserve">2.13829827308655</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10310006141663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12949895858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12069916725159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08550071716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07670092582703</t>
+    <t xml:space="preserve">2.10309982299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12949872016907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12069940567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08550047874451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07670116424561</t>
   </si>
   <si>
     <t xml:space="preserve">1.97110629081726</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">1.95350706577301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96230661869049</t>
+    <t xml:space="preserve">1.96230685710907</t>
   </si>
   <si>
     <t xml:space="preserve">2.09430050849915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03270292282104</t>
+    <t xml:space="preserve">2.03270316123962</t>
   </si>
   <si>
     <t xml:space="preserve">2.16469717025757</t>
@@ -1559,13 +1559,13 @@
     <t xml:space="preserve">2.19989538192749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24389338493347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28789114952087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31428980827332</t>
+    <t xml:space="preserve">2.24389314651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28789091110229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31429004669189</t>
   </si>
   <si>
     <t xml:space="preserve">2.39348602294922</t>
@@ -1574,13 +1574,13 @@
     <t xml:space="preserve">2.41988492012024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43748378753662</t>
+    <t xml:space="preserve">2.4374840259552</t>
   </si>
   <si>
     <t xml:space="preserve">2.44628381729126</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5166802406311</t>
+    <t xml:space="preserve">2.51668000221252</t>
   </si>
   <si>
     <t xml:space="preserve">2.53427958488464</t>
@@ -1589,25 +1589,25 @@
     <t xml:space="preserve">2.56947779655457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56067848205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58707714080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60467648506165</t>
+    <t xml:space="preserve">2.56067824363708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58707690238953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60467624664307</t>
   </si>
   <si>
     <t xml:space="preserve">2.52547979354858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50788044929504</t>
+    <t xml:space="preserve">2.50788068771362</t>
   </si>
   <si>
     <t xml:space="preserve">2.61347579956055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68387246131897</t>
+    <t xml:space="preserve">2.68387222290039</t>
   </si>
   <si>
     <t xml:space="preserve">2.66627311706543</t>
@@ -1619,22 +1619,22 @@
     <t xml:space="preserve">2.67507266998291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65747380256653</t>
+    <t xml:space="preserve">2.65747356414795</t>
   </si>
   <si>
     <t xml:space="preserve">2.64867401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63107514381409</t>
+    <t xml:space="preserve">2.63107490539551</t>
   </si>
   <si>
     <t xml:space="preserve">2.62227511405945</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74546909332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73666954040527</t>
+    <t xml:space="preserve">2.74546933174133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73667001724243</t>
   </si>
   <si>
     <t xml:space="preserve">2.76306867599487</t>
@@ -1646,19 +1646,19 @@
     <t xml:space="preserve">2.79826688766479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72787046432495</t>
+    <t xml:space="preserve">2.72786998748779</t>
   </si>
   <si>
     <t xml:space="preserve">2.81586599349976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8334653377533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8774631023407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88626265525818</t>
+    <t xml:space="preserve">2.83346557617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87746286392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88626289367676</t>
   </si>
   <si>
     <t xml:space="preserve">2.94785976409912</t>
@@ -1667,16 +1667,16 @@
     <t xml:space="preserve">2.97425866127014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99185800552368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01825666427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96545886993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91266131401062</t>
+    <t xml:space="preserve">2.9918577671051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01825642585754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9654586315155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9126615524292</t>
   </si>
   <si>
     <t xml:space="preserve">2.85986399650574</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">2.84226489067078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85106420516968</t>
+    <t xml:space="preserve">2.85106444358826</t>
   </si>
   <si>
     <t xml:space="preserve">2.90386176109314</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">2.95665907859802</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93906021118164</t>
+    <t xml:space="preserve">2.93906044960022</t>
   </si>
   <si>
     <t xml:space="preserve">2.93026041984558</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">3.02705597877502</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12385129928589</t>
+    <t xml:space="preserve">3.12385153770447</t>
   </si>
   <si>
     <t xml:space="preserve">3.15025019645691</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">3.19424819946289</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20304775238037</t>
+    <t xml:space="preserve">3.20304751396179</t>
   </si>
   <si>
     <t xml:space="preserve">3.23824596405029</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">3.34384107589722</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3526406288147</t>
+    <t xml:space="preserve">3.35264039039612</t>
   </si>
   <si>
     <t xml:space="preserve">3.37023973464966</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">3.33504128456116</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40543794631958</t>
+    <t xml:space="preserve">3.405437707901</t>
   </si>
   <si>
     <t xml:space="preserve">3.52863240242004</t>
@@ -1754,10 +1754,10 @@
     <t xml:space="preserve">3.55503082275391</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49343395233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44063639640808</t>
+    <t xml:space="preserve">3.49343371391296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4406361579895</t>
   </si>
   <si>
     <t xml:space="preserve">3.41423773765564</t>
@@ -1772,10 +1772,10 @@
     <t xml:space="preserve">3.44112133979797</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39631485939026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47696661949158</t>
+    <t xml:space="preserve">3.39631509780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.476966381073</t>
   </si>
   <si>
     <t xml:space="preserve">3.46800518035889</t>
@@ -1784,7 +1784,7 @@
     <t xml:space="preserve">3.4948890209198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52177262306213</t>
+    <t xml:space="preserve">3.52177286148071</t>
   </si>
   <si>
     <t xml:space="preserve">3.57554030418396</t>
@@ -1802,10 +1802,10 @@
     <t xml:space="preserve">3.73684287071228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72788143157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79061007499695</t>
+    <t xml:space="preserve">3.72788119316101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79061055183411</t>
   </si>
   <si>
     <t xml:space="preserve">3.74580383300781</t>
@@ -1814,19 +1814,19 @@
     <t xml:space="preserve">3.85333943367004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80853295326233</t>
+    <t xml:space="preserve">3.80853271484375</t>
   </si>
   <si>
     <t xml:space="preserve">3.92502951622009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95191311836243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83541679382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76372647285461</t>
+    <t xml:space="preserve">3.95191264152527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83541631698608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76372623443604</t>
   </si>
   <si>
     <t xml:space="preserve">3.78164887428284</t>
@@ -1838,34 +1838,34 @@
     <t xml:space="preserve">3.89814519882202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69203639030457</t>
+    <t xml:space="preserve">3.69203662872314</t>
   </si>
   <si>
     <t xml:space="preserve">3.81749415397644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70995903015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71892046928406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8443775177002</t>
+    <t xml:space="preserve">3.70995879173279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71892023086548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84437799453735</t>
   </si>
   <si>
     <t xml:space="preserve">3.65619158744812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68307542800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62034630775452</t>
+    <t xml:space="preserve">3.68307518959045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6203465461731</t>
   </si>
   <si>
     <t xml:space="preserve">3.53969526290894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64723038673401</t>
+    <t xml:space="preserve">3.64723014831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.82645535469055</t>
@@ -1877,10 +1877,10 @@
     <t xml:space="preserve">3.79957127571106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75476551055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01464176177979</t>
+    <t xml:space="preserve">3.7547652721405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01464128494263</t>
   </si>
   <si>
     <t xml:space="preserve">3.96983528137207</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">4.10425424575806</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14009857177734</t>
+    <t xml:space="preserve">4.1400990486145</t>
   </si>
   <si>
     <t xml:space="preserve">3.98775792121887</t>
@@ -1907,10 +1907,10 @@
     <t xml:space="preserve">3.91606783866882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90710687637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07737016677856</t>
+    <t xml:space="preserve">3.90710639953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07737064361572</t>
   </si>
   <si>
     <t xml:space="preserve">4.03256416320801</t>
@@ -1934,25 +1934,22 @@
     <t xml:space="preserve">4.08633136749268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7726879119873</t>
+    <t xml:space="preserve">3.77268767356873</t>
   </si>
   <si>
     <t xml:space="preserve">3.62930798530579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55761766433716</t>
+    <t xml:space="preserve">3.55761790275574</t>
   </si>
   <si>
     <t xml:space="preserve">3.54865670204163</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40527653694153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37839269638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41423749923706</t>
+    <t xml:space="preserve">3.40527629852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37839293479919</t>
   </si>
   <si>
     <t xml:space="preserve">3.36943125724792</t>
@@ -1976,10 +1973,10 @@
     <t xml:space="preserve">3.53073406219482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48592782020569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33358645439148</t>
+    <t xml:space="preserve">3.48592805862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3335862159729</t>
   </si>
   <si>
     <t xml:space="preserve">3.3515088558197</t>
@@ -1988,19 +1985,19 @@
     <t xml:space="preserve">3.27085757255554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2350127696991</t>
+    <t xml:space="preserve">3.23501253128052</t>
   </si>
   <si>
     <t xml:space="preserve">3.31566405296326</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26189661026001</t>
+    <t xml:space="preserve">3.26189637184143</t>
   </si>
   <si>
     <t xml:space="preserve">3.091632604599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18124485015869</t>
+    <t xml:space="preserve">3.18124508857727</t>
   </si>
   <si>
     <t xml:space="preserve">3.66515278816223</t>
@@ -42690,7 +42687,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1530" t="s">
-        <v>646</v>
+        <v>582</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42742,7 +42739,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1532" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42768,7 +42765,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1533" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42898,7 +42895,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1538" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42924,7 +42921,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1539" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43028,7 +43025,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1543" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43106,7 +43103,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1546" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43158,7 +43155,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1548" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43210,7 +43207,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1550" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43236,7 +43233,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1551" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43444,7 +43441,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1559" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43470,7 +43467,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1560" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43548,7 +43545,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1563" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43574,7 +43571,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1564" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43600,7 +43597,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1565" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43626,7 +43623,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1566" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43652,7 +43649,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1567" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43678,7 +43675,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1568" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43704,7 +43701,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1569" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43730,7 +43727,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1570" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43756,7 +43753,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1571" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43782,7 +43779,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1572" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43808,7 +43805,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1573" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43860,7 +43857,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1575" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44120,7 +44117,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1585" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44146,7 +44143,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1586" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44198,7 +44195,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1588" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44224,7 +44221,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1589" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44354,7 +44351,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1594" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44380,7 +44377,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1595" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44484,7 +44481,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1599" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44510,7 +44507,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1600" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44588,7 +44585,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1603" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44640,7 +44637,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1605" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44718,7 +44715,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1608" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44874,7 +44871,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1614" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44952,7 +44949,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1617" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45160,7 +45157,7 @@
         <v>4</v>
       </c>
       <c r="G1625" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45186,7 +45183,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45212,7 +45209,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1627" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45238,7 +45235,7 @@
         <v>4</v>
       </c>
       <c r="G1628" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45264,7 +45261,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1629" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45290,7 +45287,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1630" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45316,7 +45313,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1631" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45342,7 +45339,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1632" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45368,7 +45365,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1633" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45394,7 +45391,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1634" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45420,7 +45417,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1635" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45446,7 +45443,7 @@
         <v>4</v>
       </c>
       <c r="G1636" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45472,7 +45469,7 @@
         <v>4</v>
       </c>
       <c r="G1637" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45498,7 +45495,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1638" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45524,7 +45521,7 @@
         <v>4</v>
       </c>
       <c r="G1639" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45550,7 +45547,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1640" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45576,7 +45573,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1641" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45602,7 +45599,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1642" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45628,7 +45625,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1643" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45654,7 +45651,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1644" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45680,7 +45677,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1645" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45706,7 +45703,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45732,7 +45729,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1647" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45758,7 +45755,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1648" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45784,7 +45781,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1649" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45810,7 +45807,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1650" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45836,7 +45833,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1651" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45862,7 +45859,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1652" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45888,7 +45885,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1653" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45914,7 +45911,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1654" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45940,7 +45937,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1655" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45966,7 +45963,7 @@
         <v>3.75</v>
       </c>
       <c r="G1656" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45992,7 +45989,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1657" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46018,7 +46015,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1658" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46044,7 +46041,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1659" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46070,7 +46067,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1660" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46096,7 +46093,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1661" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46122,7 +46119,7 @@
         <v>3.75</v>
       </c>
       <c r="G1662" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46148,7 +46145,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1663" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46174,7 +46171,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1664" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46200,7 +46197,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1665" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46226,7 +46223,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46252,7 +46249,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1667" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46278,7 +46275,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1668" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46304,7 +46301,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1669" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46330,7 +46327,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1670" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46356,7 +46353,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1671" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46382,7 +46379,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1672" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46408,7 +46405,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1673" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46434,7 +46431,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1674" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46460,7 +46457,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1675" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46486,7 +46483,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1676" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46538,7 +46535,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1678" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46564,7 +46561,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1679" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46590,7 +46587,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1680" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46616,7 +46613,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1681" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46642,7 +46639,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1682" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46668,7 +46665,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1683" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46694,7 +46691,7 @@
         <v>3.75</v>
       </c>
       <c r="G1684" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46720,7 +46717,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1685" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46746,7 +46743,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46798,7 +46795,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1688" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46824,7 +46821,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1689" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46850,7 +46847,7 @@
         <v>3.75</v>
       </c>
       <c r="G1690" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46876,7 +46873,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1691" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46902,7 +46899,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1692" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46928,7 +46925,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1693" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46954,7 +46951,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1694" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46980,7 +46977,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1695" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47006,7 +47003,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1696" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47058,7 +47055,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1698" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47084,7 +47081,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1699" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47110,7 +47107,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1700" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47136,7 +47133,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1701" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47162,7 +47159,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1702" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47188,7 +47185,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1703" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47214,7 +47211,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1704" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47240,7 +47237,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1705" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47266,7 +47263,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1706" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47292,7 +47289,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1707" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47318,7 +47315,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1708" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47344,7 +47341,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1709" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47370,7 +47367,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G1710" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47396,7 +47393,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1711" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47422,7 +47419,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1712" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47448,7 +47445,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1713" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47474,7 +47471,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1714" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47500,7 +47497,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1715" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47526,7 +47523,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1716" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47552,7 +47549,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1717" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47578,7 +47575,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1718" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47604,7 +47601,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1719" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47630,7 +47627,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1720" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47656,7 +47653,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1721" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47682,7 +47679,7 @@
         <v>3</v>
       </c>
       <c r="G1722" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47708,7 +47705,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1723" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47734,7 +47731,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1724" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47760,7 +47757,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1725" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47786,7 +47783,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1726" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47812,7 +47809,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1727" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47838,7 +47835,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1728" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47864,7 +47861,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1729" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47890,7 +47887,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1730" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47916,7 +47913,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1731" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47942,7 +47939,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1732" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47968,7 +47965,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1733" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47994,7 +47991,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1734" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48020,7 +48017,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1735" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48046,7 +48043,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1736" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48072,7 +48069,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1737" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48098,7 +48095,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1738" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48124,7 +48121,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1739" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48150,7 +48147,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1740" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48176,7 +48173,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1741" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48202,7 +48199,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1742" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48228,7 +48225,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1743" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48254,7 +48251,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1744" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48280,7 +48277,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1745" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48306,7 +48303,7 @@
         <v>3.5</v>
       </c>
       <c r="G1746" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48332,7 +48329,7 @@
         <v>3.5</v>
       </c>
       <c r="G1747" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48358,7 +48355,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1748" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48384,7 +48381,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1749" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48410,7 +48407,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1750" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48436,7 +48433,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1751" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48462,7 +48459,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1752" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48488,7 +48485,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1753" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48514,7 +48511,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1754" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48540,7 +48537,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1755" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48566,7 +48563,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1756" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48592,7 +48589,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1757" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48618,7 +48615,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1758" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48644,7 +48641,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1759" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48670,7 +48667,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1760" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48696,7 +48693,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1761" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48722,7 +48719,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1762" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48748,7 +48745,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48774,7 +48771,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1764" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48800,7 +48797,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1765" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48826,7 +48823,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1766" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48852,7 +48849,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1767" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48878,7 +48875,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1768" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48904,7 +48901,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1769" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48930,7 +48927,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1770" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48956,7 +48953,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48982,7 +48979,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1772" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49008,7 +49005,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1773" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49034,7 +49031,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1774" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49060,7 +49057,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1775" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49086,7 +49083,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1776" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49112,7 +49109,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1777" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49138,7 +49135,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1778" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49164,7 +49161,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1779" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49190,7 +49187,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1780" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49216,7 +49213,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1781" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49242,7 +49239,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G1782" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49268,7 +49265,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1783" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49294,7 +49291,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1784" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49320,7 +49317,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1785" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49346,7 +49343,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1786" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49372,7 +49369,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1787" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49398,7 +49395,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49424,7 +49421,7 @@
         <v>3.25</v>
       </c>
       <c r="G1789" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49450,7 +49447,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1790" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49476,7 +49473,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1791" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49502,7 +49499,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1792" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49528,7 +49525,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1793" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49554,7 +49551,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49580,7 +49577,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1795" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49606,7 +49603,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1796" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49632,7 +49629,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1797" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49658,7 +49655,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1798" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49684,7 +49681,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1799" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49710,7 +49707,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1800" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49736,7 +49733,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1801" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49762,7 +49759,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1802" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49788,7 +49785,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1803" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49814,7 +49811,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1804" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49840,7 +49837,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1805" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49866,7 +49863,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1806" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49892,7 +49889,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1807" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49918,7 +49915,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1808" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49944,7 +49941,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G1809" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49970,7 +49967,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1810" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49996,7 +49993,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1811" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50022,7 +50019,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1812" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50048,7 +50045,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1813" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50074,7 +50071,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1814" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50100,7 +50097,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1815" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50126,7 +50123,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1816" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50152,7 +50149,7 @@
         <v>3.75</v>
       </c>
       <c r="G1817" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50178,7 +50175,7 @@
         <v>3.75</v>
       </c>
       <c r="G1818" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50204,7 +50201,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1819" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50230,7 +50227,7 @@
         <v>3.75</v>
       </c>
       <c r="G1820" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50256,7 +50253,7 @@
         <v>3.75</v>
       </c>
       <c r="G1821" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50282,7 +50279,7 @@
         <v>3.75</v>
       </c>
       <c r="G1822" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50308,7 +50305,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1823" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50334,7 +50331,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1824" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50360,7 +50357,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G1825" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50386,7 +50383,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1826" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50412,7 +50409,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1827" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50438,7 +50435,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1828" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50464,7 +50461,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1829" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50490,7 +50487,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1830" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50516,7 +50513,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1831" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50542,7 +50539,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1832" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50568,7 +50565,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1833" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50594,7 +50591,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1834" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50620,7 +50617,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1835" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50646,7 +50643,7 @@
         <v>4</v>
       </c>
       <c r="G1836" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50672,7 +50669,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1837" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50698,7 +50695,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1838" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50724,7 +50721,7 @@
         <v>4</v>
       </c>
       <c r="G1839" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50750,7 +50747,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1840" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50776,7 +50773,7 @@
         <v>4</v>
       </c>
       <c r="G1841" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50802,7 +50799,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1842" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50828,7 +50825,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1843" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50854,7 +50851,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1844" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50880,7 +50877,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1845" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50906,7 +50903,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1846" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50932,7 +50929,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1847" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50958,7 +50955,7 @@
         <v>4</v>
       </c>
       <c r="G1848" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50984,7 +50981,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1849" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51010,7 +51007,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1850" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51036,7 +51033,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1851" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51062,7 +51059,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1852" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51088,7 +51085,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1853" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51114,7 +51111,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1854" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51140,7 +51137,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1855" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51166,7 +51163,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1856" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51192,7 +51189,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1857" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51218,7 +51215,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1858" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51270,7 +51267,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1860" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51296,7 +51293,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1861" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51322,7 +51319,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1862" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51348,7 +51345,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1863" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51374,7 +51371,7 @@
         <v>4</v>
       </c>
       <c r="G1864" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51400,7 +51397,7 @@
         <v>4</v>
       </c>
       <c r="G1865" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51452,7 +51449,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1867" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51478,7 +51475,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1868" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51504,7 +51501,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1869" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51530,7 +51527,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1870" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51556,7 +51553,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1871" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51608,7 +51605,7 @@
         <v>4</v>
       </c>
       <c r="G1873" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51634,7 +51631,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1874" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51660,7 +51657,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1875" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51686,7 +51683,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1876" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51712,7 +51709,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1877" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51738,7 +51735,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1878" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51764,7 +51761,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1879" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51790,7 +51787,7 @@
         <v>4</v>
       </c>
       <c r="G1880" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51816,7 +51813,7 @@
         <v>4</v>
       </c>
       <c r="G1881" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51842,7 +51839,7 @@
         <v>4</v>
       </c>
       <c r="G1882" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51868,7 +51865,7 @@
         <v>4</v>
       </c>
       <c r="G1883" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51894,7 +51891,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1884" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51920,7 +51917,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1885" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51946,7 +51943,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1886" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51972,7 +51969,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51998,7 +51995,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1888" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52024,7 +52021,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1889" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52050,7 +52047,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1890" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52076,7 +52073,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1891" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52102,7 +52099,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1892" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52128,7 +52125,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1893" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52154,7 +52151,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1894" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52180,7 +52177,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1895" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52206,7 +52203,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1896" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52232,7 +52229,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1897" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52258,7 +52255,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1898" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52284,7 +52281,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1899" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52310,7 +52307,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1900" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52336,7 +52333,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G1901" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52362,7 +52359,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1902" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52388,7 +52385,7 @@
         <v>4</v>
       </c>
       <c r="G1903" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52414,7 +52411,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1904" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52440,7 +52437,7 @@
         <v>4</v>
       </c>
       <c r="G1905" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52466,7 +52463,7 @@
         <v>4</v>
       </c>
       <c r="G1906" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52492,7 +52489,7 @@
         <v>4</v>
       </c>
       <c r="G1907" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52518,7 +52515,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1908" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52544,7 +52541,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1909" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52570,7 +52567,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1910" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52596,7 +52593,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1911" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52622,7 +52619,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1912" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52648,7 +52645,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1913" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52674,7 +52671,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1914" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52700,7 +52697,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1915" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52726,7 +52723,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1916" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52752,7 +52749,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1917" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52778,7 +52775,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1918" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52804,7 +52801,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1919" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52830,7 +52827,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1920" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52856,7 +52853,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1921" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52882,7 +52879,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1922" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52908,7 +52905,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1923" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52934,7 +52931,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1924" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52960,7 +52957,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1925" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52986,7 +52983,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1926" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53012,7 +53009,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1927" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53038,7 +53035,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1928" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53064,7 +53061,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1929" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53090,7 +53087,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1930" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53116,7 +53113,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1931" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53142,7 +53139,7 @@
         <v>4.25</v>
       </c>
       <c r="G1932" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53168,7 +53165,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53194,7 +53191,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1934" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53220,7 +53217,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G1935" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53246,7 +53243,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1936" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53272,7 +53269,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G1937" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53298,7 +53295,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1938" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53324,7 +53321,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1939" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53350,7 +53347,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G1940" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53376,7 +53373,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1941" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53402,7 +53399,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1942" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53428,7 +53425,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1943" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53454,7 +53451,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1944" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53480,7 +53477,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1945" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53506,7 +53503,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1946" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53532,7 +53529,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1947" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53558,7 +53555,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53584,7 +53581,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1949" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53610,7 +53607,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1950" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53636,7 +53633,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53662,7 +53659,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1952" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53688,7 +53685,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1953" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53714,7 +53711,7 @@
         <v>4</v>
       </c>
       <c r="G1954" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53740,7 +53737,7 @@
         <v>4</v>
       </c>
       <c r="G1955" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53766,7 +53763,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1956" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53792,7 +53789,7 @@
         <v>4</v>
       </c>
       <c r="G1957" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53818,7 +53815,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1958" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53844,7 +53841,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G1959" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53870,7 +53867,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1960" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53896,7 +53893,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1961" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53922,7 +53919,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1962" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53948,7 +53945,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1963" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53974,7 +53971,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1964" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54000,7 +53997,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1965" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54026,7 +54023,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1966" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54052,7 +54049,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G1967" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54078,7 +54075,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1968" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54104,7 +54101,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54130,7 +54127,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1970" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54156,7 +54153,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1971" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54182,7 +54179,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1972" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54208,7 +54205,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G1973" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54234,7 +54231,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1974" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54260,7 +54257,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1975" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54286,7 +54283,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54312,7 +54309,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1977" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54338,7 +54335,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1978" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54364,7 +54361,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1979" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54390,7 +54387,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54416,7 +54413,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1981" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54442,7 +54439,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1982" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54468,7 +54465,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1983" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54494,7 +54491,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1984" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54520,7 +54517,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1985" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54546,7 +54543,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1986" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54572,7 +54569,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1987" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54598,7 +54595,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54624,7 +54621,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1989" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54650,7 +54647,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G1990" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54676,7 +54673,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1991" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54702,7 +54699,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1992" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54728,7 +54725,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1993" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54754,7 +54751,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1994" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54780,7 +54777,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1995" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54806,7 +54803,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1996" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54832,7 +54829,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1997" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54858,7 +54855,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54884,7 +54881,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1999" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54910,7 +54907,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2000" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54936,7 +54933,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54962,7 +54959,7 @@
         <v>4</v>
       </c>
       <c r="G2002" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54988,7 +54985,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2003" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55014,7 +55011,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2004" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55040,7 +55037,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2005" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55066,7 +55063,7 @@
         <v>4</v>
       </c>
       <c r="G2006" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55092,7 +55089,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2007" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55118,7 +55115,7 @@
         <v>4</v>
       </c>
       <c r="G2008" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55144,7 +55141,7 @@
         <v>4</v>
       </c>
       <c r="G2009" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55170,7 +55167,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G2010" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55196,7 +55193,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G2011" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55222,7 +55219,7 @@
         <v>4</v>
       </c>
       <c r="G2012" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55248,7 +55245,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G2013" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55274,7 +55271,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2014" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55300,7 +55297,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2015" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55326,7 +55323,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2016" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55352,7 +55349,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55378,7 +55375,7 @@
         <v>4</v>
       </c>
       <c r="G2018" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55404,7 +55401,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2019" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55430,7 +55427,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2020" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55456,7 +55453,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2021" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55482,7 +55479,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2022" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55508,7 +55505,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2023" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55534,7 +55531,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2024" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55560,7 +55557,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55586,7 +55583,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55612,7 +55609,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55638,7 +55635,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2028" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55664,7 +55661,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2029" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55690,7 +55687,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G2030" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55716,7 +55713,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2031" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55742,7 +55739,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2032" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55768,7 +55765,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2033" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55794,7 +55791,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55820,7 +55817,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2035" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55846,7 +55843,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2036" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55872,7 +55869,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2037" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55898,7 +55895,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2038" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55924,7 +55921,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G2039" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55950,7 +55947,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2040" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55976,7 +55973,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2041" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56002,7 +55999,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2042" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56028,7 +56025,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2043" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56054,7 +56051,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2044" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56080,7 +56077,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2045" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56106,7 +56103,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2046" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56132,7 +56129,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2047" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56158,7 +56155,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2048" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56184,7 +56181,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2049" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56210,7 +56207,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G2050" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56236,7 +56233,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2051" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56262,7 +56259,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2052" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56288,7 +56285,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2053" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56314,7 +56311,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2054" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56340,7 +56337,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G2055" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56366,7 +56363,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2056" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56392,7 +56389,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G2057" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56418,7 +56415,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2058" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56444,7 +56441,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G2059" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56470,7 +56467,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G2060" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56496,7 +56493,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G2061" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56522,7 +56519,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2062" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56548,7 +56545,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2063" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56574,7 +56571,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G2064" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56600,7 +56597,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2065" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56626,7 +56623,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G2066" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56652,7 +56649,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2067" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56678,7 +56675,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2068" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56704,7 +56701,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2069" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56730,7 +56727,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2070" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56756,7 +56753,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2071" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56782,7 +56779,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G2072" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56808,7 +56805,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G2073" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56834,7 +56831,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2074" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56860,7 +56857,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G2075" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56886,7 +56883,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G2076" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56912,7 +56909,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G2077" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56938,7 +56935,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G2078" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56964,7 +56961,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G2079" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56990,7 +56987,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2080" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57016,7 +57013,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G2081" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57042,7 +57039,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2082" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57068,7 +57065,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G2083" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57094,7 +57091,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2084" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57120,7 +57117,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2085" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57146,7 +57143,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2086" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57172,7 +57169,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G2087" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57198,7 +57195,7 @@
         <v>4.5</v>
       </c>
       <c r="G2088" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57224,7 +57221,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G2089" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57250,7 +57247,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G2090" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57276,7 +57273,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G2091" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57302,7 +57299,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G2092" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57328,7 +57325,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G2093" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57354,7 +57351,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G2094" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57380,7 +57377,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G2095" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57406,7 +57403,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2096" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57432,7 +57429,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57458,7 +57455,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2098" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57484,7 +57481,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2099" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57510,7 +57507,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2100" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57536,7 +57533,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2101" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57562,7 +57559,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2102" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57588,7 +57585,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2103" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57614,7 +57611,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2104" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57640,7 +57637,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2105" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57666,7 +57663,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2106" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57692,7 +57689,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2107" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57718,7 +57715,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2108" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57744,7 +57741,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G2109" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57770,7 +57767,7 @@
         <v>4.98999977111816</v>
       </c>
       <c r="G2110" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57796,7 +57793,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G2111" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57822,7 +57819,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G2112" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57848,7 +57845,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2113" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57874,7 +57871,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G2114" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57900,7 +57897,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2115" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57926,7 +57923,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2116" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57952,7 +57949,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G2117" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57978,7 +57975,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2118" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58004,7 +58001,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2119" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58030,7 +58027,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2120" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58056,7 +58053,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2121" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58082,7 +58079,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2122" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58108,7 +58105,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2123" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58134,7 +58131,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2124" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58160,7 +58157,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2125" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58186,7 +58183,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2126" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58212,7 +58209,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2127" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58238,7 +58235,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2128" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58264,7 +58261,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2129" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58290,7 +58287,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G2130" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58316,7 +58313,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2131" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58342,7 +58339,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58368,7 +58365,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G2133" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58394,7 +58391,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G2134" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58420,7 +58417,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2135" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58446,7 +58443,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2136" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58472,7 +58469,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2137" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58498,7 +58495,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2138" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58524,7 +58521,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G2139" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58550,7 +58547,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G2140" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58576,7 +58573,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2141" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58602,7 +58599,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2142" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58628,7 +58625,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2143" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58654,7 +58651,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2144" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58680,7 +58677,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58706,7 +58703,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2146" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58732,7 +58729,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2147" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58758,7 +58755,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G2148" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58784,7 +58781,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2149" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58810,7 +58807,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G2150" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58836,7 +58833,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2151" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58862,7 +58859,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G2152" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58888,7 +58885,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2153" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58914,7 +58911,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G2154" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58940,7 +58937,7 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G2155" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58966,7 +58963,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2156" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58992,7 +58989,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G2157" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59018,7 +59015,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G2158" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59044,7 +59041,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G2159" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59070,7 +59067,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G2160" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59096,7 +59093,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2161" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -59122,7 +59119,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G2162" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -59148,7 +59145,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G2163" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -59174,7 +59171,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2164" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -59200,7 +59197,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G2165" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -59226,7 +59223,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G2166" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -59234,7 +59231,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.649525463</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>3810</v>
@@ -59252,9 +59249,35 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2167" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.6494097222</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>6550</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>5.71999979019165</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>5.53999996185303</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>5.71999979019165</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>5.71999979019165</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>849</v>
+      </c>
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CALT.MI.xlsx
+++ b/data/CALT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,40 +50,40 @@
     <t xml:space="preserve">1.77843451499939</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72407197952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73494434356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71164631843567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70077383518219</t>
+    <t xml:space="preserve">1.72407174110413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73494458198547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7116459608078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7007737159729</t>
   </si>
   <si>
     <t xml:space="preserve">1.63243210315704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55244123935699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53613245487213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53768587112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49031281471252</t>
+    <t xml:space="preserve">1.55244135856628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53613257408142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53768563270569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49031269550323</t>
   </si>
   <si>
     <t xml:space="preserve">1.49885535240173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47555708885193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47322714328766</t>
+    <t xml:space="preserve">1.47555696964264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47322702407837</t>
   </si>
   <si>
     <t xml:space="preserve">1.46779096126556</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">1.47245061397552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4600248336792</t>
+    <t xml:space="preserve">1.46002471446991</t>
   </si>
   <si>
     <t xml:space="preserve">1.4343968629837</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">1.43672668933868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45070552825928</t>
+    <t xml:space="preserve">1.45070564746857</t>
   </si>
   <si>
     <t xml:space="preserve">1.40799200534821</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">1.39789617061615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39323663711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43594992160797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40566217899323</t>
+    <t xml:space="preserve">1.3932363986969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43595016002655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40566205978394</t>
   </si>
   <si>
     <t xml:space="preserve">1.43284356594086</t>
@@ -128,25 +128,25 @@
     <t xml:space="preserve">1.42119443416595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43051385879517</t>
+    <t xml:space="preserve">1.43051373958588</t>
   </si>
   <si>
     <t xml:space="preserve">1.48487627506256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46313118934631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49963200092316</t>
+    <t xml:space="preserve">1.46313107013702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49963188171387</t>
   </si>
   <si>
     <t xml:space="preserve">1.51749384403229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56875002384186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58272922039032</t>
+    <t xml:space="preserve">1.56875014305115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58272910118103</t>
   </si>
   <si>
     <t xml:space="preserve">1.57962250709534</t>
@@ -155,79 +155,79 @@
     <t xml:space="preserve">1.60292088985443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59981429576874</t>
+    <t xml:space="preserve">1.59981441497803</t>
   </si>
   <si>
     <t xml:space="preserve">1.60758054256439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62155950069427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66038990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66970932483673</t>
+    <t xml:space="preserve">1.62155961990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66039001941681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66970920562744</t>
   </si>
   <si>
     <t xml:space="preserve">1.69300758838654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68524158000946</t>
+    <t xml:space="preserve">1.68524146080017</t>
   </si>
   <si>
     <t xml:space="preserve">1.69145429134369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6774754524231</t>
+    <t xml:space="preserve">1.67747533321381</t>
   </si>
   <si>
     <t xml:space="preserve">1.71630597114563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70543324947357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64641082286835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64796411991119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69611394405365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72251856327057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7318377494812</t>
+    <t xml:space="preserve">1.70543336868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64641094207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64796423912048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69611406326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72251844406128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73183786869049</t>
   </si>
   <si>
     <t xml:space="preserve">1.75047659873962</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75513648986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75668966770172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78620076179504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80017971992493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76756191253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77066850662231</t>
+    <t xml:space="preserve">1.75513637065887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75668978691101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78620064258575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80017936229706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76756203174591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77066838741302</t>
   </si>
   <si>
     <t xml:space="preserve">1.76290225982666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73960399627686</t>
+    <t xml:space="preserve">1.73960423469543</t>
   </si>
   <si>
     <t xml:space="preserve">1.74737012386322</t>
@@ -236,85 +236,85 @@
     <t xml:space="preserve">1.73028469085693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74581682682037</t>
+    <t xml:space="preserve">1.74581694602966</t>
   </si>
   <si>
     <t xml:space="preserve">1.70388007164001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70853972434998</t>
+    <t xml:space="preserve">1.70853960514069</t>
   </si>
   <si>
     <t xml:space="preserve">1.73805069923401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76347017288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74758327007294</t>
+    <t xml:space="preserve">1.76347005367279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74758303165436</t>
   </si>
   <si>
     <t xml:space="preserve">1.75552666187286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78571200370789</t>
+    <t xml:space="preserve">1.78571224212646</t>
   </si>
   <si>
     <t xml:space="preserve">1.76982498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75870394706726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7793573141098</t>
+    <t xml:space="preserve">1.75870418548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77935719490051</t>
   </si>
   <si>
     <t xml:space="preserve">1.78730070590973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71580898761749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73487341403961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73169600963593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71422028541565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66655886173248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62048614025116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61254262924194</t>
+    <t xml:space="preserve">1.7158088684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7348735332489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73169589042664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71422016620636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66655874252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62048625946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61254251003265</t>
   </si>
   <si>
     <t xml:space="preserve">1.57917964458466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.588711977005</t>
+    <t xml:space="preserve">1.58871185779572</t>
   </si>
   <si>
     <t xml:space="preserve">1.65067172050476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58632874488831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60936522483826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59665560722351</t>
+    <t xml:space="preserve">1.58632898330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60936534404755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59665548801422</t>
   </si>
   <si>
     <t xml:space="preserve">1.54899406433105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53151822090149</t>
+    <t xml:space="preserve">1.53151845932007</t>
   </si>
   <si>
     <t xml:space="preserve">1.57997393608093</t>
@@ -323,37 +323,37 @@
     <t xml:space="preserve">1.52516341209412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53310692310333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57282495498657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55693769454956</t>
+    <t xml:space="preserve">1.53310716152191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57282483577728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55693781375885</t>
   </si>
   <si>
     <t xml:space="preserve">1.66814744472504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65702676773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62842977046967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68403458595276</t>
+    <t xml:space="preserve">1.65702664852142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62842953205109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68403446674347</t>
   </si>
   <si>
     <t xml:space="preserve">1.73010742664337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.723752617836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73963963985443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67609107494354</t>
+    <t xml:space="preserve">1.72375249862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73963952064514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67609095573425</t>
   </si>
   <si>
     <t xml:space="preserve">1.63637316226959</t>
@@ -362,10 +362,10 @@
     <t xml:space="preserve">1.6443167924881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69992172718048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69515585899353</t>
+    <t xml:space="preserve">1.69992184638977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69515562057495</t>
   </si>
   <si>
     <t xml:space="preserve">1.63478457927704</t>
@@ -380,19 +380,19 @@
     <t xml:space="preserve">1.6030101776123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5807683467865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59983277320862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64113938808441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61730861663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63955068588257</t>
+    <t xml:space="preserve">1.58076846599579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59983289241791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6411395072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61730897426605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63955056667328</t>
   </si>
   <si>
     <t xml:space="preserve">1.61095404624939</t>
@@ -404,10 +404,10 @@
     <t xml:space="preserve">1.57679665088654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56249821186066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56329250335693</t>
+    <t xml:space="preserve">1.56249833106995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56329262256622</t>
   </si>
   <si>
     <t xml:space="preserve">1.5918892621994</t>
@@ -416,25 +416,25 @@
     <t xml:space="preserve">1.62525236606598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6331958770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64272809028625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65226030349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55852651596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56488120555878</t>
+    <t xml:space="preserve">1.63319611549377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64272832870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65226018428802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5585263967514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56488132476807</t>
   </si>
   <si>
     <t xml:space="preserve">1.53072392940521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5529659986496</t>
+    <t xml:space="preserve">1.55296611785889</t>
   </si>
   <si>
     <t xml:space="preserve">1.56408679485321</t>
@@ -443,37 +443,37 @@
     <t xml:space="preserve">1.58712315559387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6602041721344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64749419689178</t>
+    <t xml:space="preserve">1.66020393371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6474940776825</t>
   </si>
   <si>
     <t xml:space="preserve">1.62366342544556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62207496166229</t>
+    <t xml:space="preserve">1.622074842453</t>
   </si>
   <si>
     <t xml:space="preserve">1.63160705566406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65861535072327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65384912490845</t>
+    <t xml:space="preserve">1.65861523151398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65384924411774</t>
   </si>
   <si>
     <t xml:space="preserve">1.66496992111206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70945405960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7078652381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7459944486618</t>
+    <t xml:space="preserve">1.70945394039154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70786535739899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74599432945251</t>
   </si>
   <si>
     <t xml:space="preserve">1.69197833538055</t>
@@ -482,13 +482,13 @@
     <t xml:space="preserve">1.69833302497864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70627653598785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6935670375824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72534120082855</t>
+    <t xml:space="preserve">1.70627689361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69356691837311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72534084320068</t>
   </si>
   <si>
     <t xml:space="preserve">1.72851848602295</t>
@@ -497,49 +497,49 @@
     <t xml:space="preserve">1.7984219789505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7952446937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81113171577454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81589770317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77141380310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76823663711548</t>
+    <t xml:space="preserve">1.79524433612823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81113123893738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81589794158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7714136838913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76823627948761</t>
   </si>
   <si>
     <t xml:space="preserve">1.80318808555603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82543015480042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82701885700226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85084927082062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83496236801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81907498836517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80001056194305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80159938335419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85879290103912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8699141740799</t>
+    <t xml:space="preserve">1.82543003559113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82701873779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85084939002991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83496260643005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81907510757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80001080036163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8015992641449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85879302024841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86991369724274</t>
   </si>
   <si>
     <t xml:space="preserve">1.88897860050201</t>
@@ -551,67 +551,67 @@
     <t xml:space="preserve">1.87468004226685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89374470710754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88262367248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92869639396667</t>
+    <t xml:space="preserve">1.89374482631683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88262379169464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9286961555481</t>
   </si>
   <si>
     <t xml:space="preserve">1.94776046276093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92393028736115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92551922798157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92075264453888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93663990497589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91916370391846</t>
+    <t xml:space="preserve">1.92393016815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92551910877228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92075276374817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9366397857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91916406154633</t>
   </si>
   <si>
     <t xml:space="preserve">1.93346226215363</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9223415851593</t>
+    <t xml:space="preserve">1.92234146595001</t>
   </si>
   <si>
     <t xml:space="preserve">1.90645432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9143979549408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8921560049057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90963184833527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91757524013519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93822884559631</t>
+    <t xml:space="preserve">1.91439783573151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89215576648712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90963196754456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91757535934448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93822860717773</t>
   </si>
   <si>
     <t xml:space="preserve">2.02243041992188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97953534126282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99383366107941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00177717208862</t>
+    <t xml:space="preserve">1.97953498363495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99383354187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00177693367004</t>
   </si>
   <si>
     <t xml:space="preserve">1.99701082706451</t>
@@ -620,46 +620,46 @@
     <t xml:space="preserve">2.03990626335144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06373691558838</t>
+    <t xml:space="preserve">2.06373643875122</t>
   </si>
   <si>
     <t xml:space="preserve">2.07326912879944</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08439016342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0828013420105</t>
+    <t xml:space="preserve">2.08439040184021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08280110359192</t>
   </si>
   <si>
     <t xml:space="preserve">2.08756732940674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06532549858093</t>
+    <t xml:space="preserve">2.06532526016235</t>
   </si>
   <si>
     <t xml:space="preserve">2.07803511619568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08121252059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17063975334167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16901397705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19340300559998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16251015663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19502925872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25193738937378</t>
+    <t xml:space="preserve">2.08121275901794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17064023017883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1690137386322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1934027671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16250991821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19502902030945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2519371509552</t>
   </si>
   <si>
     <t xml:space="preserve">2.22754788398743</t>
@@ -668,22 +668,22 @@
     <t xml:space="preserve">2.23079991340637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20641040802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24380731582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23242568969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21941781044006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24218153953552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1234872341156</t>
+    <t xml:space="preserve">2.2064106464386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24380707740784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23242592811584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21941828727722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24218130111694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12348699569702</t>
   </si>
   <si>
     <t xml:space="preserve">2.12999105453491</t>
@@ -692,22 +692,22 @@
     <t xml:space="preserve">2.11373138427734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12511301040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12186145782471</t>
+    <t xml:space="preserve">2.12511324882507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12186121940613</t>
   </si>
   <si>
     <t xml:space="preserve">2.14299845695496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13812112808228</t>
+    <t xml:space="preserve">2.1381208896637</t>
   </si>
   <si>
     <t xml:space="preserve">2.18689918518066</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19665503501892</t>
+    <t xml:space="preserve">2.19665479660034</t>
   </si>
   <si>
     <t xml:space="preserve">2.20315885543823</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">2.21128845214844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26494455337524</t>
+    <t xml:space="preserve">2.26494479179382</t>
   </si>
   <si>
     <t xml:space="preserve">2.27632617950439</t>
@@ -734,25 +734,25 @@
     <t xml:space="preserve">2.29096007347107</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24543356895447</t>
+    <t xml:space="preserve">2.24543333053589</t>
   </si>
   <si>
     <t xml:space="preserve">2.24055552482605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2161660194397</t>
+    <t xml:space="preserve">2.21616649627686</t>
   </si>
   <si>
     <t xml:space="preserve">2.17551755905151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14137291908264</t>
+    <t xml:space="preserve">2.14137268066406</t>
   </si>
   <si>
     <t xml:space="preserve">2.10234999656677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04219007492065</t>
+    <t xml:space="preserve">2.04218983650208</t>
   </si>
   <si>
     <t xml:space="preserve">2.07308292388916</t>
@@ -764,22 +764,22 @@
     <t xml:space="preserve">2.13161683082581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18364763259888</t>
+    <t xml:space="preserve">2.1836473941803</t>
   </si>
   <si>
     <t xml:space="preserve">2.14462447166443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11210560798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12673902511597</t>
+    <t xml:space="preserve">2.11210536956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12673926353455</t>
   </si>
   <si>
     <t xml:space="preserve">2.15763211250305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1462504863739</t>
+    <t xml:space="preserve">2.14625072479248</t>
   </si>
   <si>
     <t xml:space="preserve">2.15600609779358</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">2.30721926689148</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29421162605286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31697511672974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32185292243958</t>
+    <t xml:space="preserve">2.29421186447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31697487831116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.321852684021</t>
   </si>
   <si>
     <t xml:space="preserve">2.40640234947205</t>
@@ -806,16 +806,16 @@
     <t xml:space="preserve">2.40152430534363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41453170776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4129056930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47956991195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47631788253784</t>
+    <t xml:space="preserve">2.41453194618225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41290616989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47956967353821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47631812095642</t>
   </si>
   <si>
     <t xml:space="preserve">2.53647780418396</t>
@@ -827,19 +827,19 @@
     <t xml:space="preserve">2.5787525177002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58363056182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61614942550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60151600837708</t>
+    <t xml:space="preserve">2.58363032341003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61614918708801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60151553153992</t>
   </si>
   <si>
     <t xml:space="preserve">2.63403463363647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62590479850769</t>
+    <t xml:space="preserve">2.62590527534485</t>
   </si>
   <si>
     <t xml:space="preserve">2.58525633811951</t>
@@ -848,34 +848,34 @@
     <t xml:space="preserve">2.59826397895813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59338569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61777520179749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62753081321716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60639381408691</t>
+    <t xml:space="preserve">2.59338617324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61777544021606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62753105163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60639357566833</t>
   </si>
   <si>
     <t xml:space="preserve">2.60314178466797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60801959037781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59176015853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59013438224792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62102723121643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64216423034668</t>
+    <t xml:space="preserve">2.60801982879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59175992012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59013414382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62102699279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64216446876526</t>
   </si>
   <si>
     <t xml:space="preserve">2.6470422744751</t>
@@ -887,43 +887,43 @@
     <t xml:space="preserve">2.65029430389404</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70395064353943</t>
+    <t xml:space="preserve">2.70395016670227</t>
   </si>
   <si>
     <t xml:space="preserve">2.80963706970215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81288886070251</t>
+    <t xml:space="preserve">2.81288909912109</t>
   </si>
   <si>
     <t xml:space="preserve">2.82427072525024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7966296672821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80475926399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77386593818665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76411080360413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71533179283142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69744682312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68443870544434</t>
+    <t xml:space="preserve">2.79662919044495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80475950241089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77386617660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76411056518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71533203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69744658470154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68443894386292</t>
   </si>
   <si>
     <t xml:space="preserve">2.69582056999207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68281292915344</t>
+    <t xml:space="preserve">2.6828134059906</t>
   </si>
   <si>
     <t xml:space="preserve">2.66655349731445</t>
@@ -932,25 +932,25 @@
     <t xml:space="preserve">2.65842413902283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.637286901474</t>
+    <t xml:space="preserve">2.63728666305542</t>
   </si>
   <si>
     <t xml:space="preserve">2.61452341079712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62427878379822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61940097808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55273771286011</t>
+    <t xml:space="preserve">2.6242790222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61940121650696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55273723602295</t>
   </si>
   <si>
     <t xml:space="preserve">2.5641188621521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57550048828125</t>
+    <t xml:space="preserve">2.57550072669983</t>
   </si>
   <si>
     <t xml:space="preserve">2.52509641647339</t>
@@ -962,10 +962,10 @@
     <t xml:space="preserve">2.40802788734436</t>
   </si>
   <si>
-    <t xml:space="preserve">2.388516664505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34461641311646</t>
+    <t xml:space="preserve">2.38851642608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3446159362793</t>
   </si>
   <si>
     <t xml:space="preserve">2.36250138282776</t>
@@ -974,13 +974,13 @@
     <t xml:space="preserve">2.37388324737549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43729543685913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45355463027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43892097473145</t>
+    <t xml:space="preserve">2.43729496002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45355439186096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43892121315002</t>
   </si>
   <si>
     <t xml:space="preserve">2.44705080986023</t>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">2.50395894050598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52834820747375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72346162796021</t>
+    <t xml:space="preserve">2.52834796905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72346186637878</t>
   </si>
   <si>
     <t xml:space="preserve">2.73159146308899</t>
@@ -1004,19 +1004,19 @@
     <t xml:space="preserve">2.45518064498901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.471440076828</t>
+    <t xml:space="preserve">2.47143983840942</t>
   </si>
   <si>
     <t xml:space="preserve">2.48769950866699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54460763931274</t>
+    <t xml:space="preserve">2.54460787773132</t>
   </si>
   <si>
     <t xml:space="preserve">2.49582934379578</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51208877563477</t>
+    <t xml:space="preserve">2.51208853721619</t>
   </si>
   <si>
     <t xml:space="preserve">2.52021837234497</t>
@@ -1028,19 +1028,19 @@
     <t xml:space="preserve">2.39014267921448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34136438369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35762357711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36575317382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34949421882629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30884504318237</t>
+    <t xml:space="preserve">2.34136414527893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3576238155365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36575365066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34949374198914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30884528160095</t>
   </si>
   <si>
     <t xml:space="preserve">2.20334339141846</t>
@@ -1055,13 +1055,13 @@
     <t xml:space="preserve">2.17008543014526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09525465965271</t>
+    <t xml:space="preserve">2.09525489807129</t>
   </si>
   <si>
     <t xml:space="preserve">2.07862591743469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1451416015625</t>
+    <t xml:space="preserve">2.14514183998108</t>
   </si>
   <si>
     <t xml:space="preserve">2.26985955238342</t>
@@ -1070,19 +1070,19 @@
     <t xml:space="preserve">2.37794804573059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21997237205505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24491572380066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22828722000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28648853302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21165800094604</t>
+    <t xml:space="preserve">2.21997261047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24491596221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22828698158264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2864887714386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21165776252747</t>
   </si>
   <si>
     <t xml:space="preserve">2.25323057174683</t>
@@ -1091,28 +1091,28 @@
     <t xml:space="preserve">2.27817392349243</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26154518127441</t>
+    <t xml:space="preserve">2.26154494285583</t>
   </si>
   <si>
     <t xml:space="preserve">2.18671464920044</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13682770729065</t>
+    <t xml:space="preserve">2.13682723045349</t>
   </si>
   <si>
     <t xml:space="preserve">2.15345644950867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11188387870789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12851309776306</t>
+    <t xml:space="preserve">2.11188411712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1285126209259</t>
   </si>
   <si>
     <t xml:space="preserve">2.36131906509399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35300445556641</t>
+    <t xml:space="preserve">2.35300469398499</t>
   </si>
   <si>
     <t xml:space="preserve">2.30311751365662</t>
@@ -1121,16 +1121,16 @@
     <t xml:space="preserve">2.29480290412903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3280611038208</t>
+    <t xml:space="preserve">2.32806086540222</t>
   </si>
   <si>
     <t xml:space="preserve">2.31974649429321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31143164634705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23660135269165</t>
+    <t xml:space="preserve">2.31143188476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23660159111023</t>
   </si>
   <si>
     <t xml:space="preserve">2.39457702636719</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">2.10356950759888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12019848823547</t>
+    <t xml:space="preserve">2.12019824981689</t>
   </si>
   <si>
     <t xml:space="preserve">2.0703113079071</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">1.98716640472412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99548101425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03705358505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04536771774292</t>
+    <t xml:space="preserve">1.99548077583313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03705334663391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0453679561615</t>
   </si>
   <si>
     <t xml:space="preserve">2.06199669837952</t>
@@ -1166,31 +1166,31 @@
     <t xml:space="preserve">1.87907767295837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88739252090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91233563423157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86244881153107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84581995010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89570689201355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83750510215759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79593288898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76267457008362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77930390834808</t>
+    <t xml:space="preserve">1.88739216327667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91233575344086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8624484539032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84581971168518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89570653438568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83750534057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79593253135681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76267445087433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77930378913879</t>
   </si>
   <si>
     <t xml:space="preserve">1.81256175041199</t>
@@ -1199,28 +1199,28 @@
     <t xml:space="preserve">1.78761827945709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80424726009369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82919096946716</t>
+    <t xml:space="preserve">1.80424737930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82919061183929</t>
   </si>
   <si>
     <t xml:space="preserve">1.82087624073029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87076306343079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92896473407745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93727934360504</t>
+    <t xml:space="preserve">1.87076330184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92896461486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93727946281433</t>
   </si>
   <si>
     <t xml:space="preserve">1.90402138233185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94559395313263</t>
+    <t xml:space="preserve">1.94559359550476</t>
   </si>
   <si>
     <t xml:space="preserve">1.97885203361511</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">2.05368232727051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01210975646973</t>
+    <t xml:space="preserve">2.01210999488831</t>
   </si>
   <si>
     <t xml:space="preserve">2.0967161655426</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">2.08815789222717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06248378753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07104182243347</t>
+    <t xml:space="preserve">2.0624840259552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07104206085205</t>
   </si>
   <si>
     <t xml:space="preserve">2.03680992126465</t>
@@ -1250,16 +1250,16 @@
     <t xml:space="preserve">2.01113557815552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05392599105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1138322353363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13950634002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13094782829285</t>
+    <t xml:space="preserve">2.05392575263977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11383199691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13950610160828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13094830513</t>
   </si>
   <si>
     <t xml:space="preserve">2.17373824119568</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">2.24220204353333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19085431098938</t>
+    <t xml:space="preserve">2.1908540725708</t>
   </si>
   <si>
     <t xml:space="preserve">2.18229603767395</t>
@@ -1280,49 +1280,49 @@
     <t xml:space="preserve">2.20797038078308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21652793884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19941210746765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22508645057678</t>
+    <t xml:space="preserve">2.21652817726135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19941234588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2250862121582</t>
   </si>
   <si>
     <t xml:space="preserve">2.1566219329834</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31066679954529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30210852622986</t>
+    <t xml:space="preserve">2.31066656112671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30210876464844</t>
   </si>
   <si>
     <t xml:space="preserve">2.33634090423584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32778239250183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29355049133301</t>
+    <t xml:space="preserve">2.32778263092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29355072975159</t>
   </si>
   <si>
     <t xml:space="preserve">2.34489846229553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35345673561096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42192077636719</t>
+    <t xml:space="preserve">2.35345697402954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42192101478577</t>
   </si>
   <si>
     <t xml:space="preserve">2.39624691009521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38768863677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40480470657349</t>
+    <t xml:space="preserve">2.38768887519836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40480494499207</t>
   </si>
   <si>
     <t xml:space="preserve">2.47326922416687</t>
@@ -1340,40 +1340,40 @@
     <t xml:space="preserve">2.37057280540466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37913084030151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31922483444214</t>
+    <t xml:space="preserve">2.37913060188293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31922459602356</t>
   </si>
   <si>
     <t xml:space="preserve">2.48182725906372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5417332649231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50750112533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52461719512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49894309043884</t>
+    <t xml:space="preserve">2.54173350334167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50750136375427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52461743354797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49894332885742</t>
   </si>
   <si>
     <t xml:space="preserve">2.51605916023254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55029153823853</t>
+    <t xml:space="preserve">2.55029129981995</t>
   </si>
   <si>
     <t xml:space="preserve">2.59308123588562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56740713119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61019730567932</t>
+    <t xml:space="preserve">2.56740736961365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6101975440979</t>
   </si>
   <si>
     <t xml:space="preserve">2.68721961975098</t>
@@ -1382,16 +1382,16 @@
     <t xml:space="preserve">2.6444296836853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58452343940735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60163950920105</t>
+    <t xml:space="preserve">2.58452320098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60163927078247</t>
   </si>
   <si>
     <t xml:space="preserve">2.53317523002625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43903684616089</t>
+    <t xml:space="preserve">2.43903708457947</t>
   </si>
   <si>
     <t xml:space="preserve">2.49038529396057</t>
@@ -1403,10 +1403,10 @@
     <t xml:space="preserve">2.26787662506104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12239003181458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94267165660858</t>
+    <t xml:space="preserve">2.122389793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94267141819</t>
   </si>
   <si>
     <t xml:space="preserve">1.95122933387756</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">1.74583697319031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75439488887787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62602460384369</t>
+    <t xml:space="preserve">1.75439500808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62602472305298</t>
   </si>
   <si>
     <t xml:space="preserve">1.78006887435913</t>
@@ -1436,55 +1436,55 @@
     <t xml:space="preserve">1.83997523784637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84853339195251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81430113315582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87420737743378</t>
+    <t xml:space="preserve">1.84853327274323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81430089473724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87420725822449</t>
   </si>
   <si>
     <t xml:space="preserve">1.93411350250244</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0796000957489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88276553153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86564922332764</t>
+    <t xml:space="preserve">2.07959985733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88276529312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86564934253693</t>
   </si>
   <si>
     <t xml:space="preserve">1.89132344722748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91699743270874</t>
+    <t xml:space="preserve">1.91699731349945</t>
   </si>
   <si>
     <t xml:space="preserve">1.89988136291504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85709142684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9597874879837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98546171188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96834540367126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9769035577774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0282518863678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10527396202087</t>
+    <t xml:space="preserve">1.85709130764008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95978760719299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98546147346497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96834552288055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97690343856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02825164794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10527420043945</t>
   </si>
   <si>
     <t xml:space="preserve">2.16518020629883</t>
@@ -1496,22 +1496,22 @@
     <t xml:space="preserve">2.14806413650513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15589761734009</t>
+    <t xml:space="preserve">2.15589737892151</t>
   </si>
   <si>
     <t xml:space="preserve">2.14709782600403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11189961433411</t>
+    <t xml:space="preserve">2.11189937591553</t>
   </si>
   <si>
     <t xml:space="preserve">2.05910205841064</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05030226707458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02390384674072</t>
+    <t xml:space="preserve">2.05030250549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02390360832214</t>
   </si>
   <si>
     <t xml:space="preserve">2.06790161132812</t>
@@ -1520,49 +1520,49 @@
     <t xml:space="preserve">2.13829827308655</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10309982299805</t>
+    <t xml:space="preserve">2.10310006141663</t>
   </si>
   <si>
     <t xml:space="preserve">2.12949872016907</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12069940567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08550047874451</t>
+    <t xml:space="preserve">2.12069916725159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08550071716309</t>
   </si>
   <si>
     <t xml:space="preserve">2.07670116424561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97110629081726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95350706577301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96230685710907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09430050849915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03270316123962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16469717025757</t>
+    <t xml:space="preserve">1.97110617160797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95350694656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96230673789978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09430027008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0327033996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16469693183899</t>
   </si>
   <si>
     <t xml:space="preserve">2.20869493484497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19989538192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24389314651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28789091110229</t>
+    <t xml:space="preserve">2.19989514350891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24389338493347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28789114952087</t>
   </si>
   <si>
     <t xml:space="preserve">2.31429004669189</t>
@@ -1577,10 +1577,10 @@
     <t xml:space="preserve">2.4374840259552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44628381729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51668000221252</t>
+    <t xml:space="preserve">2.44628357887268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5166802406311</t>
   </si>
   <si>
     <t xml:space="preserve">2.53427958488464</t>
@@ -1589,10 +1589,10 @@
     <t xml:space="preserve">2.56947779655457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56067824363708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58707690238953</t>
+    <t xml:space="preserve">2.56067848205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58707714080811</t>
   </si>
   <si>
     <t xml:space="preserve">2.60467624664307</t>
@@ -1610,55 +1610,55 @@
     <t xml:space="preserve">2.68387222290039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66627311706543</t>
+    <t xml:space="preserve">2.66627335548401</t>
   </si>
   <si>
     <t xml:space="preserve">2.63987445831299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67507266998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65747356414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64867401123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63107490539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62227511405945</t>
+    <t xml:space="preserve">2.67507290840149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65747380256653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64867424964905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63107514381409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62227535247803</t>
   </si>
   <si>
     <t xml:space="preserve">2.74546933174133</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73667001724243</t>
+    <t xml:space="preserve">2.73666977882385</t>
   </si>
   <si>
     <t xml:space="preserve">2.76306867599487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80706667900085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79826688766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72786998748779</t>
+    <t xml:space="preserve">2.80706644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79826664924622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72787022590637</t>
   </si>
   <si>
     <t xml:space="preserve">2.81586599349976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83346557617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87746286392212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88626289367676</t>
+    <t xml:space="preserve">2.83346509933472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8774631023407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88626265525818</t>
   </si>
   <si>
     <t xml:space="preserve">2.94785976409912</t>
@@ -1670,13 +1670,13 @@
     <t xml:space="preserve">2.9918577671051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01825642585754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9654586315155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9126615524292</t>
+    <t xml:space="preserve">3.01825666427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96545886993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91266131401062</t>
   </si>
   <si>
     <t xml:space="preserve">2.85986399650574</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">2.84226489067078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85106444358826</t>
+    <t xml:space="preserve">2.85106420516968</t>
   </si>
   <si>
     <t xml:space="preserve">2.90386176109314</t>
@@ -1694,16 +1694,16 @@
     <t xml:space="preserve">2.89506220817566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95665907859802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93906044960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93026041984558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02705597877502</t>
+    <t xml:space="preserve">2.9566593170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93905997276306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93026065826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0270562171936</t>
   </si>
   <si>
     <t xml:space="preserve">3.12385153770447</t>
@@ -1712,13 +1712,13 @@
     <t xml:space="preserve">3.15025019645691</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07105398178101</t>
+    <t xml:space="preserve">3.07105422019958</t>
   </si>
   <si>
     <t xml:space="preserve">3.19424819946289</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20304751396179</t>
+    <t xml:space="preserve">3.20304775238037</t>
   </si>
   <si>
     <t xml:space="preserve">3.23824596405029</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">3.29984307289124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26464462280273</t>
+    <t xml:space="preserve">3.26464486122131</t>
   </si>
   <si>
     <t xml:space="preserve">3.3614399433136</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34384107589722</t>
+    <t xml:space="preserve">3.34384083747864</t>
   </si>
   <si>
     <t xml:space="preserve">3.35264039039612</t>
@@ -1745,37 +1745,37 @@
     <t xml:space="preserve">3.33504128456116</t>
   </si>
   <si>
-    <t xml:space="preserve">3.405437707901</t>
+    <t xml:space="preserve">3.40543794631958</t>
   </si>
   <si>
     <t xml:space="preserve">3.52863240242004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55503082275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49343371391296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4406361579895</t>
+    <t xml:space="preserve">3.55503106117249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49343395233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44063663482666</t>
   </si>
   <si>
     <t xml:space="preserve">3.41423773765564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3966383934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43216013908386</t>
+    <t xml:space="preserve">3.39663815498352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43216037750244</t>
   </si>
   <si>
     <t xml:space="preserve">3.44112133979797</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39631509780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.476966381073</t>
+    <t xml:space="preserve">3.39631533622742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47696661949158</t>
   </si>
   <si>
     <t xml:space="preserve">3.46800518035889</t>
@@ -1814,19 +1814,19 @@
     <t xml:space="preserve">3.85333943367004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80853271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92502951622009</t>
+    <t xml:space="preserve">3.80853295326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92502903938293</t>
   </si>
   <si>
     <t xml:space="preserve">3.95191264152527</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83541631698608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76372623443604</t>
+    <t xml:space="preserve">3.83541655540466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76372599601746</t>
   </si>
   <si>
     <t xml:space="preserve">3.78164887428284</t>
@@ -1835,22 +1835,22 @@
     <t xml:space="preserve">3.88022255897522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89814519882202</t>
+    <t xml:space="preserve">3.8981454372406</t>
   </si>
   <si>
     <t xml:space="preserve">3.69203662872314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81749415397644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70995879173279</t>
+    <t xml:space="preserve">3.81749439239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70995903015137</t>
   </si>
   <si>
     <t xml:space="preserve">3.71892023086548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84437799453735</t>
+    <t xml:space="preserve">3.84437775611877</t>
   </si>
   <si>
     <t xml:space="preserve">3.65619158744812</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">3.6203465461731</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53969526290894</t>
+    <t xml:space="preserve">3.53969550132751</t>
   </si>
   <si>
     <t xml:space="preserve">3.64723014831543</t>
@@ -1871,13 +1871,13 @@
     <t xml:space="preserve">3.82645535469055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88918423652649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79957127571106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7547652721405</t>
+    <t xml:space="preserve">3.88918447494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79957103729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75476551055908</t>
   </si>
   <si>
     <t xml:space="preserve">4.01464128494263</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">4.02360248565674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96087408065796</t>
+    <t xml:space="preserve">3.96087431907654</t>
   </si>
   <si>
     <t xml:space="preserve">4.11321544647217</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">4.08633136749268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77268767356873</t>
+    <t xml:space="preserve">3.7726879119873</t>
   </si>
   <si>
     <t xml:space="preserve">3.62930798530579</t>
@@ -1943,13 +1943,13 @@
     <t xml:space="preserve">3.55761790275574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54865670204163</t>
+    <t xml:space="preserve">3.54865646362305</t>
   </si>
   <si>
     <t xml:space="preserve">3.40527629852295</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37839293479919</t>
+    <t xml:space="preserve">3.37839269638062</t>
   </si>
   <si>
     <t xml:space="preserve">3.36943125724792</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">3.4590437412262</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56657910346985</t>
+    <t xml:space="preserve">3.56657886505127</t>
   </si>
   <si>
     <t xml:space="preserve">3.50385046005249</t>
@@ -1973,19 +1973,19 @@
     <t xml:space="preserve">3.53073406219482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48592805862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3335862159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3515088558197</t>
+    <t xml:space="preserve">3.48592782020569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33358645439148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35150909423828</t>
   </si>
   <si>
     <t xml:space="preserve">3.27085757255554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23501253128052</t>
+    <t xml:space="preserve">3.2350127696991</t>
   </si>
   <si>
     <t xml:space="preserve">3.31566405296326</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">3.59346294403076</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51281142234802</t>
+    <t xml:space="preserve">3.5128116607666</t>
   </si>
   <si>
     <t xml:space="preserve">3.67524838447571</t>
@@ -2574,6 +2574,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.6399998664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69999980926514</t>
   </si>
 </sst>
 </file>
@@ -59257,7 +59260,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6494097222</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>6550</v>
@@ -59278,6 +59281,32 @@
         <v>849</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6494675926</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>18069</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>5.71999979019165</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>5.53999996185303</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>5.71999979019165</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>5.69999980926514</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>854</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CALT.MI.xlsx
+++ b/data/CALT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="857">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,88 +38,88 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80173289775848</t>
+    <t xml:space="preserve">1.80173277854919</t>
   </si>
   <si>
     <t xml:space="preserve">CALT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80949878692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77843451499939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72407174110413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73494458198547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7116459608078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7007737159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63243210315704</t>
-  </si>
-  <s